--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCAB1C-A556-409C-9541-60E5671106E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE486E8B-5139-4BDC-B987-0ED35A9CDAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26475" yWindow="0" windowWidth="26820" windowHeight="17385" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -2887,8 +2887,8 @@
   <dimension ref="A1:AI979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9432,7 +9432,9 @@
       <c r="G118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118" s="28">
+        <v>45250</v>
+      </c>
       <c r="I118" s="17"/>
       <c r="J118" s="29" t="s">
         <v>137</v>
@@ -9487,7 +9489,9 @@
       <c r="G119" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H119" s="6"/>
+      <c r="H119" s="28">
+        <v>45250</v>
+      </c>
       <c r="I119" s="17"/>
       <c r="J119" s="16" t="s">
         <v>140</v>
@@ -9542,7 +9546,9 @@
       <c r="G120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="6"/>
+      <c r="H120" s="28">
+        <v>45250</v>
+      </c>
       <c r="I120" s="17"/>
       <c r="J120" s="16" t="s">
         <v>143</v>
@@ -9597,7 +9603,9 @@
       <c r="G121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="6"/>
+      <c r="H121" s="28">
+        <v>45250</v>
+      </c>
       <c r="I121" s="17"/>
       <c r="J121" s="16" t="s">
         <v>146</v>
@@ -9652,7 +9660,9 @@
       <c r="G122" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="28">
+        <v>45250</v>
+      </c>
       <c r="I122" s="17"/>
       <c r="J122" s="16" t="s">
         <v>541</v>
@@ -9707,7 +9717,9 @@
       <c r="G123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="28">
+        <v>45250</v>
+      </c>
       <c r="I123" s="17"/>
       <c r="J123" s="16" t="s">
         <v>149</v>
@@ -9762,7 +9774,9 @@
       <c r="G124" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="28">
+        <v>45250</v>
+      </c>
       <c r="I124" s="17"/>
       <c r="J124" s="16" t="s">
         <v>152</v>
@@ -9817,7 +9831,9 @@
       <c r="G125" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="28">
+        <v>45250</v>
+      </c>
       <c r="I125" s="17"/>
       <c r="J125" s="16" t="s">
         <v>159</v>
@@ -9870,7 +9886,9 @@
       <c r="G126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H126" s="6"/>
+      <c r="H126" s="28">
+        <v>45250</v>
+      </c>
       <c r="I126" s="17"/>
       <c r="J126" s="16" t="s">
         <v>163</v>
@@ -9923,7 +9941,9 @@
       <c r="G127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="6"/>
+      <c r="H127" s="28">
+        <v>45250</v>
+      </c>
       <c r="I127" s="17"/>
       <c r="J127" s="16" t="s">
         <v>165</v>
@@ -9976,7 +9996,9 @@
       <c r="G128" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H128" s="6"/>
+      <c r="H128" s="28">
+        <v>45250</v>
+      </c>
       <c r="I128" s="17"/>
       <c r="J128" s="16" t="s">
         <v>167</v>
@@ -10029,7 +10051,9 @@
       <c r="G129" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="6"/>
+      <c r="H129" s="28">
+        <v>45250</v>
+      </c>
       <c r="I129" s="17"/>
       <c r="J129" s="16" t="s">
         <v>179</v>
@@ -10082,7 +10106,9 @@
       <c r="G130" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H130" s="6"/>
+      <c r="H130" s="28">
+        <v>45250</v>
+      </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
         <v>546</v>
@@ -10135,7 +10161,9 @@
       <c r="G131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="6"/>
+      <c r="H131" s="28">
+        <v>45250</v>
+      </c>
       <c r="I131" s="17"/>
       <c r="J131" s="16" t="s">
         <v>183</v>
@@ -10188,7 +10216,9 @@
       <c r="G132" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H132" s="6"/>
+      <c r="H132" s="28">
+        <v>45250</v>
+      </c>
       <c r="I132" s="17"/>
       <c r="J132" s="16" t="s">
         <v>185</v>
@@ -10243,7 +10273,9 @@
       <c r="G133" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H133" s="6"/>
+      <c r="H133" s="28">
+        <v>45250</v>
+      </c>
       <c r="I133" s="17"/>
       <c r="J133" s="16" t="s">
         <v>188</v>
@@ -10298,7 +10330,9 @@
       <c r="G134" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="6"/>
+      <c r="H134" s="28">
+        <v>45250</v>
+      </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
         <v>549</v>
@@ -10353,7 +10387,9 @@
       <c r="G135" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="6"/>
+      <c r="H135" s="28">
+        <v>45250</v>
+      </c>
       <c r="I135" s="17"/>
       <c r="J135" s="16" t="s">
         <v>397</v>
@@ -10408,7 +10444,9 @@
       <c r="G136" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="6"/>
+      <c r="H136" s="28">
+        <v>45250</v>
+      </c>
       <c r="I136" s="17"/>
       <c r="J136" s="16" t="s">
         <v>191</v>
@@ -10463,7 +10501,9 @@
       <c r="G137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="6"/>
+      <c r="H137" s="28">
+        <v>45250</v>
+      </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
         <v>553</v>
@@ -10518,7 +10558,9 @@
       <c r="G138" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H138" s="6"/>
+      <c r="H138" s="28">
+        <v>45250</v>
+      </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
         <v>555</v>
@@ -10573,7 +10615,9 @@
       <c r="G139" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H139" s="6"/>
+      <c r="H139" s="28">
+        <v>45250</v>
+      </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
         <v>557</v>
@@ -10628,7 +10672,9 @@
       <c r="G140" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H140" s="6"/>
+      <c r="H140" s="28">
+        <v>45250</v>
+      </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
         <v>560</v>
@@ -10683,7 +10729,9 @@
       <c r="G141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="6"/>
+      <c r="H141" s="28">
+        <v>45250</v>
+      </c>
       <c r="I141" s="17"/>
       <c r="J141" s="16" t="s">
         <v>194</v>
@@ -10738,7 +10786,9 @@
       <c r="G142" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="6"/>
+      <c r="H142" s="28">
+        <v>45250</v>
+      </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
         <v>562</v>
@@ -10791,7 +10841,9 @@
       <c r="G143" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H143" s="6"/>
+      <c r="H143" s="28">
+        <v>45250</v>
+      </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
         <v>564</v>
@@ -10844,7 +10896,9 @@
       <c r="G144" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="6"/>
+      <c r="H144" s="28">
+        <v>45250</v>
+      </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
         <v>566</v>
@@ -10897,7 +10951,9 @@
       <c r="G145" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H145" s="6"/>
+      <c r="H145" s="28">
+        <v>45250</v>
+      </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
         <v>568</v>
@@ -10950,7 +11006,9 @@
       <c r="G146" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="6"/>
+      <c r="H146" s="28">
+        <v>45250</v>
+      </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
         <v>570</v>
@@ -11003,7 +11061,9 @@
       <c r="G147" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="6"/>
+      <c r="H147" s="28">
+        <v>45250</v>
+      </c>
       <c r="I147" s="17"/>
       <c r="J147" s="16" t="s">
         <v>203</v>
@@ -11056,7 +11116,9 @@
       <c r="G148" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H148" s="6"/>
+      <c r="H148" s="28">
+        <v>45250</v>
+      </c>
       <c r="I148" s="17"/>
       <c r="J148" s="16" t="s">
         <v>403</v>
@@ -11109,7 +11171,9 @@
       <c r="G149" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H149" s="6"/>
+      <c r="H149" s="28">
+        <v>45250</v>
+      </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
         <v>572</v>
@@ -11162,7 +11226,9 @@
       <c r="G150" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H150" s="6"/>
+      <c r="H150" s="28">
+        <v>45250</v>
+      </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
         <v>574</v>
@@ -11215,7 +11281,9 @@
       <c r="G151" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H151" s="6"/>
+      <c r="H151" s="28">
+        <v>45250</v>
+      </c>
       <c r="I151" s="17"/>
       <c r="J151" s="16" t="s">
         <v>215</v>
@@ -11268,7 +11336,9 @@
       <c r="G152" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H152" s="6"/>
+      <c r="H152" s="28">
+        <v>45250</v>
+      </c>
       <c r="I152" s="17"/>
       <c r="J152" s="16" t="s">
         <v>272</v>
@@ -11321,7 +11391,9 @@
       <c r="G153" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H153" s="6"/>
+      <c r="H153" s="28">
+        <v>45250</v>
+      </c>
       <c r="I153" s="17"/>
       <c r="J153" s="16" t="s">
         <v>404</v>
@@ -11374,7 +11446,9 @@
       <c r="G154" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H154" s="6"/>
+      <c r="H154" s="28">
+        <v>45250</v>
+      </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
         <v>572</v>
@@ -11427,7 +11501,9 @@
       <c r="G155" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H155" s="6"/>
+      <c r="H155" s="28">
+        <v>45250</v>
+      </c>
       <c r="I155" s="17"/>
       <c r="J155" s="16" t="s">
         <v>217</v>
@@ -11482,7 +11558,9 @@
       <c r="G156" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H156" s="6"/>
+      <c r="H156" s="28">
+        <v>45250</v>
+      </c>
       <c r="I156" s="17"/>
       <c r="J156" s="16" t="s">
         <v>234</v>
@@ -11537,7 +11615,9 @@
       <c r="G157" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H157" s="6"/>
+      <c r="H157" s="28">
+        <v>45250</v>
+      </c>
       <c r="I157" s="17"/>
       <c r="J157" s="16" t="s">
         <v>274</v>
@@ -11592,7 +11672,9 @@
       <c r="G158" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H158" s="6"/>
+      <c r="H158" s="28">
+        <v>45250</v>
+      </c>
       <c r="I158" s="17"/>
       <c r="J158" s="16" t="s">
         <v>280</v>
@@ -11647,7 +11729,9 @@
       <c r="G159" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H159" s="6"/>
+      <c r="H159" s="28">
+        <v>45250</v>
+      </c>
       <c r="I159" s="17"/>
       <c r="J159" s="16" t="s">
         <v>405</v>
@@ -11702,7 +11786,9 @@
       <c r="G160" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H160" s="6"/>
+      <c r="H160" s="28">
+        <v>45250</v>
+      </c>
       <c r="I160" s="17"/>
       <c r="J160" s="16" t="s">
         <v>407</v>
@@ -11757,7 +11843,9 @@
       <c r="G161" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H161" s="6"/>
+      <c r="H161" s="28">
+        <v>45250</v>
+      </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
         <v>585</v>
@@ -11812,7 +11900,9 @@
       <c r="G162" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H162" s="6"/>
+      <c r="H162" s="28">
+        <v>45250</v>
+      </c>
       <c r="I162" s="17"/>
       <c r="J162" s="16" t="s">
         <v>408</v>
@@ -11867,7 +11957,9 @@
       <c r="G163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="6"/>
+      <c r="H163" s="28">
+        <v>45250</v>
+      </c>
       <c r="I163" s="17"/>
       <c r="J163" s="16" t="s">
         <v>283</v>
@@ -11922,7 +12014,9 @@
       <c r="G164" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H164" s="6"/>
+      <c r="H164" s="28">
+        <v>45250</v>
+      </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
         <v>590</v>
@@ -11977,7 +12071,9 @@
       <c r="G165" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H165" s="6"/>
+      <c r="H165" s="28">
+        <v>45250</v>
+      </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
         <v>591</v>
@@ -12032,7 +12128,9 @@
       <c r="G166" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H166" s="6"/>
+      <c r="H166" s="28">
+        <v>45250</v>
+      </c>
       <c r="I166" s="17"/>
       <c r="J166" s="16" t="s">
         <v>410</v>
@@ -12087,7 +12185,9 @@
       <c r="G167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H167" s="6"/>
+      <c r="H167" s="28">
+        <v>45250</v>
+      </c>
       <c r="I167" s="17"/>
       <c r="J167" s="16" t="s">
         <v>310</v>
@@ -12142,7 +12242,9 @@
       <c r="G168" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H168" s="6"/>
+      <c r="H168" s="28">
+        <v>45250</v>
+      </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
         <v>595</v>
@@ -12195,7 +12297,9 @@
       <c r="G169" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H169" s="6"/>
+      <c r="H169" s="28">
+        <v>45250</v>
+      </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
         <v>597</v>
@@ -12248,7 +12352,9 @@
       <c r="G170" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H170" s="6"/>
+      <c r="H170" s="28">
+        <v>45250</v>
+      </c>
       <c r="I170" s="17"/>
       <c r="J170" s="26"/>
       <c r="K170" s="26"/>
@@ -12297,7 +12403,9 @@
       <c r="G171" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H171" s="6"/>
+      <c r="H171" s="28">
+        <v>45250</v>
+      </c>
       <c r="I171" s="17"/>
       <c r="J171" s="26"/>
       <c r="K171" s="26"/>
@@ -12346,7 +12454,9 @@
       <c r="G172" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H172" s="6"/>
+      <c r="H172" s="28">
+        <v>45250</v>
+      </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
         <v>414</v>
@@ -12399,7 +12509,9 @@
       <c r="G173" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H173" s="6"/>
+      <c r="H173" s="28">
+        <v>45250</v>
+      </c>
       <c r="I173" s="17"/>
       <c r="J173" s="16" t="s">
         <v>599</v>
@@ -12452,7 +12564,9 @@
       <c r="G174" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H174" s="6"/>
+      <c r="H174" s="28">
+        <v>45250</v>
+      </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
         <v>601</v>
@@ -12505,7 +12619,9 @@
       <c r="G175" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H175" s="6"/>
+      <c r="H175" s="28">
+        <v>45250</v>
+      </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
         <v>290</v>
@@ -12558,7 +12674,9 @@
       <c r="G176" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H176" s="6"/>
+      <c r="H176" s="28">
+        <v>45250</v>
+      </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
         <v>604</v>
@@ -12611,7 +12729,9 @@
       <c r="G177" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H177" s="6"/>
+      <c r="H177" s="28">
+        <v>45250</v>
+      </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
         <v>606</v>
@@ -12664,7 +12784,9 @@
       <c r="G178" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H178" s="6"/>
+      <c r="H178" s="28">
+        <v>45250</v>
+      </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
         <v>608</v>
@@ -12717,7 +12839,9 @@
       <c r="G179" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H179" s="6"/>
+      <c r="H179" s="28">
+        <v>45250</v>
+      </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
         <v>610</v>
@@ -12770,7 +12894,9 @@
       <c r="G180" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H180" s="6"/>
+      <c r="H180" s="28">
+        <v>45250</v>
+      </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
         <v>612</v>
@@ -12823,7 +12949,9 @@
       <c r="G181" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H181" s="6"/>
+      <c r="H181" s="28">
+        <v>45250</v>
+      </c>
       <c r="I181" s="17"/>
       <c r="J181" s="16" t="s">
         <v>614</v>
@@ -12876,7 +13004,9 @@
       <c r="G182" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H182" s="6"/>
+      <c r="H182" s="28">
+        <v>45250</v>
+      </c>
       <c r="I182" s="17"/>
       <c r="J182" s="16" t="s">
         <v>616</v>
@@ -12929,7 +13059,9 @@
       <c r="G183" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H183" s="6"/>
+      <c r="H183" s="28">
+        <v>45250</v>
+      </c>
       <c r="I183" s="17"/>
       <c r="J183" s="16" t="s">
         <v>288</v>
@@ -12982,7 +13114,9 @@
       <c r="G184" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H184" s="6"/>
+      <c r="H184" s="28">
+        <v>45250</v>
+      </c>
       <c r="I184" s="17"/>
       <c r="J184" s="16" t="s">
         <v>306</v>
@@ -13035,7 +13169,9 @@
       <c r="G185" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H185" s="6"/>
+      <c r="H185" s="28">
+        <v>45250</v>
+      </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
         <v>308</v>
@@ -13088,7 +13224,9 @@
       <c r="G186" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H186" s="6"/>
+      <c r="H186" s="28">
+        <v>45250</v>
+      </c>
       <c r="I186" s="17"/>
       <c r="J186" s="16" t="s">
         <v>415</v>
@@ -13141,7 +13279,9 @@
       <c r="G187" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H187" s="6"/>
+      <c r="H187" s="28">
+        <v>45250</v>
+      </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
         <v>621</v>
@@ -13194,7 +13334,9 @@
       <c r="G188" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H188" s="6"/>
+      <c r="H188" s="28">
+        <v>45250</v>
+      </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
         <v>416</v>
@@ -13247,7 +13389,9 @@
       <c r="G189" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H189" s="6"/>
+      <c r="H189" s="28">
+        <v>45250</v>
+      </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
         <v>623</v>
@@ -13302,7 +13446,9 @@
       <c r="G190" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H190" s="6"/>
+      <c r="H190" s="28">
+        <v>45250</v>
+      </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
         <v>626</v>
@@ -13357,7 +13503,9 @@
       <c r="G191" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H191" s="6"/>
+      <c r="H191" s="28">
+        <v>45250</v>
+      </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
         <v>628</v>
@@ -13412,7 +13560,9 @@
       <c r="G192" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H192" s="6"/>
+      <c r="H192" s="28">
+        <v>45250</v>
+      </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
         <v>631</v>
@@ -13467,7 +13617,9 @@
       <c r="G193" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H193" s="6"/>
+      <c r="H193" s="28">
+        <v>45250</v>
+      </c>
       <c r="I193" s="17"/>
       <c r="J193" s="16" t="s">
         <v>633</v>
@@ -13522,7 +13674,9 @@
       <c r="G194" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H194" s="6"/>
+      <c r="H194" s="28">
+        <v>45250</v>
+      </c>
       <c r="I194" s="17"/>
       <c r="J194" s="16" t="s">
         <v>634</v>
@@ -13577,7 +13731,9 @@
       <c r="G195" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H195" s="6"/>
+      <c r="H195" s="28">
+        <v>45250</v>
+      </c>
       <c r="I195" s="17"/>
       <c r="J195" s="16" t="s">
         <v>324</v>
@@ -13632,7 +13788,9 @@
       <c r="G196" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H196" s="6"/>
+      <c r="H196" s="28">
+        <v>45250</v>
+      </c>
       <c r="I196" s="17"/>
       <c r="J196" s="16" t="s">
         <v>327</v>
@@ -13687,7 +13845,9 @@
       <c r="G197" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H197" s="6"/>
+      <c r="H197" s="28">
+        <v>45250</v>
+      </c>
       <c r="I197" s="17"/>
       <c r="J197" s="16" t="s">
         <v>330</v>
@@ -13742,7 +13902,9 @@
       <c r="G198" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H198" s="6"/>
+      <c r="H198" s="28">
+        <v>45250</v>
+      </c>
       <c r="I198" s="17"/>
       <c r="J198" s="16" t="s">
         <v>333</v>
@@ -13797,7 +13959,9 @@
       <c r="G199" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H199" s="6"/>
+      <c r="H199" s="28">
+        <v>45250</v>
+      </c>
       <c r="I199" s="17"/>
       <c r="J199" s="16" t="s">
         <v>336</v>
@@ -13852,7 +14016,9 @@
       <c r="G200" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H200" s="6"/>
+      <c r="H200" s="28">
+        <v>45250</v>
+      </c>
       <c r="I200" s="17"/>
       <c r="J200" s="16" t="s">
         <v>339</v>
@@ -13907,7 +14073,9 @@
       <c r="G201" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H201" s="6"/>
+      <c r="H201" s="28">
+        <v>45250</v>
+      </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
         <v>342</v>
@@ -13962,7 +14130,9 @@
       <c r="G202" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H202" s="6"/>
+      <c r="H202" s="28">
+        <v>45250</v>
+      </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
         <v>345</v>
@@ -14017,7 +14187,9 @@
       <c r="G203" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H203" s="6"/>
+      <c r="H203" s="28">
+        <v>45250</v>
+      </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
         <v>653</v>
@@ -14072,7 +14244,9 @@
       <c r="G204" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H204" s="6"/>
+      <c r="H204" s="28">
+        <v>45250</v>
+      </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
         <v>656</v>
@@ -14125,7 +14299,9 @@
       <c r="G205" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H205" s="6"/>
+      <c r="H205" s="28">
+        <v>45250</v>
+      </c>
       <c r="I205" s="17"/>
       <c r="J205" s="16" t="s">
         <v>658</v>
@@ -14178,7 +14354,9 @@
       <c r="G206" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H206" s="6"/>
+      <c r="H206" s="28">
+        <v>45250</v>
+      </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
         <v>660</v>
@@ -14231,7 +14409,9 @@
       <c r="G207" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H207" s="6"/>
+      <c r="H207" s="28">
+        <v>45250</v>
+      </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
         <v>358</v>
@@ -14284,7 +14464,9 @@
       <c r="G208" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H208" s="6"/>
+      <c r="H208" s="28">
+        <v>45250</v>
+      </c>
       <c r="I208" s="17"/>
       <c r="J208" s="16" t="s">
         <v>662</v>
@@ -14337,7 +14519,9 @@
       <c r="G209" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H209" s="6"/>
+      <c r="H209" s="28">
+        <v>45250</v>
+      </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
         <v>664</v>
@@ -14390,7 +14574,9 @@
       <c r="G210" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H210" s="6"/>
+      <c r="H210" s="28">
+        <v>45250</v>
+      </c>
       <c r="I210" s="17"/>
       <c r="J210" s="16" t="s">
         <v>342</v>
@@ -14443,7 +14629,9 @@
       <c r="G211" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H211" s="6"/>
+      <c r="H211" s="28">
+        <v>45250</v>
+      </c>
       <c r="I211" s="17"/>
       <c r="J211" s="16" t="s">
         <v>667</v>
@@ -14496,7 +14684,9 @@
       <c r="G212" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H212" s="6"/>
+      <c r="H212" s="28">
+        <v>45250</v>
+      </c>
       <c r="I212" s="17"/>
       <c r="J212" s="16" t="s">
         <v>366</v>
@@ -14549,7 +14739,9 @@
       <c r="G213" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H213" s="6"/>
+      <c r="H213" s="28">
+        <v>45250</v>
+      </c>
       <c r="I213" s="17"/>
       <c r="J213" s="26" t="s">
         <v>368</v>
@@ -14602,7 +14794,9 @@
       <c r="G214" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H214" s="6"/>
+      <c r="H214" s="28">
+        <v>45250</v>
+      </c>
       <c r="I214" s="17"/>
       <c r="J214" s="16" t="s">
         <v>370</v>
@@ -14655,7 +14849,9 @@
       <c r="G215" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H215" s="6"/>
+      <c r="H215" s="28">
+        <v>45250</v>
+      </c>
       <c r="I215" s="17"/>
       <c r="J215" s="16" t="s">
         <v>372</v>
@@ -14708,7 +14904,9 @@
       <c r="G216" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H216" s="6"/>
+      <c r="H216" s="28">
+        <v>45250</v>
+      </c>
       <c r="I216" s="17"/>
       <c r="J216" s="16" t="s">
         <v>374</v>
@@ -14761,7 +14959,9 @@
       <c r="G217" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H217" s="6"/>
+      <c r="H217" s="28">
+        <v>45250</v>
+      </c>
       <c r="I217" s="17"/>
       <c r="J217" s="16" t="s">
         <v>376</v>
@@ -14814,7 +15014,9 @@
       <c r="G218" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H218" s="6"/>
+      <c r="H218" s="28">
+        <v>45250</v>
+      </c>
       <c r="I218" s="17"/>
       <c r="J218" s="16" t="s">
         <v>378</v>
@@ -14867,7 +15069,9 @@
       <c r="G219" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="6"/>
+      <c r="H219" s="28">
+        <v>45250</v>
+      </c>
       <c r="I219" s="17"/>
       <c r="J219" s="16" t="s">
         <v>380</v>
@@ -14920,7 +15124,9 @@
       <c r="G220" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H220" s="6"/>
+      <c r="H220" s="28">
+        <v>45250</v>
+      </c>
       <c r="I220" s="17"/>
       <c r="J220" s="26" t="s">
         <v>382</v>
@@ -14973,7 +15179,9 @@
       <c r="G221" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H221" s="6"/>
+      <c r="H221" s="28">
+        <v>45250</v>
+      </c>
       <c r="I221" s="17"/>
       <c r="J221" s="16" t="s">
         <v>384</v>
@@ -15026,7 +15234,9 @@
       <c r="G222" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H222" s="6"/>
+      <c r="H222" s="28">
+        <v>45250</v>
+      </c>
       <c r="I222" s="17"/>
       <c r="J222" s="16" t="s">
         <v>386</v>
@@ -15079,7 +15289,9 @@
       <c r="G223" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H223" s="6"/>
+      <c r="H223" s="28">
+        <v>45250</v>
+      </c>
       <c r="I223" s="17"/>
       <c r="J223" s="16" t="s">
         <v>388</v>
@@ -15132,7 +15344,9 @@
       <c r="G224" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="6"/>
+      <c r="H224" s="28">
+        <v>45250</v>
+      </c>
       <c r="I224" s="17"/>
       <c r="J224" s="16" t="s">
         <v>390</v>
@@ -15185,7 +15399,9 @@
       <c r="G225" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H225" s="6"/>
+      <c r="H225" s="28">
+        <v>45250</v>
+      </c>
       <c r="I225" s="17"/>
       <c r="J225" s="16" t="s">
         <v>392</v>
@@ -15238,7 +15454,9 @@
       <c r="G226" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H226" s="6"/>
+      <c r="H226" s="28">
+        <v>45250</v>
+      </c>
       <c r="I226" s="17"/>
       <c r="J226" s="16" t="s">
         <v>394</v>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE486E8B-5139-4BDC-B987-0ED35A9CDAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F18D7C-2606-4EF2-A4B5-EF9E47CCD3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$224</definedName>
     <definedName name="_Hlk79743764" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744291" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744411" localSheetId="0">Risks!#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="672">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -1598,12 +1598,6 @@
   </si>
   <si>
     <t>08.15</t>
-  </si>
-  <si>
-    <t>08.16</t>
-  </si>
-  <si>
-    <t>08.17</t>
   </si>
   <si>
     <t>08.18</t>
@@ -2884,11 +2878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-  <dimension ref="A1:AI979"/>
+  <dimension ref="A1:AI977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H117" sqref="H117"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2979,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -3036,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -3093,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
@@ -3150,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>2</v>
@@ -3207,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -3264,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -3321,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -4203,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>2</v>
@@ -4260,7 +4254,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>2</v>
@@ -4317,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>2</v>
@@ -4374,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>2</v>
@@ -4981,7 +4975,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>2</v>
@@ -5038,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>2</v>
@@ -5095,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>2</v>
@@ -5152,7 +5146,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>2</v>
@@ -5209,7 +5203,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>2</v>
@@ -6201,7 +6195,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>2</v>
@@ -6258,7 +6252,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>2</v>
@@ -6370,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>2</v>
@@ -6427,7 +6421,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>2</v>
@@ -6484,7 +6478,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>2</v>
@@ -6541,7 +6535,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>2</v>
@@ -7368,7 +7362,7 @@
         <v>101</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>2</v>
@@ -7425,7 +7419,7 @@
         <v>101</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>2</v>
@@ -7482,7 +7476,7 @@
         <v>101</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>2</v>
@@ -7539,7 +7533,7 @@
         <v>101</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>2</v>
@@ -7596,7 +7590,7 @@
         <v>101</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>2</v>
@@ -7653,7 +7647,7 @@
         <v>101</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>2</v>
@@ -7710,7 +7704,7 @@
         <v>101</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>2</v>
@@ -7767,7 +7761,7 @@
         <v>101</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>2</v>
@@ -7824,7 +7818,7 @@
         <v>101</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>2</v>
@@ -7881,7 +7875,7 @@
         <v>101</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>2</v>
@@ -7938,7 +7932,7 @@
         <v>101</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>2</v>
@@ -7995,7 +7989,7 @@
         <v>101</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>2</v>
@@ -8602,7 +8596,7 @@
         <v>119</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>2</v>
@@ -8657,7 +8651,7 @@
         <v>119</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>2</v>
@@ -8712,7 +8706,7 @@
         <v>119</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>2</v>
@@ -8767,7 +8761,7 @@
         <v>119</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>2</v>
@@ -8822,7 +8816,7 @@
         <v>119</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>2</v>
@@ -8877,7 +8871,7 @@
         <v>119</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>2</v>
@@ -8932,7 +8926,7 @@
         <v>119</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>2</v>
@@ -8987,7 +8981,7 @@
         <v>119</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>2</v>
@@ -9042,7 +9036,7 @@
         <v>119</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>2</v>
@@ -9097,7 +9091,7 @@
         <v>119</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>2</v>
@@ -9152,7 +9146,7 @@
         <v>119</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>2</v>
@@ -9427,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -9440,10 +9434,10 @@
         <v>137</v>
       </c>
       <c r="K118" s="29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L118" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -9484,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>2</v>
@@ -9500,7 +9494,7 @@
         <v>141</v>
       </c>
       <c r="L119" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -9541,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>2</v>
@@ -9557,7 +9551,7 @@
         <v>144</v>
       </c>
       <c r="L120" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -9598,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>2</v>
@@ -9611,10 +9605,10 @@
         <v>146</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L121" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -9655,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -9665,10 +9659,10 @@
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L122" s="24" t="s">
         <v>396</v>
@@ -9712,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>2</v>
@@ -9725,7 +9719,7 @@
         <v>149</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>151</v>
@@ -9769,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>2</v>
@@ -9782,7 +9776,7 @@
         <v>152</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L124" s="18" t="s">
         <v>154</v>
@@ -10046,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>2</v>
@@ -10101,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>2</v>
@@ -10111,7 +10105,7 @@
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K130" s="18" t="s">
         <v>182</v>
@@ -10156,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>2</v>
@@ -10211,7 +10205,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>2</v>
@@ -10224,7 +10218,7 @@
         <v>185</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L132" s="18" t="s">
         <v>187</v>
@@ -10268,7 +10262,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>2</v>
@@ -10281,7 +10275,7 @@
         <v>188</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>190</v>
@@ -10325,7 +10319,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>2</v>
@@ -10335,13 +10329,13 @@
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="L134" s="16" t="s">
         <v>549</v>
-      </c>
-      <c r="K134" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="L134" s="16" t="s">
-        <v>551</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10382,7 +10376,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>2</v>
@@ -10439,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
@@ -10452,7 +10446,7 @@
         <v>191</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>193</v>
@@ -10496,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>2</v>
@@ -10506,10 +10500,10 @@
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>400</v>
@@ -10553,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>2</v>
@@ -10563,10 +10557,10 @@
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>401</v>
@@ -10610,7 +10604,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
@@ -10620,13 +10614,13 @@
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="K139" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="L139" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="K139" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="L139" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -10667,7 +10661,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>2</v>
@@ -10677,10 +10671,10 @@
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>271</v>
@@ -10724,7 +10718,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>2</v>
@@ -10791,10 +10785,10 @@
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K142" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L142" s="31"/>
       <c r="M142" s="2"/>
@@ -10846,10 +10840,10 @@
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L143" s="31"/>
       <c r="M143" s="2"/>
@@ -10901,10 +10895,10 @@
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K144" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="2"/>
@@ -10956,10 +10950,10 @@
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="2"/>
@@ -11011,10 +11005,10 @@
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="2"/>
@@ -11176,10 +11170,10 @@
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="2"/>
@@ -11221,7 +11215,7 @@
         <v>4</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>2</v>
@@ -11231,10 +11225,10 @@
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="2"/>
@@ -11276,7 +11270,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>2</v>
@@ -11331,7 +11325,7 @@
         <v>4</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>2</v>
@@ -11344,7 +11338,7 @@
         <v>272</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11386,7 +11380,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>2</v>
@@ -11399,7 +11393,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11441,7 +11435,7 @@
         <v>4</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>2</v>
@@ -11451,10 +11445,10 @@
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L154" s="31"/>
       <c r="M154" s="2"/>
@@ -11496,7 +11490,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>2</v>
@@ -11509,7 +11503,7 @@
         <v>217</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>219</v>
@@ -11553,7 +11547,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>2</v>
@@ -11566,7 +11560,7 @@
         <v>234</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>222</v>
@@ -11610,7 +11604,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>2</v>
@@ -11623,7 +11617,7 @@
         <v>274</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L157" s="18" t="s">
         <v>276</v>
@@ -11667,7 +11661,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>2</v>
@@ -11724,7 +11718,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>2</v>
@@ -11737,7 +11731,7 @@
         <v>405</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L159" s="18" t="s">
         <v>406</v>
@@ -11781,7 +11775,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>2</v>
@@ -11794,10 +11788,10 @@
         <v>407</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L160" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11838,7 +11832,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>2</v>
@@ -11848,13 +11842,13 @@
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="K161" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="L161" s="18" t="s">
         <v>585</v>
-      </c>
-      <c r="K161" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="L161" s="18" t="s">
-        <v>587</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11895,7 +11889,7 @@
         <v>5</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>2</v>
@@ -11908,7 +11902,7 @@
         <v>408</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>409</v>
@@ -11952,7 +11946,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>2</v>
@@ -11965,7 +11959,7 @@
         <v>283</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>285</v>
@@ -12009,7 +12003,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>2</v>
@@ -12019,7 +12013,7 @@
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>227</v>
@@ -12066,7 +12060,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>2</v>
@@ -12076,10 +12070,10 @@
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>231</v>
@@ -12123,7 +12117,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>2</v>
@@ -12136,7 +12130,7 @@
         <v>410</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>411</v>
@@ -12180,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>2</v>
@@ -12193,7 +12187,7 @@
         <v>310</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>412</v>
@@ -12247,10 +12241,10 @@
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K168" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="2"/>
@@ -12302,7 +12296,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>413</v>
@@ -12356,8 +12350,12 @@
         <v>45250</v>
       </c>
       <c r="I170" s="17"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="26"/>
+      <c r="J170" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>596</v>
+      </c>
       <c r="L170" s="8"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -12383,7 +12381,7 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>479</v>
       </c>
@@ -12407,8 +12405,12 @@
         <v>45250</v>
       </c>
       <c r="I171" s="17"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="26"/>
+      <c r="J171" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="L171" s="8"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -12459,10 +12461,10 @@
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
-        <v>414</v>
+        <v>599</v>
       </c>
       <c r="K172" s="18" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="2"/>
@@ -12489,7 +12491,7 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
     </row>
-    <row r="173" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>481</v>
       </c>
@@ -12514,12 +12516,12 @@
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="16" t="s">
-        <v>599</v>
+        <v>290</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="L173" s="8"/>
+        <v>601</v>
+      </c>
+      <c r="L173" s="21"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -12569,12 +12571,12 @@
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K174" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="L174" s="8"/>
+        <v>603</v>
+      </c>
+      <c r="L174" s="31"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -12599,7 +12601,7 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>483</v>
       </c>
@@ -12614,20 +12616,20 @@
         <v>5</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>3</v>
+        <v>543</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H175" s="28">
         <v>45250</v>
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
-        <v>290</v>
+        <v>604</v>
       </c>
       <c r="K175" s="18" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="2"/>
@@ -12654,7 +12656,7 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
     </row>
-    <row r="176" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>484</v>
       </c>
@@ -12669,20 +12671,20 @@
         <v>5</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>3</v>
+        <v>543</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H176" s="28">
         <v>45250</v>
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L176" s="31"/>
       <c r="M176" s="2"/>
@@ -12709,7 +12711,7 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
     </row>
-    <row r="177" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>485</v>
       </c>
@@ -12724,7 +12726,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>2</v>
@@ -12734,12 +12736,12 @@
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="K177" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="L177" s="21"/>
+        <v>608</v>
+      </c>
+      <c r="K177" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="L177" s="31"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -12764,7 +12766,7 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
     </row>
-    <row r="178" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>486</v>
       </c>
@@ -12779,7 +12781,7 @@
         <v>5</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>2</v>
@@ -12789,10 +12791,10 @@
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K178" s="18" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L178" s="31"/>
       <c r="M178" s="2"/>
@@ -12834,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>2</v>
@@ -12844,12 +12846,12 @@
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="K179" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="L179" s="31"/>
+        <v>612</v>
+      </c>
+      <c r="K179" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="L179" s="26"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -12889,7 +12891,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>2</v>
@@ -12899,12 +12901,12 @@
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K180" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="L180" s="31"/>
+        <v>615</v>
+      </c>
+      <c r="L180" s="8"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -12944,7 +12946,7 @@
         <v>5</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>2</v>
@@ -12954,12 +12956,12 @@
       </c>
       <c r="I181" s="17"/>
       <c r="J181" s="16" t="s">
-        <v>614</v>
+        <v>288</v>
       </c>
       <c r="K181" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="L181" s="26"/>
+        <v>616</v>
+      </c>
+      <c r="L181" s="8"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -12999,7 +13001,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>2</v>
@@ -13009,7 +13011,7 @@
       </c>
       <c r="I182" s="17"/>
       <c r="J182" s="16" t="s">
-        <v>616</v>
+        <v>306</v>
       </c>
       <c r="K182" s="18" t="s">
         <v>617</v>
@@ -13054,7 +13056,7 @@
         <v>5</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>2</v>
@@ -13064,7 +13066,7 @@
       </c>
       <c r="I183" s="17"/>
       <c r="J183" s="16" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="K183" s="18" t="s">
         <v>618</v>
@@ -13109,7 +13111,7 @@
         <v>5</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>2</v>
@@ -13119,10 +13121,10 @@
       </c>
       <c r="I184" s="17"/>
       <c r="J184" s="16" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="K184" s="18" t="s">
-        <v>619</v>
+        <v>261</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="2"/>
@@ -13164,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>2</v>
@@ -13174,10 +13176,10 @@
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
-        <v>308</v>
+        <v>619</v>
       </c>
       <c r="K185" s="18" t="s">
-        <v>620</v>
+        <v>263</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="2"/>
@@ -13206,7 +13208,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>494</v>
+        <v>670</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13219,7 +13221,7 @@
         <v>5</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>2</v>
@@ -13229,12 +13231,12 @@
       </c>
       <c r="I186" s="17"/>
       <c r="J186" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="L186" s="8"/>
+        <v>620</v>
+      </c>
+      <c r="L186" s="21"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -13259,9 +13261,9 @@
       <c r="AH186" s="2"/>
       <c r="AI186" s="2"/>
     </row>
-    <row r="187" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>88</v>
@@ -13270,11 +13272,11 @@
       <c r="D187" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E187" s="19" t="s">
-        <v>5</v>
+      <c r="E187" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>2</v>
@@ -13286,10 +13288,12 @@
       <c r="J187" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="K187" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L187" s="8"/>
+      <c r="K187" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="L187" s="24" t="s">
+        <v>623</v>
+      </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -13314,9 +13318,9 @@
       <c r="AH187" s="2"/>
       <c r="AI187" s="2"/>
     </row>
-    <row r="188" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>88</v>
@@ -13325,11 +13329,11 @@
       <c r="D188" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E188" s="19" t="s">
-        <v>5</v>
+      <c r="E188" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>2</v>
@@ -13339,12 +13343,14 @@
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="K188" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="L188" s="21"/>
+        <v>624</v>
+      </c>
+      <c r="K188" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="L188" s="16" t="s">
+        <v>317</v>
+      </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -13369,7 +13375,7 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="2"/>
     </row>
-    <row r="189" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>496</v>
       </c>
@@ -13384,7 +13390,7 @@
         <v>101</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>2</v>
@@ -13394,13 +13400,13 @@
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="L189" s="24" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="L189" s="18" t="s">
+        <v>628</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -13426,7 +13432,7 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="2"/>
     </row>
-    <row r="190" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>497</v>
       </c>
@@ -13441,7 +13447,7 @@
         <v>101</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>2</v>
@@ -13451,13 +13457,13 @@
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L190" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -13483,7 +13489,7 @@
       <c r="AH190" s="2"/>
       <c r="AI190" s="2"/>
     </row>
-    <row r="191" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>498</v>
       </c>
@@ -13498,7 +13504,7 @@
         <v>101</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>2</v>
@@ -13508,13 +13514,13 @@
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="L191" s="18" t="s">
-        <v>630</v>
+        <v>417</v>
+      </c>
+      <c r="L191" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -13540,7 +13546,7 @@
       <c r="AH191" s="2"/>
       <c r="AI191" s="2"/>
     </row>
-    <row r="192" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>499</v>
       </c>
@@ -13555,7 +13561,7 @@
         <v>101</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>2</v>
@@ -13565,13 +13571,13 @@
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="L192" s="16" t="s">
-        <v>320</v>
+        <v>633</v>
+      </c>
+      <c r="L192" s="24" t="s">
+        <v>634</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13597,7 +13603,7 @@
       <c r="AH192" s="2"/>
       <c r="AI192" s="2"/>
     </row>
-    <row r="193" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
         <v>500</v>
       </c>
@@ -13612,7 +13618,7 @@
         <v>101</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>2</v>
@@ -13622,13 +13628,13 @@
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="16" t="s">
-        <v>633</v>
+        <v>324</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L193" s="16" t="s">
-        <v>418</v>
+        <v>635</v>
+      </c>
+      <c r="L193" s="18" t="s">
+        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13654,7 +13660,7 @@
       <c r="AH193" s="2"/>
       <c r="AI193" s="2"/>
     </row>
-    <row r="194" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" ht="360.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
         <v>501</v>
       </c>
@@ -13669,7 +13675,7 @@
         <v>101</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>2</v>
@@ -13679,13 +13685,13 @@
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="K194" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="L194" s="24" t="s">
-        <v>636</v>
+        <v>327</v>
+      </c>
+      <c r="K194" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="L194" s="18" t="s">
+        <v>638</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13711,7 +13717,7 @@
       <c r="AH194" s="2"/>
       <c r="AI194" s="2"/>
     </row>
-    <row r="195" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
         <v>502</v>
       </c>
@@ -13726,7 +13732,7 @@
         <v>101</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>2</v>
@@ -13736,13 +13742,13 @@
       </c>
       <c r="I195" s="17"/>
       <c r="J195" s="16" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L195" s="18" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13768,7 +13774,7 @@
       <c r="AH195" s="2"/>
       <c r="AI195" s="2"/>
     </row>
-    <row r="196" spans="1:35" ht="360.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
         <v>503</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>101</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>2</v>
@@ -13793,13 +13799,13 @@
       </c>
       <c r="I196" s="17"/>
       <c r="J196" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="K196" s="20" t="s">
-        <v>639</v>
+        <v>333</v>
+      </c>
+      <c r="K196" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="L196" s="18" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13825,7 +13831,7 @@
       <c r="AH196" s="2"/>
       <c r="AI196" s="2"/>
     </row>
-    <row r="197" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27" t="s">
         <v>504</v>
       </c>
@@ -13840,7 +13846,7 @@
         <v>101</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>2</v>
@@ -13850,13 +13856,13 @@
       </c>
       <c r="I197" s="17"/>
       <c r="J197" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="K197" s="16" t="s">
-        <v>641</v>
+        <v>336</v>
+      </c>
+      <c r="K197" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="L197" s="18" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13882,7 +13888,7 @@
       <c r="AH197" s="2"/>
       <c r="AI197" s="2"/>
     </row>
-    <row r="198" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
         <v>505</v>
       </c>
@@ -13897,7 +13903,7 @@
         <v>101</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>2</v>
@@ -13907,13 +13913,13 @@
       </c>
       <c r="I198" s="17"/>
       <c r="J198" s="16" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="L198" s="18" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="L198" s="24" t="s">
+        <v>646</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13939,7 +13945,7 @@
       <c r="AH198" s="2"/>
       <c r="AI198" s="2"/>
     </row>
-    <row r="199" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27" t="s">
         <v>506</v>
       </c>
@@ -13954,7 +13960,7 @@
         <v>101</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>2</v>
@@ -13964,13 +13970,13 @@
       </c>
       <c r="I199" s="17"/>
       <c r="J199" s="16" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="L199" s="18" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="L199" s="24" t="s">
+        <v>648</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -13996,7 +14002,7 @@
       <c r="AH199" s="2"/>
       <c r="AI199" s="2"/>
     </row>
-    <row r="200" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" ht="396" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
         <v>507</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>101</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>2</v>
@@ -14021,13 +14027,13 @@
       </c>
       <c r="I200" s="17"/>
       <c r="J200" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="K200" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="L200" s="24" t="s">
-        <v>648</v>
+        <v>345</v>
+      </c>
+      <c r="K200" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="L200" s="32" t="s">
+        <v>650</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14053,7 +14059,7 @@
       <c r="AH200" s="2"/>
       <c r="AI200" s="2"/>
     </row>
-    <row r="201" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
         <v>508</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>101</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>2</v>
@@ -14078,13 +14084,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="K201" s="20" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="K201" s="16" t="s">
+        <v>652</v>
       </c>
       <c r="L201" s="24" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14110,7 +14116,7 @@
       <c r="AH201" s="2"/>
       <c r="AI201" s="2"/>
     </row>
-    <row r="202" spans="1:35" ht="396" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27" t="s">
         <v>509</v>
       </c>
@@ -14125,24 +14131,22 @@
         <v>101</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="H202" s="28">
         <v>45250</v>
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="K202" s="26" t="s">
-        <v>651</v>
-      </c>
-      <c r="L202" s="32" t="s">
-        <v>652</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="K202" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="L202" s="31"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -14167,7 +14171,7 @@
       <c r="AH202" s="2"/>
       <c r="AI202" s="2"/>
     </row>
-    <row r="203" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27" t="s">
         <v>510</v>
       </c>
@@ -14182,7 +14186,7 @@
         <v>101</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>2</v>
@@ -14192,14 +14196,12 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="K203" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="L203" s="24" t="s">
-        <v>655</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="K203" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="L203" s="26"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -14239,20 +14241,20 @@
         <v>101</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>3</v>
+        <v>543</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H204" s="28">
         <v>45250</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="K204" s="18" t="s">
-        <v>657</v>
+        <v>357</v>
       </c>
       <c r="L204" s="31"/>
       <c r="M204" s="2"/>
@@ -14294,7 +14296,7 @@
         <v>101</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>2</v>
@@ -14304,12 +14306,12 @@
       </c>
       <c r="I205" s="17"/>
       <c r="J205" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="K205" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="K205" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="L205" s="26"/>
+      <c r="L205" s="31"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -14349,7 +14351,7 @@
         <v>101</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>2</v>
@@ -14362,9 +14364,9 @@
         <v>660</v>
       </c>
       <c r="K206" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="L206" s="31"/>
+        <v>661</v>
+      </c>
+      <c r="L206" s="8"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -14404,7 +14406,7 @@
         <v>101</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>2</v>
@@ -14414,12 +14416,12 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="K207" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="L207" s="31"/>
+        <v>662</v>
+      </c>
+      <c r="K207" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="L207" s="8"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -14459,7 +14461,7 @@
         <v>101</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>2</v>
@@ -14469,10 +14471,10 @@
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="16" t="s">
-        <v>662</v>
+        <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14501,7 +14503,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>516</v>
+        <v>671</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14514,7 +14516,7 @@
         <v>101</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>2</v>
@@ -14524,10 +14526,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K209" s="18" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14554,35 +14556,35 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
     </row>
-    <row r="210" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C210" s="6"/>
-      <c r="D210" s="5" t="s">
-        <v>91</v>
+      <c r="D210" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="H210" s="28">
         <v>45250</v>
       </c>
       <c r="I210" s="17"/>
       <c r="J210" s="16" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="K210" s="18" t="s">
-        <v>666</v>
+        <v>367</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="2"/>
@@ -14609,35 +14611,35 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
     </row>
-    <row r="211" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
-        <v>673</v>
+        <v>517</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C211" s="6"/>
-      <c r="D211" s="5" t="s">
-        <v>91</v>
+      <c r="D211" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="H211" s="28">
         <v>45250</v>
       </c>
       <c r="I211" s="17"/>
-      <c r="J211" s="16" t="s">
-        <v>667</v>
+      <c r="J211" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="K211" s="18" t="s">
-        <v>668</v>
+        <v>369</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="2"/>
@@ -14689,10 +14691,10 @@
       </c>
       <c r="I212" s="17"/>
       <c r="J212" s="16" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K212" s="18" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="2"/>
@@ -14743,11 +14745,11 @@
         <v>45250</v>
       </c>
       <c r="I213" s="17"/>
-      <c r="J213" s="26" t="s">
-        <v>368</v>
+      <c r="J213" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="K213" s="18" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="2"/>
@@ -14799,10 +14801,10 @@
       </c>
       <c r="I214" s="17"/>
       <c r="J214" s="16" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K214" s="18" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="2"/>
@@ -14854,10 +14856,10 @@
       </c>
       <c r="I215" s="17"/>
       <c r="J215" s="16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>373</v>
+        <v>667</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -14909,10 +14911,10 @@
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="16" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K216" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="2"/>
@@ -14939,7 +14941,7 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="2"/>
     </row>
-    <row r="217" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
         <v>523</v>
       </c>
@@ -14964,10 +14966,10 @@
       </c>
       <c r="I217" s="17"/>
       <c r="J217" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K217" s="18" t="s">
-        <v>669</v>
+        <v>380</v>
+      </c>
+      <c r="K217" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="L217" s="8"/>
       <c r="M217" s="2"/>
@@ -15018,11 +15020,11 @@
         <v>45250</v>
       </c>
       <c r="I218" s="17"/>
-      <c r="J218" s="16" t="s">
-        <v>378</v>
+      <c r="J218" s="26" t="s">
+        <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>379</v>
+        <v>668</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15049,7 +15051,7 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="2"/>
     </row>
-    <row r="219" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>525</v>
       </c>
@@ -15074,10 +15076,10 @@
       </c>
       <c r="I219" s="17"/>
       <c r="J219" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="K219" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
+      </c>
+      <c r="K219" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="L219" s="8"/>
       <c r="M219" s="2"/>
@@ -15128,11 +15130,11 @@
         <v>45250</v>
       </c>
       <c r="I220" s="17"/>
-      <c r="J220" s="26" t="s">
-        <v>382</v>
+      <c r="J220" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>
@@ -15159,16 +15161,16 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="2"/>
     </row>
-    <row r="221" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>119</v>
@@ -15184,10 +15186,10 @@
       </c>
       <c r="I221" s="17"/>
       <c r="J221" s="16" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K221" s="18" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L221" s="8"/>
       <c r="M221" s="2"/>
@@ -15214,16 +15216,16 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="2"/>
     </row>
-    <row r="222" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>119</v>
@@ -15239,10 +15241,10 @@
       </c>
       <c r="I222" s="17"/>
       <c r="J222" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="K222" s="18" t="s">
-        <v>671</v>
+        <v>390</v>
+      </c>
+      <c r="K222" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="L222" s="8"/>
       <c r="M222" s="2"/>
@@ -15294,10 +15296,10 @@
       </c>
       <c r="I223" s="17"/>
       <c r="J223" s="16" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K223" s="18" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L223" s="8"/>
       <c r="M223" s="2"/>
@@ -15349,10 +15351,10 @@
       </c>
       <c r="I224" s="17"/>
       <c r="J224" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="K224" s="24" t="s">
-        <v>391</v>
+        <v>394</v>
+      </c>
+      <c r="K224" s="18" t="s">
+        <v>395</v>
       </c>
       <c r="L224" s="8"/>
       <c r="M224" s="2"/>
@@ -15379,37 +15381,18 @@
       <c r="AH224" s="2"/>
       <c r="AI224" s="2"/>
     </row>
-    <row r="225" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C225" s="6"/>
-      <c r="D225" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E225" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H225" s="28">
-        <v>45250</v>
-      </c>
-      <c r="I225" s="17"/>
-      <c r="J225" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="K225" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="L225" s="8"/>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A225" s="9"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -15434,37 +15417,18 @@
       <c r="AH225" s="2"/>
       <c r="AI225" s="2"/>
     </row>
-    <row r="226" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H226" s="28">
-        <v>45250</v>
-      </c>
-      <c r="I226" s="17"/>
-      <c r="J226" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="K226" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="L226" s="8"/>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A226" s="9"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -42525,80 +42489,8 @@
       <c r="AH977" s="2"/>
       <c r="AI977" s="2"/>
     </row>
-    <row r="978" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A978" s="9"/>
-      <c r="B978" s="10"/>
-      <c r="C978" s="10"/>
-      <c r="D978" s="10"/>
-      <c r="F978" s="10"/>
-      <c r="G978" s="10"/>
-      <c r="H978" s="10"/>
-      <c r="I978" s="10"/>
-      <c r="J978" s="10"/>
-      <c r="K978" s="10"/>
-      <c r="L978" s="10"/>
-      <c r="M978" s="2"/>
-      <c r="N978" s="2"/>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2"/>
-      <c r="V978" s="2"/>
-      <c r="W978" s="2"/>
-      <c r="X978" s="2"/>
-      <c r="Y978" s="2"/>
-      <c r="Z978" s="2"/>
-      <c r="AA978" s="2"/>
-      <c r="AB978" s="2"/>
-      <c r="AC978" s="2"/>
-      <c r="AD978" s="2"/>
-      <c r="AE978" s="2"/>
-      <c r="AF978" s="2"/>
-      <c r="AG978" s="2"/>
-      <c r="AH978" s="2"/>
-      <c r="AI978" s="2"/>
-    </row>
-    <row r="979" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A979" s="9"/>
-      <c r="B979" s="10"/>
-      <c r="C979" s="10"/>
-      <c r="D979" s="10"/>
-      <c r="F979" s="10"/>
-      <c r="G979" s="10"/>
-      <c r="H979" s="10"/>
-      <c r="I979" s="10"/>
-      <c r="J979" s="10"/>
-      <c r="K979" s="10"/>
-      <c r="L979" s="10"/>
-      <c r="M979" s="2"/>
-      <c r="N979" s="2"/>
-      <c r="O979" s="2"/>
-      <c r="P979" s="2"/>
-      <c r="Q979" s="2"/>
-      <c r="R979" s="2"/>
-      <c r="S979" s="2"/>
-      <c r="T979" s="2"/>
-      <c r="U979" s="2"/>
-      <c r="V979" s="2"/>
-      <c r="W979" s="2"/>
-      <c r="X979" s="2"/>
-      <c r="Y979" s="2"/>
-      <c r="Z979" s="2"/>
-      <c r="AA979" s="2"/>
-      <c r="AB979" s="2"/>
-      <c r="AC979" s="2"/>
-      <c r="AD979" s="2"/>
-      <c r="AE979" s="2"/>
-      <c r="AF979" s="2"/>
-      <c r="AG979" s="2"/>
-      <c r="AH979" s="2"/>
-      <c r="AI979" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K226" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
+  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F18D7C-2606-4EF2-A4B5-EF9E47CCD3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC36DA79-BB05-4A19-A257-D697A5CF8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="671">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -1805,9 +1805,6 @@
   <si>
     <t>This implies that the confidentiality obligations last for 5 years from when the information is received.
 The provision further states that if reseller is required by law or receives a court order to disclose confidential information, it must notify Microsoft as soon as possible.</t>
-  </si>
-  <si>
-    <t>End-customer</t>
   </si>
   <si>
     <t>"Business Integrity Principles", section 5 "Privacy and Data Security" section b and c)</t>
@@ -2881,8 +2878,8 @@
   <dimension ref="A1:AI977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K224" sqref="K224"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10025,7 +10022,7 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>131</v>
       </c>
@@ -10040,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>2</v>
@@ -10095,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>2</v>
@@ -10105,7 +10102,7 @@
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K130" s="18" t="s">
         <v>182</v>
@@ -10135,7 +10132,7 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>133</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>2</v>
@@ -10218,7 +10215,7 @@
         <v>185</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L132" s="18" t="s">
         <v>187</v>
@@ -10275,7 +10272,7 @@
         <v>188</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>190</v>
@@ -10329,13 +10326,13 @@
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="K134" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="K134" s="16" t="s">
+      <c r="L134" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="L134" s="16" t="s">
-        <v>549</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10446,7 +10443,7 @@
         <v>191</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>193</v>
@@ -10500,10 +10497,10 @@
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>551</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>552</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>400</v>
@@ -10557,10 +10554,10 @@
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="K138" s="16" t="s">
         <v>553</v>
-      </c>
-      <c r="K138" s="16" t="s">
-        <v>554</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>401</v>
@@ -10614,13 +10611,13 @@
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="K139" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="K139" s="16" t="s">
+      <c r="L139" s="18" t="s">
         <v>556</v>
-      </c>
-      <c r="L139" s="18" t="s">
-        <v>557</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -10671,10 +10668,10 @@
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="K140" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="K140" s="16" t="s">
-        <v>559</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>271</v>
@@ -10785,10 +10782,10 @@
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="K142" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="K142" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="L142" s="31"/>
       <c r="M142" s="2"/>
@@ -10840,10 +10837,10 @@
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="K143" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="K143" s="18" t="s">
-        <v>563</v>
       </c>
       <c r="L143" s="31"/>
       <c r="M143" s="2"/>
@@ -10895,10 +10892,10 @@
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="K144" s="18" t="s">
-        <v>565</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="2"/>
@@ -10950,10 +10947,10 @@
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="K145" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="K145" s="18" t="s">
-        <v>567</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="2"/>
@@ -11005,10 +11002,10 @@
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="K146" s="18" t="s">
         <v>568</v>
-      </c>
-      <c r="K146" s="18" t="s">
-        <v>569</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="2"/>
@@ -11170,10 +11167,10 @@
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="K149" s="18" t="s">
         <v>570</v>
-      </c>
-      <c r="K149" s="18" t="s">
-        <v>571</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="2"/>
@@ -11200,7 +11197,7 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
     </row>
-    <row r="150" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>458</v>
       </c>
@@ -11215,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>2</v>
@@ -11225,10 +11222,10 @@
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="K150" s="18" t="s">
         <v>572</v>
-      </c>
-      <c r="K150" s="18" t="s">
-        <v>573</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="2"/>
@@ -11270,7 +11267,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>2</v>
@@ -11325,7 +11322,7 @@
         <v>4</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>2</v>
@@ -11338,7 +11335,7 @@
         <v>272</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11380,7 +11377,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>2</v>
@@ -11393,7 +11390,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11435,7 +11432,7 @@
         <v>4</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>2</v>
@@ -11445,10 +11442,10 @@
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L154" s="31"/>
       <c r="M154" s="2"/>
@@ -11503,7 +11500,7 @@
         <v>217</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>219</v>
@@ -11560,7 +11557,7 @@
         <v>234</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>222</v>
@@ -11617,7 +11614,7 @@
         <v>274</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L157" s="18" t="s">
         <v>276</v>
@@ -11731,7 +11728,7 @@
         <v>405</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L159" s="18" t="s">
         <v>406</v>
@@ -11788,10 +11785,10 @@
         <v>407</v>
       </c>
       <c r="K160" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="L160" s="16" t="s">
         <v>581</v>
-      </c>
-      <c r="L160" s="16" t="s">
-        <v>582</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11842,13 +11839,13 @@
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="K161" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="K161" s="16" t="s">
+      <c r="L161" s="18" t="s">
         <v>584</v>
-      </c>
-      <c r="L161" s="18" t="s">
-        <v>585</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11902,7 +11899,7 @@
         <v>408</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>409</v>
@@ -11959,7 +11956,7 @@
         <v>283</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>285</v>
@@ -12013,7 +12010,7 @@
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>227</v>
@@ -12070,10 +12067,10 @@
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="K165" s="16" t="s">
         <v>589</v>
-      </c>
-      <c r="K165" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>231</v>
@@ -12130,7 +12127,7 @@
         <v>410</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>411</v>
@@ -12187,7 +12184,7 @@
         <v>310</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>412</v>
@@ -12241,10 +12238,10 @@
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="K168" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="K168" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="2"/>
@@ -12296,7 +12293,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>413</v>
@@ -12354,7 +12351,7 @@
         <v>414</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="2"/>
@@ -12406,10 +12403,10 @@
       </c>
       <c r="I171" s="17"/>
       <c r="J171" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="K171" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="K171" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="2"/>
@@ -12461,10 +12458,10 @@
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="K172" s="18" t="s">
         <v>599</v>
-      </c>
-      <c r="K172" s="18" t="s">
-        <v>600</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="2"/>
@@ -12519,7 +12516,7 @@
         <v>290</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L173" s="21"/>
       <c r="M173" s="2"/>
@@ -12571,10 +12568,10 @@
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K174" s="18" t="s">
         <v>602</v>
-      </c>
-      <c r="K174" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="L174" s="31"/>
       <c r="M174" s="2"/>
@@ -12616,7 +12613,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>2</v>
@@ -12626,10 +12623,10 @@
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="K175" s="18" t="s">
         <v>604</v>
-      </c>
-      <c r="K175" s="18" t="s">
-        <v>605</v>
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="2"/>
@@ -12671,7 +12668,7 @@
         <v>5</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>2</v>
@@ -12681,10 +12678,10 @@
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="K176" s="18" t="s">
         <v>606</v>
-      </c>
-      <c r="K176" s="18" t="s">
-        <v>607</v>
       </c>
       <c r="L176" s="31"/>
       <c r="M176" s="2"/>
@@ -12726,7 +12723,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>2</v>
@@ -12736,10 +12733,10 @@
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="K177" s="32" t="s">
         <v>608</v>
-      </c>
-      <c r="K177" s="32" t="s">
-        <v>609</v>
       </c>
       <c r="L177" s="31"/>
       <c r="M177" s="2"/>
@@ -12781,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>2</v>
@@ -12791,10 +12788,10 @@
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="K178" s="18" t="s">
         <v>610</v>
-      </c>
-      <c r="K178" s="18" t="s">
-        <v>611</v>
       </c>
       <c r="L178" s="31"/>
       <c r="M178" s="2"/>
@@ -12836,7 +12833,7 @@
         <v>5</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>2</v>
@@ -12846,10 +12843,10 @@
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="K179" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="K179" s="18" t="s">
-        <v>613</v>
       </c>
       <c r="L179" s="26"/>
       <c r="M179" s="2"/>
@@ -12891,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>2</v>
@@ -12901,10 +12898,10 @@
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="K180" s="18" t="s">
         <v>614</v>
-      </c>
-      <c r="K180" s="18" t="s">
-        <v>615</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="2"/>
@@ -12946,7 +12943,7 @@
         <v>5</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>2</v>
@@ -12959,7 +12956,7 @@
         <v>288</v>
       </c>
       <c r="K181" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="2"/>
@@ -13001,7 +12998,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>2</v>
@@ -13014,7 +13011,7 @@
         <v>306</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13056,7 +13053,7 @@
         <v>5</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>2</v>
@@ -13069,7 +13066,7 @@
         <v>308</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13111,7 +13108,7 @@
         <v>5</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>2</v>
@@ -13166,7 +13163,7 @@
         <v>5</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>2</v>
@@ -13176,7 +13173,7 @@
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>263</v>
@@ -13208,7 +13205,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13221,7 +13218,7 @@
         <v>5</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>2</v>
@@ -13234,7 +13231,7 @@
         <v>416</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L186" s="21"/>
       <c r="M186" s="2"/>
@@ -13286,13 +13283,13 @@
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="K187" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="K187" s="16" t="s">
+      <c r="L187" s="24" t="s">
         <v>622</v>
-      </c>
-      <c r="L187" s="24" t="s">
-        <v>623</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -13343,10 +13340,10 @@
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="K188" s="16" t="s">
         <v>624</v>
-      </c>
-      <c r="K188" s="16" t="s">
-        <v>625</v>
       </c>
       <c r="L188" s="16" t="s">
         <v>317</v>
@@ -13400,13 +13397,13 @@
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="K189" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="K189" s="16" t="s">
+      <c r="L189" s="18" t="s">
         <v>627</v>
-      </c>
-      <c r="L189" s="18" t="s">
-        <v>628</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -13457,10 +13454,10 @@
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="K190" s="16" t="s">
         <v>629</v>
-      </c>
-      <c r="K190" s="16" t="s">
-        <v>630</v>
       </c>
       <c r="L190" s="16" t="s">
         <v>320</v>
@@ -13514,7 +13511,7 @@
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K191" s="16" t="s">
         <v>417</v>
@@ -13571,13 +13568,13 @@
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="K192" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="K192" s="16" t="s">
+      <c r="L192" s="24" t="s">
         <v>633</v>
-      </c>
-      <c r="L192" s="24" t="s">
-        <v>634</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13631,10 +13628,10 @@
         <v>324</v>
       </c>
       <c r="K193" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="L193" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="L193" s="18" t="s">
-        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13688,10 +13685,10 @@
         <v>327</v>
       </c>
       <c r="K194" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="L194" s="18" t="s">
         <v>637</v>
-      </c>
-      <c r="L194" s="18" t="s">
-        <v>638</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13745,10 +13742,10 @@
         <v>330</v>
       </c>
       <c r="K195" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="L195" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="L195" s="18" t="s">
-        <v>640</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13802,10 +13799,10 @@
         <v>333</v>
       </c>
       <c r="K196" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="L196" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="L196" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13859,10 +13856,10 @@
         <v>336</v>
       </c>
       <c r="K197" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="L197" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="L197" s="18" t="s">
-        <v>644</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13916,10 +13913,10 @@
         <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="L198" s="24" t="s">
         <v>645</v>
-      </c>
-      <c r="L198" s="24" t="s">
-        <v>646</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13973,10 +13970,10 @@
         <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="L199" s="24" t="s">
         <v>647</v>
-      </c>
-      <c r="L199" s="24" t="s">
-        <v>648</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14030,10 +14027,10 @@
         <v>345</v>
       </c>
       <c r="K200" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="L200" s="32" t="s">
         <v>649</v>
-      </c>
-      <c r="L200" s="32" t="s">
-        <v>650</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14084,13 +14081,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="K201" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="K201" s="16" t="s">
+      <c r="L201" s="24" t="s">
         <v>652</v>
-      </c>
-      <c r="L201" s="24" t="s">
-        <v>653</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14141,10 +14138,10 @@
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="K202" s="18" t="s">
         <v>654</v>
-      </c>
-      <c r="K202" s="18" t="s">
-        <v>655</v>
       </c>
       <c r="L202" s="31"/>
       <c r="M202" s="2"/>
@@ -14186,7 +14183,7 @@
         <v>101</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>2</v>
@@ -14196,10 +14193,10 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="K203" s="18" t="s">
         <v>656</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>657</v>
       </c>
       <c r="L203" s="26"/>
       <c r="M203" s="2"/>
@@ -14241,7 +14238,7 @@
         <v>101</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>2</v>
@@ -14251,7 +14248,7 @@
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>357</v>
@@ -14296,7 +14293,7 @@
         <v>101</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>2</v>
@@ -14309,7 +14306,7 @@
         <v>358</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L205" s="31"/>
       <c r="M205" s="2"/>
@@ -14351,7 +14348,7 @@
         <v>101</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>2</v>
@@ -14361,10 +14358,10 @@
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="K206" s="18" t="s">
         <v>660</v>
-      </c>
-      <c r="K206" s="18" t="s">
-        <v>661</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14406,7 +14403,7 @@
         <v>101</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>2</v>
@@ -14416,10 +14413,10 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="K207" s="18" t="s">
         <v>662</v>
-      </c>
-      <c r="K207" s="18" t="s">
-        <v>663</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14461,7 +14458,7 @@
         <v>101</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>2</v>
@@ -14474,7 +14471,7 @@
         <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14503,7 +14500,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14516,7 +14513,7 @@
         <v>101</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>2</v>
@@ -14526,10 +14523,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="K209" s="18" t="s">
         <v>665</v>
-      </c>
-      <c r="K209" s="18" t="s">
-        <v>666</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14859,7 +14856,7 @@
         <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -15024,7 +15021,7 @@
         <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15134,7 +15131,7 @@
         <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC36DA79-BB05-4A19-A257-D697A5CF8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8EA8D-5F0A-461D-83EB-F7D19AD3A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
@@ -1789,11 +1789,6 @@
 Section c) (viii) obliges the reseller to refrain from transmitting unsolicited commercial communication in any manner that would violate the Law.</t>
   </si>
   <si>
-    <t>This must be specifically stated in the form (Enrollment) when the reseller is registered as a CSP. If it is not stated in the form, this must be clarified with Microsoft.
-These obligations must be reviewed in detail and routines should be established to comply with these. 
-You must therefore specifically take into consideration the national regulation of unsolicited commercial communication.</t>
-  </si>
-  <si>
     <t>"Proprietary Rights" section 3 "Use of Marks"</t>
   </si>
   <si>
@@ -1946,10 +1941,6 @@
   <si>
     <t>Note the obligation to ensure that end customers accept Microsoft's terms (Microsoft Customer Agreement) without modification, prior to ordering. This must be the version of MCA applicable to the region in which the customer operates. Please, note that failure to comply with the obligation to ensure end customers' acceptance of Microsoft's terms and conditions (MCA) will entail liability for any cost or damage on Microsoft’s side.
 Please, note also that Microsoft may amend the Microsoft Customer Agreement with 30 days' notice, which then must be used in relation to new customers, and the reseller must ensure that existing customers accept updated terms either when they make additional orders, or when they renew the subscription period.</t>
-  </si>
-  <si>
-    <t>Must be ensured through the agreement between the reseller and the individual end customer, where the Microsoft Customer Agreement must be accepted by the end customer, including that this entails the establishment of a direct agreement between Microsoft and the individual end customer. 
-Establish procedures for complying with the obligations and that this is documented. In the agreement with the end customers, you must include a link to MCA and other agreement documents such as, Product Terms, SLA, DPA, and possibly other agreement documents that apply (such as Financial addendum for banking and financial customers).</t>
   </si>
   <si>
     <t>If Microsoft updates processes and tools that you can use to manage individual customer subscriptions, reseller may be asked to implement such updates to be permitted to undertake such activities, including reselling.</t>
@@ -2119,20 +2110,11 @@
 Note also that Microsoft does not promise availability, and may change, suspend, or remove the sandbox application without notice, nor does Microsoft guarantee that configurations, data, etc. can be obtained.</t>
   </si>
   <si>
-    <t>Review:https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center to check requirements for setup and use, and create routines to comply with the duty of disclosure. 
-Thus, you should not be dependent on such an environment to deliver contractual obligations to end customers. Because there is no guarantee that the service will be there the next day, or that it will be possible to retrieve the content. However, it is practical to use it in connection with testing of integrations with Microsoft products (before starting to resell to end customers).</t>
-  </si>
-  <si>
     <t>Azure Partner Shared Services can be resold only to end customers, if the reseller meets the eligibility requirements set by Microsoft. 
 The reseller have the right to provision end customer tenants to its «Azure Partner Shared Services» tenant, so the reseller may provision shared resources and host SaaS solutions which are used by several of its end customers. 
 The reseller must keep tenants for Azure Partner Shared Services separate from its customers' own Azure accounts.
 NOTE that the reseller will be subject to the terms of the Microsoft Customer Agreement when using this service. This means that the MCA should be reviewed, so you have control over rights and obligations. The most important is probably that the reseller must 1) comply with export control regulations, 2) comply with license restrictions (it is prohibited to decompile code, etc.) and 3) comply with the acceptable use policy, as well as check for restrictions for the use of the service in the Product Terms.
 Note also that the reseller will be liable for any tax charges associated with the use of the service.</t>
-  </si>
-  <si>
-    <t>Check if such eligibility requirements exist. Procedures must be established to comply with eligibility requirements. 
-Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
-Before the service is put into use, you should consider possible tax costs.</t>
   </si>
   <si>
     <t>The Guide provides some additional terms that apply when the reseller resell Microsoft Azure Stack Hub services hosted on servers belonging to the reseller or its end customers: 
@@ -2145,18 +2127,8 @@
 Reseller is also liable for assessing any tax liabilities arising from the use.</t>
   </si>
   <si>
-    <t>These terms should be reviewed in detail upon resale. 
-Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
-Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
-Establish procedure to comply with the obligations.</t>
-  </si>
-  <si>
     <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
 Note that the amounts reseller must pay to Microsoft will include taxes and fees.</t>
-  </si>
-  <si>
-    <t>Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
-Check this in advance as the price can go up compared with the price lists.</t>
   </si>
   <si>
     <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
@@ -2172,20 +2144,8 @@
 The reseller is obliged to use reasonable efforts to market Government Products to government customers. If Company markets Government Products, Company shall do so only with advertisement or marketing materials that clearly indicate that the Government Product is only available for purchase by Government Customers</t>
   </si>
   <si>
-    <t>Check if such eligibility requirements exist. 
-Procedures must be established to comply with such eligibility requirements. 
-Remember to store documentation that proves that each individual public customer actually meets the requirements. 
-Remember to make it clear that such offers are for government customers only.</t>
-  </si>
-  <si>
     <t>Reseller may resell Education Offer only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for government customers are identified in the Microsoft price lists. 
 Before selling products considered "Education Products" to end customers, the reseller is responsible for validating that the end customer meets the eligibility requirements for being an Educational Customer. However, if Microsoft determines that the end customer does not meet the eligibility requirements, Microsoft may reject the individual end customer.</t>
-  </si>
-  <si>
-    <t>Check if such eligibility requirements exist. 
-Procedures must be established to comply with such eligibility requirements.
-For each end customer, consider (and document) that the customer meets the eligibility requirements that you can find here: 
-http://www.aka.ms/academiceligibility.</t>
   </si>
   <si>
     <t>The reseller may resell ISV Cloud Embed Offers only if the reseller meets the eligibility requirements set by Microsoft.
@@ -2196,10 +2156,6 @@
 The reseller must prior to offering subscriptions to Embedded Unified Solution receive validation from Microsoft that the solution satisfies the guidelines available at https://appsource.microsoft.com/en-us/partners.</t>
   </si>
   <si>
-    <t>Check that you meet the eligibility requirements stated here: http://createopportunity.azurewebsites.net/ISVCloudEmbedTerms
-Procedures must be established to comply with such eligibility requirements.</t>
-  </si>
-  <si>
     <t>If the reseller wants to resell Third Party Offers, the reseller must request access to such third-party products by completing the "Third Party Offers Interest Form". Microsoft is free to limit the number and geography of resellers of Third-Party Offer. 
 The reseller can order, manage, and cancel such subscriptions through the Partner Portal, and the reseller shall use the applicable Third-Party Provider Solution when required. 
 Reseller shall also provide Microsoft or relevant third parties with information they may reasonably require in relation to tax documentation. 
@@ -2208,10 +2164,6 @@
 Reseller must also check that the relevant end customer is eligible according to Microsoft requirements.</t>
   </si>
   <si>
-    <t>Remember to complete the Third Party Offers Interest Form.
-Familiarize yourself with what support each relevant contract party provides according to its terms.</t>
-  </si>
-  <si>
     <t>"Product Specific Terms and Conditions", section 10 “Non-profit Offer Terms”.</t>
   </si>
   <si>
@@ -2284,6 +2236,54 @@
   </si>
   <si>
     <t>09.23</t>
+  </si>
+  <si>
+    <t>This must be specifically stated in the form (Enrollment) when the reseller is registered as a CSP. If it is not stated in the form, this must be clarified with Microsoft.
+These obligations must be reviewed in detail and routines should be established to comply with these. 
+You must therefore specifically take into consideration the national regulation of unsolicited commercial communication.</t>
+  </si>
+  <si>
+    <t>Must be ensured through the agreement between the reseller and the individual end customer, where the Microsoft Customer Agreement must be accepted by the end customer, including that this entails the establishment of a direct agreement between Microsoft and the individual end customer. 
+Establish procedures for complying with the obligations and that this is documented. In the agreement with the end customers, you must include a link to MCA and other agreement documents such as, Product Terms, SLA, DPA, and possibly other agreement documents that apply (such as Financial addendum for banking and financial customers).</t>
+  </si>
+  <si>
+    <t>Review:https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center to check requirements for setup and use, and create routines to comply with the duty of disclosure. 
+Thus, you should not be dependent on such an environment to deliver contractual obligations to end customers. Because there is no guarantee that the service will be there the next day, or that it will be possible to retrieve the content. However, it is practical to use it in connection with testing of integrations with Microsoft products (before starting to resell to end customers).</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. Procedures must be established to comply with eligibility requirements. 
+Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
+Before the service is put into use, you should consider possible tax costs.</t>
+  </si>
+  <si>
+    <t>These terms should be reviewed in detail upon resale. 
+Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
+Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
+Establish procedure to comply with the obligations.</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
+Check this in advance as the price can go up compared with the price lists.</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. 
+Procedures must be established to comply with such eligibility requirements. 
+Remember to store documentation that proves that each individual public customer actually meets the requirements. 
+Remember to make it clear that such offers are for government customers only.</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. 
+Procedures must be established to comply with such eligibility requirements.
+For each end customer, consider (and document) that the customer meets the eligibility requirements that you can find here: 
+http://www.aka.ms/academiceligibility.</t>
+  </si>
+  <si>
+    <t>Remember to complete the Third Party Offers Interest Form.
+Familiarize yourself with what support each relevant contract party provides according to its terms.</t>
+  </si>
+  <si>
+    <t>Check that you meet the eligibility requirements stated here: http://createopportunity.azurewebsites.net/ISVCloudEmbedTerms
+Procedures must be established to comply with such eligibility requirements.</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2552,14 +2552,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2875,11 +2884,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2890,7 +2900,7 @@
     <col min="6" max="7" width="10.28515625" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.42578125" style="1" customWidth="1"/>
     <col min="10" max="11" width="42.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="71.140625" style="10" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -2955,7 +2965,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -3012,7 +3022,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -3069,7 +3079,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
@@ -3126,7 +3136,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3193,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="214.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
@@ -3240,7 +3250,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3307,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>19</v>
       </c>
@@ -3354,7 +3364,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
@@ -3409,7 +3419,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -3464,7 +3474,7 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
@@ -3519,7 +3529,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
@@ -3574,7 +3584,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="146.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -3629,7 +3639,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
@@ -3684,7 +3694,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -3739,7 +3749,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
@@ -3794,7 +3804,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
@@ -3849,7 +3859,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +3914,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
@@ -3959,7 +3969,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>95</v>
       </c>
@@ -4014,7 +4024,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>97</v>
       </c>
@@ -4069,7 +4079,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>98</v>
       </c>
@@ -4124,7 +4134,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>99</v>
       </c>
@@ -4179,7 +4189,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
@@ -4209,7 +4219,7 @@
       <c r="K24" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="32" t="s">
         <v>187</v>
       </c>
       <c r="M24" s="2"/>
@@ -4236,7 +4246,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
@@ -4293,7 +4303,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
@@ -4350,7 +4360,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
@@ -4407,7 +4417,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
@@ -4462,7 +4472,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
@@ -4517,7 +4527,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
@@ -4572,7 +4582,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
@@ -4627,7 +4637,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
@@ -4682,7 +4692,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>39</v>
       </c>
@@ -4737,7 +4747,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
@@ -4792,7 +4802,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>41</v>
       </c>
@@ -4847,7 +4857,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
@@ -4902,7 +4912,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>43</v>
       </c>
@@ -4957,7 +4967,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
@@ -5014,7 +5024,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>45</v>
       </c>
@@ -5071,7 +5081,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>46</v>
       </c>
@@ -5101,7 +5111,7 @@
       <c r="K40" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="32" t="s">
         <v>225</v>
       </c>
       <c r="M40" s="2"/>
@@ -5128,7 +5138,7 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
@@ -5158,7 +5168,7 @@
       <c r="K41" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="L41" s="18" t="s">
+      <c r="L41" s="32" t="s">
         <v>228</v>
       </c>
       <c r="M41" s="2"/>
@@ -5185,7 +5195,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -5242,7 +5252,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>49</v>
       </c>
@@ -5297,7 +5307,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
@@ -5352,7 +5362,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>51</v>
       </c>
@@ -5407,7 +5417,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
@@ -5462,7 +5472,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>53</v>
       </c>
@@ -5517,7 +5527,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>54</v>
       </c>
@@ -5572,7 +5582,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
@@ -5627,7 +5637,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>56</v>
       </c>
@@ -5682,7 +5692,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
@@ -5737,7 +5747,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>58</v>
       </c>
@@ -5792,7 +5802,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
@@ -5847,7 +5857,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
@@ -5902,7 +5912,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>61</v>
       </c>
@@ -5957,7 +5967,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
@@ -6012,7 +6022,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
@@ -6067,7 +6077,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
@@ -6122,7 +6132,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>65</v>
       </c>
@@ -6177,7 +6187,7 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
@@ -6207,7 +6217,7 @@
       <c r="K60" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="L60" s="18" t="s">
+      <c r="L60" s="32" t="s">
         <v>268</v>
       </c>
       <c r="M60" s="2"/>
@@ -6234,7 +6244,7 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>67</v>
       </c>
@@ -6291,7 +6301,7 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>68</v>
       </c>
@@ -6346,7 +6356,7 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>69</v>
       </c>
@@ -6376,7 +6386,7 @@
       <c r="K63" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L63" s="32" t="s">
         <v>276</v>
       </c>
       <c r="M63" s="2"/>
@@ -6403,7 +6413,7 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
@@ -6433,7 +6443,7 @@
       <c r="K64" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="L64" s="32" t="s">
         <v>279</v>
       </c>
       <c r="M64" s="2"/>
@@ -6460,7 +6470,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>71</v>
       </c>
@@ -6517,7 +6527,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>72</v>
       </c>
@@ -6574,7 +6584,7 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>73</v>
       </c>
@@ -6629,7 +6639,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
@@ -6684,7 +6694,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>75</v>
       </c>
@@ -6739,7 +6749,7 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>76</v>
       </c>
@@ -6794,7 +6804,7 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>77</v>
       </c>
@@ -6849,7 +6859,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>78</v>
       </c>
@@ -6904,7 +6914,7 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>79</v>
       </c>
@@ -6959,7 +6969,7 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
@@ -7014,7 +7024,7 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
@@ -7069,7 +7079,7 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>82</v>
       </c>
@@ -7124,7 +7134,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>83</v>
       </c>
@@ -7179,7 +7189,7 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>84</v>
       </c>
@@ -7234,7 +7244,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>85</v>
       </c>
@@ -7289,7 +7299,7 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>86</v>
       </c>
@@ -7344,7 +7354,7 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>87</v>
       </c>
@@ -7401,7 +7411,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="112.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>419</v>
       </c>
@@ -7458,7 +7468,7 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="123.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>420</v>
       </c>
@@ -7515,7 +7525,7 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>421</v>
       </c>
@@ -7545,7 +7555,7 @@
       <c r="K84" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="L84" s="24" t="s">
+      <c r="L84" s="33" t="s">
         <v>323</v>
       </c>
       <c r="M84" s="2"/>
@@ -7572,7 +7582,7 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>422</v>
       </c>
@@ -7602,7 +7612,7 @@
       <c r="K85" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="L85" s="18" t="s">
+      <c r="L85" s="32" t="s">
         <v>326</v>
       </c>
       <c r="M85" s="2"/>
@@ -7629,7 +7639,7 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>423</v>
       </c>
@@ -7659,7 +7669,7 @@
       <c r="K86" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L86" s="18" t="s">
+      <c r="L86" s="32" t="s">
         <v>329</v>
       </c>
       <c r="M86" s="2"/>
@@ -7686,7 +7696,7 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>424</v>
       </c>
@@ -7743,7 +7753,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>425</v>
       </c>
@@ -7800,7 +7810,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>426</v>
       </c>
@@ -7830,7 +7840,7 @@
       <c r="K89" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="L89" s="18" t="s">
+      <c r="L89" s="32" t="s">
         <v>338</v>
       </c>
       <c r="M89" s="2"/>
@@ -7857,7 +7867,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>427</v>
       </c>
@@ -7887,7 +7897,7 @@
       <c r="K90" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L90" s="33" t="s">
         <v>341</v>
       </c>
       <c r="M90" s="2"/>
@@ -7914,7 +7924,7 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="168.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>428</v>
       </c>
@@ -7944,7 +7954,7 @@
       <c r="K91" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="L91" s="18" t="s">
+      <c r="L91" s="32" t="s">
         <v>344</v>
       </c>
       <c r="M91" s="2"/>
@@ -7971,7 +7981,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>429</v>
       </c>
@@ -8001,7 +8011,7 @@
       <c r="K92" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="L92" s="18" t="s">
+      <c r="L92" s="32" t="s">
         <v>347</v>
       </c>
       <c r="M92" s="2"/>
@@ -8028,7 +8038,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>430</v>
       </c>
@@ -8083,7 +8093,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>431</v>
       </c>
@@ -8138,7 +8148,7 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>432</v>
       </c>
@@ -8193,7 +8203,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>433</v>
       </c>
@@ -8248,7 +8258,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>434</v>
       </c>
@@ -8303,7 +8313,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>435</v>
       </c>
@@ -8358,7 +8368,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>436</v>
       </c>
@@ -8413,7 +8423,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>437</v>
       </c>
@@ -8468,7 +8478,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>438</v>
       </c>
@@ -8523,7 +8533,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>439</v>
       </c>
@@ -8578,7 +8588,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>102</v>
       </c>
@@ -8633,7 +8643,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>103</v>
       </c>
@@ -8688,7 +8698,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>104</v>
       </c>
@@ -8743,7 +8753,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>105</v>
       </c>
@@ -8798,7 +8808,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>106</v>
       </c>
@@ -8853,7 +8863,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>107</v>
       </c>
@@ -8908,7 +8918,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>108</v>
       </c>
@@ -8963,7 +8973,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>109</v>
       </c>
@@ -9018,7 +9028,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>110</v>
       </c>
@@ -9073,7 +9083,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>111</v>
       </c>
@@ -9128,7 +9138,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
@@ -9183,7 +9193,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>113</v>
       </c>
@@ -9238,7 +9248,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>114</v>
       </c>
@@ -9293,7 +9303,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>115</v>
       </c>
@@ -9348,7 +9358,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>118</v>
       </c>
@@ -9433,7 +9443,7 @@
       <c r="K118" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="L118" s="30" t="s">
+      <c r="L118" s="34" t="s">
         <v>534</v>
       </c>
       <c r="M118" s="2"/>
@@ -9490,7 +9500,7 @@
       <c r="K119" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L119" s="18" t="s">
+      <c r="L119" s="32" t="s">
         <v>535</v>
       </c>
       <c r="M119" s="2"/>
@@ -9547,7 +9557,7 @@
       <c r="K120" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L120" s="18" t="s">
+      <c r="L120" s="32" t="s">
         <v>536</v>
       </c>
       <c r="M120" s="2"/>
@@ -9604,8 +9614,8 @@
       <c r="K121" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="L121" s="18" t="s">
-        <v>538</v>
+      <c r="L121" s="32" t="s">
+        <v>661</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -9656,12 +9666,12 @@
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="K122" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="K122" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="L122" s="24" t="s">
+      <c r="L122" s="33" t="s">
         <v>396</v>
       </c>
       <c r="M122" s="2"/>
@@ -9716,9 +9726,9 @@
         <v>149</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="L123" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="L123" s="32" t="s">
         <v>151</v>
       </c>
       <c r="M123" s="2"/>
@@ -9773,9 +9783,9 @@
         <v>152</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="L124" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="L124" s="32" t="s">
         <v>154</v>
       </c>
       <c r="M124" s="2"/>
@@ -10102,7 +10112,7 @@
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K130" s="18" t="s">
         <v>182</v>
@@ -10215,9 +10225,9 @@
         <v>185</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="L132" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="L132" s="32" t="s">
         <v>187</v>
       </c>
       <c r="M132" s="2"/>
@@ -10272,7 +10282,7 @@
         <v>188</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>190</v>
@@ -10326,13 +10336,13 @@
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="K134" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="K134" s="16" t="s">
+      <c r="L134" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="L134" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10443,7 +10453,7 @@
         <v>191</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>193</v>
@@ -10497,10 +10507,10 @@
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>551</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>400</v>
@@ -10554,10 +10564,10 @@
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="K138" s="16" t="s">
         <v>552</v>
-      </c>
-      <c r="K138" s="16" t="s">
-        <v>553</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>401</v>
@@ -10611,13 +10621,13 @@
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="K139" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="K139" s="16" t="s">
+      <c r="L139" s="32" t="s">
         <v>555</v>
-      </c>
-      <c r="L139" s="18" t="s">
-        <v>556</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -10668,10 +10678,10 @@
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K140" s="16" t="s">
         <v>557</v>
-      </c>
-      <c r="K140" s="16" t="s">
-        <v>558</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>271</v>
@@ -10782,12 +10792,12 @@
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="K142" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="K142" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="L142" s="31"/>
+      <c r="L142" s="30"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -10837,12 +10847,12 @@
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="K143" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="K143" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="L143" s="31"/>
+      <c r="L143" s="30"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -10892,10 +10902,10 @@
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>563</v>
-      </c>
-      <c r="K144" s="18" t="s">
-        <v>564</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="2"/>
@@ -10947,10 +10957,10 @@
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="K145" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="K145" s="18" t="s">
-        <v>566</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="2"/>
@@ -11002,10 +11012,10 @@
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="K146" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="K146" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="2"/>
@@ -11167,10 +11177,10 @@
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K149" s="18" t="s">
         <v>569</v>
-      </c>
-      <c r="K149" s="18" t="s">
-        <v>570</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="2"/>
@@ -11222,10 +11232,10 @@
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="K150" s="18" t="s">
         <v>571</v>
-      </c>
-      <c r="K150" s="18" t="s">
-        <v>572</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="2"/>
@@ -11335,7 +11345,7 @@
         <v>272</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11390,7 +11400,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11442,12 +11452,12 @@
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="L154" s="31"/>
+        <v>574</v>
+      </c>
+      <c r="L154" s="30"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -11500,7 +11510,7 @@
         <v>217</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>219</v>
@@ -11557,7 +11567,7 @@
         <v>234</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>222</v>
@@ -11614,9 +11624,9 @@
         <v>274</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="L157" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="L157" s="32" t="s">
         <v>276</v>
       </c>
       <c r="M157" s="2"/>
@@ -11728,9 +11738,9 @@
         <v>405</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="L159" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="L159" s="32" t="s">
         <v>406</v>
       </c>
       <c r="M159" s="2"/>
@@ -11785,10 +11795,10 @@
         <v>407</v>
       </c>
       <c r="K160" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="L160" s="16" t="s">
         <v>580</v>
-      </c>
-      <c r="L160" s="16" t="s">
-        <v>581</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11839,13 +11849,13 @@
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="K161" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K161" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="L161" s="18" t="s">
-        <v>584</v>
+      <c r="L161" s="32" t="s">
+        <v>662</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11899,7 +11909,7 @@
         <v>408</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>409</v>
@@ -11956,7 +11966,7 @@
         <v>283</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>285</v>
@@ -12010,12 +12020,12 @@
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="L164" s="18" t="s">
+      <c r="L164" s="32" t="s">
         <v>228</v>
       </c>
       <c r="M164" s="2"/>
@@ -12067,10 +12077,10 @@
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>231</v>
@@ -12127,7 +12137,7 @@
         <v>410</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>411</v>
@@ -12184,7 +12194,7 @@
         <v>310</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>412</v>
@@ -12238,10 +12248,10 @@
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K168" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="2"/>
@@ -12293,7 +12303,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>413</v>
@@ -12351,7 +12361,7 @@
         <v>414</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="2"/>
@@ -12403,10 +12413,10 @@
       </c>
       <c r="I171" s="17"/>
       <c r="J171" s="16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K171" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="2"/>
@@ -12458,10 +12468,10 @@
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K172" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="2"/>
@@ -12516,7 +12526,7 @@
         <v>290</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L173" s="21"/>
       <c r="M173" s="2"/>
@@ -12568,12 +12578,12 @@
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K174" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="L174" s="31"/>
+        <v>600</v>
+      </c>
+      <c r="L174" s="30"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -12623,10 +12633,10 @@
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K175" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="2"/>
@@ -12678,12 +12688,12 @@
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="L176" s="31"/>
+        <v>604</v>
+      </c>
+      <c r="L176" s="30"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -12733,12 +12743,12 @@
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="K177" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="L177" s="31"/>
+        <v>605</v>
+      </c>
+      <c r="K177" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="L177" s="30"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -12788,12 +12798,12 @@
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K178" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="L178" s="31"/>
+        <v>608</v>
+      </c>
+      <c r="L178" s="30"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -12843,10 +12853,10 @@
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K179" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L179" s="26"/>
       <c r="M179" s="2"/>
@@ -12898,10 +12908,10 @@
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K180" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="2"/>
@@ -12956,7 +12966,7 @@
         <v>288</v>
       </c>
       <c r="K181" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="2"/>
@@ -13011,7 +13021,7 @@
         <v>306</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13066,7 +13076,7 @@
         <v>308</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13173,7 +13183,7 @@
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>263</v>
@@ -13205,7 +13215,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13231,7 +13241,7 @@
         <v>416</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L186" s="21"/>
       <c r="M186" s="2"/>
@@ -13283,13 +13293,13 @@
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K187" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="L187" s="33" t="s">
         <v>620</v>
-      </c>
-      <c r="K187" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="L187" s="24" t="s">
-        <v>622</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -13340,10 +13350,10 @@
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L188" s="16" t="s">
         <v>317</v>
@@ -13397,13 +13407,13 @@
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="K189" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="L189" s="32" t="s">
         <v>625</v>
-      </c>
-      <c r="K189" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="L189" s="18" t="s">
-        <v>627</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -13454,10 +13464,10 @@
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L190" s="16" t="s">
         <v>320</v>
@@ -13511,7 +13521,7 @@
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K191" s="16" t="s">
         <v>417</v>
@@ -13568,13 +13578,13 @@
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="L192" s="24" t="s">
-        <v>633</v>
+        <v>630</v>
+      </c>
+      <c r="L192" s="33" t="s">
+        <v>663</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13628,10 +13638,10 @@
         <v>324</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="L193" s="18" t="s">
-        <v>635</v>
+        <v>631</v>
+      </c>
+      <c r="L193" s="32" t="s">
+        <v>664</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13685,10 +13695,10 @@
         <v>327</v>
       </c>
       <c r="K194" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="L194" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
+      </c>
+      <c r="L194" s="32" t="s">
+        <v>665</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13742,10 +13752,10 @@
         <v>330</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="L195" s="18" t="s">
-        <v>639</v>
+        <v>633</v>
+      </c>
+      <c r="L195" s="32" t="s">
+        <v>666</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13799,10 +13809,10 @@
         <v>333</v>
       </c>
       <c r="K196" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="L196" s="18" t="s">
-        <v>641</v>
+        <v>634</v>
+      </c>
+      <c r="L196" s="32" t="s">
+        <v>635</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13856,10 +13866,10 @@
         <v>336</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="L197" s="18" t="s">
-        <v>643</v>
+        <v>636</v>
+      </c>
+      <c r="L197" s="32" t="s">
+        <v>667</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13913,10 +13923,10 @@
         <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="L198" s="24" t="s">
-        <v>645</v>
+        <v>637</v>
+      </c>
+      <c r="L198" s="33" t="s">
+        <v>668</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13970,10 +13980,10 @@
         <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="L199" s="24" t="s">
-        <v>647</v>
+        <v>638</v>
+      </c>
+      <c r="L199" s="33" t="s">
+        <v>670</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14027,10 +14037,10 @@
         <v>345</v>
       </c>
       <c r="K200" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="L200" s="32" t="s">
-        <v>649</v>
+        <v>639</v>
+      </c>
+      <c r="L200" s="35" t="s">
+        <v>669</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14081,13 +14091,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="L201" s="24" t="s">
-        <v>652</v>
+        <v>641</v>
+      </c>
+      <c r="L201" s="33" t="s">
+        <v>642</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14138,12 +14148,12 @@
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K202" s="18" t="s">
-        <v>654</v>
-      </c>
-      <c r="L202" s="31"/>
+        <v>644</v>
+      </c>
+      <c r="L202" s="30"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -14193,10 +14203,10 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="K203" s="18" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="L203" s="26"/>
       <c r="M203" s="2"/>
@@ -14248,12 +14258,12 @@
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="L204" s="31"/>
+      <c r="L204" s="30"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -14306,9 +14316,9 @@
         <v>358</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="L205" s="31"/>
+        <v>648</v>
+      </c>
+      <c r="L205" s="30"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -14358,10 +14368,10 @@
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="K206" s="18" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14413,10 +14423,10 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="K207" s="18" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14471,7 +14481,7 @@
         <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14500,7 +14510,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14523,10 +14533,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K209" s="18" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14856,7 +14866,7 @@
         <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -15021,7 +15031,7 @@
         <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15131,7 +15141,7 @@
         <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>
@@ -15389,7 +15399,6 @@
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
       <c r="K225" s="10"/>
-      <c r="L225" s="10"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -15425,7 +15434,6 @@
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
       <c r="K226" s="10"/>
-      <c r="L226" s="10"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -15461,7 +15469,6 @@
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
       <c r="K227" s="10"/>
-      <c r="L227" s="10"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -15497,7 +15504,6 @@
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
       <c r="K228" s="10"/>
-      <c r="L228" s="10"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -15533,7 +15539,6 @@
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10"/>
-      <c r="L229" s="10"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -15569,7 +15574,6 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10"/>
-      <c r="L230" s="10"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -15605,7 +15609,6 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
-      <c r="L231" s="10"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -15641,7 +15644,6 @@
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
-      <c r="L232" s="10"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -15677,7 +15679,6 @@
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
       <c r="K233" s="10"/>
-      <c r="L233" s="10"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -15713,7 +15714,6 @@
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
       <c r="K234" s="10"/>
-      <c r="L234" s="10"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -15749,7 +15749,6 @@
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10"/>
-      <c r="L235" s="10"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -15785,7 +15784,6 @@
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="10"/>
-      <c r="L236" s="10"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -15821,7 +15819,6 @@
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="10"/>
-      <c r="L237" s="10"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -15857,7 +15854,6 @@
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
       <c r="K238" s="10"/>
-      <c r="L238" s="10"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -15893,7 +15889,6 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="10"/>
-      <c r="L239" s="10"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -15929,7 +15924,6 @@
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
       <c r="K240" s="10"/>
-      <c r="L240" s="10"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -15965,7 +15959,6 @@
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
-      <c r="L241" s="10"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -16001,7 +15994,6 @@
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
-      <c r="L242" s="10"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -16037,7 +16029,6 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
-      <c r="L243" s="10"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -16073,7 +16064,6 @@
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
       <c r="K244" s="10"/>
-      <c r="L244" s="10"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -16109,7 +16099,6 @@
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
-      <c r="L245" s="10"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -16145,7 +16134,6 @@
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
-      <c r="L246" s="10"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -16181,7 +16169,6 @@
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
-      <c r="L247" s="10"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -16217,7 +16204,6 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
-      <c r="L248" s="10"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -16253,7 +16239,6 @@
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
-      <c r="L249" s="10"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -16289,7 +16274,6 @@
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
-      <c r="L250" s="10"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -16325,7 +16309,6 @@
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10"/>
-      <c r="L251" s="10"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -16361,7 +16344,6 @@
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
-      <c r="L252" s="10"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -16397,7 +16379,6 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10"/>
-      <c r="L253" s="10"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -16433,7 +16414,6 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
-      <c r="L254" s="10"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -16469,7 +16449,6 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
-      <c r="L255" s="10"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -16505,7 +16484,6 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
-      <c r="L256" s="10"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -16541,7 +16519,6 @@
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
-      <c r="L257" s="10"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -16577,7 +16554,6 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
-      <c r="L258" s="10"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -16613,7 +16589,6 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10"/>
-      <c r="L259" s="10"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -16649,7 +16624,6 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10"/>
-      <c r="L260" s="10"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -16685,7 +16659,6 @@
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
-      <c r="L261" s="10"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -16721,7 +16694,6 @@
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10"/>
-      <c r="L262" s="10"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -16757,7 +16729,6 @@
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="10"/>
-      <c r="L263" s="10"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -16793,7 +16764,6 @@
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10"/>
-      <c r="L264" s="10"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -16829,7 +16799,6 @@
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
-      <c r="L265" s="10"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -16865,7 +16834,6 @@
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10"/>
-      <c r="L266" s="10"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
@@ -16901,7 +16869,6 @@
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -16937,7 +16904,6 @@
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10"/>
-      <c r="L268" s="10"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -16973,7 +16939,6 @@
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -17009,7 +16974,6 @@
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10"/>
-      <c r="L270" s="10"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -17045,7 +17009,6 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
-      <c r="L271" s="10"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -17081,7 +17044,6 @@
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
-      <c r="L272" s="10"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -17117,7 +17079,6 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
-      <c r="L273" s="10"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -17153,7 +17114,6 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10"/>
-      <c r="L274" s="10"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -17189,7 +17149,6 @@
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10"/>
-      <c r="L275" s="10"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -17225,7 +17184,6 @@
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10"/>
-      <c r="L276" s="10"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
@@ -17261,7 +17219,6 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
-      <c r="L277" s="10"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -17297,7 +17254,6 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
-      <c r="L278" s="10"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -17333,7 +17289,6 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
-      <c r="L279" s="10"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -17369,7 +17324,6 @@
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
-      <c r="L280" s="10"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -17405,7 +17359,6 @@
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
-      <c r="L281" s="10"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
@@ -17441,7 +17394,6 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10"/>
-      <c r="L282" s="10"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -17477,7 +17429,6 @@
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10"/>
-      <c r="L283" s="10"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -17513,7 +17464,6 @@
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10"/>
-      <c r="L284" s="10"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -17549,7 +17499,6 @@
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10"/>
-      <c r="L285" s="10"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -17585,7 +17534,6 @@
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10"/>
-      <c r="L286" s="10"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
@@ -17621,7 +17569,6 @@
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="10"/>
-      <c r="L287" s="10"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -17657,7 +17604,6 @@
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
@@ -17693,7 +17639,6 @@
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10"/>
-      <c r="L289" s="10"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -17729,7 +17674,6 @@
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="10"/>
-      <c r="L290" s="10"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -17765,7 +17709,6 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10"/>
-      <c r="L291" s="10"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -17801,7 +17744,6 @@
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10"/>
-      <c r="L292" s="10"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
@@ -17837,7 +17779,6 @@
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10"/>
-      <c r="L293" s="10"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
@@ -17873,7 +17814,6 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10"/>
-      <c r="L294" s="10"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -17909,7 +17849,6 @@
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10"/>
-      <c r="L295" s="10"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -17945,7 +17884,6 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10"/>
-      <c r="L296" s="10"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -17981,7 +17919,6 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
-      <c r="L297" s="10"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -18017,7 +17954,6 @@
       <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="10"/>
-      <c r="L298" s="10"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
@@ -18053,7 +17989,6 @@
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="10"/>
-      <c r="L299" s="10"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -18089,7 +18024,6 @@
       <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10"/>
-      <c r="L300" s="10"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
@@ -18125,7 +18059,6 @@
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
-      <c r="L301" s="10"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -18161,7 +18094,6 @@
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
-      <c r="L302" s="10"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
@@ -18197,7 +18129,6 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
-      <c r="L303" s="10"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
@@ -18233,7 +18164,6 @@
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
-      <c r="L304" s="10"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
@@ -18269,7 +18199,6 @@
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
-      <c r="L305" s="10"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -18305,7 +18234,6 @@
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
-      <c r="L306" s="10"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
@@ -18341,7 +18269,6 @@
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
-      <c r="L307" s="10"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -18377,7 +18304,6 @@
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
-      <c r="L308" s="10"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
@@ -18413,7 +18339,6 @@
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
-      <c r="L309" s="10"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
@@ -18449,7 +18374,6 @@
       <c r="I310" s="10"/>
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
-      <c r="L310" s="10"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
@@ -18485,7 +18409,6 @@
       <c r="I311" s="10"/>
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
-      <c r="L311" s="10"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
@@ -18521,7 +18444,6 @@
       <c r="I312" s="10"/>
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
-      <c r="L312" s="10"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
@@ -18557,7 +18479,6 @@
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
-      <c r="L313" s="10"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -18593,7 +18514,6 @@
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
-      <c r="L314" s="10"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -18629,7 +18549,6 @@
       <c r="I315" s="10"/>
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
-      <c r="L315" s="10"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
@@ -18665,7 +18584,6 @@
       <c r="I316" s="10"/>
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
-      <c r="L316" s="10"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
@@ -18701,7 +18619,6 @@
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
-      <c r="L317" s="10"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
@@ -18737,7 +18654,6 @@
       <c r="I318" s="10"/>
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
-      <c r="L318" s="10"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
@@ -18773,7 +18689,6 @@
       <c r="I319" s="10"/>
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
-      <c r="L319" s="10"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -18809,7 +18724,6 @@
       <c r="I320" s="10"/>
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
-      <c r="L320" s="10"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -18845,7 +18759,6 @@
       <c r="I321" s="10"/>
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
-      <c r="L321" s="10"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -18881,7 +18794,6 @@
       <c r="I322" s="10"/>
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
-      <c r="L322" s="10"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
@@ -18917,7 +18829,6 @@
       <c r="I323" s="10"/>
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
-      <c r="L323" s="10"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
@@ -18953,7 +18864,6 @@
       <c r="I324" s="10"/>
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
-      <c r="L324" s="10"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
@@ -18989,7 +18899,6 @@
       <c r="I325" s="10"/>
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
-      <c r="L325" s="10"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
@@ -19025,7 +18934,6 @@
       <c r="I326" s="10"/>
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
-      <c r="L326" s="10"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
@@ -19061,7 +18969,6 @@
       <c r="I327" s="10"/>
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
-      <c r="L327" s="10"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -19097,7 +19004,6 @@
       <c r="I328" s="10"/>
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
-      <c r="L328" s="10"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
@@ -19133,7 +19039,6 @@
       <c r="I329" s="10"/>
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
-      <c r="L329" s="10"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
@@ -19169,7 +19074,6 @@
       <c r="I330" s="10"/>
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
-      <c r="L330" s="10"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
@@ -19205,7 +19109,6 @@
       <c r="I331" s="10"/>
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
-      <c r="L331" s="10"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
@@ -19241,7 +19144,6 @@
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
-      <c r="L332" s="10"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
@@ -19277,7 +19179,6 @@
       <c r="I333" s="10"/>
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
-      <c r="L333" s="10"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
@@ -19313,7 +19214,6 @@
       <c r="I334" s="10"/>
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
-      <c r="L334" s="10"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -19349,7 +19249,6 @@
       <c r="I335" s="10"/>
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
-      <c r="L335" s="10"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
@@ -19385,7 +19284,6 @@
       <c r="I336" s="10"/>
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
-      <c r="L336" s="10"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
@@ -19421,7 +19319,6 @@
       <c r="I337" s="10"/>
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
-      <c r="L337" s="10"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -19457,7 +19354,6 @@
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
-      <c r="L338" s="10"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
@@ -19493,7 +19389,6 @@
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
-      <c r="L339" s="10"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -19529,7 +19424,6 @@
       <c r="I340" s="10"/>
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
-      <c r="L340" s="10"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
@@ -19565,7 +19459,6 @@
       <c r="I341" s="10"/>
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
-      <c r="L341" s="10"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
@@ -19601,7 +19494,6 @@
       <c r="I342" s="10"/>
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
-      <c r="L342" s="10"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
@@ -19637,7 +19529,6 @@
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
-      <c r="L343" s="10"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -19673,7 +19564,6 @@
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
-      <c r="L344" s="10"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
@@ -19709,7 +19599,6 @@
       <c r="I345" s="10"/>
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
-      <c r="L345" s="10"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
@@ -19745,7 +19634,6 @@
       <c r="I346" s="10"/>
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
-      <c r="L346" s="10"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
@@ -19781,7 +19669,6 @@
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
@@ -19817,7 +19704,6 @@
       <c r="I348" s="10"/>
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
-      <c r="L348" s="10"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
@@ -19853,7 +19739,6 @@
       <c r="I349" s="10"/>
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
-      <c r="L349" s="10"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
@@ -19889,7 +19774,6 @@
       <c r="I350" s="10"/>
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
-      <c r="L350" s="10"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
@@ -19925,7 +19809,6 @@
       <c r="I351" s="10"/>
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
-      <c r="L351" s="10"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -19961,7 +19844,6 @@
       <c r="I352" s="10"/>
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
-      <c r="L352" s="10"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
@@ -19997,7 +19879,6 @@
       <c r="I353" s="10"/>
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
-      <c r="L353" s="10"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -20033,7 +19914,6 @@
       <c r="I354" s="10"/>
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
-      <c r="L354" s="10"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
@@ -20069,7 +19949,6 @@
       <c r="I355" s="10"/>
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
-      <c r="L355" s="10"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
@@ -20105,7 +19984,6 @@
       <c r="I356" s="10"/>
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
-      <c r="L356" s="10"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
@@ -20141,7 +20019,6 @@
       <c r="I357" s="10"/>
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
@@ -20177,7 +20054,6 @@
       <c r="I358" s="10"/>
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
-      <c r="L358" s="10"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
@@ -20213,7 +20089,6 @@
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
-      <c r="L359" s="10"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
@@ -20249,7 +20124,6 @@
       <c r="I360" s="10"/>
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
-      <c r="L360" s="10"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
@@ -20285,7 +20159,6 @@
       <c r="I361" s="10"/>
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
-      <c r="L361" s="10"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
@@ -20321,7 +20194,6 @@
       <c r="I362" s="10"/>
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
-      <c r="L362" s="10"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
@@ -20357,7 +20229,6 @@
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
-      <c r="L363" s="10"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
@@ -20393,7 +20264,6 @@
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
-      <c r="L364" s="10"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
@@ -20429,7 +20299,6 @@
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
-      <c r="L365" s="10"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
@@ -20465,7 +20334,6 @@
       <c r="I366" s="10"/>
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
-      <c r="L366" s="10"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
@@ -20501,7 +20369,6 @@
       <c r="I367" s="10"/>
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
-      <c r="L367" s="10"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
@@ -20537,7 +20404,6 @@
       <c r="I368" s="10"/>
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
-      <c r="L368" s="10"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
@@ -20573,7 +20439,6 @@
       <c r="I369" s="10"/>
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
-      <c r="L369" s="10"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
@@ -20609,7 +20474,6 @@
       <c r="I370" s="10"/>
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
-      <c r="L370" s="10"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
@@ -20645,7 +20509,6 @@
       <c r="I371" s="10"/>
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
-      <c r="L371" s="10"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
@@ -20681,7 +20544,6 @@
       <c r="I372" s="10"/>
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
-      <c r="L372" s="10"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
@@ -20717,7 +20579,6 @@
       <c r="I373" s="10"/>
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
-      <c r="L373" s="10"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
@@ -20753,7 +20614,6 @@
       <c r="I374" s="10"/>
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
-      <c r="L374" s="10"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
@@ -20789,7 +20649,6 @@
       <c r="I375" s="10"/>
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
-      <c r="L375" s="10"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -20825,7 +20684,6 @@
       <c r="I376" s="10"/>
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
-      <c r="L376" s="10"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
@@ -20861,7 +20719,6 @@
       <c r="I377" s="10"/>
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
-      <c r="L377" s="10"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
@@ -20897,7 +20754,6 @@
       <c r="I378" s="10"/>
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
-      <c r="L378" s="10"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
@@ -20933,7 +20789,6 @@
       <c r="I379" s="10"/>
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
-      <c r="L379" s="10"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
@@ -20969,7 +20824,6 @@
       <c r="I380" s="10"/>
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
-      <c r="L380" s="10"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
@@ -21005,7 +20859,6 @@
       <c r="I381" s="10"/>
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
-      <c r="L381" s="10"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
       <c r="O381" s="2"/>
@@ -21041,7 +20894,6 @@
       <c r="I382" s="10"/>
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
-      <c r="L382" s="10"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
@@ -21077,7 +20929,6 @@
       <c r="I383" s="10"/>
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
-      <c r="L383" s="10"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
       <c r="O383" s="2"/>
@@ -21113,7 +20964,6 @@
       <c r="I384" s="10"/>
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
-      <c r="L384" s="10"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
@@ -21149,7 +20999,6 @@
       <c r="I385" s="10"/>
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
-      <c r="L385" s="10"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -21185,7 +21034,6 @@
       <c r="I386" s="10"/>
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
-      <c r="L386" s="10"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
       <c r="O386" s="2"/>
@@ -21221,7 +21069,6 @@
       <c r="I387" s="10"/>
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
-      <c r="L387" s="10"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
@@ -21257,7 +21104,6 @@
       <c r="I388" s="10"/>
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
-      <c r="L388" s="10"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
       <c r="O388" s="2"/>
@@ -21293,7 +21139,6 @@
       <c r="I389" s="10"/>
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
-      <c r="L389" s="10"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
       <c r="O389" s="2"/>
@@ -21329,7 +21174,6 @@
       <c r="I390" s="10"/>
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
-      <c r="L390" s="10"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
@@ -21365,7 +21209,6 @@
       <c r="I391" s="10"/>
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
-      <c r="L391" s="10"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -21401,7 +21244,6 @@
       <c r="I392" s="10"/>
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
-      <c r="L392" s="10"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
@@ -21437,7 +21279,6 @@
       <c r="I393" s="10"/>
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
-      <c r="L393" s="10"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
       <c r="O393" s="2"/>
@@ -21473,7 +21314,6 @@
       <c r="I394" s="10"/>
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
-      <c r="L394" s="10"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
@@ -21509,7 +21349,6 @@
       <c r="I395" s="10"/>
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
-      <c r="L395" s="10"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
       <c r="O395" s="2"/>
@@ -21545,7 +21384,6 @@
       <c r="I396" s="10"/>
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
-      <c r="L396" s="10"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
@@ -21581,7 +21419,6 @@
       <c r="I397" s="10"/>
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
-      <c r="L397" s="10"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
       <c r="O397" s="2"/>
@@ -21617,7 +21454,6 @@
       <c r="I398" s="10"/>
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
-      <c r="L398" s="10"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
@@ -21653,7 +21489,6 @@
       <c r="I399" s="10"/>
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
-      <c r="L399" s="10"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
       <c r="O399" s="2"/>
@@ -21689,7 +21524,6 @@
       <c r="I400" s="10"/>
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
-      <c r="L400" s="10"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
@@ -21725,7 +21559,6 @@
       <c r="I401" s="10"/>
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
-      <c r="L401" s="10"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
       <c r="O401" s="2"/>
@@ -21761,7 +21594,6 @@
       <c r="I402" s="10"/>
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
-      <c r="L402" s="10"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
@@ -21797,7 +21629,6 @@
       <c r="I403" s="10"/>
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
-      <c r="L403" s="10"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
@@ -21833,7 +21664,6 @@
       <c r="I404" s="10"/>
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
-      <c r="L404" s="10"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
@@ -21869,7 +21699,6 @@
       <c r="I405" s="10"/>
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
-      <c r="L405" s="10"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
@@ -21905,7 +21734,6 @@
       <c r="I406" s="10"/>
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
-      <c r="L406" s="10"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
@@ -21941,7 +21769,6 @@
       <c r="I407" s="10"/>
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
-      <c r="L407" s="10"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
@@ -21977,7 +21804,6 @@
       <c r="I408" s="10"/>
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
-      <c r="L408" s="10"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
       <c r="O408" s="2"/>
@@ -22013,7 +21839,6 @@
       <c r="I409" s="10"/>
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
-      <c r="L409" s="10"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
       <c r="O409" s="2"/>
@@ -22049,7 +21874,6 @@
       <c r="I410" s="10"/>
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
-      <c r="L410" s="10"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
@@ -22085,7 +21909,6 @@
       <c r="I411" s="10"/>
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
-      <c r="L411" s="10"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
@@ -22121,7 +21944,6 @@
       <c r="I412" s="10"/>
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
-      <c r="L412" s="10"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
@@ -22157,7 +21979,6 @@
       <c r="I413" s="10"/>
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
-      <c r="L413" s="10"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
@@ -22193,7 +22014,6 @@
       <c r="I414" s="10"/>
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
-      <c r="L414" s="10"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
@@ -22229,7 +22049,6 @@
       <c r="I415" s="10"/>
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
-      <c r="L415" s="10"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
@@ -22265,7 +22084,6 @@
       <c r="I416" s="10"/>
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
-      <c r="L416" s="10"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
@@ -22301,7 +22119,6 @@
       <c r="I417" s="10"/>
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
-      <c r="L417" s="10"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -22337,7 +22154,6 @@
       <c r="I418" s="10"/>
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
-      <c r="L418" s="10"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
@@ -22373,7 +22189,6 @@
       <c r="I419" s="10"/>
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
-      <c r="L419" s="10"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
@@ -22409,7 +22224,6 @@
       <c r="I420" s="10"/>
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
-      <c r="L420" s="10"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
@@ -22445,7 +22259,6 @@
       <c r="I421" s="10"/>
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
-      <c r="L421" s="10"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
@@ -22481,7 +22294,6 @@
       <c r="I422" s="10"/>
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
-      <c r="L422" s="10"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
@@ -22517,7 +22329,6 @@
       <c r="I423" s="10"/>
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
-      <c r="L423" s="10"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
       <c r="O423" s="2"/>
@@ -22553,7 +22364,6 @@
       <c r="I424" s="10"/>
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
-      <c r="L424" s="10"/>
       <c r="M424" s="2"/>
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
@@ -22589,7 +22399,6 @@
       <c r="I425" s="10"/>
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
-      <c r="L425" s="10"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
       <c r="O425" s="2"/>
@@ -22625,7 +22434,6 @@
       <c r="I426" s="10"/>
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
-      <c r="L426" s="10"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
@@ -22661,7 +22469,6 @@
       <c r="I427" s="10"/>
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
-      <c r="L427" s="10"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
@@ -22697,7 +22504,6 @@
       <c r="I428" s="10"/>
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
-      <c r="L428" s="10"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
@@ -22733,7 +22539,6 @@
       <c r="I429" s="10"/>
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
-      <c r="L429" s="10"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
@@ -22769,7 +22574,6 @@
       <c r="I430" s="10"/>
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
-      <c r="L430" s="10"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
@@ -22805,7 +22609,6 @@
       <c r="I431" s="10"/>
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
-      <c r="L431" s="10"/>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
@@ -22841,7 +22644,6 @@
       <c r="I432" s="10"/>
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
-      <c r="L432" s="10"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
@@ -22877,7 +22679,6 @@
       <c r="I433" s="10"/>
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
-      <c r="L433" s="10"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
@@ -22913,7 +22714,6 @@
       <c r="I434" s="10"/>
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
-      <c r="L434" s="10"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
@@ -22949,7 +22749,6 @@
       <c r="I435" s="10"/>
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
-      <c r="L435" s="10"/>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
@@ -22985,7 +22784,6 @@
       <c r="I436" s="10"/>
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
-      <c r="L436" s="10"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
@@ -23021,7 +22819,6 @@
       <c r="I437" s="10"/>
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
-      <c r="L437" s="10"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
@@ -23057,7 +22854,6 @@
       <c r="I438" s="10"/>
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
-      <c r="L438" s="10"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
@@ -23093,7 +22889,6 @@
       <c r="I439" s="10"/>
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
-      <c r="L439" s="10"/>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
@@ -23129,7 +22924,6 @@
       <c r="I440" s="10"/>
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
-      <c r="L440" s="10"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
@@ -23165,7 +22959,6 @@
       <c r="I441" s="10"/>
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
-      <c r="L441" s="10"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
@@ -23201,7 +22994,6 @@
       <c r="I442" s="10"/>
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
-      <c r="L442" s="10"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
@@ -23237,7 +23029,6 @@
       <c r="I443" s="10"/>
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
-      <c r="L443" s="10"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
@@ -23273,7 +23064,6 @@
       <c r="I444" s="10"/>
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
-      <c r="L444" s="10"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
@@ -23309,7 +23099,6 @@
       <c r="I445" s="10"/>
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
-      <c r="L445" s="10"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
@@ -23345,7 +23134,6 @@
       <c r="I446" s="10"/>
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
-      <c r="L446" s="10"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
@@ -23381,7 +23169,6 @@
       <c r="I447" s="10"/>
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
-      <c r="L447" s="10"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
@@ -23417,7 +23204,6 @@
       <c r="I448" s="10"/>
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
-      <c r="L448" s="10"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
@@ -23453,7 +23239,6 @@
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
-      <c r="L449" s="10"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -23489,7 +23274,6 @@
       <c r="I450" s="10"/>
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
-      <c r="L450" s="10"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
@@ -23525,7 +23309,6 @@
       <c r="I451" s="10"/>
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
-      <c r="L451" s="10"/>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
@@ -23561,7 +23344,6 @@
       <c r="I452" s="10"/>
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
-      <c r="L452" s="10"/>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
@@ -23597,7 +23379,6 @@
       <c r="I453" s="10"/>
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
-      <c r="L453" s="10"/>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
@@ -23633,7 +23414,6 @@
       <c r="I454" s="10"/>
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
-      <c r="L454" s="10"/>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
@@ -23669,7 +23449,6 @@
       <c r="I455" s="10"/>
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
-      <c r="L455" s="10"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
@@ -23705,7 +23484,6 @@
       <c r="I456" s="10"/>
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
-      <c r="L456" s="10"/>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
@@ -23741,7 +23519,6 @@
       <c r="I457" s="10"/>
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
-      <c r="L457" s="10"/>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
@@ -23777,7 +23554,6 @@
       <c r="I458" s="10"/>
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
-      <c r="L458" s="10"/>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
@@ -23813,7 +23589,6 @@
       <c r="I459" s="10"/>
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
-      <c r="L459" s="10"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
@@ -23849,7 +23624,6 @@
       <c r="I460" s="10"/>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
-      <c r="L460" s="10"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
@@ -23885,7 +23659,6 @@
       <c r="I461" s="10"/>
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
-      <c r="L461" s="10"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
@@ -23921,7 +23694,6 @@
       <c r="I462" s="10"/>
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
-      <c r="L462" s="10"/>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
@@ -23957,7 +23729,6 @@
       <c r="I463" s="10"/>
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
-      <c r="L463" s="10"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
@@ -23993,7 +23764,6 @@
       <c r="I464" s="10"/>
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
-      <c r="L464" s="10"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
@@ -24029,7 +23799,6 @@
       <c r="I465" s="10"/>
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
-      <c r="L465" s="10"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
@@ -24065,7 +23834,6 @@
       <c r="I466" s="10"/>
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
-      <c r="L466" s="10"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
@@ -24101,7 +23869,6 @@
       <c r="I467" s="10"/>
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
-      <c r="L467" s="10"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
@@ -24137,7 +23904,6 @@
       <c r="I468" s="10"/>
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
-      <c r="L468" s="10"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
@@ -24173,7 +23939,6 @@
       <c r="I469" s="10"/>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
-      <c r="L469" s="10"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
@@ -24209,7 +23974,6 @@
       <c r="I470" s="10"/>
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
-      <c r="L470" s="10"/>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
@@ -24245,7 +24009,6 @@
       <c r="I471" s="10"/>
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
-      <c r="L471" s="10"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
@@ -24281,7 +24044,6 @@
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
-      <c r="L472" s="10"/>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
@@ -24317,7 +24079,6 @@
       <c r="I473" s="10"/>
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
-      <c r="L473" s="10"/>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
@@ -24353,7 +24114,6 @@
       <c r="I474" s="10"/>
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
-      <c r="L474" s="10"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
@@ -24389,7 +24149,6 @@
       <c r="I475" s="10"/>
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
-      <c r="L475" s="10"/>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
@@ -24425,7 +24184,6 @@
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
-      <c r="L476" s="10"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
@@ -24461,7 +24219,6 @@
       <c r="I477" s="10"/>
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
-      <c r="L477" s="10"/>
       <c r="M477" s="2"/>
       <c r="N477" s="2"/>
       <c r="O477" s="2"/>
@@ -24497,7 +24254,6 @@
       <c r="I478" s="10"/>
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
-      <c r="L478" s="10"/>
       <c r="M478" s="2"/>
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
@@ -24533,7 +24289,6 @@
       <c r="I479" s="10"/>
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
-      <c r="L479" s="10"/>
       <c r="M479" s="2"/>
       <c r="N479" s="2"/>
       <c r="O479" s="2"/>
@@ -24569,7 +24324,6 @@
       <c r="I480" s="10"/>
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
-      <c r="L480" s="10"/>
       <c r="M480" s="2"/>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
@@ -24605,7 +24359,6 @@
       <c r="I481" s="10"/>
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
-      <c r="L481" s="10"/>
       <c r="M481" s="2"/>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -24641,7 +24394,6 @@
       <c r="I482" s="10"/>
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
-      <c r="L482" s="10"/>
       <c r="M482" s="2"/>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
@@ -24677,7 +24429,6 @@
       <c r="I483" s="10"/>
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
-      <c r="L483" s="10"/>
       <c r="M483" s="2"/>
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
@@ -24713,7 +24464,6 @@
       <c r="I484" s="10"/>
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
-      <c r="L484" s="10"/>
       <c r="M484" s="2"/>
       <c r="N484" s="2"/>
       <c r="O484" s="2"/>
@@ -24749,7 +24499,6 @@
       <c r="I485" s="10"/>
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
-      <c r="L485" s="10"/>
       <c r="M485" s="2"/>
       <c r="N485" s="2"/>
       <c r="O485" s="2"/>
@@ -24785,7 +24534,6 @@
       <c r="I486" s="10"/>
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
-      <c r="L486" s="10"/>
       <c r="M486" s="2"/>
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
@@ -24821,7 +24569,6 @@
       <c r="I487" s="10"/>
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
-      <c r="L487" s="10"/>
       <c r="M487" s="2"/>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
@@ -24857,7 +24604,6 @@
       <c r="I488" s="10"/>
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
-      <c r="L488" s="10"/>
       <c r="M488" s="2"/>
       <c r="N488" s="2"/>
       <c r="O488" s="2"/>
@@ -24893,7 +24639,6 @@
       <c r="I489" s="10"/>
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
-      <c r="L489" s="10"/>
       <c r="M489" s="2"/>
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
@@ -24929,7 +24674,6 @@
       <c r="I490" s="10"/>
       <c r="J490" s="10"/>
       <c r="K490" s="10"/>
-      <c r="L490" s="10"/>
       <c r="M490" s="2"/>
       <c r="N490" s="2"/>
       <c r="O490" s="2"/>
@@ -24965,7 +24709,6 @@
       <c r="I491" s="10"/>
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
-      <c r="L491" s="10"/>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
@@ -25001,7 +24744,6 @@
       <c r="I492" s="10"/>
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
-      <c r="L492" s="10"/>
       <c r="M492" s="2"/>
       <c r="N492" s="2"/>
       <c r="O492" s="2"/>
@@ -25037,7 +24779,6 @@
       <c r="I493" s="10"/>
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
-      <c r="L493" s="10"/>
       <c r="M493" s="2"/>
       <c r="N493" s="2"/>
       <c r="O493" s="2"/>
@@ -25073,7 +24814,6 @@
       <c r="I494" s="10"/>
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
-      <c r="L494" s="10"/>
       <c r="M494" s="2"/>
       <c r="N494" s="2"/>
       <c r="O494" s="2"/>
@@ -25109,7 +24849,6 @@
       <c r="I495" s="10"/>
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
-      <c r="L495" s="10"/>
       <c r="M495" s="2"/>
       <c r="N495" s="2"/>
       <c r="O495" s="2"/>
@@ -25145,7 +24884,6 @@
       <c r="I496" s="10"/>
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
-      <c r="L496" s="10"/>
       <c r="M496" s="2"/>
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
@@ -25181,7 +24919,6 @@
       <c r="I497" s="10"/>
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
-      <c r="L497" s="10"/>
       <c r="M497" s="2"/>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
@@ -25217,7 +24954,6 @@
       <c r="I498" s="10"/>
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
-      <c r="L498" s="10"/>
       <c r="M498" s="2"/>
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
@@ -25253,7 +24989,6 @@
       <c r="I499" s="10"/>
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
-      <c r="L499" s="10"/>
       <c r="M499" s="2"/>
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
@@ -25289,7 +25024,6 @@
       <c r="I500" s="10"/>
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
-      <c r="L500" s="10"/>
       <c r="M500" s="2"/>
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
@@ -25325,7 +25059,6 @@
       <c r="I501" s="10"/>
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
-      <c r="L501" s="10"/>
       <c r="M501" s="2"/>
       <c r="N501" s="2"/>
       <c r="O501" s="2"/>
@@ -25361,7 +25094,6 @@
       <c r="I502" s="10"/>
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
-      <c r="L502" s="10"/>
       <c r="M502" s="2"/>
       <c r="N502" s="2"/>
       <c r="O502" s="2"/>
@@ -25397,7 +25129,6 @@
       <c r="I503" s="10"/>
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
-      <c r="L503" s="10"/>
       <c r="M503" s="2"/>
       <c r="N503" s="2"/>
       <c r="O503" s="2"/>
@@ -25433,7 +25164,6 @@
       <c r="I504" s="10"/>
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
-      <c r="L504" s="10"/>
       <c r="M504" s="2"/>
       <c r="N504" s="2"/>
       <c r="O504" s="2"/>
@@ -25469,7 +25199,6 @@
       <c r="I505" s="10"/>
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
-      <c r="L505" s="10"/>
       <c r="M505" s="2"/>
       <c r="N505" s="2"/>
       <c r="O505" s="2"/>
@@ -25505,7 +25234,6 @@
       <c r="I506" s="10"/>
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
-      <c r="L506" s="10"/>
       <c r="M506" s="2"/>
       <c r="N506" s="2"/>
       <c r="O506" s="2"/>
@@ -25541,7 +25269,6 @@
       <c r="I507" s="10"/>
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
-      <c r="L507" s="10"/>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
       <c r="O507" s="2"/>
@@ -25577,7 +25304,6 @@
       <c r="I508" s="10"/>
       <c r="J508" s="10"/>
       <c r="K508" s="10"/>
-      <c r="L508" s="10"/>
       <c r="M508" s="2"/>
       <c r="N508" s="2"/>
       <c r="O508" s="2"/>
@@ -25613,7 +25339,6 @@
       <c r="I509" s="10"/>
       <c r="J509" s="10"/>
       <c r="K509" s="10"/>
-      <c r="L509" s="10"/>
       <c r="M509" s="2"/>
       <c r="N509" s="2"/>
       <c r="O509" s="2"/>
@@ -25649,7 +25374,6 @@
       <c r="I510" s="10"/>
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
-      <c r="L510" s="10"/>
       <c r="M510" s="2"/>
       <c r="N510" s="2"/>
       <c r="O510" s="2"/>
@@ -25685,7 +25409,6 @@
       <c r="I511" s="10"/>
       <c r="J511" s="10"/>
       <c r="K511" s="10"/>
-      <c r="L511" s="10"/>
       <c r="M511" s="2"/>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
@@ -25721,7 +25444,6 @@
       <c r="I512" s="10"/>
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
-      <c r="L512" s="10"/>
       <c r="M512" s="2"/>
       <c r="N512" s="2"/>
       <c r="O512" s="2"/>
@@ -25757,7 +25479,6 @@
       <c r="I513" s="10"/>
       <c r="J513" s="10"/>
       <c r="K513" s="10"/>
-      <c r="L513" s="10"/>
       <c r="M513" s="2"/>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
@@ -25793,7 +25514,6 @@
       <c r="I514" s="10"/>
       <c r="J514" s="10"/>
       <c r="K514" s="10"/>
-      <c r="L514" s="10"/>
       <c r="M514" s="2"/>
       <c r="N514" s="2"/>
       <c r="O514" s="2"/>
@@ -25829,7 +25549,6 @@
       <c r="I515" s="10"/>
       <c r="J515" s="10"/>
       <c r="K515" s="10"/>
-      <c r="L515" s="10"/>
       <c r="M515" s="2"/>
       <c r="N515" s="2"/>
       <c r="O515" s="2"/>
@@ -25865,7 +25584,6 @@
       <c r="I516" s="10"/>
       <c r="J516" s="10"/>
       <c r="K516" s="10"/>
-      <c r="L516" s="10"/>
       <c r="M516" s="2"/>
       <c r="N516" s="2"/>
       <c r="O516" s="2"/>
@@ -25901,7 +25619,6 @@
       <c r="I517" s="10"/>
       <c r="J517" s="10"/>
       <c r="K517" s="10"/>
-      <c r="L517" s="10"/>
       <c r="M517" s="2"/>
       <c r="N517" s="2"/>
       <c r="O517" s="2"/>
@@ -25937,7 +25654,6 @@
       <c r="I518" s="10"/>
       <c r="J518" s="10"/>
       <c r="K518" s="10"/>
-      <c r="L518" s="10"/>
       <c r="M518" s="2"/>
       <c r="N518" s="2"/>
       <c r="O518" s="2"/>
@@ -25973,7 +25689,6 @@
       <c r="I519" s="10"/>
       <c r="J519" s="10"/>
       <c r="K519" s="10"/>
-      <c r="L519" s="10"/>
       <c r="M519" s="2"/>
       <c r="N519" s="2"/>
       <c r="O519" s="2"/>
@@ -26009,7 +25724,6 @@
       <c r="I520" s="10"/>
       <c r="J520" s="10"/>
       <c r="K520" s="10"/>
-      <c r="L520" s="10"/>
       <c r="M520" s="2"/>
       <c r="N520" s="2"/>
       <c r="O520" s="2"/>
@@ -26045,7 +25759,6 @@
       <c r="I521" s="10"/>
       <c r="J521" s="10"/>
       <c r="K521" s="10"/>
-      <c r="L521" s="10"/>
       <c r="M521" s="2"/>
       <c r="N521" s="2"/>
       <c r="O521" s="2"/>
@@ -26081,7 +25794,6 @@
       <c r="I522" s="10"/>
       <c r="J522" s="10"/>
       <c r="K522" s="10"/>
-      <c r="L522" s="10"/>
       <c r="M522" s="2"/>
       <c r="N522" s="2"/>
       <c r="O522" s="2"/>
@@ -26117,7 +25829,6 @@
       <c r="I523" s="10"/>
       <c r="J523" s="10"/>
       <c r="K523" s="10"/>
-      <c r="L523" s="10"/>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
       <c r="O523" s="2"/>
@@ -26153,7 +25864,6 @@
       <c r="I524" s="10"/>
       <c r="J524" s="10"/>
       <c r="K524" s="10"/>
-      <c r="L524" s="10"/>
       <c r="M524" s="2"/>
       <c r="N524" s="2"/>
       <c r="O524" s="2"/>
@@ -26189,7 +25899,6 @@
       <c r="I525" s="10"/>
       <c r="J525" s="10"/>
       <c r="K525" s="10"/>
-      <c r="L525" s="10"/>
       <c r="M525" s="2"/>
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
@@ -26225,7 +25934,6 @@
       <c r="I526" s="10"/>
       <c r="J526" s="10"/>
       <c r="K526" s="10"/>
-      <c r="L526" s="10"/>
       <c r="M526" s="2"/>
       <c r="N526" s="2"/>
       <c r="O526" s="2"/>
@@ -26261,7 +25969,6 @@
       <c r="I527" s="10"/>
       <c r="J527" s="10"/>
       <c r="K527" s="10"/>
-      <c r="L527" s="10"/>
       <c r="M527" s="2"/>
       <c r="N527" s="2"/>
       <c r="O527" s="2"/>
@@ -26297,7 +26004,6 @@
       <c r="I528" s="10"/>
       <c r="J528" s="10"/>
       <c r="K528" s="10"/>
-      <c r="L528" s="10"/>
       <c r="M528" s="2"/>
       <c r="N528" s="2"/>
       <c r="O528" s="2"/>
@@ -26333,7 +26039,6 @@
       <c r="I529" s="10"/>
       <c r="J529" s="10"/>
       <c r="K529" s="10"/>
-      <c r="L529" s="10"/>
       <c r="M529" s="2"/>
       <c r="N529" s="2"/>
       <c r="O529" s="2"/>
@@ -26369,7 +26074,6 @@
       <c r="I530" s="10"/>
       <c r="J530" s="10"/>
       <c r="K530" s="10"/>
-      <c r="L530" s="10"/>
       <c r="M530" s="2"/>
       <c r="N530" s="2"/>
       <c r="O530" s="2"/>
@@ -26405,7 +26109,6 @@
       <c r="I531" s="10"/>
       <c r="J531" s="10"/>
       <c r="K531" s="10"/>
-      <c r="L531" s="10"/>
       <c r="M531" s="2"/>
       <c r="N531" s="2"/>
       <c r="O531" s="2"/>
@@ -26441,7 +26144,6 @@
       <c r="I532" s="10"/>
       <c r="J532" s="10"/>
       <c r="K532" s="10"/>
-      <c r="L532" s="10"/>
       <c r="M532" s="2"/>
       <c r="N532" s="2"/>
       <c r="O532" s="2"/>
@@ -26477,7 +26179,6 @@
       <c r="I533" s="10"/>
       <c r="J533" s="10"/>
       <c r="K533" s="10"/>
-      <c r="L533" s="10"/>
       <c r="M533" s="2"/>
       <c r="N533" s="2"/>
       <c r="O533" s="2"/>
@@ -26513,7 +26214,6 @@
       <c r="I534" s="10"/>
       <c r="J534" s="10"/>
       <c r="K534" s="10"/>
-      <c r="L534" s="10"/>
       <c r="M534" s="2"/>
       <c r="N534" s="2"/>
       <c r="O534" s="2"/>
@@ -26549,7 +26249,6 @@
       <c r="I535" s="10"/>
       <c r="J535" s="10"/>
       <c r="K535" s="10"/>
-      <c r="L535" s="10"/>
       <c r="M535" s="2"/>
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
@@ -26585,7 +26284,6 @@
       <c r="I536" s="10"/>
       <c r="J536" s="10"/>
       <c r="K536" s="10"/>
-      <c r="L536" s="10"/>
       <c r="M536" s="2"/>
       <c r="N536" s="2"/>
       <c r="O536" s="2"/>
@@ -26621,7 +26319,6 @@
       <c r="I537" s="10"/>
       <c r="J537" s="10"/>
       <c r="K537" s="10"/>
-      <c r="L537" s="10"/>
       <c r="M537" s="2"/>
       <c r="N537" s="2"/>
       <c r="O537" s="2"/>
@@ -26657,7 +26354,6 @@
       <c r="I538" s="10"/>
       <c r="J538" s="10"/>
       <c r="K538" s="10"/>
-      <c r="L538" s="10"/>
       <c r="M538" s="2"/>
       <c r="N538" s="2"/>
       <c r="O538" s="2"/>
@@ -26693,7 +26389,6 @@
       <c r="I539" s="10"/>
       <c r="J539" s="10"/>
       <c r="K539" s="10"/>
-      <c r="L539" s="10"/>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
@@ -26729,7 +26424,6 @@
       <c r="I540" s="10"/>
       <c r="J540" s="10"/>
       <c r="K540" s="10"/>
-      <c r="L540" s="10"/>
       <c r="M540" s="2"/>
       <c r="N540" s="2"/>
       <c r="O540" s="2"/>
@@ -26765,7 +26459,6 @@
       <c r="I541" s="10"/>
       <c r="J541" s="10"/>
       <c r="K541" s="10"/>
-      <c r="L541" s="10"/>
       <c r="M541" s="2"/>
       <c r="N541" s="2"/>
       <c r="O541" s="2"/>
@@ -26801,7 +26494,6 @@
       <c r="I542" s="10"/>
       <c r="J542" s="10"/>
       <c r="K542" s="10"/>
-      <c r="L542" s="10"/>
       <c r="M542" s="2"/>
       <c r="N542" s="2"/>
       <c r="O542" s="2"/>
@@ -26837,7 +26529,6 @@
       <c r="I543" s="10"/>
       <c r="J543" s="10"/>
       <c r="K543" s="10"/>
-      <c r="L543" s="10"/>
       <c r="M543" s="2"/>
       <c r="N543" s="2"/>
       <c r="O543" s="2"/>
@@ -26873,7 +26564,6 @@
       <c r="I544" s="10"/>
       <c r="J544" s="10"/>
       <c r="K544" s="10"/>
-      <c r="L544" s="10"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2"/>
       <c r="O544" s="2"/>
@@ -26909,7 +26599,6 @@
       <c r="I545" s="10"/>
       <c r="J545" s="10"/>
       <c r="K545" s="10"/>
-      <c r="L545" s="10"/>
       <c r="M545" s="2"/>
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
@@ -26945,7 +26634,6 @@
       <c r="I546" s="10"/>
       <c r="J546" s="10"/>
       <c r="K546" s="10"/>
-      <c r="L546" s="10"/>
       <c r="M546" s="2"/>
       <c r="N546" s="2"/>
       <c r="O546" s="2"/>
@@ -26981,7 +26669,6 @@
       <c r="I547" s="10"/>
       <c r="J547" s="10"/>
       <c r="K547" s="10"/>
-      <c r="L547" s="10"/>
       <c r="M547" s="2"/>
       <c r="N547" s="2"/>
       <c r="O547" s="2"/>
@@ -27017,7 +26704,6 @@
       <c r="I548" s="10"/>
       <c r="J548" s="10"/>
       <c r="K548" s="10"/>
-      <c r="L548" s="10"/>
       <c r="M548" s="2"/>
       <c r="N548" s="2"/>
       <c r="O548" s="2"/>
@@ -27053,7 +26739,6 @@
       <c r="I549" s="10"/>
       <c r="J549" s="10"/>
       <c r="K549" s="10"/>
-      <c r="L549" s="10"/>
       <c r="M549" s="2"/>
       <c r="N549" s="2"/>
       <c r="O549" s="2"/>
@@ -27089,7 +26774,6 @@
       <c r="I550" s="10"/>
       <c r="J550" s="10"/>
       <c r="K550" s="10"/>
-      <c r="L550" s="10"/>
       <c r="M550" s="2"/>
       <c r="N550" s="2"/>
       <c r="O550" s="2"/>
@@ -27125,7 +26809,6 @@
       <c r="I551" s="10"/>
       <c r="J551" s="10"/>
       <c r="K551" s="10"/>
-      <c r="L551" s="10"/>
       <c r="M551" s="2"/>
       <c r="N551" s="2"/>
       <c r="O551" s="2"/>
@@ -27161,7 +26844,6 @@
       <c r="I552" s="10"/>
       <c r="J552" s="10"/>
       <c r="K552" s="10"/>
-      <c r="L552" s="10"/>
       <c r="M552" s="2"/>
       <c r="N552" s="2"/>
       <c r="O552" s="2"/>
@@ -27197,7 +26879,6 @@
       <c r="I553" s="10"/>
       <c r="J553" s="10"/>
       <c r="K553" s="10"/>
-      <c r="L553" s="10"/>
       <c r="M553" s="2"/>
       <c r="N553" s="2"/>
       <c r="O553" s="2"/>
@@ -27233,7 +26914,6 @@
       <c r="I554" s="10"/>
       <c r="J554" s="10"/>
       <c r="K554" s="10"/>
-      <c r="L554" s="10"/>
       <c r="M554" s="2"/>
       <c r="N554" s="2"/>
       <c r="O554" s="2"/>
@@ -27269,7 +26949,6 @@
       <c r="I555" s="10"/>
       <c r="J555" s="10"/>
       <c r="K555" s="10"/>
-      <c r="L555" s="10"/>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
       <c r="O555" s="2"/>
@@ -27305,7 +26984,6 @@
       <c r="I556" s="10"/>
       <c r="J556" s="10"/>
       <c r="K556" s="10"/>
-      <c r="L556" s="10"/>
       <c r="M556" s="2"/>
       <c r="N556" s="2"/>
       <c r="O556" s="2"/>
@@ -27341,7 +27019,6 @@
       <c r="I557" s="10"/>
       <c r="J557" s="10"/>
       <c r="K557" s="10"/>
-      <c r="L557" s="10"/>
       <c r="M557" s="2"/>
       <c r="N557" s="2"/>
       <c r="O557" s="2"/>
@@ -27377,7 +27054,6 @@
       <c r="I558" s="10"/>
       <c r="J558" s="10"/>
       <c r="K558" s="10"/>
-      <c r="L558" s="10"/>
       <c r="M558" s="2"/>
       <c r="N558" s="2"/>
       <c r="O558" s="2"/>
@@ -27413,7 +27089,6 @@
       <c r="I559" s="10"/>
       <c r="J559" s="10"/>
       <c r="K559" s="10"/>
-      <c r="L559" s="10"/>
       <c r="M559" s="2"/>
       <c r="N559" s="2"/>
       <c r="O559" s="2"/>
@@ -27449,7 +27124,6 @@
       <c r="I560" s="10"/>
       <c r="J560" s="10"/>
       <c r="K560" s="10"/>
-      <c r="L560" s="10"/>
       <c r="M560" s="2"/>
       <c r="N560" s="2"/>
       <c r="O560" s="2"/>
@@ -27485,7 +27159,6 @@
       <c r="I561" s="10"/>
       <c r="J561" s="10"/>
       <c r="K561" s="10"/>
-      <c r="L561" s="10"/>
       <c r="M561" s="2"/>
       <c r="N561" s="2"/>
       <c r="O561" s="2"/>
@@ -27521,7 +27194,6 @@
       <c r="I562" s="10"/>
       <c r="J562" s="10"/>
       <c r="K562" s="10"/>
-      <c r="L562" s="10"/>
       <c r="M562" s="2"/>
       <c r="N562" s="2"/>
       <c r="O562" s="2"/>
@@ -27557,7 +27229,6 @@
       <c r="I563" s="10"/>
       <c r="J563" s="10"/>
       <c r="K563" s="10"/>
-      <c r="L563" s="10"/>
       <c r="M563" s="2"/>
       <c r="N563" s="2"/>
       <c r="O563" s="2"/>
@@ -27593,7 +27264,6 @@
       <c r="I564" s="10"/>
       <c r="J564" s="10"/>
       <c r="K564" s="10"/>
-      <c r="L564" s="10"/>
       <c r="M564" s="2"/>
       <c r="N564" s="2"/>
       <c r="O564" s="2"/>
@@ -27629,7 +27299,6 @@
       <c r="I565" s="10"/>
       <c r="J565" s="10"/>
       <c r="K565" s="10"/>
-      <c r="L565" s="10"/>
       <c r="M565" s="2"/>
       <c r="N565" s="2"/>
       <c r="O565" s="2"/>
@@ -27665,7 +27334,6 @@
       <c r="I566" s="10"/>
       <c r="J566" s="10"/>
       <c r="K566" s="10"/>
-      <c r="L566" s="10"/>
       <c r="M566" s="2"/>
       <c r="N566" s="2"/>
       <c r="O566" s="2"/>
@@ -27701,7 +27369,6 @@
       <c r="I567" s="10"/>
       <c r="J567" s="10"/>
       <c r="K567" s="10"/>
-      <c r="L567" s="10"/>
       <c r="M567" s="2"/>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
@@ -27737,7 +27404,6 @@
       <c r="I568" s="10"/>
       <c r="J568" s="10"/>
       <c r="K568" s="10"/>
-      <c r="L568" s="10"/>
       <c r="M568" s="2"/>
       <c r="N568" s="2"/>
       <c r="O568" s="2"/>
@@ -27773,7 +27439,6 @@
       <c r="I569" s="10"/>
       <c r="J569" s="10"/>
       <c r="K569" s="10"/>
-      <c r="L569" s="10"/>
       <c r="M569" s="2"/>
       <c r="N569" s="2"/>
       <c r="O569" s="2"/>
@@ -27809,7 +27474,6 @@
       <c r="I570" s="10"/>
       <c r="J570" s="10"/>
       <c r="K570" s="10"/>
-      <c r="L570" s="10"/>
       <c r="M570" s="2"/>
       <c r="N570" s="2"/>
       <c r="O570" s="2"/>
@@ -27845,7 +27509,6 @@
       <c r="I571" s="10"/>
       <c r="J571" s="10"/>
       <c r="K571" s="10"/>
-      <c r="L571" s="10"/>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
       <c r="O571" s="2"/>
@@ -27881,7 +27544,6 @@
       <c r="I572" s="10"/>
       <c r="J572" s="10"/>
       <c r="K572" s="10"/>
-      <c r="L572" s="10"/>
       <c r="M572" s="2"/>
       <c r="N572" s="2"/>
       <c r="O572" s="2"/>
@@ -27917,7 +27579,6 @@
       <c r="I573" s="10"/>
       <c r="J573" s="10"/>
       <c r="K573" s="10"/>
-      <c r="L573" s="10"/>
       <c r="M573" s="2"/>
       <c r="N573" s="2"/>
       <c r="O573" s="2"/>
@@ -27953,7 +27614,6 @@
       <c r="I574" s="10"/>
       <c r="J574" s="10"/>
       <c r="K574" s="10"/>
-      <c r="L574" s="10"/>
       <c r="M574" s="2"/>
       <c r="N574" s="2"/>
       <c r="O574" s="2"/>
@@ -27989,7 +27649,6 @@
       <c r="I575" s="10"/>
       <c r="J575" s="10"/>
       <c r="K575" s="10"/>
-      <c r="L575" s="10"/>
       <c r="M575" s="2"/>
       <c r="N575" s="2"/>
       <c r="O575" s="2"/>
@@ -28025,7 +27684,6 @@
       <c r="I576" s="10"/>
       <c r="J576" s="10"/>
       <c r="K576" s="10"/>
-      <c r="L576" s="10"/>
       <c r="M576" s="2"/>
       <c r="N576" s="2"/>
       <c r="O576" s="2"/>
@@ -28061,7 +27719,6 @@
       <c r="I577" s="10"/>
       <c r="J577" s="10"/>
       <c r="K577" s="10"/>
-      <c r="L577" s="10"/>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
@@ -28097,7 +27754,6 @@
       <c r="I578" s="10"/>
       <c r="J578" s="10"/>
       <c r="K578" s="10"/>
-      <c r="L578" s="10"/>
       <c r="M578" s="2"/>
       <c r="N578" s="2"/>
       <c r="O578" s="2"/>
@@ -28133,7 +27789,6 @@
       <c r="I579" s="10"/>
       <c r="J579" s="10"/>
       <c r="K579" s="10"/>
-      <c r="L579" s="10"/>
       <c r="M579" s="2"/>
       <c r="N579" s="2"/>
       <c r="O579" s="2"/>
@@ -28169,7 +27824,6 @@
       <c r="I580" s="10"/>
       <c r="J580" s="10"/>
       <c r="K580" s="10"/>
-      <c r="L580" s="10"/>
       <c r="M580" s="2"/>
       <c r="N580" s="2"/>
       <c r="O580" s="2"/>
@@ -28205,7 +27859,6 @@
       <c r="I581" s="10"/>
       <c r="J581" s="10"/>
       <c r="K581" s="10"/>
-      <c r="L581" s="10"/>
       <c r="M581" s="2"/>
       <c r="N581" s="2"/>
       <c r="O581" s="2"/>
@@ -28241,7 +27894,6 @@
       <c r="I582" s="10"/>
       <c r="J582" s="10"/>
       <c r="K582" s="10"/>
-      <c r="L582" s="10"/>
       <c r="M582" s="2"/>
       <c r="N582" s="2"/>
       <c r="O582" s="2"/>
@@ -28277,7 +27929,6 @@
       <c r="I583" s="10"/>
       <c r="J583" s="10"/>
       <c r="K583" s="10"/>
-      <c r="L583" s="10"/>
       <c r="M583" s="2"/>
       <c r="N583" s="2"/>
       <c r="O583" s="2"/>
@@ -28313,7 +27964,6 @@
       <c r="I584" s="10"/>
       <c r="J584" s="10"/>
       <c r="K584" s="10"/>
-      <c r="L584" s="10"/>
       <c r="M584" s="2"/>
       <c r="N584" s="2"/>
       <c r="O584" s="2"/>
@@ -28349,7 +27999,6 @@
       <c r="I585" s="10"/>
       <c r="J585" s="10"/>
       <c r="K585" s="10"/>
-      <c r="L585" s="10"/>
       <c r="M585" s="2"/>
       <c r="N585" s="2"/>
       <c r="O585" s="2"/>
@@ -28385,7 +28034,6 @@
       <c r="I586" s="10"/>
       <c r="J586" s="10"/>
       <c r="K586" s="10"/>
-      <c r="L586" s="10"/>
       <c r="M586" s="2"/>
       <c r="N586" s="2"/>
       <c r="O586" s="2"/>
@@ -28421,7 +28069,6 @@
       <c r="I587" s="10"/>
       <c r="J587" s="10"/>
       <c r="K587" s="10"/>
-      <c r="L587" s="10"/>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
       <c r="O587" s="2"/>
@@ -28457,7 +28104,6 @@
       <c r="I588" s="10"/>
       <c r="J588" s="10"/>
       <c r="K588" s="10"/>
-      <c r="L588" s="10"/>
       <c r="M588" s="2"/>
       <c r="N588" s="2"/>
       <c r="O588" s="2"/>
@@ -28493,7 +28139,6 @@
       <c r="I589" s="10"/>
       <c r="J589" s="10"/>
       <c r="K589" s="10"/>
-      <c r="L589" s="10"/>
       <c r="M589" s="2"/>
       <c r="N589" s="2"/>
       <c r="O589" s="2"/>
@@ -28529,7 +28174,6 @@
       <c r="I590" s="10"/>
       <c r="J590" s="10"/>
       <c r="K590" s="10"/>
-      <c r="L590" s="10"/>
       <c r="M590" s="2"/>
       <c r="N590" s="2"/>
       <c r="O590" s="2"/>
@@ -28565,7 +28209,6 @@
       <c r="I591" s="10"/>
       <c r="J591" s="10"/>
       <c r="K591" s="10"/>
-      <c r="L591" s="10"/>
       <c r="M591" s="2"/>
       <c r="N591" s="2"/>
       <c r="O591" s="2"/>
@@ -28601,7 +28244,6 @@
       <c r="I592" s="10"/>
       <c r="J592" s="10"/>
       <c r="K592" s="10"/>
-      <c r="L592" s="10"/>
       <c r="M592" s="2"/>
       <c r="N592" s="2"/>
       <c r="O592" s="2"/>
@@ -28637,7 +28279,6 @@
       <c r="I593" s="10"/>
       <c r="J593" s="10"/>
       <c r="K593" s="10"/>
-      <c r="L593" s="10"/>
       <c r="M593" s="2"/>
       <c r="N593" s="2"/>
       <c r="O593" s="2"/>
@@ -28673,7 +28314,6 @@
       <c r="I594" s="10"/>
       <c r="J594" s="10"/>
       <c r="K594" s="10"/>
-      <c r="L594" s="10"/>
       <c r="M594" s="2"/>
       <c r="N594" s="2"/>
       <c r="O594" s="2"/>
@@ -28709,7 +28349,6 @@
       <c r="I595" s="10"/>
       <c r="J595" s="10"/>
       <c r="K595" s="10"/>
-      <c r="L595" s="10"/>
       <c r="M595" s="2"/>
       <c r="N595" s="2"/>
       <c r="O595" s="2"/>
@@ -28745,7 +28384,6 @@
       <c r="I596" s="10"/>
       <c r="J596" s="10"/>
       <c r="K596" s="10"/>
-      <c r="L596" s="10"/>
       <c r="M596" s="2"/>
       <c r="N596" s="2"/>
       <c r="O596" s="2"/>
@@ -28781,7 +28419,6 @@
       <c r="I597" s="10"/>
       <c r="J597" s="10"/>
       <c r="K597" s="10"/>
-      <c r="L597" s="10"/>
       <c r="M597" s="2"/>
       <c r="N597" s="2"/>
       <c r="O597" s="2"/>
@@ -28817,7 +28454,6 @@
       <c r="I598" s="10"/>
       <c r="J598" s="10"/>
       <c r="K598" s="10"/>
-      <c r="L598" s="10"/>
       <c r="M598" s="2"/>
       <c r="N598" s="2"/>
       <c r="O598" s="2"/>
@@ -28853,7 +28489,6 @@
       <c r="I599" s="10"/>
       <c r="J599" s="10"/>
       <c r="K599" s="10"/>
-      <c r="L599" s="10"/>
       <c r="M599" s="2"/>
       <c r="N599" s="2"/>
       <c r="O599" s="2"/>
@@ -28889,7 +28524,6 @@
       <c r="I600" s="10"/>
       <c r="J600" s="10"/>
       <c r="K600" s="10"/>
-      <c r="L600" s="10"/>
       <c r="M600" s="2"/>
       <c r="N600" s="2"/>
       <c r="O600" s="2"/>
@@ -28925,7 +28559,6 @@
       <c r="I601" s="10"/>
       <c r="J601" s="10"/>
       <c r="K601" s="10"/>
-      <c r="L601" s="10"/>
       <c r="M601" s="2"/>
       <c r="N601" s="2"/>
       <c r="O601" s="2"/>
@@ -28961,7 +28594,6 @@
       <c r="I602" s="10"/>
       <c r="J602" s="10"/>
       <c r="K602" s="10"/>
-      <c r="L602" s="10"/>
       <c r="M602" s="2"/>
       <c r="N602" s="2"/>
       <c r="O602" s="2"/>
@@ -28997,7 +28629,6 @@
       <c r="I603" s="10"/>
       <c r="J603" s="10"/>
       <c r="K603" s="10"/>
-      <c r="L603" s="10"/>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
       <c r="O603" s="2"/>
@@ -29033,7 +28664,6 @@
       <c r="I604" s="10"/>
       <c r="J604" s="10"/>
       <c r="K604" s="10"/>
-      <c r="L604" s="10"/>
       <c r="M604" s="2"/>
       <c r="N604" s="2"/>
       <c r="O604" s="2"/>
@@ -29069,7 +28699,6 @@
       <c r="I605" s="10"/>
       <c r="J605" s="10"/>
       <c r="K605" s="10"/>
-      <c r="L605" s="10"/>
       <c r="M605" s="2"/>
       <c r="N605" s="2"/>
       <c r="O605" s="2"/>
@@ -29105,7 +28734,6 @@
       <c r="I606" s="10"/>
       <c r="J606" s="10"/>
       <c r="K606" s="10"/>
-      <c r="L606" s="10"/>
       <c r="M606" s="2"/>
       <c r="N606" s="2"/>
       <c r="O606" s="2"/>
@@ -29141,7 +28769,6 @@
       <c r="I607" s="10"/>
       <c r="J607" s="10"/>
       <c r="K607" s="10"/>
-      <c r="L607" s="10"/>
       <c r="M607" s="2"/>
       <c r="N607" s="2"/>
       <c r="O607" s="2"/>
@@ -29177,7 +28804,6 @@
       <c r="I608" s="10"/>
       <c r="J608" s="10"/>
       <c r="K608" s="10"/>
-      <c r="L608" s="10"/>
       <c r="M608" s="2"/>
       <c r="N608" s="2"/>
       <c r="O608" s="2"/>
@@ -29213,7 +28839,6 @@
       <c r="I609" s="10"/>
       <c r="J609" s="10"/>
       <c r="K609" s="10"/>
-      <c r="L609" s="10"/>
       <c r="M609" s="2"/>
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
@@ -29249,7 +28874,6 @@
       <c r="I610" s="10"/>
       <c r="J610" s="10"/>
       <c r="K610" s="10"/>
-      <c r="L610" s="10"/>
       <c r="M610" s="2"/>
       <c r="N610" s="2"/>
       <c r="O610" s="2"/>
@@ -29285,7 +28909,6 @@
       <c r="I611" s="10"/>
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
-      <c r="L611" s="10"/>
       <c r="M611" s="2"/>
       <c r="N611" s="2"/>
       <c r="O611" s="2"/>
@@ -29321,7 +28944,6 @@
       <c r="I612" s="10"/>
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
-      <c r="L612" s="10"/>
       <c r="M612" s="2"/>
       <c r="N612" s="2"/>
       <c r="O612" s="2"/>
@@ -29357,7 +28979,6 @@
       <c r="I613" s="10"/>
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
-      <c r="L613" s="10"/>
       <c r="M613" s="2"/>
       <c r="N613" s="2"/>
       <c r="O613" s="2"/>
@@ -29393,7 +29014,6 @@
       <c r="I614" s="10"/>
       <c r="J614" s="10"/>
       <c r="K614" s="10"/>
-      <c r="L614" s="10"/>
       <c r="M614" s="2"/>
       <c r="N614" s="2"/>
       <c r="O614" s="2"/>
@@ -29429,7 +29049,6 @@
       <c r="I615" s="10"/>
       <c r="J615" s="10"/>
       <c r="K615" s="10"/>
-      <c r="L615" s="10"/>
       <c r="M615" s="2"/>
       <c r="N615" s="2"/>
       <c r="O615" s="2"/>
@@ -29465,7 +29084,6 @@
       <c r="I616" s="10"/>
       <c r="J616" s="10"/>
       <c r="K616" s="10"/>
-      <c r="L616" s="10"/>
       <c r="M616" s="2"/>
       <c r="N616" s="2"/>
       <c r="O616" s="2"/>
@@ -29501,7 +29119,6 @@
       <c r="I617" s="10"/>
       <c r="J617" s="10"/>
       <c r="K617" s="10"/>
-      <c r="L617" s="10"/>
       <c r="M617" s="2"/>
       <c r="N617" s="2"/>
       <c r="O617" s="2"/>
@@ -29537,7 +29154,6 @@
       <c r="I618" s="10"/>
       <c r="J618" s="10"/>
       <c r="K618" s="10"/>
-      <c r="L618" s="10"/>
       <c r="M618" s="2"/>
       <c r="N618" s="2"/>
       <c r="O618" s="2"/>
@@ -29573,7 +29189,6 @@
       <c r="I619" s="10"/>
       <c r="J619" s="10"/>
       <c r="K619" s="10"/>
-      <c r="L619" s="10"/>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
       <c r="O619" s="2"/>
@@ -29609,7 +29224,6 @@
       <c r="I620" s="10"/>
       <c r="J620" s="10"/>
       <c r="K620" s="10"/>
-      <c r="L620" s="10"/>
       <c r="M620" s="2"/>
       <c r="N620" s="2"/>
       <c r="O620" s="2"/>
@@ -29645,7 +29259,6 @@
       <c r="I621" s="10"/>
       <c r="J621" s="10"/>
       <c r="K621" s="10"/>
-      <c r="L621" s="10"/>
       <c r="M621" s="2"/>
       <c r="N621" s="2"/>
       <c r="O621" s="2"/>
@@ -29681,7 +29294,6 @@
       <c r="I622" s="10"/>
       <c r="J622" s="10"/>
       <c r="K622" s="10"/>
-      <c r="L622" s="10"/>
       <c r="M622" s="2"/>
       <c r="N622" s="2"/>
       <c r="O622" s="2"/>
@@ -29717,7 +29329,6 @@
       <c r="I623" s="10"/>
       <c r="J623" s="10"/>
       <c r="K623" s="10"/>
-      <c r="L623" s="10"/>
       <c r="M623" s="2"/>
       <c r="N623" s="2"/>
       <c r="O623" s="2"/>
@@ -29753,7 +29364,6 @@
       <c r="I624" s="10"/>
       <c r="J624" s="10"/>
       <c r="K624" s="10"/>
-      <c r="L624" s="10"/>
       <c r="M624" s="2"/>
       <c r="N624" s="2"/>
       <c r="O624" s="2"/>
@@ -29789,7 +29399,6 @@
       <c r="I625" s="10"/>
       <c r="J625" s="10"/>
       <c r="K625" s="10"/>
-      <c r="L625" s="10"/>
       <c r="M625" s="2"/>
       <c r="N625" s="2"/>
       <c r="O625" s="2"/>
@@ -29825,7 +29434,6 @@
       <c r="I626" s="10"/>
       <c r="J626" s="10"/>
       <c r="K626" s="10"/>
-      <c r="L626" s="10"/>
       <c r="M626" s="2"/>
       <c r="N626" s="2"/>
       <c r="O626" s="2"/>
@@ -29861,7 +29469,6 @@
       <c r="I627" s="10"/>
       <c r="J627" s="10"/>
       <c r="K627" s="10"/>
-      <c r="L627" s="10"/>
       <c r="M627" s="2"/>
       <c r="N627" s="2"/>
       <c r="O627" s="2"/>
@@ -29897,7 +29504,6 @@
       <c r="I628" s="10"/>
       <c r="J628" s="10"/>
       <c r="K628" s="10"/>
-      <c r="L628" s="10"/>
       <c r="M628" s="2"/>
       <c r="N628" s="2"/>
       <c r="O628" s="2"/>
@@ -29933,7 +29539,6 @@
       <c r="I629" s="10"/>
       <c r="J629" s="10"/>
       <c r="K629" s="10"/>
-      <c r="L629" s="10"/>
       <c r="M629" s="2"/>
       <c r="N629" s="2"/>
       <c r="O629" s="2"/>
@@ -29969,7 +29574,6 @@
       <c r="I630" s="10"/>
       <c r="J630" s="10"/>
       <c r="K630" s="10"/>
-      <c r="L630" s="10"/>
       <c r="M630" s="2"/>
       <c r="N630" s="2"/>
       <c r="O630" s="2"/>
@@ -30005,7 +29609,6 @@
       <c r="I631" s="10"/>
       <c r="J631" s="10"/>
       <c r="K631" s="10"/>
-      <c r="L631" s="10"/>
       <c r="M631" s="2"/>
       <c r="N631" s="2"/>
       <c r="O631" s="2"/>
@@ -30041,7 +29644,6 @@
       <c r="I632" s="10"/>
       <c r="J632" s="10"/>
       <c r="K632" s="10"/>
-      <c r="L632" s="10"/>
       <c r="M632" s="2"/>
       <c r="N632" s="2"/>
       <c r="O632" s="2"/>
@@ -30077,7 +29679,6 @@
       <c r="I633" s="10"/>
       <c r="J633" s="10"/>
       <c r="K633" s="10"/>
-      <c r="L633" s="10"/>
       <c r="M633" s="2"/>
       <c r="N633" s="2"/>
       <c r="O633" s="2"/>
@@ -30113,7 +29714,6 @@
       <c r="I634" s="10"/>
       <c r="J634" s="10"/>
       <c r="K634" s="10"/>
-      <c r="L634" s="10"/>
       <c r="M634" s="2"/>
       <c r="N634" s="2"/>
       <c r="O634" s="2"/>
@@ -30149,7 +29749,6 @@
       <c r="I635" s="10"/>
       <c r="J635" s="10"/>
       <c r="K635" s="10"/>
-      <c r="L635" s="10"/>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
       <c r="O635" s="2"/>
@@ -30185,7 +29784,6 @@
       <c r="I636" s="10"/>
       <c r="J636" s="10"/>
       <c r="K636" s="10"/>
-      <c r="L636" s="10"/>
       <c r="M636" s="2"/>
       <c r="N636" s="2"/>
       <c r="O636" s="2"/>
@@ -30221,7 +29819,6 @@
       <c r="I637" s="10"/>
       <c r="J637" s="10"/>
       <c r="K637" s="10"/>
-      <c r="L637" s="10"/>
       <c r="M637" s="2"/>
       <c r="N637" s="2"/>
       <c r="O637" s="2"/>
@@ -30257,7 +29854,6 @@
       <c r="I638" s="10"/>
       <c r="J638" s="10"/>
       <c r="K638" s="10"/>
-      <c r="L638" s="10"/>
       <c r="M638" s="2"/>
       <c r="N638" s="2"/>
       <c r="O638" s="2"/>
@@ -30293,7 +29889,6 @@
       <c r="I639" s="10"/>
       <c r="J639" s="10"/>
       <c r="K639" s="10"/>
-      <c r="L639" s="10"/>
       <c r="M639" s="2"/>
       <c r="N639" s="2"/>
       <c r="O639" s="2"/>
@@ -30329,7 +29924,6 @@
       <c r="I640" s="10"/>
       <c r="J640" s="10"/>
       <c r="K640" s="10"/>
-      <c r="L640" s="10"/>
       <c r="M640" s="2"/>
       <c r="N640" s="2"/>
       <c r="O640" s="2"/>
@@ -30365,7 +29959,6 @@
       <c r="I641" s="10"/>
       <c r="J641" s="10"/>
       <c r="K641" s="10"/>
-      <c r="L641" s="10"/>
       <c r="M641" s="2"/>
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
@@ -30401,7 +29994,6 @@
       <c r="I642" s="10"/>
       <c r="J642" s="10"/>
       <c r="K642" s="10"/>
-      <c r="L642" s="10"/>
       <c r="M642" s="2"/>
       <c r="N642" s="2"/>
       <c r="O642" s="2"/>
@@ -30437,7 +30029,6 @@
       <c r="I643" s="10"/>
       <c r="J643" s="10"/>
       <c r="K643" s="10"/>
-      <c r="L643" s="10"/>
       <c r="M643" s="2"/>
       <c r="N643" s="2"/>
       <c r="O643" s="2"/>
@@ -30473,7 +30064,6 @@
       <c r="I644" s="10"/>
       <c r="J644" s="10"/>
       <c r="K644" s="10"/>
-      <c r="L644" s="10"/>
       <c r="M644" s="2"/>
       <c r="N644" s="2"/>
       <c r="O644" s="2"/>
@@ -30509,7 +30099,6 @@
       <c r="I645" s="10"/>
       <c r="J645" s="10"/>
       <c r="K645" s="10"/>
-      <c r="L645" s="10"/>
       <c r="M645" s="2"/>
       <c r="N645" s="2"/>
       <c r="O645" s="2"/>
@@ -30545,7 +30134,6 @@
       <c r="I646" s="10"/>
       <c r="J646" s="10"/>
       <c r="K646" s="10"/>
-      <c r="L646" s="10"/>
       <c r="M646" s="2"/>
       <c r="N646" s="2"/>
       <c r="O646" s="2"/>
@@ -30581,7 +30169,6 @@
       <c r="I647" s="10"/>
       <c r="J647" s="10"/>
       <c r="K647" s="10"/>
-      <c r="L647" s="10"/>
       <c r="M647" s="2"/>
       <c r="N647" s="2"/>
       <c r="O647" s="2"/>
@@ -30617,7 +30204,6 @@
       <c r="I648" s="10"/>
       <c r="J648" s="10"/>
       <c r="K648" s="10"/>
-      <c r="L648" s="10"/>
       <c r="M648" s="2"/>
       <c r="N648" s="2"/>
       <c r="O648" s="2"/>
@@ -30653,7 +30239,6 @@
       <c r="I649" s="10"/>
       <c r="J649" s="10"/>
       <c r="K649" s="10"/>
-      <c r="L649" s="10"/>
       <c r="M649" s="2"/>
       <c r="N649" s="2"/>
       <c r="O649" s="2"/>
@@ -30689,7 +30274,6 @@
       <c r="I650" s="10"/>
       <c r="J650" s="10"/>
       <c r="K650" s="10"/>
-      <c r="L650" s="10"/>
       <c r="M650" s="2"/>
       <c r="N650" s="2"/>
       <c r="O650" s="2"/>
@@ -30725,7 +30309,6 @@
       <c r="I651" s="10"/>
       <c r="J651" s="10"/>
       <c r="K651" s="10"/>
-      <c r="L651" s="10"/>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
       <c r="O651" s="2"/>
@@ -30761,7 +30344,6 @@
       <c r="I652" s="10"/>
       <c r="J652" s="10"/>
       <c r="K652" s="10"/>
-      <c r="L652" s="10"/>
       <c r="M652" s="2"/>
       <c r="N652" s="2"/>
       <c r="O652" s="2"/>
@@ -30797,7 +30379,6 @@
       <c r="I653" s="10"/>
       <c r="J653" s="10"/>
       <c r="K653" s="10"/>
-      <c r="L653" s="10"/>
       <c r="M653" s="2"/>
       <c r="N653" s="2"/>
       <c r="O653" s="2"/>
@@ -30833,7 +30414,6 @@
       <c r="I654" s="10"/>
       <c r="J654" s="10"/>
       <c r="K654" s="10"/>
-      <c r="L654" s="10"/>
       <c r="M654" s="2"/>
       <c r="N654" s="2"/>
       <c r="O654" s="2"/>
@@ -30869,7 +30449,6 @@
       <c r="I655" s="10"/>
       <c r="J655" s="10"/>
       <c r="K655" s="10"/>
-      <c r="L655" s="10"/>
       <c r="M655" s="2"/>
       <c r="N655" s="2"/>
       <c r="O655" s="2"/>
@@ -30905,7 +30484,6 @@
       <c r="I656" s="10"/>
       <c r="J656" s="10"/>
       <c r="K656" s="10"/>
-      <c r="L656" s="10"/>
       <c r="M656" s="2"/>
       <c r="N656" s="2"/>
       <c r="O656" s="2"/>
@@ -30941,7 +30519,6 @@
       <c r="I657" s="10"/>
       <c r="J657" s="10"/>
       <c r="K657" s="10"/>
-      <c r="L657" s="10"/>
       <c r="M657" s="2"/>
       <c r="N657" s="2"/>
       <c r="O657" s="2"/>
@@ -30977,7 +30554,6 @@
       <c r="I658" s="10"/>
       <c r="J658" s="10"/>
       <c r="K658" s="10"/>
-      <c r="L658" s="10"/>
       <c r="M658" s="2"/>
       <c r="N658" s="2"/>
       <c r="O658" s="2"/>
@@ -31013,7 +30589,6 @@
       <c r="I659" s="10"/>
       <c r="J659" s="10"/>
       <c r="K659" s="10"/>
-      <c r="L659" s="10"/>
       <c r="M659" s="2"/>
       <c r="N659" s="2"/>
       <c r="O659" s="2"/>
@@ -31049,7 +30624,6 @@
       <c r="I660" s="10"/>
       <c r="J660" s="10"/>
       <c r="K660" s="10"/>
-      <c r="L660" s="10"/>
       <c r="M660" s="2"/>
       <c r="N660" s="2"/>
       <c r="O660" s="2"/>
@@ -31085,7 +30659,6 @@
       <c r="I661" s="10"/>
       <c r="J661" s="10"/>
       <c r="K661" s="10"/>
-      <c r="L661" s="10"/>
       <c r="M661" s="2"/>
       <c r="N661" s="2"/>
       <c r="O661" s="2"/>
@@ -31121,7 +30694,6 @@
       <c r="I662" s="10"/>
       <c r="J662" s="10"/>
       <c r="K662" s="10"/>
-      <c r="L662" s="10"/>
       <c r="M662" s="2"/>
       <c r="N662" s="2"/>
       <c r="O662" s="2"/>
@@ -31157,7 +30729,6 @@
       <c r="I663" s="10"/>
       <c r="J663" s="10"/>
       <c r="K663" s="10"/>
-      <c r="L663" s="10"/>
       <c r="M663" s="2"/>
       <c r="N663" s="2"/>
       <c r="O663" s="2"/>
@@ -31193,7 +30764,6 @@
       <c r="I664" s="10"/>
       <c r="J664" s="10"/>
       <c r="K664" s="10"/>
-      <c r="L664" s="10"/>
       <c r="M664" s="2"/>
       <c r="N664" s="2"/>
       <c r="O664" s="2"/>
@@ -31229,7 +30799,6 @@
       <c r="I665" s="10"/>
       <c r="J665" s="10"/>
       <c r="K665" s="10"/>
-      <c r="L665" s="10"/>
       <c r="M665" s="2"/>
       <c r="N665" s="2"/>
       <c r="O665" s="2"/>
@@ -31265,7 +30834,6 @@
       <c r="I666" s="10"/>
       <c r="J666" s="10"/>
       <c r="K666" s="10"/>
-      <c r="L666" s="10"/>
       <c r="M666" s="2"/>
       <c r="N666" s="2"/>
       <c r="O666" s="2"/>
@@ -31301,7 +30869,6 @@
       <c r="I667" s="10"/>
       <c r="J667" s="10"/>
       <c r="K667" s="10"/>
-      <c r="L667" s="10"/>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
       <c r="O667" s="2"/>
@@ -31337,7 +30904,6 @@
       <c r="I668" s="10"/>
       <c r="J668" s="10"/>
       <c r="K668" s="10"/>
-      <c r="L668" s="10"/>
       <c r="M668" s="2"/>
       <c r="N668" s="2"/>
       <c r="O668" s="2"/>
@@ -31373,7 +30939,6 @@
       <c r="I669" s="10"/>
       <c r="J669" s="10"/>
       <c r="K669" s="10"/>
-      <c r="L669" s="10"/>
       <c r="M669" s="2"/>
       <c r="N669" s="2"/>
       <c r="O669" s="2"/>
@@ -31409,7 +30974,6 @@
       <c r="I670" s="10"/>
       <c r="J670" s="10"/>
       <c r="K670" s="10"/>
-      <c r="L670" s="10"/>
       <c r="M670" s="2"/>
       <c r="N670" s="2"/>
       <c r="O670" s="2"/>
@@ -31445,7 +31009,6 @@
       <c r="I671" s="10"/>
       <c r="J671" s="10"/>
       <c r="K671" s="10"/>
-      <c r="L671" s="10"/>
       <c r="M671" s="2"/>
       <c r="N671" s="2"/>
       <c r="O671" s="2"/>
@@ -31481,7 +31044,6 @@
       <c r="I672" s="10"/>
       <c r="J672" s="10"/>
       <c r="K672" s="10"/>
-      <c r="L672" s="10"/>
       <c r="M672" s="2"/>
       <c r="N672" s="2"/>
       <c r="O672" s="2"/>
@@ -31517,7 +31079,6 @@
       <c r="I673" s="10"/>
       <c r="J673" s="10"/>
       <c r="K673" s="10"/>
-      <c r="L673" s="10"/>
       <c r="M673" s="2"/>
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
@@ -31553,7 +31114,6 @@
       <c r="I674" s="10"/>
       <c r="J674" s="10"/>
       <c r="K674" s="10"/>
-      <c r="L674" s="10"/>
       <c r="M674" s="2"/>
       <c r="N674" s="2"/>
       <c r="O674" s="2"/>
@@ -31589,7 +31149,6 @@
       <c r="I675" s="10"/>
       <c r="J675" s="10"/>
       <c r="K675" s="10"/>
-      <c r="L675" s="10"/>
       <c r="M675" s="2"/>
       <c r="N675" s="2"/>
       <c r="O675" s="2"/>
@@ -31625,7 +31184,6 @@
       <c r="I676" s="10"/>
       <c r="J676" s="10"/>
       <c r="K676" s="10"/>
-      <c r="L676" s="10"/>
       <c r="M676" s="2"/>
       <c r="N676" s="2"/>
       <c r="O676" s="2"/>
@@ -31661,7 +31219,6 @@
       <c r="I677" s="10"/>
       <c r="J677" s="10"/>
       <c r="K677" s="10"/>
-      <c r="L677" s="10"/>
       <c r="M677" s="2"/>
       <c r="N677" s="2"/>
       <c r="O677" s="2"/>
@@ -31697,7 +31254,6 @@
       <c r="I678" s="10"/>
       <c r="J678" s="10"/>
       <c r="K678" s="10"/>
-      <c r="L678" s="10"/>
       <c r="M678" s="2"/>
       <c r="N678" s="2"/>
       <c r="O678" s="2"/>
@@ -31733,7 +31289,6 @@
       <c r="I679" s="10"/>
       <c r="J679" s="10"/>
       <c r="K679" s="10"/>
-      <c r="L679" s="10"/>
       <c r="M679" s="2"/>
       <c r="N679" s="2"/>
       <c r="O679" s="2"/>
@@ -31769,7 +31324,6 @@
       <c r="I680" s="10"/>
       <c r="J680" s="10"/>
       <c r="K680" s="10"/>
-      <c r="L680" s="10"/>
       <c r="M680" s="2"/>
       <c r="N680" s="2"/>
       <c r="O680" s="2"/>
@@ -31805,7 +31359,6 @@
       <c r="I681" s="10"/>
       <c r="J681" s="10"/>
       <c r="K681" s="10"/>
-      <c r="L681" s="10"/>
       <c r="M681" s="2"/>
       <c r="N681" s="2"/>
       <c r="O681" s="2"/>
@@ -31841,7 +31394,6 @@
       <c r="I682" s="10"/>
       <c r="J682" s="10"/>
       <c r="K682" s="10"/>
-      <c r="L682" s="10"/>
       <c r="M682" s="2"/>
       <c r="N682" s="2"/>
       <c r="O682" s="2"/>
@@ -31877,7 +31429,6 @@
       <c r="I683" s="10"/>
       <c r="J683" s="10"/>
       <c r="K683" s="10"/>
-      <c r="L683" s="10"/>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
       <c r="O683" s="2"/>
@@ -31913,7 +31464,6 @@
       <c r="I684" s="10"/>
       <c r="J684" s="10"/>
       <c r="K684" s="10"/>
-      <c r="L684" s="10"/>
       <c r="M684" s="2"/>
       <c r="N684" s="2"/>
       <c r="O684" s="2"/>
@@ -31949,7 +31499,6 @@
       <c r="I685" s="10"/>
       <c r="J685" s="10"/>
       <c r="K685" s="10"/>
-      <c r="L685" s="10"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
       <c r="O685" s="2"/>
@@ -31985,7 +31534,6 @@
       <c r="I686" s="10"/>
       <c r="J686" s="10"/>
       <c r="K686" s="10"/>
-      <c r="L686" s="10"/>
       <c r="M686" s="2"/>
       <c r="N686" s="2"/>
       <c r="O686" s="2"/>
@@ -32021,7 +31569,6 @@
       <c r="I687" s="10"/>
       <c r="J687" s="10"/>
       <c r="K687" s="10"/>
-      <c r="L687" s="10"/>
       <c r="M687" s="2"/>
       <c r="N687" s="2"/>
       <c r="O687" s="2"/>
@@ -32057,7 +31604,6 @@
       <c r="I688" s="10"/>
       <c r="J688" s="10"/>
       <c r="K688" s="10"/>
-      <c r="L688" s="10"/>
       <c r="M688" s="2"/>
       <c r="N688" s="2"/>
       <c r="O688" s="2"/>
@@ -32093,7 +31639,6 @@
       <c r="I689" s="10"/>
       <c r="J689" s="10"/>
       <c r="K689" s="10"/>
-      <c r="L689" s="10"/>
       <c r="M689" s="2"/>
       <c r="N689" s="2"/>
       <c r="O689" s="2"/>
@@ -32129,7 +31674,6 @@
       <c r="I690" s="10"/>
       <c r="J690" s="10"/>
       <c r="K690" s="10"/>
-      <c r="L690" s="10"/>
       <c r="M690" s="2"/>
       <c r="N690" s="2"/>
       <c r="O690" s="2"/>
@@ -32165,7 +31709,6 @@
       <c r="I691" s="10"/>
       <c r="J691" s="10"/>
       <c r="K691" s="10"/>
-      <c r="L691" s="10"/>
       <c r="M691" s="2"/>
       <c r="N691" s="2"/>
       <c r="O691" s="2"/>
@@ -32201,7 +31744,6 @@
       <c r="I692" s="10"/>
       <c r="J692" s="10"/>
       <c r="K692" s="10"/>
-      <c r="L692" s="10"/>
       <c r="M692" s="2"/>
       <c r="N692" s="2"/>
       <c r="O692" s="2"/>
@@ -32237,7 +31779,6 @@
       <c r="I693" s="10"/>
       <c r="J693" s="10"/>
       <c r="K693" s="10"/>
-      <c r="L693" s="10"/>
       <c r="M693" s="2"/>
       <c r="N693" s="2"/>
       <c r="O693" s="2"/>
@@ -32273,7 +31814,6 @@
       <c r="I694" s="10"/>
       <c r="J694" s="10"/>
       <c r="K694" s="10"/>
-      <c r="L694" s="10"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2"/>
       <c r="O694" s="2"/>
@@ -32309,7 +31849,6 @@
       <c r="I695" s="10"/>
       <c r="J695" s="10"/>
       <c r="K695" s="10"/>
-      <c r="L695" s="10"/>
       <c r="M695" s="2"/>
       <c r="N695" s="2"/>
       <c r="O695" s="2"/>
@@ -32345,7 +31884,6 @@
       <c r="I696" s="10"/>
       <c r="J696" s="10"/>
       <c r="K696" s="10"/>
-      <c r="L696" s="10"/>
       <c r="M696" s="2"/>
       <c r="N696" s="2"/>
       <c r="O696" s="2"/>
@@ -32381,7 +31919,6 @@
       <c r="I697" s="10"/>
       <c r="J697" s="10"/>
       <c r="K697" s="10"/>
-      <c r="L697" s="10"/>
       <c r="M697" s="2"/>
       <c r="N697" s="2"/>
       <c r="O697" s="2"/>
@@ -32417,7 +31954,6 @@
       <c r="I698" s="10"/>
       <c r="J698" s="10"/>
       <c r="K698" s="10"/>
-      <c r="L698" s="10"/>
       <c r="M698" s="2"/>
       <c r="N698" s="2"/>
       <c r="O698" s="2"/>
@@ -32453,7 +31989,6 @@
       <c r="I699" s="10"/>
       <c r="J699" s="10"/>
       <c r="K699" s="10"/>
-      <c r="L699" s="10"/>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
       <c r="O699" s="2"/>
@@ -32489,7 +32024,6 @@
       <c r="I700" s="10"/>
       <c r="J700" s="10"/>
       <c r="K700" s="10"/>
-      <c r="L700" s="10"/>
       <c r="M700" s="2"/>
       <c r="N700" s="2"/>
       <c r="O700" s="2"/>
@@ -32525,7 +32059,6 @@
       <c r="I701" s="10"/>
       <c r="J701" s="10"/>
       <c r="K701" s="10"/>
-      <c r="L701" s="10"/>
       <c r="M701" s="2"/>
       <c r="N701" s="2"/>
       <c r="O701" s="2"/>
@@ -32561,7 +32094,6 @@
       <c r="I702" s="10"/>
       <c r="J702" s="10"/>
       <c r="K702" s="10"/>
-      <c r="L702" s="10"/>
       <c r="M702" s="2"/>
       <c r="N702" s="2"/>
       <c r="O702" s="2"/>
@@ -32597,7 +32129,6 @@
       <c r="I703" s="10"/>
       <c r="J703" s="10"/>
       <c r="K703" s="10"/>
-      <c r="L703" s="10"/>
       <c r="M703" s="2"/>
       <c r="N703" s="2"/>
       <c r="O703" s="2"/>
@@ -32633,7 +32164,6 @@
       <c r="I704" s="10"/>
       <c r="J704" s="10"/>
       <c r="K704" s="10"/>
-      <c r="L704" s="10"/>
       <c r="M704" s="2"/>
       <c r="N704" s="2"/>
       <c r="O704" s="2"/>
@@ -32669,7 +32199,6 @@
       <c r="I705" s="10"/>
       <c r="J705" s="10"/>
       <c r="K705" s="10"/>
-      <c r="L705" s="10"/>
       <c r="M705" s="2"/>
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
@@ -32705,7 +32234,6 @@
       <c r="I706" s="10"/>
       <c r="J706" s="10"/>
       <c r="K706" s="10"/>
-      <c r="L706" s="10"/>
       <c r="M706" s="2"/>
       <c r="N706" s="2"/>
       <c r="O706" s="2"/>
@@ -32741,7 +32269,6 @@
       <c r="I707" s="10"/>
       <c r="J707" s="10"/>
       <c r="K707" s="10"/>
-      <c r="L707" s="10"/>
       <c r="M707" s="2"/>
       <c r="N707" s="2"/>
       <c r="O707" s="2"/>
@@ -32777,7 +32304,6 @@
       <c r="I708" s="10"/>
       <c r="J708" s="10"/>
       <c r="K708" s="10"/>
-      <c r="L708" s="10"/>
       <c r="M708" s="2"/>
       <c r="N708" s="2"/>
       <c r="O708" s="2"/>
@@ -32813,7 +32339,6 @@
       <c r="I709" s="10"/>
       <c r="J709" s="10"/>
       <c r="K709" s="10"/>
-      <c r="L709" s="10"/>
       <c r="M709" s="2"/>
       <c r="N709" s="2"/>
       <c r="O709" s="2"/>
@@ -32849,7 +32374,6 @@
       <c r="I710" s="10"/>
       <c r="J710" s="10"/>
       <c r="K710" s="10"/>
-      <c r="L710" s="10"/>
       <c r="M710" s="2"/>
       <c r="N710" s="2"/>
       <c r="O710" s="2"/>
@@ -32885,7 +32409,6 @@
       <c r="I711" s="10"/>
       <c r="J711" s="10"/>
       <c r="K711" s="10"/>
-      <c r="L711" s="10"/>
       <c r="M711" s="2"/>
       <c r="N711" s="2"/>
       <c r="O711" s="2"/>
@@ -32921,7 +32444,6 @@
       <c r="I712" s="10"/>
       <c r="J712" s="10"/>
       <c r="K712" s="10"/>
-      <c r="L712" s="10"/>
       <c r="M712" s="2"/>
       <c r="N712" s="2"/>
       <c r="O712" s="2"/>
@@ -32957,7 +32479,6 @@
       <c r="I713" s="10"/>
       <c r="J713" s="10"/>
       <c r="K713" s="10"/>
-      <c r="L713" s="10"/>
       <c r="M713" s="2"/>
       <c r="N713" s="2"/>
       <c r="O713" s="2"/>
@@ -32993,7 +32514,6 @@
       <c r="I714" s="10"/>
       <c r="J714" s="10"/>
       <c r="K714" s="10"/>
-      <c r="L714" s="10"/>
       <c r="M714" s="2"/>
       <c r="N714" s="2"/>
       <c r="O714" s="2"/>
@@ -33029,7 +32549,6 @@
       <c r="I715" s="10"/>
       <c r="J715" s="10"/>
       <c r="K715" s="10"/>
-      <c r="L715" s="10"/>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
       <c r="O715" s="2"/>
@@ -33065,7 +32584,6 @@
       <c r="I716" s="10"/>
       <c r="J716" s="10"/>
       <c r="K716" s="10"/>
-      <c r="L716" s="10"/>
       <c r="M716" s="2"/>
       <c r="N716" s="2"/>
       <c r="O716" s="2"/>
@@ -33101,7 +32619,6 @@
       <c r="I717" s="10"/>
       <c r="J717" s="10"/>
       <c r="K717" s="10"/>
-      <c r="L717" s="10"/>
       <c r="M717" s="2"/>
       <c r="N717" s="2"/>
       <c r="O717" s="2"/>
@@ -33137,7 +32654,6 @@
       <c r="I718" s="10"/>
       <c r="J718" s="10"/>
       <c r="K718" s="10"/>
-      <c r="L718" s="10"/>
       <c r="M718" s="2"/>
       <c r="N718" s="2"/>
       <c r="O718" s="2"/>
@@ -33173,7 +32689,6 @@
       <c r="I719" s="10"/>
       <c r="J719" s="10"/>
       <c r="K719" s="10"/>
-      <c r="L719" s="10"/>
       <c r="M719" s="2"/>
       <c r="N719" s="2"/>
       <c r="O719" s="2"/>
@@ -33209,7 +32724,6 @@
       <c r="I720" s="10"/>
       <c r="J720" s="10"/>
       <c r="K720" s="10"/>
-      <c r="L720" s="10"/>
       <c r="M720" s="2"/>
       <c r="N720" s="2"/>
       <c r="O720" s="2"/>
@@ -33245,7 +32759,6 @@
       <c r="I721" s="10"/>
       <c r="J721" s="10"/>
       <c r="K721" s="10"/>
-      <c r="L721" s="10"/>
       <c r="M721" s="2"/>
       <c r="N721" s="2"/>
       <c r="O721" s="2"/>
@@ -33281,7 +32794,6 @@
       <c r="I722" s="10"/>
       <c r="J722" s="10"/>
       <c r="K722" s="10"/>
-      <c r="L722" s="10"/>
       <c r="M722" s="2"/>
       <c r="N722" s="2"/>
       <c r="O722" s="2"/>
@@ -33317,7 +32829,6 @@
       <c r="I723" s="10"/>
       <c r="J723" s="10"/>
       <c r="K723" s="10"/>
-      <c r="L723" s="10"/>
       <c r="M723" s="2"/>
       <c r="N723" s="2"/>
       <c r="O723" s="2"/>
@@ -33353,7 +32864,6 @@
       <c r="I724" s="10"/>
       <c r="J724" s="10"/>
       <c r="K724" s="10"/>
-      <c r="L724" s="10"/>
       <c r="M724" s="2"/>
       <c r="N724" s="2"/>
       <c r="O724" s="2"/>
@@ -33389,7 +32899,6 @@
       <c r="I725" s="10"/>
       <c r="J725" s="10"/>
       <c r="K725" s="10"/>
-      <c r="L725" s="10"/>
       <c r="M725" s="2"/>
       <c r="N725" s="2"/>
       <c r="O725" s="2"/>
@@ -33425,7 +32934,6 @@
       <c r="I726" s="10"/>
       <c r="J726" s="10"/>
       <c r="K726" s="10"/>
-      <c r="L726" s="10"/>
       <c r="M726" s="2"/>
       <c r="N726" s="2"/>
       <c r="O726" s="2"/>
@@ -33461,7 +32969,6 @@
       <c r="I727" s="10"/>
       <c r="J727" s="10"/>
       <c r="K727" s="10"/>
-      <c r="L727" s="10"/>
       <c r="M727" s="2"/>
       <c r="N727" s="2"/>
       <c r="O727" s="2"/>
@@ -33497,7 +33004,6 @@
       <c r="I728" s="10"/>
       <c r="J728" s="10"/>
       <c r="K728" s="10"/>
-      <c r="L728" s="10"/>
       <c r="M728" s="2"/>
       <c r="N728" s="2"/>
       <c r="O728" s="2"/>
@@ -33533,7 +33039,6 @@
       <c r="I729" s="10"/>
       <c r="J729" s="10"/>
       <c r="K729" s="10"/>
-      <c r="L729" s="10"/>
       <c r="M729" s="2"/>
       <c r="N729" s="2"/>
       <c r="O729" s="2"/>
@@ -33569,7 +33074,6 @@
       <c r="I730" s="10"/>
       <c r="J730" s="10"/>
       <c r="K730" s="10"/>
-      <c r="L730" s="10"/>
       <c r="M730" s="2"/>
       <c r="N730" s="2"/>
       <c r="O730" s="2"/>
@@ -33605,7 +33109,6 @@
       <c r="I731" s="10"/>
       <c r="J731" s="10"/>
       <c r="K731" s="10"/>
-      <c r="L731" s="10"/>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
       <c r="O731" s="2"/>
@@ -33641,7 +33144,6 @@
       <c r="I732" s="10"/>
       <c r="J732" s="10"/>
       <c r="K732" s="10"/>
-      <c r="L732" s="10"/>
       <c r="M732" s="2"/>
       <c r="N732" s="2"/>
       <c r="O732" s="2"/>
@@ -33677,7 +33179,6 @@
       <c r="I733" s="10"/>
       <c r="J733" s="10"/>
       <c r="K733" s="10"/>
-      <c r="L733" s="10"/>
       <c r="M733" s="2"/>
       <c r="N733" s="2"/>
       <c r="O733" s="2"/>
@@ -33713,7 +33214,6 @@
       <c r="I734" s="10"/>
       <c r="J734" s="10"/>
       <c r="K734" s="10"/>
-      <c r="L734" s="10"/>
       <c r="M734" s="2"/>
       <c r="N734" s="2"/>
       <c r="O734" s="2"/>
@@ -33749,7 +33249,6 @@
       <c r="I735" s="10"/>
       <c r="J735" s="10"/>
       <c r="K735" s="10"/>
-      <c r="L735" s="10"/>
       <c r="M735" s="2"/>
       <c r="N735" s="2"/>
       <c r="O735" s="2"/>
@@ -33785,7 +33284,6 @@
       <c r="I736" s="10"/>
       <c r="J736" s="10"/>
       <c r="K736" s="10"/>
-      <c r="L736" s="10"/>
       <c r="M736" s="2"/>
       <c r="N736" s="2"/>
       <c r="O736" s="2"/>
@@ -33821,7 +33319,6 @@
       <c r="I737" s="10"/>
       <c r="J737" s="10"/>
       <c r="K737" s="10"/>
-      <c r="L737" s="10"/>
       <c r="M737" s="2"/>
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
@@ -33857,7 +33354,6 @@
       <c r="I738" s="10"/>
       <c r="J738" s="10"/>
       <c r="K738" s="10"/>
-      <c r="L738" s="10"/>
       <c r="M738" s="2"/>
       <c r="N738" s="2"/>
       <c r="O738" s="2"/>
@@ -33893,7 +33389,6 @@
       <c r="I739" s="10"/>
       <c r="J739" s="10"/>
       <c r="K739" s="10"/>
-      <c r="L739" s="10"/>
       <c r="M739" s="2"/>
       <c r="N739" s="2"/>
       <c r="O739" s="2"/>
@@ -33929,7 +33424,6 @@
       <c r="I740" s="10"/>
       <c r="J740" s="10"/>
       <c r="K740" s="10"/>
-      <c r="L740" s="10"/>
       <c r="M740" s="2"/>
       <c r="N740" s="2"/>
       <c r="O740" s="2"/>
@@ -33965,7 +33459,6 @@
       <c r="I741" s="10"/>
       <c r="J741" s="10"/>
       <c r="K741" s="10"/>
-      <c r="L741" s="10"/>
       <c r="M741" s="2"/>
       <c r="N741" s="2"/>
       <c r="O741" s="2"/>
@@ -34001,7 +33494,6 @@
       <c r="I742" s="10"/>
       <c r="J742" s="10"/>
       <c r="K742" s="10"/>
-      <c r="L742" s="10"/>
       <c r="M742" s="2"/>
       <c r="N742" s="2"/>
       <c r="O742" s="2"/>
@@ -34037,7 +33529,6 @@
       <c r="I743" s="10"/>
       <c r="J743" s="10"/>
       <c r="K743" s="10"/>
-      <c r="L743" s="10"/>
       <c r="M743" s="2"/>
       <c r="N743" s="2"/>
       <c r="O743" s="2"/>
@@ -34073,7 +33564,6 @@
       <c r="I744" s="10"/>
       <c r="J744" s="10"/>
       <c r="K744" s="10"/>
-      <c r="L744" s="10"/>
       <c r="M744" s="2"/>
       <c r="N744" s="2"/>
       <c r="O744" s="2"/>
@@ -34109,7 +33599,6 @@
       <c r="I745" s="10"/>
       <c r="J745" s="10"/>
       <c r="K745" s="10"/>
-      <c r="L745" s="10"/>
       <c r="M745" s="2"/>
       <c r="N745" s="2"/>
       <c r="O745" s="2"/>
@@ -34145,7 +33634,6 @@
       <c r="I746" s="10"/>
       <c r="J746" s="10"/>
       <c r="K746" s="10"/>
-      <c r="L746" s="10"/>
       <c r="M746" s="2"/>
       <c r="N746" s="2"/>
       <c r="O746" s="2"/>
@@ -34181,7 +33669,6 @@
       <c r="I747" s="10"/>
       <c r="J747" s="10"/>
       <c r="K747" s="10"/>
-      <c r="L747" s="10"/>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
       <c r="O747" s="2"/>
@@ -34217,7 +33704,6 @@
       <c r="I748" s="10"/>
       <c r="J748" s="10"/>
       <c r="K748" s="10"/>
-      <c r="L748" s="10"/>
       <c r="M748" s="2"/>
       <c r="N748" s="2"/>
       <c r="O748" s="2"/>
@@ -34253,7 +33739,6 @@
       <c r="I749" s="10"/>
       <c r="J749" s="10"/>
       <c r="K749" s="10"/>
-      <c r="L749" s="10"/>
       <c r="M749" s="2"/>
       <c r="N749" s="2"/>
       <c r="O749" s="2"/>
@@ -34289,7 +33774,6 @@
       <c r="I750" s="10"/>
       <c r="J750" s="10"/>
       <c r="K750" s="10"/>
-      <c r="L750" s="10"/>
       <c r="M750" s="2"/>
       <c r="N750" s="2"/>
       <c r="O750" s="2"/>
@@ -34325,7 +33809,6 @@
       <c r="I751" s="10"/>
       <c r="J751" s="10"/>
       <c r="K751" s="10"/>
-      <c r="L751" s="10"/>
       <c r="M751" s="2"/>
       <c r="N751" s="2"/>
       <c r="O751" s="2"/>
@@ -34361,7 +33844,6 @@
       <c r="I752" s="10"/>
       <c r="J752" s="10"/>
       <c r="K752" s="10"/>
-      <c r="L752" s="10"/>
       <c r="M752" s="2"/>
       <c r="N752" s="2"/>
       <c r="O752" s="2"/>
@@ -34397,7 +33879,6 @@
       <c r="I753" s="10"/>
       <c r="J753" s="10"/>
       <c r="K753" s="10"/>
-      <c r="L753" s="10"/>
       <c r="M753" s="2"/>
       <c r="N753" s="2"/>
       <c r="O753" s="2"/>
@@ -34433,7 +33914,6 @@
       <c r="I754" s="10"/>
       <c r="J754" s="10"/>
       <c r="K754" s="10"/>
-      <c r="L754" s="10"/>
       <c r="M754" s="2"/>
       <c r="N754" s="2"/>
       <c r="O754" s="2"/>
@@ -34469,7 +33949,6 @@
       <c r="I755" s="10"/>
       <c r="J755" s="10"/>
       <c r="K755" s="10"/>
-      <c r="L755" s="10"/>
       <c r="M755" s="2"/>
       <c r="N755" s="2"/>
       <c r="O755" s="2"/>
@@ -34505,7 +33984,6 @@
       <c r="I756" s="10"/>
       <c r="J756" s="10"/>
       <c r="K756" s="10"/>
-      <c r="L756" s="10"/>
       <c r="M756" s="2"/>
       <c r="N756" s="2"/>
       <c r="O756" s="2"/>
@@ -34541,7 +34019,6 @@
       <c r="I757" s="10"/>
       <c r="J757" s="10"/>
       <c r="K757" s="10"/>
-      <c r="L757" s="10"/>
       <c r="M757" s="2"/>
       <c r="N757" s="2"/>
       <c r="O757" s="2"/>
@@ -34577,7 +34054,6 @@
       <c r="I758" s="10"/>
       <c r="J758" s="10"/>
       <c r="K758" s="10"/>
-      <c r="L758" s="10"/>
       <c r="M758" s="2"/>
       <c r="N758" s="2"/>
       <c r="O758" s="2"/>
@@ -34613,7 +34089,6 @@
       <c r="I759" s="10"/>
       <c r="J759" s="10"/>
       <c r="K759" s="10"/>
-      <c r="L759" s="10"/>
       <c r="M759" s="2"/>
       <c r="N759" s="2"/>
       <c r="O759" s="2"/>
@@ -34649,7 +34124,6 @@
       <c r="I760" s="10"/>
       <c r="J760" s="10"/>
       <c r="K760" s="10"/>
-      <c r="L760" s="10"/>
       <c r="M760" s="2"/>
       <c r="N760" s="2"/>
       <c r="O760" s="2"/>
@@ -34685,7 +34159,6 @@
       <c r="I761" s="10"/>
       <c r="J761" s="10"/>
       <c r="K761" s="10"/>
-      <c r="L761" s="10"/>
       <c r="M761" s="2"/>
       <c r="N761" s="2"/>
       <c r="O761" s="2"/>
@@ -34721,7 +34194,6 @@
       <c r="I762" s="10"/>
       <c r="J762" s="10"/>
       <c r="K762" s="10"/>
-      <c r="L762" s="10"/>
       <c r="M762" s="2"/>
       <c r="N762" s="2"/>
       <c r="O762" s="2"/>
@@ -34757,7 +34229,6 @@
       <c r="I763" s="10"/>
       <c r="J763" s="10"/>
       <c r="K763" s="10"/>
-      <c r="L763" s="10"/>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
       <c r="O763" s="2"/>
@@ -34793,7 +34264,6 @@
       <c r="I764" s="10"/>
       <c r="J764" s="10"/>
       <c r="K764" s="10"/>
-      <c r="L764" s="10"/>
       <c r="M764" s="2"/>
       <c r="N764" s="2"/>
       <c r="O764" s="2"/>
@@ -34829,7 +34299,6 @@
       <c r="I765" s="10"/>
       <c r="J765" s="10"/>
       <c r="K765" s="10"/>
-      <c r="L765" s="10"/>
       <c r="M765" s="2"/>
       <c r="N765" s="2"/>
       <c r="O765" s="2"/>
@@ -34865,7 +34334,6 @@
       <c r="I766" s="10"/>
       <c r="J766" s="10"/>
       <c r="K766" s="10"/>
-      <c r="L766" s="10"/>
       <c r="M766" s="2"/>
       <c r="N766" s="2"/>
       <c r="O766" s="2"/>
@@ -34901,7 +34369,6 @@
       <c r="I767" s="10"/>
       <c r="J767" s="10"/>
       <c r="K767" s="10"/>
-      <c r="L767" s="10"/>
       <c r="M767" s="2"/>
       <c r="N767" s="2"/>
       <c r="O767" s="2"/>
@@ -34937,7 +34404,6 @@
       <c r="I768" s="10"/>
       <c r="J768" s="10"/>
       <c r="K768" s="10"/>
-      <c r="L768" s="10"/>
       <c r="M768" s="2"/>
       <c r="N768" s="2"/>
       <c r="O768" s="2"/>
@@ -34973,7 +34439,6 @@
       <c r="I769" s="10"/>
       <c r="J769" s="10"/>
       <c r="K769" s="10"/>
-      <c r="L769" s="10"/>
       <c r="M769" s="2"/>
       <c r="N769" s="2"/>
       <c r="O769" s="2"/>
@@ -35009,7 +34474,6 @@
       <c r="I770" s="10"/>
       <c r="J770" s="10"/>
       <c r="K770" s="10"/>
-      <c r="L770" s="10"/>
       <c r="M770" s="2"/>
       <c r="N770" s="2"/>
       <c r="O770" s="2"/>
@@ -35045,7 +34509,6 @@
       <c r="I771" s="10"/>
       <c r="J771" s="10"/>
       <c r="K771" s="10"/>
-      <c r="L771" s="10"/>
       <c r="M771" s="2"/>
       <c r="N771" s="2"/>
       <c r="O771" s="2"/>
@@ -35081,7 +34544,6 @@
       <c r="I772" s="10"/>
       <c r="J772" s="10"/>
       <c r="K772" s="10"/>
-      <c r="L772" s="10"/>
       <c r="M772" s="2"/>
       <c r="N772" s="2"/>
       <c r="O772" s="2"/>
@@ -35117,7 +34579,6 @@
       <c r="I773" s="10"/>
       <c r="J773" s="10"/>
       <c r="K773" s="10"/>
-      <c r="L773" s="10"/>
       <c r="M773" s="2"/>
       <c r="N773" s="2"/>
       <c r="O773" s="2"/>
@@ -35153,7 +34614,6 @@
       <c r="I774" s="10"/>
       <c r="J774" s="10"/>
       <c r="K774" s="10"/>
-      <c r="L774" s="10"/>
       <c r="M774" s="2"/>
       <c r="N774" s="2"/>
       <c r="O774" s="2"/>
@@ -35189,7 +34649,6 @@
       <c r="I775" s="10"/>
       <c r="J775" s="10"/>
       <c r="K775" s="10"/>
-      <c r="L775" s="10"/>
       <c r="M775" s="2"/>
       <c r="N775" s="2"/>
       <c r="O775" s="2"/>
@@ -35225,7 +34684,6 @@
       <c r="I776" s="10"/>
       <c r="J776" s="10"/>
       <c r="K776" s="10"/>
-      <c r="L776" s="10"/>
       <c r="M776" s="2"/>
       <c r="N776" s="2"/>
       <c r="O776" s="2"/>
@@ -35261,7 +34719,6 @@
       <c r="I777" s="10"/>
       <c r="J777" s="10"/>
       <c r="K777" s="10"/>
-      <c r="L777" s="10"/>
       <c r="M777" s="2"/>
       <c r="N777" s="2"/>
       <c r="O777" s="2"/>
@@ -35297,7 +34754,6 @@
       <c r="I778" s="10"/>
       <c r="J778" s="10"/>
       <c r="K778" s="10"/>
-      <c r="L778" s="10"/>
       <c r="M778" s="2"/>
       <c r="N778" s="2"/>
       <c r="O778" s="2"/>
@@ -35333,7 +34789,6 @@
       <c r="I779" s="10"/>
       <c r="J779" s="10"/>
       <c r="K779" s="10"/>
-      <c r="L779" s="10"/>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
       <c r="O779" s="2"/>
@@ -35369,7 +34824,6 @@
       <c r="I780" s="10"/>
       <c r="J780" s="10"/>
       <c r="K780" s="10"/>
-      <c r="L780" s="10"/>
       <c r="M780" s="2"/>
       <c r="N780" s="2"/>
       <c r="O780" s="2"/>
@@ -35405,7 +34859,6 @@
       <c r="I781" s="10"/>
       <c r="J781" s="10"/>
       <c r="K781" s="10"/>
-      <c r="L781" s="10"/>
       <c r="M781" s="2"/>
       <c r="N781" s="2"/>
       <c r="O781" s="2"/>
@@ -35441,7 +34894,6 @@
       <c r="I782" s="10"/>
       <c r="J782" s="10"/>
       <c r="K782" s="10"/>
-      <c r="L782" s="10"/>
       <c r="M782" s="2"/>
       <c r="N782" s="2"/>
       <c r="O782" s="2"/>
@@ -35477,7 +34929,6 @@
       <c r="I783" s="10"/>
       <c r="J783" s="10"/>
       <c r="K783" s="10"/>
-      <c r="L783" s="10"/>
       <c r="M783" s="2"/>
       <c r="N783" s="2"/>
       <c r="O783" s="2"/>
@@ -35513,7 +34964,6 @@
       <c r="I784" s="10"/>
       <c r="J784" s="10"/>
       <c r="K784" s="10"/>
-      <c r="L784" s="10"/>
       <c r="M784" s="2"/>
       <c r="N784" s="2"/>
       <c r="O784" s="2"/>
@@ -35549,7 +34999,6 @@
       <c r="I785" s="10"/>
       <c r="J785" s="10"/>
       <c r="K785" s="10"/>
-      <c r="L785" s="10"/>
       <c r="M785" s="2"/>
       <c r="N785" s="2"/>
       <c r="O785" s="2"/>
@@ -35585,7 +35034,6 @@
       <c r="I786" s="10"/>
       <c r="J786" s="10"/>
       <c r="K786" s="10"/>
-      <c r="L786" s="10"/>
       <c r="M786" s="2"/>
       <c r="N786" s="2"/>
       <c r="O786" s="2"/>
@@ -35621,7 +35069,6 @@
       <c r="I787" s="10"/>
       <c r="J787" s="10"/>
       <c r="K787" s="10"/>
-      <c r="L787" s="10"/>
       <c r="M787" s="2"/>
       <c r="N787" s="2"/>
       <c r="O787" s="2"/>
@@ -35657,7 +35104,6 @@
       <c r="I788" s="10"/>
       <c r="J788" s="10"/>
       <c r="K788" s="10"/>
-      <c r="L788" s="10"/>
       <c r="M788" s="2"/>
       <c r="N788" s="2"/>
       <c r="O788" s="2"/>
@@ -35693,7 +35139,6 @@
       <c r="I789" s="10"/>
       <c r="J789" s="10"/>
       <c r="K789" s="10"/>
-      <c r="L789" s="10"/>
       <c r="M789" s="2"/>
       <c r="N789" s="2"/>
       <c r="O789" s="2"/>
@@ -35729,7 +35174,6 @@
       <c r="I790" s="10"/>
       <c r="J790" s="10"/>
       <c r="K790" s="10"/>
-      <c r="L790" s="10"/>
       <c r="M790" s="2"/>
       <c r="N790" s="2"/>
       <c r="O790" s="2"/>
@@ -35765,7 +35209,6 @@
       <c r="I791" s="10"/>
       <c r="J791" s="10"/>
       <c r="K791" s="10"/>
-      <c r="L791" s="10"/>
       <c r="M791" s="2"/>
       <c r="N791" s="2"/>
       <c r="O791" s="2"/>
@@ -35801,7 +35244,6 @@
       <c r="I792" s="10"/>
       <c r="J792" s="10"/>
       <c r="K792" s="10"/>
-      <c r="L792" s="10"/>
       <c r="M792" s="2"/>
       <c r="N792" s="2"/>
       <c r="O792" s="2"/>
@@ -35837,7 +35279,6 @@
       <c r="I793" s="10"/>
       <c r="J793" s="10"/>
       <c r="K793" s="10"/>
-      <c r="L793" s="10"/>
       <c r="M793" s="2"/>
       <c r="N793" s="2"/>
       <c r="O793" s="2"/>
@@ -35873,7 +35314,6 @@
       <c r="I794" s="10"/>
       <c r="J794" s="10"/>
       <c r="K794" s="10"/>
-      <c r="L794" s="10"/>
       <c r="M794" s="2"/>
       <c r="N794" s="2"/>
       <c r="O794" s="2"/>
@@ -35909,7 +35349,6 @@
       <c r="I795" s="10"/>
       <c r="J795" s="10"/>
       <c r="K795" s="10"/>
-      <c r="L795" s="10"/>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
       <c r="O795" s="2"/>
@@ -35945,7 +35384,6 @@
       <c r="I796" s="10"/>
       <c r="J796" s="10"/>
       <c r="K796" s="10"/>
-      <c r="L796" s="10"/>
       <c r="M796" s="2"/>
       <c r="N796" s="2"/>
       <c r="O796" s="2"/>
@@ -35981,7 +35419,6 @@
       <c r="I797" s="10"/>
       <c r="J797" s="10"/>
       <c r="K797" s="10"/>
-      <c r="L797" s="10"/>
       <c r="M797" s="2"/>
       <c r="N797" s="2"/>
       <c r="O797" s="2"/>
@@ -36017,7 +35454,6 @@
       <c r="I798" s="10"/>
       <c r="J798" s="10"/>
       <c r="K798" s="10"/>
-      <c r="L798" s="10"/>
       <c r="M798" s="2"/>
       <c r="N798" s="2"/>
       <c r="O798" s="2"/>
@@ -36053,7 +35489,6 @@
       <c r="I799" s="10"/>
       <c r="J799" s="10"/>
       <c r="K799" s="10"/>
-      <c r="L799" s="10"/>
       <c r="M799" s="2"/>
       <c r="N799" s="2"/>
       <c r="O799" s="2"/>
@@ -36089,7 +35524,6 @@
       <c r="I800" s="10"/>
       <c r="J800" s="10"/>
       <c r="K800" s="10"/>
-      <c r="L800" s="10"/>
       <c r="M800" s="2"/>
       <c r="N800" s="2"/>
       <c r="O800" s="2"/>
@@ -36125,7 +35559,6 @@
       <c r="I801" s="10"/>
       <c r="J801" s="10"/>
       <c r="K801" s="10"/>
-      <c r="L801" s="10"/>
       <c r="M801" s="2"/>
       <c r="N801" s="2"/>
       <c r="O801" s="2"/>
@@ -36161,7 +35594,6 @@
       <c r="I802" s="10"/>
       <c r="J802" s="10"/>
       <c r="K802" s="10"/>
-      <c r="L802" s="10"/>
       <c r="M802" s="2"/>
       <c r="N802" s="2"/>
       <c r="O802" s="2"/>
@@ -36197,7 +35629,6 @@
       <c r="I803" s="10"/>
       <c r="J803" s="10"/>
       <c r="K803" s="10"/>
-      <c r="L803" s="10"/>
       <c r="M803" s="2"/>
       <c r="N803" s="2"/>
       <c r="O803" s="2"/>
@@ -36233,7 +35664,6 @@
       <c r="I804" s="10"/>
       <c r="J804" s="10"/>
       <c r="K804" s="10"/>
-      <c r="L804" s="10"/>
       <c r="M804" s="2"/>
       <c r="N804" s="2"/>
       <c r="O804" s="2"/>
@@ -36269,7 +35699,6 @@
       <c r="I805" s="10"/>
       <c r="J805" s="10"/>
       <c r="K805" s="10"/>
-      <c r="L805" s="10"/>
       <c r="M805" s="2"/>
       <c r="N805" s="2"/>
       <c r="O805" s="2"/>
@@ -36305,7 +35734,6 @@
       <c r="I806" s="10"/>
       <c r="J806" s="10"/>
       <c r="K806" s="10"/>
-      <c r="L806" s="10"/>
       <c r="M806" s="2"/>
       <c r="N806" s="2"/>
       <c r="O806" s="2"/>
@@ -36341,7 +35769,6 @@
       <c r="I807" s="10"/>
       <c r="J807" s="10"/>
       <c r="K807" s="10"/>
-      <c r="L807" s="10"/>
       <c r="M807" s="2"/>
       <c r="N807" s="2"/>
       <c r="O807" s="2"/>
@@ -36377,7 +35804,6 @@
       <c r="I808" s="10"/>
       <c r="J808" s="10"/>
       <c r="K808" s="10"/>
-      <c r="L808" s="10"/>
       <c r="M808" s="2"/>
       <c r="N808" s="2"/>
       <c r="O808" s="2"/>
@@ -36413,7 +35839,6 @@
       <c r="I809" s="10"/>
       <c r="J809" s="10"/>
       <c r="K809" s="10"/>
-      <c r="L809" s="10"/>
       <c r="M809" s="2"/>
       <c r="N809" s="2"/>
       <c r="O809" s="2"/>
@@ -36449,7 +35874,6 @@
       <c r="I810" s="10"/>
       <c r="J810" s="10"/>
       <c r="K810" s="10"/>
-      <c r="L810" s="10"/>
       <c r="M810" s="2"/>
       <c r="N810" s="2"/>
       <c r="O810" s="2"/>
@@ -36485,7 +35909,6 @@
       <c r="I811" s="10"/>
       <c r="J811" s="10"/>
       <c r="K811" s="10"/>
-      <c r="L811" s="10"/>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
       <c r="O811" s="2"/>
@@ -36521,7 +35944,6 @@
       <c r="I812" s="10"/>
       <c r="J812" s="10"/>
       <c r="K812" s="10"/>
-      <c r="L812" s="10"/>
       <c r="M812" s="2"/>
       <c r="N812" s="2"/>
       <c r="O812" s="2"/>
@@ -36557,7 +35979,6 @@
       <c r="I813" s="10"/>
       <c r="J813" s="10"/>
       <c r="K813" s="10"/>
-      <c r="L813" s="10"/>
       <c r="M813" s="2"/>
       <c r="N813" s="2"/>
       <c r="O813" s="2"/>
@@ -36593,7 +36014,6 @@
       <c r="I814" s="10"/>
       <c r="J814" s="10"/>
       <c r="K814" s="10"/>
-      <c r="L814" s="10"/>
       <c r="M814" s="2"/>
       <c r="N814" s="2"/>
       <c r="O814" s="2"/>
@@ -36629,7 +36049,6 @@
       <c r="I815" s="10"/>
       <c r="J815" s="10"/>
       <c r="K815" s="10"/>
-      <c r="L815" s="10"/>
       <c r="M815" s="2"/>
       <c r="N815" s="2"/>
       <c r="O815" s="2"/>
@@ -36665,7 +36084,6 @@
       <c r="I816" s="10"/>
       <c r="J816" s="10"/>
       <c r="K816" s="10"/>
-      <c r="L816" s="10"/>
       <c r="M816" s="2"/>
       <c r="N816" s="2"/>
       <c r="O816" s="2"/>
@@ -36701,7 +36119,6 @@
       <c r="I817" s="10"/>
       <c r="J817" s="10"/>
       <c r="K817" s="10"/>
-      <c r="L817" s="10"/>
       <c r="M817" s="2"/>
       <c r="N817" s="2"/>
       <c r="O817" s="2"/>
@@ -36737,7 +36154,6 @@
       <c r="I818" s="10"/>
       <c r="J818" s="10"/>
       <c r="K818" s="10"/>
-      <c r="L818" s="10"/>
       <c r="M818" s="2"/>
       <c r="N818" s="2"/>
       <c r="O818" s="2"/>
@@ -36773,7 +36189,6 @@
       <c r="I819" s="10"/>
       <c r="J819" s="10"/>
       <c r="K819" s="10"/>
-      <c r="L819" s="10"/>
       <c r="M819" s="2"/>
       <c r="N819" s="2"/>
       <c r="O819" s="2"/>
@@ -36809,7 +36224,6 @@
       <c r="I820" s="10"/>
       <c r="J820" s="10"/>
       <c r="K820" s="10"/>
-      <c r="L820" s="10"/>
       <c r="M820" s="2"/>
       <c r="N820" s="2"/>
       <c r="O820" s="2"/>
@@ -36845,7 +36259,6 @@
       <c r="I821" s="10"/>
       <c r="J821" s="10"/>
       <c r="K821" s="10"/>
-      <c r="L821" s="10"/>
       <c r="M821" s="2"/>
       <c r="N821" s="2"/>
       <c r="O821" s="2"/>
@@ -36881,7 +36294,6 @@
       <c r="I822" s="10"/>
       <c r="J822" s="10"/>
       <c r="K822" s="10"/>
-      <c r="L822" s="10"/>
       <c r="M822" s="2"/>
       <c r="N822" s="2"/>
       <c r="O822" s="2"/>
@@ -36917,7 +36329,6 @@
       <c r="I823" s="10"/>
       <c r="J823" s="10"/>
       <c r="K823" s="10"/>
-      <c r="L823" s="10"/>
       <c r="M823" s="2"/>
       <c r="N823" s="2"/>
       <c r="O823" s="2"/>
@@ -36953,7 +36364,6 @@
       <c r="I824" s="10"/>
       <c r="J824" s="10"/>
       <c r="K824" s="10"/>
-      <c r="L824" s="10"/>
       <c r="M824" s="2"/>
       <c r="N824" s="2"/>
       <c r="O824" s="2"/>
@@ -36989,7 +36399,6 @@
       <c r="I825" s="10"/>
       <c r="J825" s="10"/>
       <c r="K825" s="10"/>
-      <c r="L825" s="10"/>
       <c r="M825" s="2"/>
       <c r="N825" s="2"/>
       <c r="O825" s="2"/>
@@ -37025,7 +36434,6 @@
       <c r="I826" s="10"/>
       <c r="J826" s="10"/>
       <c r="K826" s="10"/>
-      <c r="L826" s="10"/>
       <c r="M826" s="2"/>
       <c r="N826" s="2"/>
       <c r="O826" s="2"/>
@@ -37061,7 +36469,6 @@
       <c r="I827" s="10"/>
       <c r="J827" s="10"/>
       <c r="K827" s="10"/>
-      <c r="L827" s="10"/>
       <c r="M827" s="2"/>
       <c r="N827" s="2"/>
       <c r="O827" s="2"/>
@@ -37097,7 +36504,6 @@
       <c r="I828" s="10"/>
       <c r="J828" s="10"/>
       <c r="K828" s="10"/>
-      <c r="L828" s="10"/>
       <c r="M828" s="2"/>
       <c r="N828" s="2"/>
       <c r="O828" s="2"/>
@@ -37133,7 +36539,6 @@
       <c r="I829" s="10"/>
       <c r="J829" s="10"/>
       <c r="K829" s="10"/>
-      <c r="L829" s="10"/>
       <c r="M829" s="2"/>
       <c r="N829" s="2"/>
       <c r="O829" s="2"/>
@@ -37169,7 +36574,6 @@
       <c r="I830" s="10"/>
       <c r="J830" s="10"/>
       <c r="K830" s="10"/>
-      <c r="L830" s="10"/>
       <c r="M830" s="2"/>
       <c r="N830" s="2"/>
       <c r="O830" s="2"/>
@@ -37205,7 +36609,6 @@
       <c r="I831" s="10"/>
       <c r="J831" s="10"/>
       <c r="K831" s="10"/>
-      <c r="L831" s="10"/>
       <c r="M831" s="2"/>
       <c r="N831" s="2"/>
       <c r="O831" s="2"/>
@@ -37241,7 +36644,6 @@
       <c r="I832" s="10"/>
       <c r="J832" s="10"/>
       <c r="K832" s="10"/>
-      <c r="L832" s="10"/>
       <c r="M832" s="2"/>
       <c r="N832" s="2"/>
       <c r="O832" s="2"/>
@@ -37277,7 +36679,6 @@
       <c r="I833" s="10"/>
       <c r="J833" s="10"/>
       <c r="K833" s="10"/>
-      <c r="L833" s="10"/>
       <c r="M833" s="2"/>
       <c r="N833" s="2"/>
       <c r="O833" s="2"/>
@@ -37313,7 +36714,6 @@
       <c r="I834" s="10"/>
       <c r="J834" s="10"/>
       <c r="K834" s="10"/>
-      <c r="L834" s="10"/>
       <c r="M834" s="2"/>
       <c r="N834" s="2"/>
       <c r="O834" s="2"/>
@@ -37349,7 +36749,6 @@
       <c r="I835" s="10"/>
       <c r="J835" s="10"/>
       <c r="K835" s="10"/>
-      <c r="L835" s="10"/>
       <c r="M835" s="2"/>
       <c r="N835" s="2"/>
       <c r="O835" s="2"/>
@@ -37385,7 +36784,6 @@
       <c r="I836" s="10"/>
       <c r="J836" s="10"/>
       <c r="K836" s="10"/>
-      <c r="L836" s="10"/>
       <c r="M836" s="2"/>
       <c r="N836" s="2"/>
       <c r="O836" s="2"/>
@@ -37421,7 +36819,6 @@
       <c r="I837" s="10"/>
       <c r="J837" s="10"/>
       <c r="K837" s="10"/>
-      <c r="L837" s="10"/>
       <c r="M837" s="2"/>
       <c r="N837" s="2"/>
       <c r="O837" s="2"/>
@@ -37457,7 +36854,6 @@
       <c r="I838" s="10"/>
       <c r="J838" s="10"/>
       <c r="K838" s="10"/>
-      <c r="L838" s="10"/>
       <c r="M838" s="2"/>
       <c r="N838" s="2"/>
       <c r="O838" s="2"/>
@@ -37493,7 +36889,6 @@
       <c r="I839" s="10"/>
       <c r="J839" s="10"/>
       <c r="K839" s="10"/>
-      <c r="L839" s="10"/>
       <c r="M839" s="2"/>
       <c r="N839" s="2"/>
       <c r="O839" s="2"/>
@@ -37529,7 +36924,6 @@
       <c r="I840" s="10"/>
       <c r="J840" s="10"/>
       <c r="K840" s="10"/>
-      <c r="L840" s="10"/>
       <c r="M840" s="2"/>
       <c r="N840" s="2"/>
       <c r="O840" s="2"/>
@@ -37565,7 +36959,6 @@
       <c r="I841" s="10"/>
       <c r="J841" s="10"/>
       <c r="K841" s="10"/>
-      <c r="L841" s="10"/>
       <c r="M841" s="2"/>
       <c r="N841" s="2"/>
       <c r="O841" s="2"/>
@@ -37601,7 +36994,6 @@
       <c r="I842" s="10"/>
       <c r="J842" s="10"/>
       <c r="K842" s="10"/>
-      <c r="L842" s="10"/>
       <c r="M842" s="2"/>
       <c r="N842" s="2"/>
       <c r="O842" s="2"/>
@@ -37637,7 +37029,6 @@
       <c r="I843" s="10"/>
       <c r="J843" s="10"/>
       <c r="K843" s="10"/>
-      <c r="L843" s="10"/>
       <c r="M843" s="2"/>
       <c r="N843" s="2"/>
       <c r="O843" s="2"/>
@@ -37673,7 +37064,6 @@
       <c r="I844" s="10"/>
       <c r="J844" s="10"/>
       <c r="K844" s="10"/>
-      <c r="L844" s="10"/>
       <c r="M844" s="2"/>
       <c r="N844" s="2"/>
       <c r="O844" s="2"/>
@@ -37709,7 +37099,6 @@
       <c r="I845" s="10"/>
       <c r="J845" s="10"/>
       <c r="K845" s="10"/>
-      <c r="L845" s="10"/>
       <c r="M845" s="2"/>
       <c r="N845" s="2"/>
       <c r="O845" s="2"/>
@@ -37745,7 +37134,6 @@
       <c r="I846" s="10"/>
       <c r="J846" s="10"/>
       <c r="K846" s="10"/>
-      <c r="L846" s="10"/>
       <c r="M846" s="2"/>
       <c r="N846" s="2"/>
       <c r="O846" s="2"/>
@@ -37781,7 +37169,6 @@
       <c r="I847" s="10"/>
       <c r="J847" s="10"/>
       <c r="K847" s="10"/>
-      <c r="L847" s="10"/>
       <c r="M847" s="2"/>
       <c r="N847" s="2"/>
       <c r="O847" s="2"/>
@@ -37817,7 +37204,6 @@
       <c r="I848" s="10"/>
       <c r="J848" s="10"/>
       <c r="K848" s="10"/>
-      <c r="L848" s="10"/>
       <c r="M848" s="2"/>
       <c r="N848" s="2"/>
       <c r="O848" s="2"/>
@@ -37853,7 +37239,6 @@
       <c r="I849" s="10"/>
       <c r="J849" s="10"/>
       <c r="K849" s="10"/>
-      <c r="L849" s="10"/>
       <c r="M849" s="2"/>
       <c r="N849" s="2"/>
       <c r="O849" s="2"/>
@@ -37889,7 +37274,6 @@
       <c r="I850" s="10"/>
       <c r="J850" s="10"/>
       <c r="K850" s="10"/>
-      <c r="L850" s="10"/>
       <c r="M850" s="2"/>
       <c r="N850" s="2"/>
       <c r="O850" s="2"/>
@@ -37925,7 +37309,6 @@
       <c r="I851" s="10"/>
       <c r="J851" s="10"/>
       <c r="K851" s="10"/>
-      <c r="L851" s="10"/>
       <c r="M851" s="2"/>
       <c r="N851" s="2"/>
       <c r="O851" s="2"/>
@@ -37961,7 +37344,6 @@
       <c r="I852" s="10"/>
       <c r="J852" s="10"/>
       <c r="K852" s="10"/>
-      <c r="L852" s="10"/>
       <c r="M852" s="2"/>
       <c r="N852" s="2"/>
       <c r="O852" s="2"/>
@@ -37997,7 +37379,6 @@
       <c r="I853" s="10"/>
       <c r="J853" s="10"/>
       <c r="K853" s="10"/>
-      <c r="L853" s="10"/>
       <c r="M853" s="2"/>
       <c r="N853" s="2"/>
       <c r="O853" s="2"/>
@@ -38033,7 +37414,6 @@
       <c r="I854" s="10"/>
       <c r="J854" s="10"/>
       <c r="K854" s="10"/>
-      <c r="L854" s="10"/>
       <c r="M854" s="2"/>
       <c r="N854" s="2"/>
       <c r="O854" s="2"/>
@@ -38069,7 +37449,6 @@
       <c r="I855" s="10"/>
       <c r="J855" s="10"/>
       <c r="K855" s="10"/>
-      <c r="L855" s="10"/>
       <c r="M855" s="2"/>
       <c r="N855" s="2"/>
       <c r="O855" s="2"/>
@@ -38105,7 +37484,6 @@
       <c r="I856" s="10"/>
       <c r="J856" s="10"/>
       <c r="K856" s="10"/>
-      <c r="L856" s="10"/>
       <c r="M856" s="2"/>
       <c r="N856" s="2"/>
       <c r="O856" s="2"/>
@@ -38141,7 +37519,6 @@
       <c r="I857" s="10"/>
       <c r="J857" s="10"/>
       <c r="K857" s="10"/>
-      <c r="L857" s="10"/>
       <c r="M857" s="2"/>
       <c r="N857" s="2"/>
       <c r="O857" s="2"/>
@@ -38177,7 +37554,6 @@
       <c r="I858" s="10"/>
       <c r="J858" s="10"/>
       <c r="K858" s="10"/>
-      <c r="L858" s="10"/>
       <c r="M858" s="2"/>
       <c r="N858" s="2"/>
       <c r="O858" s="2"/>
@@ -38213,7 +37589,6 @@
       <c r="I859" s="10"/>
       <c r="J859" s="10"/>
       <c r="K859" s="10"/>
-      <c r="L859" s="10"/>
       <c r="M859" s="2"/>
       <c r="N859" s="2"/>
       <c r="O859" s="2"/>
@@ -38249,7 +37624,6 @@
       <c r="I860" s="10"/>
       <c r="J860" s="10"/>
       <c r="K860" s="10"/>
-      <c r="L860" s="10"/>
       <c r="M860" s="2"/>
       <c r="N860" s="2"/>
       <c r="O860" s="2"/>
@@ -38285,7 +37659,6 @@
       <c r="I861" s="10"/>
       <c r="J861" s="10"/>
       <c r="K861" s="10"/>
-      <c r="L861" s="10"/>
       <c r="M861" s="2"/>
       <c r="N861" s="2"/>
       <c r="O861" s="2"/>
@@ -38321,7 +37694,6 @@
       <c r="I862" s="10"/>
       <c r="J862" s="10"/>
       <c r="K862" s="10"/>
-      <c r="L862" s="10"/>
       <c r="M862" s="2"/>
       <c r="N862" s="2"/>
       <c r="O862" s="2"/>
@@ -38357,7 +37729,6 @@
       <c r="I863" s="10"/>
       <c r="J863" s="10"/>
       <c r="K863" s="10"/>
-      <c r="L863" s="10"/>
       <c r="M863" s="2"/>
       <c r="N863" s="2"/>
       <c r="O863" s="2"/>
@@ -38393,7 +37764,6 @@
       <c r="I864" s="10"/>
       <c r="J864" s="10"/>
       <c r="K864" s="10"/>
-      <c r="L864" s="10"/>
       <c r="M864" s="2"/>
       <c r="N864" s="2"/>
       <c r="O864" s="2"/>
@@ -38429,7 +37799,6 @@
       <c r="I865" s="10"/>
       <c r="J865" s="10"/>
       <c r="K865" s="10"/>
-      <c r="L865" s="10"/>
       <c r="M865" s="2"/>
       <c r="N865" s="2"/>
       <c r="O865" s="2"/>
@@ -38465,7 +37834,6 @@
       <c r="I866" s="10"/>
       <c r="J866" s="10"/>
       <c r="K866" s="10"/>
-      <c r="L866" s="10"/>
       <c r="M866" s="2"/>
       <c r="N866" s="2"/>
       <c r="O866" s="2"/>
@@ -38501,7 +37869,6 @@
       <c r="I867" s="10"/>
       <c r="J867" s="10"/>
       <c r="K867" s="10"/>
-      <c r="L867" s="10"/>
       <c r="M867" s="2"/>
       <c r="N867" s="2"/>
       <c r="O867" s="2"/>
@@ -38537,7 +37904,6 @@
       <c r="I868" s="10"/>
       <c r="J868" s="10"/>
       <c r="K868" s="10"/>
-      <c r="L868" s="10"/>
       <c r="M868" s="2"/>
       <c r="N868" s="2"/>
       <c r="O868" s="2"/>
@@ -38573,7 +37939,6 @@
       <c r="I869" s="10"/>
       <c r="J869" s="10"/>
       <c r="K869" s="10"/>
-      <c r="L869" s="10"/>
       <c r="M869" s="2"/>
       <c r="N869" s="2"/>
       <c r="O869" s="2"/>
@@ -38609,7 +37974,6 @@
       <c r="I870" s="10"/>
       <c r="J870" s="10"/>
       <c r="K870" s="10"/>
-      <c r="L870" s="10"/>
       <c r="M870" s="2"/>
       <c r="N870" s="2"/>
       <c r="O870" s="2"/>
@@ -38645,7 +38009,6 @@
       <c r="I871" s="10"/>
       <c r="J871" s="10"/>
       <c r="K871" s="10"/>
-      <c r="L871" s="10"/>
       <c r="M871" s="2"/>
       <c r="N871" s="2"/>
       <c r="O871" s="2"/>
@@ -38681,7 +38044,6 @@
       <c r="I872" s="10"/>
       <c r="J872" s="10"/>
       <c r="K872" s="10"/>
-      <c r="L872" s="10"/>
       <c r="M872" s="2"/>
       <c r="N872" s="2"/>
       <c r="O872" s="2"/>
@@ -38717,7 +38079,6 @@
       <c r="I873" s="10"/>
       <c r="J873" s="10"/>
       <c r="K873" s="10"/>
-      <c r="L873" s="10"/>
       <c r="M873" s="2"/>
       <c r="N873" s="2"/>
       <c r="O873" s="2"/>
@@ -38753,7 +38114,6 @@
       <c r="I874" s="10"/>
       <c r="J874" s="10"/>
       <c r="K874" s="10"/>
-      <c r="L874" s="10"/>
       <c r="M874" s="2"/>
       <c r="N874" s="2"/>
       <c r="O874" s="2"/>
@@ -38789,7 +38149,6 @@
       <c r="I875" s="10"/>
       <c r="J875" s="10"/>
       <c r="K875" s="10"/>
-      <c r="L875" s="10"/>
       <c r="M875" s="2"/>
       <c r="N875" s="2"/>
       <c r="O875" s="2"/>
@@ -38825,7 +38184,6 @@
       <c r="I876" s="10"/>
       <c r="J876" s="10"/>
       <c r="K876" s="10"/>
-      <c r="L876" s="10"/>
       <c r="M876" s="2"/>
       <c r="N876" s="2"/>
       <c r="O876" s="2"/>
@@ -38861,7 +38219,6 @@
       <c r="I877" s="10"/>
       <c r="J877" s="10"/>
       <c r="K877" s="10"/>
-      <c r="L877" s="10"/>
       <c r="M877" s="2"/>
       <c r="N877" s="2"/>
       <c r="O877" s="2"/>
@@ -38897,7 +38254,6 @@
       <c r="I878" s="10"/>
       <c r="J878" s="10"/>
       <c r="K878" s="10"/>
-      <c r="L878" s="10"/>
       <c r="M878" s="2"/>
       <c r="N878" s="2"/>
       <c r="O878" s="2"/>
@@ -38933,7 +38289,6 @@
       <c r="I879" s="10"/>
       <c r="J879" s="10"/>
       <c r="K879" s="10"/>
-      <c r="L879" s="10"/>
       <c r="M879" s="2"/>
       <c r="N879" s="2"/>
       <c r="O879" s="2"/>
@@ -38969,7 +38324,6 @@
       <c r="I880" s="10"/>
       <c r="J880" s="10"/>
       <c r="K880" s="10"/>
-      <c r="L880" s="10"/>
       <c r="M880" s="2"/>
       <c r="N880" s="2"/>
       <c r="O880" s="2"/>
@@ -39005,7 +38359,6 @@
       <c r="I881" s="10"/>
       <c r="J881" s="10"/>
       <c r="K881" s="10"/>
-      <c r="L881" s="10"/>
       <c r="M881" s="2"/>
       <c r="N881" s="2"/>
       <c r="O881" s="2"/>
@@ -39041,7 +38394,6 @@
       <c r="I882" s="10"/>
       <c r="J882" s="10"/>
       <c r="K882" s="10"/>
-      <c r="L882" s="10"/>
       <c r="M882" s="2"/>
       <c r="N882" s="2"/>
       <c r="O882" s="2"/>
@@ -39077,7 +38429,6 @@
       <c r="I883" s="10"/>
       <c r="J883" s="10"/>
       <c r="K883" s="10"/>
-      <c r="L883" s="10"/>
       <c r="M883" s="2"/>
       <c r="N883" s="2"/>
       <c r="O883" s="2"/>
@@ -39113,7 +38464,6 @@
       <c r="I884" s="10"/>
       <c r="J884" s="10"/>
       <c r="K884" s="10"/>
-      <c r="L884" s="10"/>
       <c r="M884" s="2"/>
       <c r="N884" s="2"/>
       <c r="O884" s="2"/>
@@ -39149,7 +38499,6 @@
       <c r="I885" s="10"/>
       <c r="J885" s="10"/>
       <c r="K885" s="10"/>
-      <c r="L885" s="10"/>
       <c r="M885" s="2"/>
       <c r="N885" s="2"/>
       <c r="O885" s="2"/>
@@ -39185,7 +38534,6 @@
       <c r="I886" s="10"/>
       <c r="J886" s="10"/>
       <c r="K886" s="10"/>
-      <c r="L886" s="10"/>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
       <c r="O886" s="2"/>
@@ -39221,7 +38569,6 @@
       <c r="I887" s="10"/>
       <c r="J887" s="10"/>
       <c r="K887" s="10"/>
-      <c r="L887" s="10"/>
       <c r="M887" s="2"/>
       <c r="N887" s="2"/>
       <c r="O887" s="2"/>
@@ -39257,7 +38604,6 @@
       <c r="I888" s="10"/>
       <c r="J888" s="10"/>
       <c r="K888" s="10"/>
-      <c r="L888" s="10"/>
       <c r="M888" s="2"/>
       <c r="N888" s="2"/>
       <c r="O888" s="2"/>
@@ -39293,7 +38639,6 @@
       <c r="I889" s="10"/>
       <c r="J889" s="10"/>
       <c r="K889" s="10"/>
-      <c r="L889" s="10"/>
       <c r="M889" s="2"/>
       <c r="N889" s="2"/>
       <c r="O889" s="2"/>
@@ -39329,7 +38674,6 @@
       <c r="I890" s="10"/>
       <c r="J890" s="10"/>
       <c r="K890" s="10"/>
-      <c r="L890" s="10"/>
       <c r="M890" s="2"/>
       <c r="N890" s="2"/>
       <c r="O890" s="2"/>
@@ -39365,7 +38709,6 @@
       <c r="I891" s="10"/>
       <c r="J891" s="10"/>
       <c r="K891" s="10"/>
-      <c r="L891" s="10"/>
       <c r="M891" s="2"/>
       <c r="N891" s="2"/>
       <c r="O891" s="2"/>
@@ -39401,7 +38744,6 @@
       <c r="I892" s="10"/>
       <c r="J892" s="10"/>
       <c r="K892" s="10"/>
-      <c r="L892" s="10"/>
       <c r="M892" s="2"/>
       <c r="N892" s="2"/>
       <c r="O892" s="2"/>
@@ -39437,7 +38779,6 @@
       <c r="I893" s="10"/>
       <c r="J893" s="10"/>
       <c r="K893" s="10"/>
-      <c r="L893" s="10"/>
       <c r="M893" s="2"/>
       <c r="N893" s="2"/>
       <c r="O893" s="2"/>
@@ -39473,7 +38814,6 @@
       <c r="I894" s="10"/>
       <c r="J894" s="10"/>
       <c r="K894" s="10"/>
-      <c r="L894" s="10"/>
       <c r="M894" s="2"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
@@ -39509,7 +38849,6 @@
       <c r="I895" s="10"/>
       <c r="J895" s="10"/>
       <c r="K895" s="10"/>
-      <c r="L895" s="10"/>
       <c r="M895" s="2"/>
       <c r="N895" s="2"/>
       <c r="O895" s="2"/>
@@ -39545,7 +38884,6 @@
       <c r="I896" s="10"/>
       <c r="J896" s="10"/>
       <c r="K896" s="10"/>
-      <c r="L896" s="10"/>
       <c r="M896" s="2"/>
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
@@ -39581,7 +38919,6 @@
       <c r="I897" s="10"/>
       <c r="J897" s="10"/>
       <c r="K897" s="10"/>
-      <c r="L897" s="10"/>
       <c r="M897" s="2"/>
       <c r="N897" s="2"/>
       <c r="O897" s="2"/>
@@ -39617,7 +38954,6 @@
       <c r="I898" s="10"/>
       <c r="J898" s="10"/>
       <c r="K898" s="10"/>
-      <c r="L898" s="10"/>
       <c r="M898" s="2"/>
       <c r="N898" s="2"/>
       <c r="O898" s="2"/>
@@ -39653,7 +38989,6 @@
       <c r="I899" s="10"/>
       <c r="J899" s="10"/>
       <c r="K899" s="10"/>
-      <c r="L899" s="10"/>
       <c r="M899" s="2"/>
       <c r="N899" s="2"/>
       <c r="O899" s="2"/>
@@ -39689,7 +39024,6 @@
       <c r="I900" s="10"/>
       <c r="J900" s="10"/>
       <c r="K900" s="10"/>
-      <c r="L900" s="10"/>
       <c r="M900" s="2"/>
       <c r="N900" s="2"/>
       <c r="O900" s="2"/>
@@ -39725,7 +39059,6 @@
       <c r="I901" s="10"/>
       <c r="J901" s="10"/>
       <c r="K901" s="10"/>
-      <c r="L901" s="10"/>
       <c r="M901" s="2"/>
       <c r="N901" s="2"/>
       <c r="O901" s="2"/>
@@ -39761,7 +39094,6 @@
       <c r="I902" s="10"/>
       <c r="J902" s="10"/>
       <c r="K902" s="10"/>
-      <c r="L902" s="10"/>
       <c r="M902" s="2"/>
       <c r="N902" s="2"/>
       <c r="O902" s="2"/>
@@ -39797,7 +39129,6 @@
       <c r="I903" s="10"/>
       <c r="J903" s="10"/>
       <c r="K903" s="10"/>
-      <c r="L903" s="10"/>
       <c r="M903" s="2"/>
       <c r="N903" s="2"/>
       <c r="O903" s="2"/>
@@ -39833,7 +39164,6 @@
       <c r="I904" s="10"/>
       <c r="J904" s="10"/>
       <c r="K904" s="10"/>
-      <c r="L904" s="10"/>
       <c r="M904" s="2"/>
       <c r="N904" s="2"/>
       <c r="O904" s="2"/>
@@ -39869,7 +39199,6 @@
       <c r="I905" s="10"/>
       <c r="J905" s="10"/>
       <c r="K905" s="10"/>
-      <c r="L905" s="10"/>
       <c r="M905" s="2"/>
       <c r="N905" s="2"/>
       <c r="O905" s="2"/>
@@ -39905,7 +39234,6 @@
       <c r="I906" s="10"/>
       <c r="J906" s="10"/>
       <c r="K906" s="10"/>
-      <c r="L906" s="10"/>
       <c r="M906" s="2"/>
       <c r="N906" s="2"/>
       <c r="O906" s="2"/>
@@ -39941,7 +39269,6 @@
       <c r="I907" s="10"/>
       <c r="J907" s="10"/>
       <c r="K907" s="10"/>
-      <c r="L907" s="10"/>
       <c r="M907" s="2"/>
       <c r="N907" s="2"/>
       <c r="O907" s="2"/>
@@ -39977,7 +39304,6 @@
       <c r="I908" s="10"/>
       <c r="J908" s="10"/>
       <c r="K908" s="10"/>
-      <c r="L908" s="10"/>
       <c r="M908" s="2"/>
       <c r="N908" s="2"/>
       <c r="O908" s="2"/>
@@ -40013,7 +39339,6 @@
       <c r="I909" s="10"/>
       <c r="J909" s="10"/>
       <c r="K909" s="10"/>
-      <c r="L909" s="10"/>
       <c r="M909" s="2"/>
       <c r="N909" s="2"/>
       <c r="O909" s="2"/>
@@ -40049,7 +39374,6 @@
       <c r="I910" s="10"/>
       <c r="J910" s="10"/>
       <c r="K910" s="10"/>
-      <c r="L910" s="10"/>
       <c r="M910" s="2"/>
       <c r="N910" s="2"/>
       <c r="O910" s="2"/>
@@ -40085,7 +39409,6 @@
       <c r="I911" s="10"/>
       <c r="J911" s="10"/>
       <c r="K911" s="10"/>
-      <c r="L911" s="10"/>
       <c r="M911" s="2"/>
       <c r="N911" s="2"/>
       <c r="O911" s="2"/>
@@ -40121,7 +39444,6 @@
       <c r="I912" s="10"/>
       <c r="J912" s="10"/>
       <c r="K912" s="10"/>
-      <c r="L912" s="10"/>
       <c r="M912" s="2"/>
       <c r="N912" s="2"/>
       <c r="O912" s="2"/>
@@ -40157,7 +39479,6 @@
       <c r="I913" s="10"/>
       <c r="J913" s="10"/>
       <c r="K913" s="10"/>
-      <c r="L913" s="10"/>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
       <c r="O913" s="2"/>
@@ -40193,7 +39514,6 @@
       <c r="I914" s="10"/>
       <c r="J914" s="10"/>
       <c r="K914" s="10"/>
-      <c r="L914" s="10"/>
       <c r="M914" s="2"/>
       <c r="N914" s="2"/>
       <c r="O914" s="2"/>
@@ -40229,7 +39549,6 @@
       <c r="I915" s="10"/>
       <c r="J915" s="10"/>
       <c r="K915" s="10"/>
-      <c r="L915" s="10"/>
       <c r="M915" s="2"/>
       <c r="N915" s="2"/>
       <c r="O915" s="2"/>
@@ -40265,7 +39584,6 @@
       <c r="I916" s="10"/>
       <c r="J916" s="10"/>
       <c r="K916" s="10"/>
-      <c r="L916" s="10"/>
       <c r="M916" s="2"/>
       <c r="N916" s="2"/>
       <c r="O916" s="2"/>
@@ -40301,7 +39619,6 @@
       <c r="I917" s="10"/>
       <c r="J917" s="10"/>
       <c r="K917" s="10"/>
-      <c r="L917" s="10"/>
       <c r="M917" s="2"/>
       <c r="N917" s="2"/>
       <c r="O917" s="2"/>
@@ -40337,7 +39654,6 @@
       <c r="I918" s="10"/>
       <c r="J918" s="10"/>
       <c r="K918" s="10"/>
-      <c r="L918" s="10"/>
       <c r="M918" s="2"/>
       <c r="N918" s="2"/>
       <c r="O918" s="2"/>
@@ -40373,7 +39689,6 @@
       <c r="I919" s="10"/>
       <c r="J919" s="10"/>
       <c r="K919" s="10"/>
-      <c r="L919" s="10"/>
       <c r="M919" s="2"/>
       <c r="N919" s="2"/>
       <c r="O919" s="2"/>
@@ -40409,7 +39724,6 @@
       <c r="I920" s="10"/>
       <c r="J920" s="10"/>
       <c r="K920" s="10"/>
-      <c r="L920" s="10"/>
       <c r="M920" s="2"/>
       <c r="N920" s="2"/>
       <c r="O920" s="2"/>
@@ -40445,7 +39759,6 @@
       <c r="I921" s="10"/>
       <c r="J921" s="10"/>
       <c r="K921" s="10"/>
-      <c r="L921" s="10"/>
       <c r="M921" s="2"/>
       <c r="N921" s="2"/>
       <c r="O921" s="2"/>
@@ -40481,7 +39794,6 @@
       <c r="I922" s="10"/>
       <c r="J922" s="10"/>
       <c r="K922" s="10"/>
-      <c r="L922" s="10"/>
       <c r="M922" s="2"/>
       <c r="N922" s="2"/>
       <c r="O922" s="2"/>
@@ -40517,7 +39829,6 @@
       <c r="I923" s="10"/>
       <c r="J923" s="10"/>
       <c r="K923" s="10"/>
-      <c r="L923" s="10"/>
       <c r="M923" s="2"/>
       <c r="N923" s="2"/>
       <c r="O923" s="2"/>
@@ -40553,7 +39864,6 @@
       <c r="I924" s="10"/>
       <c r="J924" s="10"/>
       <c r="K924" s="10"/>
-      <c r="L924" s="10"/>
       <c r="M924" s="2"/>
       <c r="N924" s="2"/>
       <c r="O924" s="2"/>
@@ -40589,7 +39899,6 @@
       <c r="I925" s="10"/>
       <c r="J925" s="10"/>
       <c r="K925" s="10"/>
-      <c r="L925" s="10"/>
       <c r="M925" s="2"/>
       <c r="N925" s="2"/>
       <c r="O925" s="2"/>
@@ -40625,7 +39934,6 @@
       <c r="I926" s="10"/>
       <c r="J926" s="10"/>
       <c r="K926" s="10"/>
-      <c r="L926" s="10"/>
       <c r="M926" s="2"/>
       <c r="N926" s="2"/>
       <c r="O926" s="2"/>
@@ -40661,7 +39969,6 @@
       <c r="I927" s="10"/>
       <c r="J927" s="10"/>
       <c r="K927" s="10"/>
-      <c r="L927" s="10"/>
       <c r="M927" s="2"/>
       <c r="N927" s="2"/>
       <c r="O927" s="2"/>
@@ -40697,7 +40004,6 @@
       <c r="I928" s="10"/>
       <c r="J928" s="10"/>
       <c r="K928" s="10"/>
-      <c r="L928" s="10"/>
       <c r="M928" s="2"/>
       <c r="N928" s="2"/>
       <c r="O928" s="2"/>
@@ -40733,7 +40039,6 @@
       <c r="I929" s="10"/>
       <c r="J929" s="10"/>
       <c r="K929" s="10"/>
-      <c r="L929" s="10"/>
       <c r="M929" s="2"/>
       <c r="N929" s="2"/>
       <c r="O929" s="2"/>
@@ -40769,7 +40074,6 @@
       <c r="I930" s="10"/>
       <c r="J930" s="10"/>
       <c r="K930" s="10"/>
-      <c r="L930" s="10"/>
       <c r="M930" s="2"/>
       <c r="N930" s="2"/>
       <c r="O930" s="2"/>
@@ -40805,7 +40109,6 @@
       <c r="I931" s="10"/>
       <c r="J931" s="10"/>
       <c r="K931" s="10"/>
-      <c r="L931" s="10"/>
       <c r="M931" s="2"/>
       <c r="N931" s="2"/>
       <c r="O931" s="2"/>
@@ -40841,7 +40144,6 @@
       <c r="I932" s="10"/>
       <c r="J932" s="10"/>
       <c r="K932" s="10"/>
-      <c r="L932" s="10"/>
       <c r="M932" s="2"/>
       <c r="N932" s="2"/>
       <c r="O932" s="2"/>
@@ -40877,7 +40179,6 @@
       <c r="I933" s="10"/>
       <c r="J933" s="10"/>
       <c r="K933" s="10"/>
-      <c r="L933" s="10"/>
       <c r="M933" s="2"/>
       <c r="N933" s="2"/>
       <c r="O933" s="2"/>
@@ -40913,7 +40214,6 @@
       <c r="I934" s="10"/>
       <c r="J934" s="10"/>
       <c r="K934" s="10"/>
-      <c r="L934" s="10"/>
       <c r="M934" s="2"/>
       <c r="N934" s="2"/>
       <c r="O934" s="2"/>
@@ -40949,7 +40249,6 @@
       <c r="I935" s="10"/>
       <c r="J935" s="10"/>
       <c r="K935" s="10"/>
-      <c r="L935" s="10"/>
       <c r="M935" s="2"/>
       <c r="N935" s="2"/>
       <c r="O935" s="2"/>
@@ -40985,7 +40284,6 @@
       <c r="I936" s="10"/>
       <c r="J936" s="10"/>
       <c r="K936" s="10"/>
-      <c r="L936" s="10"/>
       <c r="M936" s="2"/>
       <c r="N936" s="2"/>
       <c r="O936" s="2"/>
@@ -41021,7 +40319,6 @@
       <c r="I937" s="10"/>
       <c r="J937" s="10"/>
       <c r="K937" s="10"/>
-      <c r="L937" s="10"/>
       <c r="M937" s="2"/>
       <c r="N937" s="2"/>
       <c r="O937" s="2"/>
@@ -41057,7 +40354,6 @@
       <c r="I938" s="10"/>
       <c r="J938" s="10"/>
       <c r="K938" s="10"/>
-      <c r="L938" s="10"/>
       <c r="M938" s="2"/>
       <c r="N938" s="2"/>
       <c r="O938" s="2"/>
@@ -41093,7 +40389,6 @@
       <c r="I939" s="10"/>
       <c r="J939" s="10"/>
       <c r="K939" s="10"/>
-      <c r="L939" s="10"/>
       <c r="M939" s="2"/>
       <c r="N939" s="2"/>
       <c r="O939" s="2"/>
@@ -41129,7 +40424,6 @@
       <c r="I940" s="10"/>
       <c r="J940" s="10"/>
       <c r="K940" s="10"/>
-      <c r="L940" s="10"/>
       <c r="M940" s="2"/>
       <c r="N940" s="2"/>
       <c r="O940" s="2"/>
@@ -41165,7 +40459,6 @@
       <c r="I941" s="10"/>
       <c r="J941" s="10"/>
       <c r="K941" s="10"/>
-      <c r="L941" s="10"/>
       <c r="M941" s="2"/>
       <c r="N941" s="2"/>
       <c r="O941" s="2"/>
@@ -41201,7 +40494,6 @@
       <c r="I942" s="10"/>
       <c r="J942" s="10"/>
       <c r="K942" s="10"/>
-      <c r="L942" s="10"/>
       <c r="M942" s="2"/>
       <c r="N942" s="2"/>
       <c r="O942" s="2"/>
@@ -41237,7 +40529,6 @@
       <c r="I943" s="10"/>
       <c r="J943" s="10"/>
       <c r="K943" s="10"/>
-      <c r="L943" s="10"/>
       <c r="M943" s="2"/>
       <c r="N943" s="2"/>
       <c r="O943" s="2"/>
@@ -41273,7 +40564,6 @@
       <c r="I944" s="10"/>
       <c r="J944" s="10"/>
       <c r="K944" s="10"/>
-      <c r="L944" s="10"/>
       <c r="M944" s="2"/>
       <c r="N944" s="2"/>
       <c r="O944" s="2"/>
@@ -41309,7 +40599,6 @@
       <c r="I945" s="10"/>
       <c r="J945" s="10"/>
       <c r="K945" s="10"/>
-      <c r="L945" s="10"/>
       <c r="M945" s="2"/>
       <c r="N945" s="2"/>
       <c r="O945" s="2"/>
@@ -41345,7 +40634,6 @@
       <c r="I946" s="10"/>
       <c r="J946" s="10"/>
       <c r="K946" s="10"/>
-      <c r="L946" s="10"/>
       <c r="M946" s="2"/>
       <c r="N946" s="2"/>
       <c r="O946" s="2"/>
@@ -41381,7 +40669,6 @@
       <c r="I947" s="10"/>
       <c r="J947" s="10"/>
       <c r="K947" s="10"/>
-      <c r="L947" s="10"/>
       <c r="M947" s="2"/>
       <c r="N947" s="2"/>
       <c r="O947" s="2"/>
@@ -41417,7 +40704,6 @@
       <c r="I948" s="10"/>
       <c r="J948" s="10"/>
       <c r="K948" s="10"/>
-      <c r="L948" s="10"/>
       <c r="M948" s="2"/>
       <c r="N948" s="2"/>
       <c r="O948" s="2"/>
@@ -41453,7 +40739,6 @@
       <c r="I949" s="10"/>
       <c r="J949" s="10"/>
       <c r="K949" s="10"/>
-      <c r="L949" s="10"/>
       <c r="M949" s="2"/>
       <c r="N949" s="2"/>
       <c r="O949" s="2"/>
@@ -41489,7 +40774,6 @@
       <c r="I950" s="10"/>
       <c r="J950" s="10"/>
       <c r="K950" s="10"/>
-      <c r="L950" s="10"/>
       <c r="M950" s="2"/>
       <c r="N950" s="2"/>
       <c r="O950" s="2"/>
@@ -41525,7 +40809,6 @@
       <c r="I951" s="10"/>
       <c r="J951" s="10"/>
       <c r="K951" s="10"/>
-      <c r="L951" s="10"/>
       <c r="M951" s="2"/>
       <c r="N951" s="2"/>
       <c r="O951" s="2"/>
@@ -41561,7 +40844,6 @@
       <c r="I952" s="10"/>
       <c r="J952" s="10"/>
       <c r="K952" s="10"/>
-      <c r="L952" s="10"/>
       <c r="M952" s="2"/>
       <c r="N952" s="2"/>
       <c r="O952" s="2"/>
@@ -41597,7 +40879,6 @@
       <c r="I953" s="10"/>
       <c r="J953" s="10"/>
       <c r="K953" s="10"/>
-      <c r="L953" s="10"/>
       <c r="M953" s="2"/>
       <c r="N953" s="2"/>
       <c r="O953" s="2"/>
@@ -41633,7 +40914,6 @@
       <c r="I954" s="10"/>
       <c r="J954" s="10"/>
       <c r="K954" s="10"/>
-      <c r="L954" s="10"/>
       <c r="M954" s="2"/>
       <c r="N954" s="2"/>
       <c r="O954" s="2"/>
@@ -41669,7 +40949,6 @@
       <c r="I955" s="10"/>
       <c r="J955" s="10"/>
       <c r="K955" s="10"/>
-      <c r="L955" s="10"/>
       <c r="M955" s="2"/>
       <c r="N955" s="2"/>
       <c r="O955" s="2"/>
@@ -41705,7 +40984,6 @@
       <c r="I956" s="10"/>
       <c r="J956" s="10"/>
       <c r="K956" s="10"/>
-      <c r="L956" s="10"/>
       <c r="M956" s="2"/>
       <c r="N956" s="2"/>
       <c r="O956" s="2"/>
@@ -41741,7 +41019,6 @@
       <c r="I957" s="10"/>
       <c r="J957" s="10"/>
       <c r="K957" s="10"/>
-      <c r="L957" s="10"/>
       <c r="M957" s="2"/>
       <c r="N957" s="2"/>
       <c r="O957" s="2"/>
@@ -41777,7 +41054,6 @@
       <c r="I958" s="10"/>
       <c r="J958" s="10"/>
       <c r="K958" s="10"/>
-      <c r="L958" s="10"/>
       <c r="M958" s="2"/>
       <c r="N958" s="2"/>
       <c r="O958" s="2"/>
@@ -41813,7 +41089,6 @@
       <c r="I959" s="10"/>
       <c r="J959" s="10"/>
       <c r="K959" s="10"/>
-      <c r="L959" s="10"/>
       <c r="M959" s="2"/>
       <c r="N959" s="2"/>
       <c r="O959" s="2"/>
@@ -41849,7 +41124,6 @@
       <c r="I960" s="10"/>
       <c r="J960" s="10"/>
       <c r="K960" s="10"/>
-      <c r="L960" s="10"/>
       <c r="M960" s="2"/>
       <c r="N960" s="2"/>
       <c r="O960" s="2"/>
@@ -41885,7 +41159,6 @@
       <c r="I961" s="10"/>
       <c r="J961" s="10"/>
       <c r="K961" s="10"/>
-      <c r="L961" s="10"/>
       <c r="M961" s="2"/>
       <c r="N961" s="2"/>
       <c r="O961" s="2"/>
@@ -41921,7 +41194,6 @@
       <c r="I962" s="10"/>
       <c r="J962" s="10"/>
       <c r="K962" s="10"/>
-      <c r="L962" s="10"/>
       <c r="M962" s="2"/>
       <c r="N962" s="2"/>
       <c r="O962" s="2"/>
@@ -41957,7 +41229,6 @@
       <c r="I963" s="10"/>
       <c r="J963" s="10"/>
       <c r="K963" s="10"/>
-      <c r="L963" s="10"/>
       <c r="M963" s="2"/>
       <c r="N963" s="2"/>
       <c r="O963" s="2"/>
@@ -41993,7 +41264,6 @@
       <c r="I964" s="10"/>
       <c r="J964" s="10"/>
       <c r="K964" s="10"/>
-      <c r="L964" s="10"/>
       <c r="M964" s="2"/>
       <c r="N964" s="2"/>
       <c r="O964" s="2"/>
@@ -42029,7 +41299,6 @@
       <c r="I965" s="10"/>
       <c r="J965" s="10"/>
       <c r="K965" s="10"/>
-      <c r="L965" s="10"/>
       <c r="M965" s="2"/>
       <c r="N965" s="2"/>
       <c r="O965" s="2"/>
@@ -42065,7 +41334,6 @@
       <c r="I966" s="10"/>
       <c r="J966" s="10"/>
       <c r="K966" s="10"/>
-      <c r="L966" s="10"/>
       <c r="M966" s="2"/>
       <c r="N966" s="2"/>
       <c r="O966" s="2"/>
@@ -42101,7 +41369,6 @@
       <c r="I967" s="10"/>
       <c r="J967" s="10"/>
       <c r="K967" s="10"/>
-      <c r="L967" s="10"/>
       <c r="M967" s="2"/>
       <c r="N967" s="2"/>
       <c r="O967" s="2"/>
@@ -42137,7 +41404,6 @@
       <c r="I968" s="10"/>
       <c r="J968" s="10"/>
       <c r="K968" s="10"/>
-      <c r="L968" s="10"/>
       <c r="M968" s="2"/>
       <c r="N968" s="2"/>
       <c r="O968" s="2"/>
@@ -42173,7 +41439,6 @@
       <c r="I969" s="10"/>
       <c r="J969" s="10"/>
       <c r="K969" s="10"/>
-      <c r="L969" s="10"/>
       <c r="M969" s="2"/>
       <c r="N969" s="2"/>
       <c r="O969" s="2"/>
@@ -42209,7 +41474,6 @@
       <c r="I970" s="10"/>
       <c r="J970" s="10"/>
       <c r="K970" s="10"/>
-      <c r="L970" s="10"/>
       <c r="M970" s="2"/>
       <c r="N970" s="2"/>
       <c r="O970" s="2"/>
@@ -42245,7 +41509,6 @@
       <c r="I971" s="10"/>
       <c r="J971" s="10"/>
       <c r="K971" s="10"/>
-      <c r="L971" s="10"/>
       <c r="M971" s="2"/>
       <c r="N971" s="2"/>
       <c r="O971" s="2"/>
@@ -42281,7 +41544,6 @@
       <c r="I972" s="10"/>
       <c r="J972" s="10"/>
       <c r="K972" s="10"/>
-      <c r="L972" s="10"/>
       <c r="M972" s="2"/>
       <c r="N972" s="2"/>
       <c r="O972" s="2"/>
@@ -42317,7 +41579,6 @@
       <c r="I973" s="10"/>
       <c r="J973" s="10"/>
       <c r="K973" s="10"/>
-      <c r="L973" s="10"/>
       <c r="M973" s="2"/>
       <c r="N973" s="2"/>
       <c r="O973" s="2"/>
@@ -42353,7 +41614,6 @@
       <c r="I974" s="10"/>
       <c r="J974" s="10"/>
       <c r="K974" s="10"/>
-      <c r="L974" s="10"/>
       <c r="M974" s="2"/>
       <c r="N974" s="2"/>
       <c r="O974" s="2"/>
@@ -42389,7 +41649,6 @@
       <c r="I975" s="10"/>
       <c r="J975" s="10"/>
       <c r="K975" s="10"/>
-      <c r="L975" s="10"/>
       <c r="M975" s="2"/>
       <c r="N975" s="2"/>
       <c r="O975" s="2"/>
@@ -42425,7 +41684,6 @@
       <c r="I976" s="10"/>
       <c r="J976" s="10"/>
       <c r="K976" s="10"/>
-      <c r="L976" s="10"/>
       <c r="M976" s="2"/>
       <c r="N976" s="2"/>
       <c r="O976" s="2"/>
@@ -42461,7 +41719,6 @@
       <c r="I977" s="10"/>
       <c r="J977" s="10"/>
       <c r="K977" s="10"/>
-      <c r="L977" s="10"/>
       <c r="M977" s="2"/>
       <c r="N977" s="2"/>
       <c r="O977" s="2"/>
@@ -42487,7 +41744,13 @@
       <c r="AI977" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
+  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8EA8D-5F0A-461D-83EB-F7D19AD3A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC3B50A-10EA-4870-8DC8-A92690E9A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
@@ -1762,9 +1762,6 @@
     <t>11.04</t>
   </si>
   <si>
-    <t>Establish Routine</t>
-  </si>
-  <si>
     <t>This contains detailed requirements for compliance with export control regulations, legislation related to environmental protection, IPR, HSE, anti-corruption laws, money laundering rules, internal control rules (e.g., under GDPR), bookkeeping obligations, etc. 
 Note the obligation to notify Microsoft of any violations of export control rules.</t>
   </si>
@@ -2284,6 +2281,9 @@
   <si>
     <t>Check that you meet the eligibility requirements stated here: http://createopportunity.azurewebsites.net/ISVCloudEmbedTerms
 Procedures must be established to comply with such eligibility requirements.</t>
+  </si>
+  <si>
+    <t>Establish Routines</t>
   </si>
 </sst>
 </file>
@@ -2887,9 +2887,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L200" sqref="L200"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9428,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -9441,10 +9441,10 @@
         <v>137</v>
       </c>
       <c r="K118" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="L118" s="34" t="s">
         <v>533</v>
-      </c>
-      <c r="L118" s="34" t="s">
-        <v>534</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>2</v>
@@ -9501,7 +9501,7 @@
         <v>141</v>
       </c>
       <c r="L119" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>2</v>
@@ -9558,7 +9558,7 @@
         <v>144</v>
       </c>
       <c r="L120" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -9599,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>2</v>
@@ -9612,10 +9612,10 @@
         <v>146</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L121" s="32" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -9666,10 +9666,10 @@
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="K122" s="16" t="s">
         <v>538</v>
-      </c>
-      <c r="K122" s="16" t="s">
-        <v>539</v>
       </c>
       <c r="L122" s="33" t="s">
         <v>396</v>
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>2</v>
@@ -9726,7 +9726,7 @@
         <v>149</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L123" s="32" t="s">
         <v>151</v>
@@ -9770,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>2</v>
@@ -9783,7 +9783,7 @@
         <v>152</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L124" s="32" t="s">
         <v>154</v>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K130" s="18" t="s">
         <v>182</v>
@@ -10212,7 +10212,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>2</v>
@@ -10225,7 +10225,7 @@
         <v>185</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L132" s="32" t="s">
         <v>187</v>
@@ -10269,7 +10269,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>2</v>
@@ -10282,7 +10282,7 @@
         <v>188</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>190</v>
@@ -10326,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>2</v>
@@ -10336,13 +10336,13 @@
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="K134" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="K134" s="16" t="s">
+      <c r="L134" s="16" t="s">
         <v>546</v>
-      </c>
-      <c r="L134" s="16" t="s">
-        <v>547</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10383,7 +10383,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>2</v>
@@ -10440,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
@@ -10453,7 +10453,7 @@
         <v>191</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>193</v>
@@ -10497,7 +10497,7 @@
         <v>4</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>2</v>
@@ -10507,10 +10507,10 @@
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>549</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>550</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>400</v>
@@ -10554,7 +10554,7 @@
         <v>4</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>2</v>
@@ -10564,10 +10564,10 @@
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="K138" s="16" t="s">
         <v>551</v>
-      </c>
-      <c r="K138" s="16" t="s">
-        <v>552</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>401</v>
@@ -10611,7 +10611,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
@@ -10621,13 +10621,13 @@
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="K139" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="K139" s="16" t="s">
+      <c r="L139" s="32" t="s">
         <v>554</v>
-      </c>
-      <c r="L139" s="32" t="s">
-        <v>555</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -10668,7 +10668,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>2</v>
@@ -10678,10 +10678,10 @@
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="K140" s="16" t="s">
         <v>556</v>
-      </c>
-      <c r="K140" s="16" t="s">
-        <v>557</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>271</v>
@@ -10725,7 +10725,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>2</v>
@@ -10792,10 +10792,10 @@
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="K142" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="K142" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="L142" s="30"/>
       <c r="M142" s="2"/>
@@ -10847,10 +10847,10 @@
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="K143" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="K143" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="L143" s="30"/>
       <c r="M143" s="2"/>
@@ -10902,10 +10902,10 @@
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="K144" s="18" t="s">
-        <v>563</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="2"/>
@@ -10957,10 +10957,10 @@
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="K145" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="K145" s="18" t="s">
-        <v>565</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="2"/>
@@ -11012,10 +11012,10 @@
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="K146" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="K146" s="18" t="s">
-        <v>567</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="2"/>
@@ -11177,10 +11177,10 @@
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="K149" s="18" t="s">
         <v>568</v>
-      </c>
-      <c r="K149" s="18" t="s">
-        <v>569</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="2"/>
@@ -11232,10 +11232,10 @@
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="K150" s="18" t="s">
         <v>570</v>
-      </c>
-      <c r="K150" s="18" t="s">
-        <v>571</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="2"/>
@@ -11345,7 +11345,7 @@
         <v>272</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11400,7 +11400,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11452,10 +11452,10 @@
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L154" s="30"/>
       <c r="M154" s="2"/>
@@ -11497,7 +11497,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>2</v>
@@ -11510,7 +11510,7 @@
         <v>217</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>219</v>
@@ -11554,7 +11554,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>2</v>
@@ -11567,7 +11567,7 @@
         <v>234</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>222</v>
@@ -11611,7 +11611,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>2</v>
@@ -11624,7 +11624,7 @@
         <v>274</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L157" s="32" t="s">
         <v>276</v>
@@ -11668,7 +11668,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>2</v>
@@ -11725,7 +11725,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>2</v>
@@ -11738,7 +11738,7 @@
         <v>405</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L159" s="32" t="s">
         <v>406</v>
@@ -11782,7 +11782,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>2</v>
@@ -11795,10 +11795,10 @@
         <v>407</v>
       </c>
       <c r="K160" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="L160" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="L160" s="16" t="s">
-        <v>580</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11839,7 +11839,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>2</v>
@@ -11849,13 +11849,13 @@
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="K161" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="K161" s="16" t="s">
-        <v>582</v>
-      </c>
       <c r="L161" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11896,7 +11896,7 @@
         <v>5</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>2</v>
@@ -11909,7 +11909,7 @@
         <v>408</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>409</v>
@@ -11953,7 +11953,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>2</v>
@@ -11966,7 +11966,7 @@
         <v>283</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>285</v>
@@ -12010,7 +12010,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>2</v>
@@ -12020,7 +12020,7 @@
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>227</v>
@@ -12067,7 +12067,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>2</v>
@@ -12077,10 +12077,10 @@
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="K165" s="16" t="s">
         <v>586</v>
-      </c>
-      <c r="K165" s="16" t="s">
-        <v>587</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>231</v>
@@ -12124,7 +12124,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>2</v>
@@ -12137,7 +12137,7 @@
         <v>410</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>411</v>
@@ -12181,7 +12181,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>2</v>
@@ -12194,7 +12194,7 @@
         <v>310</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>412</v>
@@ -12248,10 +12248,10 @@
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="K168" s="18" t="s">
         <v>590</v>
-      </c>
-      <c r="K168" s="18" t="s">
-        <v>591</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="2"/>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>413</v>
@@ -12361,7 +12361,7 @@
         <v>414</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="2"/>
@@ -12413,10 +12413,10 @@
       </c>
       <c r="I171" s="17"/>
       <c r="J171" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="K171" s="18" t="s">
         <v>594</v>
-      </c>
-      <c r="K171" s="18" t="s">
-        <v>595</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="2"/>
@@ -12468,10 +12468,10 @@
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="K172" s="18" t="s">
         <v>596</v>
-      </c>
-      <c r="K172" s="18" t="s">
-        <v>597</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="2"/>
@@ -12526,7 +12526,7 @@
         <v>290</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L173" s="21"/>
       <c r="M173" s="2"/>
@@ -12578,10 +12578,10 @@
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="K174" s="18" t="s">
         <v>599</v>
-      </c>
-      <c r="K174" s="18" t="s">
-        <v>600</v>
       </c>
       <c r="L174" s="30"/>
       <c r="M174" s="2"/>
@@ -12633,10 +12633,10 @@
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="K175" s="18" t="s">
         <v>601</v>
-      </c>
-      <c r="K175" s="18" t="s">
-        <v>602</v>
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="2"/>
@@ -12688,10 +12688,10 @@
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="K176" s="18" t="s">
         <v>603</v>
-      </c>
-      <c r="K176" s="18" t="s">
-        <v>604</v>
       </c>
       <c r="L176" s="30"/>
       <c r="M176" s="2"/>
@@ -12743,10 +12743,10 @@
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="K177" s="31" t="s">
         <v>605</v>
-      </c>
-      <c r="K177" s="31" t="s">
-        <v>606</v>
       </c>
       <c r="L177" s="30"/>
       <c r="M177" s="2"/>
@@ -12798,10 +12798,10 @@
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="K178" s="18" t="s">
         <v>607</v>
-      </c>
-      <c r="K178" s="18" t="s">
-        <v>608</v>
       </c>
       <c r="L178" s="30"/>
       <c r="M178" s="2"/>
@@ -12853,10 +12853,10 @@
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="K179" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="K179" s="18" t="s">
-        <v>610</v>
       </c>
       <c r="L179" s="26"/>
       <c r="M179" s="2"/>
@@ -12908,10 +12908,10 @@
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="K180" s="18" t="s">
         <v>611</v>
-      </c>
-      <c r="K180" s="18" t="s">
-        <v>612</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="2"/>
@@ -12966,7 +12966,7 @@
         <v>288</v>
       </c>
       <c r="K181" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="2"/>
@@ -13021,7 +13021,7 @@
         <v>306</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13076,7 +13076,7 @@
         <v>308</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>263</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13241,7 +13241,7 @@
         <v>416</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L186" s="21"/>
       <c r="M186" s="2"/>
@@ -13283,7 +13283,7 @@
         <v>101</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>2</v>
@@ -13293,13 +13293,13 @@
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="K187" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="K187" s="16" t="s">
+      <c r="L187" s="33" t="s">
         <v>619</v>
-      </c>
-      <c r="L187" s="33" t="s">
-        <v>620</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -13340,7 +13340,7 @@
         <v>101</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>2</v>
@@ -13350,10 +13350,10 @@
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="K188" s="16" t="s">
         <v>621</v>
-      </c>
-      <c r="K188" s="16" t="s">
-        <v>622</v>
       </c>
       <c r="L188" s="16" t="s">
         <v>317</v>
@@ -13397,7 +13397,7 @@
         <v>101</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>2</v>
@@ -13407,13 +13407,13 @@
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="K189" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="K189" s="16" t="s">
+      <c r="L189" s="32" t="s">
         <v>624</v>
-      </c>
-      <c r="L189" s="32" t="s">
-        <v>625</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -13454,7 +13454,7 @@
         <v>101</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>2</v>
@@ -13464,10 +13464,10 @@
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="K190" s="16" t="s">
         <v>626</v>
-      </c>
-      <c r="K190" s="16" t="s">
-        <v>627</v>
       </c>
       <c r="L190" s="16" t="s">
         <v>320</v>
@@ -13511,7 +13511,7 @@
         <v>101</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>2</v>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K191" s="16" t="s">
         <v>417</v>
@@ -13568,7 +13568,7 @@
         <v>101</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>2</v>
@@ -13578,13 +13578,13 @@
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="K192" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="K192" s="16" t="s">
-        <v>630</v>
-      </c>
       <c r="L192" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13625,7 +13625,7 @@
         <v>101</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>2</v>
@@ -13638,10 +13638,10 @@
         <v>324</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L193" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13682,7 +13682,7 @@
         <v>101</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>2</v>
@@ -13695,10 +13695,10 @@
         <v>327</v>
       </c>
       <c r="K194" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L194" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13739,7 +13739,7 @@
         <v>101</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>2</v>
@@ -13752,10 +13752,10 @@
         <v>330</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L195" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13796,7 +13796,7 @@
         <v>101</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>2</v>
@@ -13809,10 +13809,10 @@
         <v>333</v>
       </c>
       <c r="K196" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="L196" s="32" t="s">
         <v>634</v>
-      </c>
-      <c r="L196" s="32" t="s">
-        <v>635</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13853,7 +13853,7 @@
         <v>101</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>2</v>
@@ -13866,10 +13866,10 @@
         <v>336</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L197" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13910,7 +13910,7 @@
         <v>101</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>2</v>
@@ -13923,10 +13923,10 @@
         <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L198" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13967,7 +13967,7 @@
         <v>101</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>2</v>
@@ -13980,10 +13980,10 @@
         <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L199" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14024,7 +14024,7 @@
         <v>101</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>2</v>
@@ -14037,10 +14037,10 @@
         <v>345</v>
       </c>
       <c r="K200" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L200" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14081,7 +14081,7 @@
         <v>101</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>2</v>
@@ -14091,13 +14091,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="K201" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="K201" s="16" t="s">
+      <c r="L201" s="33" t="s">
         <v>641</v>
-      </c>
-      <c r="L201" s="33" t="s">
-        <v>642</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14148,10 +14148,10 @@
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K202" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="K202" s="18" t="s">
-        <v>644</v>
       </c>
       <c r="L202" s="30"/>
       <c r="M202" s="2"/>
@@ -14203,10 +14203,10 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="K203" s="18" t="s">
         <v>645</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>646</v>
       </c>
       <c r="L203" s="26"/>
       <c r="M203" s="2"/>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>357</v>
@@ -14316,7 +14316,7 @@
         <v>358</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L205" s="30"/>
       <c r="M205" s="2"/>
@@ -14368,10 +14368,10 @@
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="K206" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="K206" s="18" t="s">
-        <v>650</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14423,10 +14423,10 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="K207" s="18" t="s">
         <v>651</v>
-      </c>
-      <c r="K207" s="18" t="s">
-        <v>652</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14481,7 +14481,7 @@
         <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14510,7 +14510,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14533,10 +14533,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="K209" s="18" t="s">
         <v>654</v>
-      </c>
-      <c r="K209" s="18" t="s">
-        <v>655</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14866,7 +14866,7 @@
         <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -15031,7 +15031,7 @@
         <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15141,7 +15141,7 @@
         <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC3B50A-10EA-4870-8DC8-A92690E9A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC3388-FB46-4832-AC21-B15AFC245C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="670">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -1745,9 +1745,6 @@
   </si>
   <si>
     <t>10.11</t>
-  </si>
-  <si>
-    <t>Establish routine</t>
   </si>
   <si>
     <t>11.01</t>
@@ -2884,12 +2881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2965,7 +2961,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -3022,7 +3018,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -3079,7 +3075,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
@@ -3094,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
@@ -3136,7 +3132,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>2</v>
@@ -3193,7 +3189,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="214.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -3250,7 +3246,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
@@ -3265,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -3307,7 +3303,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>19</v>
       </c>
@@ -3322,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -3364,7 +3360,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3415,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -3474,7 +3470,7 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
@@ -3529,7 +3525,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3580,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="146.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -3639,7 +3635,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
@@ -3694,7 +3690,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -3749,7 +3745,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
@@ -3804,7 +3800,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
@@ -3859,7 +3855,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
@@ -3914,7 +3910,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
@@ -3969,7 +3965,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>95</v>
       </c>
@@ -4024,7 +4020,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>97</v>
       </c>
@@ -4079,7 +4075,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>98</v>
       </c>
@@ -4134,7 +4130,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>99</v>
       </c>
@@ -4189,7 +4185,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>2</v>
@@ -4246,7 +4242,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
@@ -4261,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>2</v>
@@ -4303,7 +4299,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>2</v>
@@ -4360,7 +4356,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
@@ -4375,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>2</v>
@@ -4417,7 +4413,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
@@ -4472,7 +4468,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
@@ -4527,7 +4523,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
@@ -4582,7 +4578,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
@@ -4637,7 +4633,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
@@ -4692,7 +4688,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>39</v>
       </c>
@@ -4747,7 +4743,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
@@ -4802,7 +4798,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>41</v>
       </c>
@@ -4857,7 +4853,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
@@ -4912,7 +4908,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>43</v>
       </c>
@@ -4967,7 +4963,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
@@ -4982,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>2</v>
@@ -5024,7 +5020,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>45</v>
       </c>
@@ -5039,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>2</v>
@@ -5081,7 +5077,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>46</v>
       </c>
@@ -5096,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>2</v>
@@ -5138,7 +5134,7 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>2</v>
@@ -5195,7 +5191,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -5210,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>2</v>
@@ -5252,7 +5248,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>49</v>
       </c>
@@ -5307,7 +5303,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
@@ -5362,7 +5358,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>51</v>
       </c>
@@ -5417,7 +5413,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
@@ -5472,7 +5468,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>53</v>
       </c>
@@ -5527,7 +5523,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>54</v>
       </c>
@@ -5582,7 +5578,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
@@ -5637,7 +5633,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>56</v>
       </c>
@@ -5692,7 +5688,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
@@ -5747,7 +5743,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>58</v>
       </c>
@@ -5802,7 +5798,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
@@ -5857,7 +5853,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
@@ -5912,7 +5908,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>61</v>
       </c>
@@ -5967,7 +5963,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
@@ -6022,7 +6018,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
@@ -6077,7 +6073,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
@@ -6132,7 +6128,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>65</v>
       </c>
@@ -6187,7 +6183,7 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
@@ -6202,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>2</v>
@@ -6244,7 +6240,7 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>67</v>
       </c>
@@ -6259,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>2</v>
@@ -6301,7 +6297,7 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>68</v>
       </c>
@@ -6356,7 +6352,7 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>69</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>2</v>
@@ -6413,7 +6409,7 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
@@ -6428,7 +6424,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>2</v>
@@ -6470,7 +6466,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>71</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>2</v>
@@ -6527,7 +6523,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>72</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>2</v>
@@ -6584,7 +6580,7 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>73</v>
       </c>
@@ -6639,7 +6635,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
@@ -6694,7 +6690,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>75</v>
       </c>
@@ -6749,7 +6745,7 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>76</v>
       </c>
@@ -6804,7 +6800,7 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>77</v>
       </c>
@@ -6859,7 +6855,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>78</v>
       </c>
@@ -6914,7 +6910,7 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>79</v>
       </c>
@@ -6969,7 +6965,7 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
@@ -7024,7 +7020,7 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
@@ -7079,7 +7075,7 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>82</v>
       </c>
@@ -7134,7 +7130,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>83</v>
       </c>
@@ -7189,7 +7185,7 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>84</v>
       </c>
@@ -7244,7 +7240,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>85</v>
       </c>
@@ -7299,7 +7295,7 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>86</v>
       </c>
@@ -7354,7 +7350,7 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>87</v>
       </c>
@@ -7369,7 +7365,7 @@
         <v>101</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>2</v>
@@ -7411,7 +7407,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="112.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>419</v>
       </c>
@@ -7426,7 +7422,7 @@
         <v>101</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>2</v>
@@ -7468,7 +7464,7 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" ht="123.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>420</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>101</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>2</v>
@@ -7525,7 +7521,7 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>421</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>101</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>2</v>
@@ -7582,7 +7578,7 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>422</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>101</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>2</v>
@@ -7639,7 +7635,7 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>423</v>
       </c>
@@ -7654,7 +7650,7 @@
         <v>101</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>2</v>
@@ -7696,7 +7692,7 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>424</v>
       </c>
@@ -7711,7 +7707,7 @@
         <v>101</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>2</v>
@@ -7753,7 +7749,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>425</v>
       </c>
@@ -7768,7 +7764,7 @@
         <v>101</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>2</v>
@@ -7810,7 +7806,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>426</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>101</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>2</v>
@@ -7867,7 +7863,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>427</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>101</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>2</v>
@@ -7924,7 +7920,7 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" ht="168.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>428</v>
       </c>
@@ -7939,7 +7935,7 @@
         <v>101</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>2</v>
@@ -7981,7 +7977,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>429</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>101</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>2</v>
@@ -8038,7 +8034,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>430</v>
       </c>
@@ -8093,7 +8089,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>431</v>
       </c>
@@ -8148,7 +8144,7 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>432</v>
       </c>
@@ -8203,7 +8199,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>433</v>
       </c>
@@ -8258,7 +8254,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>434</v>
       </c>
@@ -8313,7 +8309,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>435</v>
       </c>
@@ -8368,7 +8364,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>436</v>
       </c>
@@ -8423,7 +8419,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>437</v>
       </c>
@@ -8478,7 +8474,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>438</v>
       </c>
@@ -8533,7 +8529,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>439</v>
       </c>
@@ -8588,7 +8584,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>102</v>
       </c>
@@ -8603,7 +8599,7 @@
         <v>119</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>2</v>
@@ -8643,7 +8639,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>103</v>
       </c>
@@ -8658,7 +8654,7 @@
         <v>119</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>2</v>
@@ -8698,7 +8694,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>104</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>119</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>2</v>
@@ -8753,7 +8749,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>105</v>
       </c>
@@ -8768,7 +8764,7 @@
         <v>119</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>2</v>
@@ -8808,7 +8804,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>106</v>
       </c>
@@ -8823,7 +8819,7 @@
         <v>119</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>2</v>
@@ -8863,7 +8859,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>107</v>
       </c>
@@ -8878,7 +8874,7 @@
         <v>119</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>2</v>
@@ -8918,7 +8914,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>108</v>
       </c>
@@ -8933,7 +8929,7 @@
         <v>119</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>2</v>
@@ -8973,7 +8969,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>109</v>
       </c>
@@ -8988,7 +8984,7 @@
         <v>119</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>2</v>
@@ -9028,7 +9024,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>110</v>
       </c>
@@ -9043,7 +9039,7 @@
         <v>119</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>2</v>
@@ -9083,7 +9079,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>111</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>119</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>2</v>
@@ -9138,7 +9134,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
@@ -9153,7 +9149,7 @@
         <v>119</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>2</v>
@@ -9193,7 +9189,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>113</v>
       </c>
@@ -9248,7 +9244,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>114</v>
       </c>
@@ -9303,7 +9299,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>115</v>
       </c>
@@ -9358,7 +9354,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>118</v>
       </c>
@@ -9428,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -9441,10 +9437,10 @@
         <v>137</v>
       </c>
       <c r="K118" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="L118" s="34" t="s">
         <v>532</v>
-      </c>
-      <c r="L118" s="34" t="s">
-        <v>533</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -9485,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>2</v>
@@ -9501,7 +9497,7 @@
         <v>141</v>
       </c>
       <c r="L119" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -9542,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>2</v>
@@ -9558,7 +9554,7 @@
         <v>144</v>
       </c>
       <c r="L120" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -9599,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>2</v>
@@ -9612,10 +9608,10 @@
         <v>146</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L121" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -9656,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -9666,10 +9662,10 @@
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="K122" s="16" t="s">
         <v>537</v>
-      </c>
-      <c r="K122" s="16" t="s">
-        <v>538</v>
       </c>
       <c r="L122" s="33" t="s">
         <v>396</v>
@@ -9713,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>2</v>
@@ -9726,7 +9722,7 @@
         <v>149</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L123" s="32" t="s">
         <v>151</v>
@@ -9770,7 +9766,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>2</v>
@@ -9783,7 +9779,7 @@
         <v>152</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L124" s="32" t="s">
         <v>154</v>
@@ -10112,7 +10108,7 @@
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K130" s="18" t="s">
         <v>182</v>
@@ -10212,7 +10208,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>2</v>
@@ -10225,7 +10221,7 @@
         <v>185</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L132" s="32" t="s">
         <v>187</v>
@@ -10269,7 +10265,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>2</v>
@@ -10282,7 +10278,7 @@
         <v>188</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L133" s="16" t="s">
         <v>190</v>
@@ -10326,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>2</v>
@@ -10336,13 +10332,13 @@
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="K134" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="K134" s="16" t="s">
+      <c r="L134" s="16" t="s">
         <v>545</v>
-      </c>
-      <c r="L134" s="16" t="s">
-        <v>546</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10383,7 +10379,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>2</v>
@@ -10440,7 +10436,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
@@ -10453,7 +10449,7 @@
         <v>191</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L136" s="16" t="s">
         <v>193</v>
@@ -10497,7 +10493,7 @@
         <v>4</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>2</v>
@@ -10507,10 +10503,10 @@
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>549</v>
       </c>
       <c r="L137" s="16" t="s">
         <v>400</v>
@@ -10554,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>2</v>
@@ -10564,10 +10560,10 @@
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="K138" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="K138" s="16" t="s">
-        <v>551</v>
       </c>
       <c r="L138" s="16" t="s">
         <v>401</v>
@@ -10611,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
@@ -10621,13 +10617,13 @@
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="K139" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="K139" s="16" t="s">
+      <c r="L139" s="32" t="s">
         <v>553</v>
-      </c>
-      <c r="L139" s="32" t="s">
-        <v>554</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -10668,7 +10664,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>2</v>
@@ -10678,10 +10674,10 @@
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="K140" s="16" t="s">
         <v>555</v>
-      </c>
-      <c r="K140" s="16" t="s">
-        <v>556</v>
       </c>
       <c r="L140" s="16" t="s">
         <v>271</v>
@@ -10725,7 +10721,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>2</v>
@@ -10792,10 +10788,10 @@
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K142" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="K142" s="18" t="s">
-        <v>558</v>
       </c>
       <c r="L142" s="30"/>
       <c r="M142" s="2"/>
@@ -10847,10 +10843,10 @@
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="K143" s="18" t="s">
         <v>559</v>
-      </c>
-      <c r="K143" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="L143" s="30"/>
       <c r="M143" s="2"/>
@@ -10902,10 +10898,10 @@
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="K144" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="2"/>
@@ -10957,10 +10953,10 @@
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="K145" s="18" t="s">
         <v>563</v>
-      </c>
-      <c r="K145" s="18" t="s">
-        <v>564</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="2"/>
@@ -11012,10 +11008,10 @@
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="K146" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="K146" s="18" t="s">
-        <v>566</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="2"/>
@@ -11177,10 +11173,10 @@
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="K149" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="K149" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="2"/>
@@ -11232,10 +11228,10 @@
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K150" s="18" t="s">
         <v>569</v>
-      </c>
-      <c r="K150" s="18" t="s">
-        <v>570</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="2"/>
@@ -11345,7 +11341,7 @@
         <v>272</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11400,7 +11396,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11452,10 +11448,10 @@
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L154" s="30"/>
       <c r="M154" s="2"/>
@@ -11497,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>2</v>
@@ -11510,7 +11506,7 @@
         <v>217</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L155" s="16" t="s">
         <v>219</v>
@@ -11554,7 +11550,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>2</v>
@@ -11567,7 +11563,7 @@
         <v>234</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L156" s="16" t="s">
         <v>222</v>
@@ -11611,7 +11607,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>2</v>
@@ -11624,7 +11620,7 @@
         <v>274</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L157" s="32" t="s">
         <v>276</v>
@@ -11668,7 +11664,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>2</v>
@@ -11725,7 +11721,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>2</v>
@@ -11738,7 +11734,7 @@
         <v>405</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L159" s="32" t="s">
         <v>406</v>
@@ -11782,7 +11778,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>2</v>
@@ -11795,10 +11791,10 @@
         <v>407</v>
       </c>
       <c r="K160" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="L160" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="L160" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11839,7 +11835,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>2</v>
@@ -11849,13 +11845,13 @@
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="K161" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="K161" s="16" t="s">
-        <v>581</v>
-      </c>
       <c r="L161" s="32" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11896,7 +11892,7 @@
         <v>5</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>2</v>
@@ -11909,7 +11905,7 @@
         <v>408</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L162" s="16" t="s">
         <v>409</v>
@@ -11953,7 +11949,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>2</v>
@@ -11966,7 +11962,7 @@
         <v>283</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L163" s="16" t="s">
         <v>285</v>
@@ -12010,7 +12006,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>2</v>
@@ -12020,7 +12016,7 @@
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>227</v>
@@ -12067,7 +12063,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>2</v>
@@ -12077,10 +12073,10 @@
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="K165" s="16" t="s">
         <v>585</v>
-      </c>
-      <c r="K165" s="16" t="s">
-        <v>586</v>
       </c>
       <c r="L165" s="20" t="s">
         <v>231</v>
@@ -12124,7 +12120,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>2</v>
@@ -12137,7 +12133,7 @@
         <v>410</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>411</v>
@@ -12181,7 +12177,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>2</v>
@@ -12194,7 +12190,7 @@
         <v>310</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L167" s="16" t="s">
         <v>412</v>
@@ -12248,10 +12244,10 @@
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="K168" s="18" t="s">
         <v>589</v>
-      </c>
-      <c r="K168" s="18" t="s">
-        <v>590</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="2"/>
@@ -12303,7 +12299,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K169" s="18" t="s">
         <v>413</v>
@@ -12361,7 +12357,7 @@
         <v>414</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="2"/>
@@ -12413,10 +12409,10 @@
       </c>
       <c r="I171" s="17"/>
       <c r="J171" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="K171" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="K171" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="2"/>
@@ -12468,10 +12464,10 @@
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="K172" s="18" t="s">
         <v>595</v>
-      </c>
-      <c r="K172" s="18" t="s">
-        <v>596</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="2"/>
@@ -12526,7 +12522,7 @@
         <v>290</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L173" s="21"/>
       <c r="M173" s="2"/>
@@ -12578,10 +12574,10 @@
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="K174" s="18" t="s">
         <v>598</v>
-      </c>
-      <c r="K174" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="L174" s="30"/>
       <c r="M174" s="2"/>
@@ -12633,10 +12629,10 @@
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="K175" s="18" t="s">
         <v>600</v>
-      </c>
-      <c r="K175" s="18" t="s">
-        <v>601</v>
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="2"/>
@@ -12688,10 +12684,10 @@
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K176" s="18" t="s">
         <v>602</v>
-      </c>
-      <c r="K176" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="L176" s="30"/>
       <c r="M176" s="2"/>
@@ -12743,10 +12739,10 @@
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="K177" s="31" t="s">
         <v>604</v>
-      </c>
-      <c r="K177" s="31" t="s">
-        <v>605</v>
       </c>
       <c r="L177" s="30"/>
       <c r="M177" s="2"/>
@@ -12798,10 +12794,10 @@
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="K178" s="18" t="s">
         <v>606</v>
-      </c>
-      <c r="K178" s="18" t="s">
-        <v>607</v>
       </c>
       <c r="L178" s="30"/>
       <c r="M178" s="2"/>
@@ -12853,10 +12849,10 @@
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="K179" s="18" t="s">
         <v>608</v>
-      </c>
-      <c r="K179" s="18" t="s">
-        <v>609</v>
       </c>
       <c r="L179" s="26"/>
       <c r="M179" s="2"/>
@@ -12908,10 +12904,10 @@
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="K180" s="18" t="s">
         <v>610</v>
-      </c>
-      <c r="K180" s="18" t="s">
-        <v>611</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="2"/>
@@ -12966,7 +12962,7 @@
         <v>288</v>
       </c>
       <c r="K181" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="2"/>
@@ -13021,7 +13017,7 @@
         <v>306</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13076,7 +13072,7 @@
         <v>308</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13183,7 +13179,7 @@
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>263</v>
@@ -13215,7 +13211,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13241,7 +13237,7 @@
         <v>416</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L186" s="21"/>
       <c r="M186" s="2"/>
@@ -13283,7 +13279,7 @@
         <v>101</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>2</v>
@@ -13293,13 +13289,13 @@
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="K187" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="K187" s="16" t="s">
+      <c r="L187" s="33" t="s">
         <v>618</v>
-      </c>
-      <c r="L187" s="33" t="s">
-        <v>619</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -13340,7 +13336,7 @@
         <v>101</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>2</v>
@@ -13350,10 +13346,10 @@
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="K188" s="16" t="s">
         <v>620</v>
-      </c>
-      <c r="K188" s="16" t="s">
-        <v>621</v>
       </c>
       <c r="L188" s="16" t="s">
         <v>317</v>
@@ -13397,7 +13393,7 @@
         <v>101</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>2</v>
@@ -13407,13 +13403,13 @@
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="K189" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="K189" s="16" t="s">
+      <c r="L189" s="32" t="s">
         <v>623</v>
-      </c>
-      <c r="L189" s="32" t="s">
-        <v>624</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -13454,7 +13450,7 @@
         <v>101</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>2</v>
@@ -13464,10 +13460,10 @@
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="K190" s="16" t="s">
         <v>625</v>
-      </c>
-      <c r="K190" s="16" t="s">
-        <v>626</v>
       </c>
       <c r="L190" s="16" t="s">
         <v>320</v>
@@ -13511,7 +13507,7 @@
         <v>101</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>2</v>
@@ -13521,7 +13517,7 @@
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K191" s="16" t="s">
         <v>417</v>
@@ -13568,7 +13564,7 @@
         <v>101</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>2</v>
@@ -13578,13 +13574,13 @@
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="K192" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="K192" s="16" t="s">
-        <v>629</v>
-      </c>
       <c r="L192" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13625,7 +13621,7 @@
         <v>101</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>2</v>
@@ -13638,10 +13634,10 @@
         <v>324</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L193" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13682,7 +13678,7 @@
         <v>101</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>2</v>
@@ -13695,10 +13691,10 @@
         <v>327</v>
       </c>
       <c r="K194" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L194" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13739,7 +13735,7 @@
         <v>101</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>2</v>
@@ -13752,10 +13748,10 @@
         <v>330</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L195" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13796,7 +13792,7 @@
         <v>101</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>2</v>
@@ -13809,10 +13805,10 @@
         <v>333</v>
       </c>
       <c r="K196" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="L196" s="32" t="s">
         <v>633</v>
-      </c>
-      <c r="L196" s="32" t="s">
-        <v>634</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13853,7 +13849,7 @@
         <v>101</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>2</v>
@@ -13866,10 +13862,10 @@
         <v>336</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L197" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13910,7 +13906,7 @@
         <v>101</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>2</v>
@@ -13923,10 +13919,10 @@
         <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L198" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13967,7 +13963,7 @@
         <v>101</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>2</v>
@@ -13980,10 +13976,10 @@
         <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L199" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14024,7 +14020,7 @@
         <v>101</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>2</v>
@@ -14037,10 +14033,10 @@
         <v>345</v>
       </c>
       <c r="K200" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L200" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14081,7 +14077,7 @@
         <v>101</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>2</v>
@@ -14091,13 +14087,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K201" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="K201" s="16" t="s">
+      <c r="L201" s="33" t="s">
         <v>640</v>
-      </c>
-      <c r="L201" s="33" t="s">
-        <v>641</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14148,10 +14144,10 @@
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="K202" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="K202" s="18" t="s">
-        <v>643</v>
       </c>
       <c r="L202" s="30"/>
       <c r="M202" s="2"/>
@@ -14203,10 +14199,10 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="K203" s="18" t="s">
         <v>644</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>645</v>
       </c>
       <c r="L203" s="26"/>
       <c r="M203" s="2"/>
@@ -14258,7 +14254,7 @@
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>357</v>
@@ -14316,7 +14312,7 @@
         <v>358</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L205" s="30"/>
       <c r="M205" s="2"/>
@@ -14368,10 +14364,10 @@
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="K206" s="18" t="s">
         <v>648</v>
-      </c>
-      <c r="K206" s="18" t="s">
-        <v>649</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14423,10 +14419,10 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="K207" s="18" t="s">
         <v>650</v>
-      </c>
-      <c r="K207" s="18" t="s">
-        <v>651</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14481,7 +14477,7 @@
         <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14510,7 +14506,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14533,10 +14529,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="K209" s="18" t="s">
         <v>653</v>
-      </c>
-      <c r="K209" s="18" t="s">
-        <v>654</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14866,7 +14862,7 @@
         <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -15031,7 +15027,7 @@
         <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15141,7 +15137,7 @@
         <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>
@@ -15170,7 +15166,7 @@
     </row>
     <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>88</v>
@@ -15225,7 +15221,7 @@
     </row>
     <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>88</v>
@@ -15280,7 +15276,7 @@
     </row>
     <row r="223" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>88</v>
@@ -15335,7 +15331,7 @@
     </row>
     <row r="224" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>88</v>
@@ -41744,13 +41740,7 @@
       <c r="AI977" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC3388-FB46-4832-AC21-B15AFC245C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD241A30-73B9-4DB9-B415-5DE738202F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26475" yWindow="555" windowWidth="26820" windowHeight="15915" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="1170" yWindow="1080" windowWidth="43200" windowHeight="16200" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -2125,10 +2125,6 @@
 Note that the amounts reseller must pay to Microsoft will include taxes and fees.</t>
   </si>
   <si>
-    <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
-Reseller must have at least 2 employees who passed the Microsoft technical exam, as further specified in the Microsoft Partner Network agreement, before starting the resale.</t>
-  </si>
-  <si>
     <t>Check if such eligibility requirements exist. Procedures must be established to comply with such eligibility requirements.
 Make sure that at least two employees meet the technical exam requirement.</t>
   </si>
@@ -2281,6 +2277,10 @@
   </si>
   <si>
     <t>Establish Routines</t>
+  </si>
+  <si>
+    <t>Dynamics 365 may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
+Reseller must have at least 2 employees who passed the Microsoft technical exam, as further specified in the Microsoft Partner Network agreement, before starting the resale.</t>
   </si>
 </sst>
 </file>
@@ -2881,11 +2881,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2961,7 +2962,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -3018,7 +3019,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -3075,7 +3076,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
@@ -3132,7 +3133,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>2</v>
@@ -3189,7 +3190,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="214.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -3246,7 +3247,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -3303,7 +3304,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -3360,7 +3361,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
@@ -3415,7 +3416,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -3470,7 +3471,7 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
@@ -3525,7 +3526,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
@@ -3580,7 +3581,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="146.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -3635,7 +3636,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
@@ -3690,7 +3691,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -3745,7 +3746,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
@@ -3855,7 +3856,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
@@ -3910,7 +3911,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
@@ -3965,7 +3966,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>95</v>
       </c>
@@ -4020,7 +4021,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>97</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>98</v>
       </c>
@@ -4130,7 +4131,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>99</v>
       </c>
@@ -4185,7 +4186,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>2</v>
@@ -4242,7 +4243,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>2</v>
@@ -4299,7 +4300,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>2</v>
@@ -4356,7 +4357,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>2</v>
@@ -4413,7 +4414,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
@@ -4468,7 +4469,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
@@ -4523,7 +4524,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
@@ -4633,7 +4634,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
@@ -4688,7 +4689,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>39</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
@@ -4798,7 +4799,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>41</v>
       </c>
@@ -4853,7 +4854,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
@@ -4908,7 +4909,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>43</v>
       </c>
@@ -4963,7 +4964,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>2</v>
@@ -5020,7 +5021,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>45</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>2</v>
@@ -5077,7 +5078,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>46</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>2</v>
@@ -5134,7 +5135,7 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>2</v>
@@ -5191,7 +5192,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>2</v>
@@ -5248,7 +5249,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>49</v>
       </c>
@@ -5303,7 +5304,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
@@ -5358,7 +5359,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>51</v>
       </c>
@@ -5413,7 +5414,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
@@ -5468,7 +5469,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>53</v>
       </c>
@@ -5523,7 +5524,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>54</v>
       </c>
@@ -5578,7 +5579,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
@@ -5633,7 +5634,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>56</v>
       </c>
@@ -5688,7 +5689,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
@@ -5743,7 +5744,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>58</v>
       </c>
@@ -5798,7 +5799,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
@@ -5853,7 +5854,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
@@ -5908,7 +5909,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>61</v>
       </c>
@@ -5963,7 +5964,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
@@ -6018,7 +6019,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
@@ -6073,7 +6074,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
@@ -6128,7 +6129,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>65</v>
       </c>
@@ -6183,7 +6184,7 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>2</v>
@@ -6240,7 +6241,7 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>67</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>2</v>
@@ -6297,7 +6298,7 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>68</v>
       </c>
@@ -6352,7 +6353,7 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>69</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>2</v>
@@ -6409,7 +6410,7 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>2</v>
@@ -6466,7 +6467,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>71</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>2</v>
@@ -6523,7 +6524,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>72</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>2</v>
@@ -6580,7 +6581,7 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>73</v>
       </c>
@@ -6635,7 +6636,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
@@ -6690,7 +6691,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>75</v>
       </c>
@@ -6745,7 +6746,7 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>76</v>
       </c>
@@ -6800,7 +6801,7 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>77</v>
       </c>
@@ -6855,7 +6856,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>78</v>
       </c>
@@ -6910,7 +6911,7 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>79</v>
       </c>
@@ -6965,7 +6966,7 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
@@ -7020,7 +7021,7 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
@@ -7075,7 +7076,7 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>82</v>
       </c>
@@ -7130,7 +7131,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>83</v>
       </c>
@@ -7185,7 +7186,7 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>84</v>
       </c>
@@ -7240,7 +7241,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>85</v>
       </c>
@@ -7295,7 +7296,7 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>86</v>
       </c>
@@ -7350,7 +7351,7 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>87</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>101</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>2</v>
@@ -7407,7 +7408,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="112.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>419</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>101</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>2</v>
@@ -7464,7 +7465,7 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="123.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>420</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>101</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>2</v>
@@ -7521,7 +7522,7 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>421</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>101</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>2</v>
@@ -7578,7 +7579,7 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>422</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>101</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>2</v>
@@ -7635,7 +7636,7 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>423</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>101</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>2</v>
@@ -7692,7 +7693,7 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>424</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>101</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>2</v>
@@ -7749,7 +7750,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>425</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>101</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>2</v>
@@ -7806,7 +7807,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>426</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>101</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>2</v>
@@ -7863,7 +7864,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>427</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>101</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>2</v>
@@ -7920,7 +7921,7 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="168.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>428</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>101</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>2</v>
@@ -7977,7 +7978,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>429</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>101</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>2</v>
@@ -8034,7 +8035,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>430</v>
       </c>
@@ -8089,7 +8090,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>431</v>
       </c>
@@ -8144,7 +8145,7 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>432</v>
       </c>
@@ -8199,7 +8200,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>433</v>
       </c>
@@ -8254,7 +8255,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>434</v>
       </c>
@@ -8309,7 +8310,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>435</v>
       </c>
@@ -8364,7 +8365,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>436</v>
       </c>
@@ -8419,7 +8420,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>437</v>
       </c>
@@ -8474,7 +8475,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>438</v>
       </c>
@@ -8529,7 +8530,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>439</v>
       </c>
@@ -8584,7 +8585,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>102</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>119</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>2</v>
@@ -8639,7 +8640,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>103</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>119</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>2</v>
@@ -8694,7 +8695,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>104</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>119</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>2</v>
@@ -8749,7 +8750,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>105</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>119</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>2</v>
@@ -8804,7 +8805,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>106</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>119</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>2</v>
@@ -8859,7 +8860,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>107</v>
       </c>
@@ -8874,7 +8875,7 @@
         <v>119</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>2</v>
@@ -8914,7 +8915,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>108</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>119</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>2</v>
@@ -8969,7 +8970,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>109</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>119</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>2</v>
@@ -9024,7 +9025,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>110</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>119</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>2</v>
@@ -9079,7 +9080,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>111</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>119</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>2</v>
@@ -9134,7 +9135,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
@@ -9149,7 +9150,7 @@
         <v>119</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>2</v>
@@ -9189,7 +9190,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>113</v>
       </c>
@@ -9244,7 +9245,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>114</v>
       </c>
@@ -9299,7 +9300,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>115</v>
       </c>
@@ -9354,7 +9355,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>118</v>
       </c>
@@ -9409,7 +9410,7 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
     </row>
-    <row r="118" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>120</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -9466,7 +9467,7 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
     </row>
-    <row r="119" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>121</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>2</v>
@@ -9523,7 +9524,7 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
-    <row r="120" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>122</v>
       </c>
@@ -9538,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>2</v>
@@ -9580,7 +9581,7 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
     </row>
-    <row r="121" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>123</v>
       </c>
@@ -9595,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>2</v>
@@ -9611,7 +9612,7 @@
         <v>535</v>
       </c>
       <c r="L121" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -9637,7 +9638,7 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
     </row>
-    <row r="122" spans="1:35" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>124</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -9694,7 +9695,7 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
     </row>
-    <row r="123" spans="1:35" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="135" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>125</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>2</v>
@@ -9751,7 +9752,7 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
     </row>
-    <row r="124" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>126</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>2</v>
@@ -9808,7 +9809,7 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
     </row>
-    <row r="125" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>127</v>
       </c>
@@ -9863,7 +9864,7 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
     </row>
-    <row r="126" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>128</v>
       </c>
@@ -9918,7 +9919,7 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="191.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>129</v>
       </c>
@@ -9973,7 +9974,7 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
     </row>
-    <row r="128" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>130</v>
       </c>
@@ -10028,7 +10029,7 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>131</v>
       </c>
@@ -10083,7 +10084,7 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
     </row>
-    <row r="130" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>132</v>
       </c>
@@ -10138,7 +10139,7 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>133</v>
       </c>
@@ -10193,7 +10194,7 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
     </row>
-    <row r="132" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>440</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>2</v>
@@ -10250,7 +10251,7 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
     </row>
-    <row r="133" spans="1:35" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>441</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>2</v>
@@ -10307,7 +10308,7 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
     </row>
-    <row r="134" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>442</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>2</v>
@@ -10364,7 +10365,7 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
     </row>
-    <row r="135" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>443</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>2</v>
@@ -10421,7 +10422,7 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
-    <row r="136" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>444</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
@@ -10478,7 +10479,7 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
     </row>
-    <row r="137" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>445</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>4</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>2</v>
@@ -10535,7 +10536,7 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
     </row>
-    <row r="138" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>446</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>4</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>2</v>
@@ -10592,7 +10593,7 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
     </row>
-    <row r="139" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>447</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
@@ -10649,7 +10650,7 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
     </row>
-    <row r="140" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>448</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>2</v>
@@ -10706,7 +10707,7 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
     </row>
-    <row r="141" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>449</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>2</v>
@@ -10763,7 +10764,7 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
     </row>
-    <row r="142" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>450</v>
       </c>
@@ -10818,7 +10819,7 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
     </row>
-    <row r="143" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>451</v>
       </c>
@@ -10873,7 +10874,7 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="2"/>
     </row>
-    <row r="144" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>452</v>
       </c>
@@ -10928,7 +10929,7 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
     </row>
-    <row r="145" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>453</v>
       </c>
@@ -10983,7 +10984,7 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="2"/>
     </row>
-    <row r="146" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>454</v>
       </c>
@@ -11038,7 +11039,7 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="2"/>
     </row>
-    <row r="147" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>455</v>
       </c>
@@ -11093,7 +11094,7 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
     </row>
-    <row r="148" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>456</v>
       </c>
@@ -11148,7 +11149,7 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="2"/>
     </row>
-    <row r="149" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>457</v>
       </c>
@@ -11203,7 +11204,7 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
     </row>
-    <row r="150" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>458</v>
       </c>
@@ -11258,7 +11259,7 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
     </row>
-    <row r="151" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>459</v>
       </c>
@@ -11313,7 +11314,7 @@
       <c r="AH151" s="2"/>
       <c r="AI151" s="2"/>
     </row>
-    <row r="152" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>460</v>
       </c>
@@ -11368,7 +11369,7 @@
       <c r="AH152" s="2"/>
       <c r="AI152" s="2"/>
     </row>
-    <row r="153" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>461</v>
       </c>
@@ -11423,7 +11424,7 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="2"/>
     </row>
-    <row r="154" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>462</v>
       </c>
@@ -11478,7 +11479,7 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="2"/>
     </row>
-    <row r="155" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>463</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>2</v>
@@ -11535,7 +11536,7 @@
       <c r="AH155" s="2"/>
       <c r="AI155" s="2"/>
     </row>
-    <row r="156" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>464</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>2</v>
@@ -11592,7 +11593,7 @@
       <c r="AH156" s="2"/>
       <c r="AI156" s="2"/>
     </row>
-    <row r="157" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>465</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>2</v>
@@ -11649,7 +11650,7 @@
       <c r="AH157" s="2"/>
       <c r="AI157" s="2"/>
     </row>
-    <row r="158" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>466</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>2</v>
@@ -11706,7 +11707,7 @@
       <c r="AH158" s="2"/>
       <c r="AI158" s="2"/>
     </row>
-    <row r="159" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>467</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>2</v>
@@ -11763,7 +11764,7 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="2"/>
     </row>
-    <row r="160" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>468</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>2</v>
@@ -11820,7 +11821,7 @@
       <c r="AH160" s="2"/>
       <c r="AI160" s="2"/>
     </row>
-    <row r="161" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>469</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>2</v>
@@ -11851,7 +11852,7 @@
         <v>580</v>
       </c>
       <c r="L161" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11877,7 +11878,7 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
     </row>
-    <row r="162" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>470</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>5</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>2</v>
@@ -11934,7 +11935,7 @@
       <c r="AH162" s="2"/>
       <c r="AI162" s="2"/>
     </row>
-    <row r="163" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>471</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>2</v>
@@ -11991,7 +11992,7 @@
       <c r="AH163" s="2"/>
       <c r="AI163" s="2"/>
     </row>
-    <row r="164" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>472</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>2</v>
@@ -12048,7 +12049,7 @@
       <c r="AH164" s="2"/>
       <c r="AI164" s="2"/>
     </row>
-    <row r="165" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>473</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>2</v>
@@ -12105,7 +12106,7 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="2"/>
     </row>
-    <row r="166" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>474</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>2</v>
@@ -12162,7 +12163,7 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="2"/>
     </row>
-    <row r="167" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>475</v>
       </c>
@@ -12177,7 +12178,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>2</v>
@@ -12219,7 +12220,7 @@
       <c r="AH167" s="2"/>
       <c r="AI167" s="2"/>
     </row>
-    <row r="168" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>476</v>
       </c>
@@ -12274,7 +12275,7 @@
       <c r="AH168" s="2"/>
       <c r="AI168" s="2"/>
     </row>
-    <row r="169" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>477</v>
       </c>
@@ -12329,7 +12330,7 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
     </row>
-    <row r="170" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>478</v>
       </c>
@@ -12384,7 +12385,7 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>479</v>
       </c>
@@ -12439,7 +12440,7 @@
       <c r="AH171" s="2"/>
       <c r="AI171" s="2"/>
     </row>
-    <row r="172" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>480</v>
       </c>
@@ -12494,7 +12495,7 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
     </row>
-    <row r="173" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>481</v>
       </c>
@@ -12549,7 +12550,7 @@
       <c r="AH173" s="2"/>
       <c r="AI173" s="2"/>
     </row>
-    <row r="174" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>482</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>483</v>
       </c>
@@ -12659,7 +12660,7 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
     </row>
-    <row r="176" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="236.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>484</v>
       </c>
@@ -12714,7 +12715,7 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
     </row>
-    <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>485</v>
       </c>
@@ -12769,7 +12770,7 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
     </row>
-    <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>486</v>
       </c>
@@ -12824,7 +12825,7 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
     </row>
-    <row r="179" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>487</v>
       </c>
@@ -12879,7 +12880,7 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
     </row>
-    <row r="180" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>488</v>
       </c>
@@ -12934,7 +12935,7 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="2"/>
     </row>
-    <row r="181" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>489</v>
       </c>
@@ -12989,7 +12990,7 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
     </row>
-    <row r="182" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>490</v>
       </c>
@@ -13044,7 +13045,7 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
     </row>
-    <row r="183" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>491</v>
       </c>
@@ -13099,7 +13100,7 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
     </row>
-    <row r="184" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>492</v>
       </c>
@@ -13154,7 +13155,7 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="2"/>
     </row>
-    <row r="185" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>493</v>
       </c>
@@ -13209,9 +13210,9 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="2"/>
     </row>
-    <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>88</v>
@@ -13279,7 +13280,7 @@
         <v>101</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>2</v>
@@ -13336,7 +13337,7 @@
         <v>101</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>2</v>
@@ -13393,7 +13394,7 @@
         <v>101</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>2</v>
@@ -13450,7 +13451,7 @@
         <v>101</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>2</v>
@@ -13507,7 +13508,7 @@
         <v>101</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>2</v>
@@ -13564,7 +13565,7 @@
         <v>101</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>2</v>
@@ -13580,7 +13581,7 @@
         <v>628</v>
       </c>
       <c r="L192" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13621,7 +13622,7 @@
         <v>101</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>2</v>
@@ -13637,7 +13638,7 @@
         <v>629</v>
       </c>
       <c r="L193" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13678,7 +13679,7 @@
         <v>101</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>2</v>
@@ -13694,7 +13695,7 @@
         <v>630</v>
       </c>
       <c r="L194" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13735,7 +13736,7 @@
         <v>101</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>2</v>
@@ -13751,7 +13752,7 @@
         <v>631</v>
       </c>
       <c r="L195" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13792,7 +13793,7 @@
         <v>101</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>2</v>
@@ -13805,10 +13806,10 @@
         <v>333</v>
       </c>
       <c r="K196" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="L196" s="32" t="s">
         <v>632</v>
-      </c>
-      <c r="L196" s="32" t="s">
-        <v>633</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13849,7 +13850,7 @@
         <v>101</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>2</v>
@@ -13862,10 +13863,10 @@
         <v>336</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L197" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13906,7 +13907,7 @@
         <v>101</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>2</v>
@@ -13919,10 +13920,10 @@
         <v>339</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L198" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13963,7 +13964,7 @@
         <v>101</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>2</v>
@@ -13976,10 +13977,10 @@
         <v>342</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L199" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14020,7 +14021,7 @@
         <v>101</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>2</v>
@@ -14033,10 +14034,10 @@
         <v>345</v>
       </c>
       <c r="K200" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L200" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14077,7 +14078,7 @@
         <v>101</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>2</v>
@@ -14087,13 +14088,13 @@
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="K201" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="K201" s="16" t="s">
+      <c r="L201" s="33" t="s">
         <v>639</v>
-      </c>
-      <c r="L201" s="33" t="s">
-        <v>640</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14144,10 +14145,10 @@
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="K202" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="K202" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="L202" s="30"/>
       <c r="M202" s="2"/>
@@ -14199,10 +14200,10 @@
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K203" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>644</v>
       </c>
       <c r="L203" s="26"/>
       <c r="M203" s="2"/>
@@ -14254,7 +14255,7 @@
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>357</v>
@@ -14312,7 +14313,7 @@
         <v>358</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L205" s="30"/>
       <c r="M205" s="2"/>
@@ -14364,10 +14365,10 @@
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="K206" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="K206" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14419,10 +14420,10 @@
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="K207" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="K207" s="18" t="s">
-        <v>650</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14477,7 +14478,7 @@
         <v>342</v>
       </c>
       <c r="K208" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14506,7 +14507,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>88</v>
@@ -14529,10 +14530,10 @@
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="K209" s="18" t="s">
         <v>652</v>
-      </c>
-      <c r="K209" s="18" t="s">
-        <v>653</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14559,7 +14560,7 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
     </row>
-    <row r="210" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>516</v>
       </c>
@@ -14614,7 +14615,7 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
     </row>
-    <row r="211" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>517</v>
       </c>
@@ -14669,7 +14670,7 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="2"/>
     </row>
-    <row r="212" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
         <v>518</v>
       </c>
@@ -14724,7 +14725,7 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="2"/>
     </row>
-    <row r="213" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27" t="s">
         <v>519</v>
       </c>
@@ -14779,7 +14780,7 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
     </row>
-    <row r="214" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27" t="s">
         <v>520</v>
       </c>
@@ -14834,7 +14835,7 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
     </row>
-    <row r="215" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
         <v>521</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>376</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -14889,7 +14890,7 @@
       <c r="AH215" s="2"/>
       <c r="AI215" s="2"/>
     </row>
-    <row r="216" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
         <v>522</v>
       </c>
@@ -14944,7 +14945,7 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="2"/>
     </row>
-    <row r="217" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
         <v>523</v>
       </c>
@@ -14999,7 +15000,7 @@
       <c r="AH217" s="2"/>
       <c r="AI217" s="2"/>
     </row>
-    <row r="218" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
         <v>524</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>382</v>
       </c>
       <c r="K218" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15054,7 +15055,7 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="2"/>
     </row>
-    <row r="219" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>525</v>
       </c>
@@ -15109,7 +15110,7 @@
       <c r="AH219" s="2"/>
       <c r="AI219" s="2"/>
     </row>
-    <row r="220" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
         <v>526</v>
       </c>
@@ -15137,7 +15138,7 @@
         <v>386</v>
       </c>
       <c r="K220" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>
@@ -15164,7 +15165,7 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="2"/>
     </row>
-    <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
         <v>527</v>
       </c>
@@ -15219,7 +15220,7 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="2"/>
     </row>
-    <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
         <v>528</v>
       </c>
@@ -15274,7 +15275,7 @@
       <c r="AH222" s="2"/>
       <c r="AI222" s="2"/>
     </row>
-    <row r="223" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
         <v>529</v>
       </c>
@@ -15329,7 +15330,7 @@
       <c r="AH223" s="2"/>
       <c r="AI223" s="2"/>
     </row>
-    <row r="224" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
         <v>530</v>
       </c>
@@ -41740,7 +41741,35 @@
       <c r="AI977" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
+  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="09.01"/>
+        <filter val="09.02"/>
+        <filter val="09.03"/>
+        <filter val="09.04"/>
+        <filter val="09.05"/>
+        <filter val="09.06"/>
+        <filter val="09.07"/>
+        <filter val="09.08"/>
+        <filter val="09.09"/>
+        <filter val="09.10"/>
+        <filter val="09.11"/>
+        <filter val="09.12"/>
+        <filter val="09.13"/>
+        <filter val="09.14"/>
+        <filter val="09.15"/>
+        <filter val="09.16"/>
+        <filter val="09.17"/>
+        <filter val="09.18"/>
+        <filter val="09.19"/>
+        <filter val="09.20"/>
+        <filter val="09.21"/>
+        <filter val="09.22"/>
+        <filter val="09.23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD241A30-73B9-4DB9-B415-5DE738202F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3731E35-77E0-4AC6-9422-36C3E0A3BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1080" windowWidth="43200" windowHeight="16200" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="20760" yWindow="1080" windowWidth="26580" windowHeight="16200" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="809">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -2282,12 +2282,506 @@
     <t>Dynamics 365 may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
 Reseller must have at least 2 employees who passed the Microsoft technical exam, as further specified in the Microsoft Partner Network agreement, before starting the resale.</t>
   </si>
+  <si>
+    <t>Establish Routine</t>
+  </si>
+  <si>
+    <t>This implies that Microsoft may unilaterally change the Core Terms with 180 days' notice. This may be notified by Microsoft in its portal to which the reseller should have access. These changes will have effect going forward only.</t>
+  </si>
+  <si>
+    <t>Establish routines to ensure that it is checked regularly for changes. The routines should also cover changes in the Channel terms and in the Channel Authorization, that is subject to the same 180 days’ notice period.</t>
+  </si>
+  <si>
+    <t>General", section 2 "Relationship of the Parties", (e) "Publicity" and “Proprietary Rights" section 3 "Use of Marks"</t>
+  </si>
+  <si>
+    <t>The requirements mean that neither Microsoft nor the reseller can send out any press release or the like stating cooperation between the parties, without consent from the other party. 
+There are strict regulations for use of Microsoft trademarks etc unless otherwise is specifically stated in the Agreement or approved in writing. This does however not prevent the reseller from marketing Microsoft products to end customers, as long as the reseller does not use Microsoft's logos and uses only written company names and product names.</t>
+  </si>
+  <si>
+    <t>The reseller must establish procedures to ensure compliance.
+Procedures must be established to ensure compliance, including compliance with Microsoft's guidelines: https:// www.microsoft.com/en-us/legal/intellectualproperty/trademarks/usage/general.aspx.</t>
+  </si>
+  <si>
+    <t>"Business Integrity Principles", section 5 "Privacy and Data Security", (b) and (c)</t>
+  </si>
+  <si>
+    <t>"Confidentiality", section 1 “General Obligations”, (b) (ii) and (iii)</t>
+  </si>
+  <si>
+    <t>This implies that the confidentiality obligations last for 5 years from when the information is received.
+The provision further states that if the reseller is required by law or receives a court order to disclose confidential information, it must notify Microsoft as soon as possible.</t>
+  </si>
+  <si>
+    <t>"Business Integrity Principles", section 5 "Privacy and Data Security", (a)</t>
+  </si>
+  <si>
+    <t>«Term, Termination» 
+Section 2 “Termination without Cause”, section 3 «Termination for Cause” and section 4 “Effect of Termination”</t>
+  </si>
+  <si>
+    <t>This implies that Microsoft (and the reseller) can terminate the reseller agreement with a 30-day written notice. Program-specific terms may have a notice period of up to 150 days. Regardless, this is a short time frame for planning the termination process with the end customers to whom the products have been resold. 
+Note that the threshold for termination, as mentioned in the "termination for cause" section, is only "breach" and not "material breach". Normally, there is a 30-day window to rectify the issue before termination can take place. However, in cases of breaches that cannot be remedied, termination can happen immediately, including violations of confidentiality provisions, business conduct, or Microsoft IPR. Termination can also occur immediately if a previously remedied breach reoccurs, or if the reseller breaches agreements with other Microsoft companies (without requiring the actual termination of such agreement or the breach being material). The consequence of termination is the immediate loss of the right to resell. Microsoft may also claim compensation for any losses incurred (see the comment on the liability provision under "channel terms"). For this reason, it is crucial to establish routines to ensure compliance with the obligations set forth in the agreement.</t>
+  </si>
+  <si>
+    <t>"Miscellaneous" section 2</t>
+  </si>
+  <si>
+    <t>"Miscellaneous" section 3</t>
+  </si>
+  <si>
+    <t>"Miscellaneous" section 13</t>
+  </si>
+  <si>
+    <t>«Business Integrity Principles», section 5 «Privacy and Data Security»(c) (v) and (vi)</t>
+  </si>
+  <si>
+    <t>According to section (v), necessary security measures must be ensured in accordance with personal data protection legislation. Since a reseller will use the distributor's technical solution to communicate with the Microsoft Partner portal and similar platforms, to create and manage end customers, this obligation should be imposed on the distributor to ensure compliance on behalf of the reseller. The reseller and the distributor must enter into a data processor agreement covering the distributor’s processing of personal data, if any.</t>
+  </si>
+  <si>
+    <t>«Proprietary Rights» section 5 «Antipiracy»</t>
+  </si>
+  <si>
+    <t>«Confidentiality» section 1 «General Obligations» (b) (i) and (ii)</t>
+  </si>
+  <si>
+    <t>«General», section 1«Notice of Changes”</t>
+  </si>
+  <si>
+    <t>"Business Integrity Principles" section 1 "Compliance with Laws"</t>
+  </si>
+  <si>
+    <t>"Business Integrity Principles" section 5 "Privacy and Data Security" (b)and (c)</t>
+  </si>
+  <si>
+    <t>«Term; Termination”section 2 «Termination without Cause" and section 3 “Termination for Cause”</t>
+  </si>
+  <si>
+    <t>Since Microsoft can terminate the MPA for convenience with a 30-day written notice, it is advisable to have a similar contractual regulation towards your own end customers. The same applies if Microsoft terminates the agreement for cause (see the section "Term; Termination nr 3"), as the reseller may lose the right to resell to own end customers within 24 hours. You could also consider regulating contractually that Microsoft itself states that the end customers in such a case must be transferred to another reseller or Microsoft.</t>
+  </si>
+  <si>
+    <t>"General Rights, Restrictions and Obligations»" section 1 "General restrictions"</t>
+  </si>
+  <si>
+    <t>"General Rights, Restrictions and Obligations» section 2 "General obligations"</t>
+  </si>
+  <si>
+    <t>"Product Fees and Ordering, General" section 2 "Purchase Commitment Obligations"</t>
+  </si>
+  <si>
+    <t>Includes an obligation to obtain a binding order from each end customer. This is ensured by entering into an agreement with end customer specifying the initial volume. However, it is important that subsequent additional orders are also documented in writing for the end customer, so it is possible to trace all additional purchases. In addition, it should be agreed in advance with the end customer who will be the authorized purchasers, so that this does not create discussions afterwards. Please, note that the term must also be specified in the orders/agreements with the end customers.
+Note that this also states that the reseller must pay Microsoft for all orders. This means that the reseller bears the risk of the individual end customer being creditworthy, going bankrupt, etc. Strictly speaking, the point is somewhat illogical, as payment is not made to Microsoft, but to the distributor.</t>
+  </si>
+  <si>
+    <t>Make sure to establish written agreements with end customers to meet this requirement.
+For private companies, its recommended to establish routines to ensure that a credit check is conducted before entering into an agreement and to conduct ongoing follow-up.</t>
+  </si>
+  <si>
+    <t>"Product Fees and Ordering, General" section 3 "Customer Discount &amp; Customer Special Offer Transparency, Passthrough"</t>
+  </si>
+  <si>
+    <t>"Audit, General" 
+section 1 
+"Duty to Maintain Records"</t>
+  </si>
+  <si>
+    <t>Contains a right for Microsoft to conduct audit of the reseller. The reseller should review this in detail. If an audit reveals material discrepancies, the reseller will have to cover Microsoft' reasonable costs of the audit. Significant discrepancies are "material breach" or when any unpaid amount is higher than a percentage pre-agreed in the Channel Authorization. The latter should be considered contractually agreed upon, as it is pre-agreed.</t>
+  </si>
+  <si>
+    <t>Includes a definition of indirect loss that is fairly standard. Please, note, however, that these do not apply to unauthorized use etc. of the other party's IPR, any resale that do not comply with the provisions of the agreement, in case of breach of confidentiality or compliance obligations. Also the obligation to pay for consumed Online services is absolute, regardless of the limitations of damages. The consequence of the provision is that there will be relatively little chance of claiming damages from Microsoft from the reseller's perspective, while Microsoft will always be able to claim full payment for the use of online services and will always be able to claim damages for both direct and indirect losses in the event of a breach of IPR/overuse etc. Note also that there is no limitation of the size of the liability.</t>
+  </si>
+  <si>
+    <t>As for the Core Terms, this implies that Microsoft may unilaterally termination for convenciance with 30 day’s notice, and termination due to breach without requiring a "material breach". The risk is managed by including corresponding provisions in the end customer agreements, allowing for changes to the agreement, as we have commented above under Core Terms.</t>
+  </si>
+  <si>
+    <t>“General Rights, Restrictions, and Obligations” section 2 «General Obligations» (b) «Technology»[JR1]</t>
+  </si>
+  <si>
+    <t>States that the reseller is responsible for acquiring the necessary equipment, technology, and infrastructure required to access Microsoft online tools and Partner portal. The distributor will provide this, and thus this should also be contracted in the agreement with the distributor.</t>
+  </si>
+  <si>
+    <t>“General Rights, Restrictions, and Obligations” section 2 «General Obligations» 2 (c) «Security and Unauthorized Disposition”</t>
+  </si>
+  <si>
+    <t>«Defence of Third-Party Claims, General”,</t>
+  </si>
+  <si>
+    <t>"Product Fees and Ordering, General", section 1 "Ordering" (a)</t>
+  </si>
+  <si>
+    <t>"Product Fees and Ordering, General", section 2 "Purchase Commitment Obligations"</t>
+  </si>
+  <si>
+    <t>The reseller may not distribute, resell or market the Online Services outside the territory agreed with your distributor. The obligation does not prevent the reseller from selling to an end customer in the territory and that the end customer hosts applications and makes them available also to subsidiaries in the end customer group located outside the EU/EEA (due to the hosting exception in the Microsoft Customer Agreement), as long as export control rules are complied with.</t>
+  </si>
+  <si>
+    <t>«General Requirements and Obligations” section 2 “Product Availability; Fulfilment” (d)</t>
+  </si>
+  <si>
+    <t>It is stated that the reseller shall coordinate the delivery of end customer orders with the distributor in accordance with the Additional Terms, included in the agreement entered into with the distributor.</t>
+  </si>
+  <si>
+    <t>"Customer Data and Privacy Obligations" section 2 “Customer Data” (c)</t>
+  </si>
+  <si>
+    <t>"Customer Data and Privacy Obligations", section 2 "Customer Data" (f)</t>
+  </si>
+  <si>
+    <t>If the reseller become aware of unauthorized access to customer's data or any other security incidents related to security measures for customer data, the reseller must notify Microsoft without undue delay. In the event that the security incident involves Customer Personal Data, the reseller must notify Microsoft within 72 hours of becoming aware of the situation.</t>
+  </si>
+  <si>
+    <t>This means that the right to resell Microsoft Online-services 1) requires also an agreement with a distributor in addition to the reseller agreement with between you and Microsoft, and 2) breach of the Additional Terms in the distributor agreement also constitutes a breach towards Microsoft.</t>
+  </si>
+  <si>
+    <t>Stipulates that you may not resell through third parties or subsidiaries. I.e. these may not resell/contract with end customers (and in any case may not influence purchase decisions of public end customers), but they may assist in ensuring that the reseller complies with its obligations in the Microsoft Partner Agreement (such as compliance requirements, reporting requirements, training requirements, etc.) or help with deliverables towards end customers (such as support). In that case, the reseller will be liable to Microsoft for any breach of the Microsoft Partner Agreement committed by such subsidiaries/third parties. Reseller should therefore consider mirroring the liability to pay damages that may arise against such partners (at least when you use external partners and not affiliated companies where this is already regulated in intercompany agreements).</t>
+  </si>
+  <si>
+    <t>«General Requirements and Obligations” section 1 “Relationship ofParties” and “Product Availability; Fulfilment” (e)</t>
+  </si>
+  <si>
+    <t>«General Requirements and Obligations” section 5 “Defence Obligation”</t>
+  </si>
+  <si>
+    <t>"Term and Termination" section 3 "Termination without Cause", section 4 “Termination for Cause” and section 5 "Suspension"</t>
+  </si>
+  <si>
+    <t>The termination of Core Terms and/or the Channel Terms entails automatic termination of the Channel Authorization terms.
+There is, in the same way as in the Core Terms and the Channel Terms, a mutual termination for convenience right with 30 days' notice.The agreement may also be terminated as a result of breach without requiring a "material breach" etc. If the breach cannot be cured the agreement may be terminated immediately. This applies also in some other situations . 
+Note that section 5 explicitly states that Microsoft may also suspend your access to the Partner Portal and other tools as long as the reseller is in material breach of contractual obligations. Suspension must be notified before it takes place. 
+Further note that upon termination for cause, you must stop reselling Microsoft Online Services to end customers immediately, including stop any marketing.</t>
+  </si>
+  <si>
+    <t>Means that end customers can choose to change reseller at any time. The reseller must then assist to facilitate this to a reasonable extent. However, this does not mean that a lock-in period cannot be agreed with end customers in the end customer agreement between the reseller and the end-customer.</t>
+  </si>
+  <si>
+    <t>It is stated here that the reseller has the right to resell Microsoft Products in the "Territory." Products are defined as the Microsoft online services that the distributor has been granted the right to resell through an "indirect reseller" in the distributor's agreement with Microsoft. The Territory is defined as the geographical area agreed upon in the agreement with the distributor. Therefore, the reseller must both agree with the distributor which online services the reseller shall have the right to resell, and reseller must explicitly agree on the territory for which this applies, as this is not specified in the MPA for indirect resellers (Microsoft Partner Agreement).</t>
+  </si>
+  <si>
+    <t>«Authorization» section 3 “Company Affiliates” and section 4 “Use of Others”</t>
+  </si>
+  <si>
+    <t>Establishes that one cannot resell through subsidiaries (or other third parties) unless this is agreed upon with the distributor in the agreement between the distributor and the reseller. This must therefore be done where relevant.</t>
+  </si>
+  <si>
+    <t>«Customer Data and Privacy Obligations” section 3 “Other Security Obligations”</t>
+  </si>
+  <si>
+    <t>It is stated that the reseller must establish multi-factor authentication for access to Microsoft's Partner Center, etc. Since access will occur through the distributor's portal, this should contractually be regulated as an obligation on the distributor.</t>
+  </si>
+  <si>
+    <t>«Term and Termination”, section 3 “Termination without cause” and section 7 “Termination of Distributor”</t>
+  </si>
+  <si>
+    <t>This means, in the same way as in the Core Terms and the Channel Terms, that there is a mutual termination for convenience right with 30 days' notice. The agreement with the distributor may, however, have different regulations. Termination of the distributor agreement will automatically result in the termination of the resale rights under the Microsoft Partner Agreement. Therefore, as a starting point, the reseller should ensure a long-term notice period towards the distributor to avoid the Microsoft Partner Agreement with Microsoft being terminated at short notice due to the distributor's termination.
+It should also be considered to agree on the assistance the distributor should provide to the reseller upon termination, for example, granting access to relevant end-customer information and data, so that the reseller can continue to resell to end customers under another distributor, or by switching to only having an agreement with Microsoft (direct bill).
+As the distributor also has a right to continue to resell, upon termination for convenience, to active end customers either according to the minimum duration agreed between MS and the end customer in MCA, but in any case, not more than 12 months, the reseller should also ensure that this distributor right is flowed down to you as reseller.</t>
+  </si>
+  <si>
+    <t>«General requirements and obligations, section 1 “Relationship of Parties” (a) and section 2 “Product Availability; Fulfilment”</t>
+  </si>
+  <si>
+    <t>This states that orders placed in the Microsoft partner portal are not binding for Microsoft, and that Microsoft can also limit the available volume. They can thus reject orders entirely or partially without further justification. For example, in March 2020, this happened due to capacity problems caused by Covid-19. The reseller should therefore not guarantee delivery times to end customers or enter into a larger delivery agreement with fixed milestones that depend on specific Microsoft Online Services without reserving the right for Microsoft to accept the order within a defined deadline. In other words, for larger orders, reseller should actually give Microsoft a heads up about possible orders that may come.</t>
+  </si>
+  <si>
+    <t>«General requirements and obligations, section 2 “Product Availability; Fulfilment” (b)</t>
+  </si>
+  <si>
+    <t>This means that the reseller can lose the right to resell products at any time. This uncertainty must therefore be reflected in the end-customer agreements so that an obligation to resell products are conditional upon thatnt Microsoft continue to make the products available.</t>
+  </si>
+  <si>
+    <t>«General requirements and obligations” section 3 “Reservation of Rights”</t>
+  </si>
+  <si>
+    <t>«General requirements and obligations” section 4 “Support Obligations”</t>
+  </si>
+  <si>
+    <t>“Customer Data and Privacy Obligations” section 2 “Customer Data” (d)</t>
+  </si>
+  <si>
+    <t>"Term and Termination" section 6 "Effect of Termination”</t>
+  </si>
+  <si>
+    <t>Entails that, once the agreement is terminated for cause or convenience, the reseller must stop reselling Microsoft Online Services to end customers within 24 hours. This must be taken into consideration in the end customer agreements. It can of course be argued that this should be the risk of the reseller in cause of termination for cause, but since the threshold for termination is only “breach” and not “material breach” it’s advisable to mirror this risk towards the end customers, at least when the reseller is not in “material breach”.</t>
+  </si>
+  <si>
+    <t>Given the short deadline of 25 days, you should establish procedures for checking records of consumption, including getting acceptance or objections from end customers so this can be communicated to your distributor in due time before the deadline.</t>
+  </si>
+  <si>
+    <t>Create a procedure to comply with this obligation, and to notify your distributor when relevant.</t>
+  </si>
+  <si>
+    <t>Gives the reseller 25 days to protest in case of any discrepancies between measured consumption registered in the reseller’s systems for customers versus MS’s own quantity data. The distributor will probably claim a shorter period for the reseller. This must be mirrored in relation to the end customer, and preferably with an even shorter deadline, for example 5 days shorter, so that the reseller has time to receive customer objections before its own deadline expires.</t>
+  </si>
+  <si>
+    <t>"General Requirements and Obligations" section 1 "Authorization Criteria"</t>
+  </si>
+  <si>
+    <t>Besides the fact that Microsoft may set additional terms for resale in the Guide as well as specific terms for the various products (see previous comments), Microsoft may also in the Guide or in the Product Specific Terms set additional requirements in the form of number of employees, sales targets and minimum active subscriptions..</t>
+  </si>
+  <si>
+    <t>"Customer Related Terms and Obligations" section 1 "Customer Agreement Acceptance", (a) and (b)</t>
+  </si>
+  <si>
+    <t>Must be ensured through the agreement between the reseller and the individual end customer, where the Microsoft Customer Agreement must be accepted by the end customer, including that this entails that a direct agreement between Microsoft and the individual end customer is created. 
+Establish procedures for complying with the obligations and that this is documented. In the agreement with the end customers, you must include a link to MCA and other agreement documents such as, Product Terms, SLA, DPA, and possibly other agreement documents that apply (such as Financial addendum for banking and financial customers).</t>
+  </si>
+  <si>
+    <t>If the reseller negotiates licenses for 
+software to end customers, the reseller must ensure that the end customer 1) uses only original software, 2) is adequately licensed (number of users/devices, etc.), 3) check that the customer has received the software, and 4) save copies of all documents related to the installation and provide Microsoft with copies upon request.</t>
+  </si>
+  <si>
+    <t>"General Product Related Obligations" section 2 "Disablement and Cancellation of Subscription Offers" (c)</t>
+  </si>
+  <si>
+    <t>Note that reseller will have the obligation to give at least the same SLA refund to the relevant end customer as accepted by Microsoft.</t>
+  </si>
+  <si>
+    <t>Pursuant to section 1, the reseller must ensure that there is a legal basis for the processing of personal data the reseller obtains from end customers. This applies both to Microsoft' processing and to the reseller's own processing as controller. Section 2(e) stipulates that the reseller and Microsoft are independent processors regarding Customer Data, i.e. Microsoft is not the reseller’s subcontracted processor. The reseller must therefore ensure that Microsoft's data processing agreement is accepted by the customer, so that a direct contractual relationship between the customer and Microsoft is established, and at the same time the reseller must have a separate data processing agreement if the reseller processes Customer Data itself. In addition, Section 2(c) contains rules on the procedure the reseller must follow if the reseller receives, directly or through Microsoft, a request to disclose personal data on the basis of law, and Section 2 (f) contains procedures that the reseller must follow when it becomes aware of a security breach.</t>
+  </si>
+  <si>
+    <t>“General Product Related Obligations”
+section 1 “Product and Subscription Management”</t>
+  </si>
+  <si>
+    <t>“Payment Ordering, Reporting, and Fulfilment”, section 2 “Payment Terms”</t>
+  </si>
+  <si>
+    <t>"Customer Related Terms and Obligations" section 1. "Customer Agreement Acceptance", (b) and (c) and section 2 "Maintenance of Acceptance" 
+"General Product Related Obligations" section 2 "Disablement and Cancellation of Subscription Offers" (a), (c) and (d)</t>
+  </si>
+  <si>
+    <t>Microsoft has a right to revise Customer Agreement also for existing end customers when such end customers submit subsequent orders or renews a subscription. 
+Microsoft may reject an end customer for legal reasons, as well as if Microsoft reasonably determines that the end customer entails an increased risk of liability for Microsoft. The reseller must thus mirror the same in the agreement to be entered with the end customers (since the reseller often enter into an end customer agreement before registering the relevant end customer with Microsoft).
+Furthermore, Microsoft may, in consideration of the end customer eligibility requirements (which only applies to government customers or educational institutions, that either get special discounts or access to special products) or if it otherwise follows from the MCA, terminate any government customer as an end customer. ”. Microsoft will still be entitled to claim payment in accordance with placed order. The same should be mirrored in relation to the end customers. 
+If the reseller cancels an end customer subscription, the end customer will have ninety days to migrate customer data. 
+In addition, Microsoft has a general right to suspend or cancel an end customer subscription due to law or other regulations or as set forth in the MPA or MCA. Microsoft will normally return to the reseller any advance payment for such end customer if the cancellation is not caused by breach of the MPA or breach of the MCA. The same should be reflected in relation to the end customers, hereinunder that the end customer will not be reimbursed for advanced payment in such situations and that the customer still has to pay for committed consumption. You should also consider whether this reservation should cover your breach of the MPA because the threshold or termination is only “breach” and not “material breach”.</t>
+  </si>
+  <si>
+    <t>"General Product Related Obligations" section 2 "Disablement and Cancellation of Subscription Offers" (a)</t>
+  </si>
+  <si>
+    <t>If the reseller terminates an end customer subscriptionr, which the resellers is generally free to do in relation to Microsoft, Microsoft reserves the right to invoice any scheduled invoiced amount for this end customer. This is related to "OLS Subscription Offer Terms and Obligations" section 2 (Fixed Term OLS Subscriptions" which states that Online services sold by Microsoft for fixed defined subscription periods must be paid in full for such period/committed use. This must be mirrored in relation to the end customers when relevant.</t>
+  </si>
+  <si>
+    <t>"General Product Related Obligations" section 2 "Disablement and Cancellation of Subscription Offers" (b)</t>
+  </si>
+  <si>
+    <t>The reseller agreement gives the reseller the right to suspend an end customer's subscription. Such a regulation is probably smart to include in end-customer agreements, since non-payment by end customers does not exempt the reseller from paying Microsoft for consumed online services. Then you want to avoid ending up in a situation where you still have to resell the online services, despite payment breach or if the end customer is in the process of going bankrupt or similar. Note that the end customer may still, depending on the product, have access to one or more products. You should assess whether this may pose a specific credit risk for you, depending on the individual end customer/the products used.</t>
+  </si>
+  <si>
+    <t>"OLS Subscription Offer Terms and Obligations" section 2 "Fixed Term OLS Subscriptions" (a) and (d)</t>
+  </si>
+  <si>
+    <t>OLS Subscriptions sold for a determined fixed period cannot be terminated during this period (lock-in period)
+The reseller must also select billing cycle (monthly vs. annual advance payment). 
+Be also aware of that such binding subscriptions upon their expiry will be automatically renewed for a corresponding period of time, unless termination take place before the subscription is renewed.
+The mentioned lock-in period, billing cycle and renewal are not regulated in the end customer’s MCA and must be regulated in the resellers agreement with the end customer.</t>
+  </si>
+  <si>
+    <t>"OLS Subscription Offer Terms and Obligations" section 3 “Consumption Subscriptions, ("Pay as You Go")”</t>
+  </si>
+  <si>
+    <t>Subscriptions billed "as you go" follow the prices Microsoft has set for the current billing period. However the unit price for an online service may change during a subscription period. It is important that prices for end customers are regulated in the same way.</t>
+  </si>
+  <si>
+    <t>Note that the reseller will have the obligation to give at least the same SLA refund to the relevant end customer as accepted by Microsoft. This principle can be mentioned in the end-customer agreements, as it is “selling”.</t>
+  </si>
+  <si>
+    <t>Not all software subscriptions will be automatically renewed at the end of the subscription period. This must be checked and the reseller must in the reseller’s agreement with the end customer communicate to the end customer whether a subscription will require manual renewal or repurchase at the end of its term. This is not regulated in the end customer’s MCA.</t>
+  </si>
+  <si>
+    <t>"Payment, Ordering, Reporting and Fulfillment" section 2 "Payment Terms"</t>
+  </si>
+  <si>
+    <t>As a reseller, you have a 60-days deadline to pay Microsoft’s invoices. You should therefore mirror a somewhat shorter payment deadline to your end customers, for example 30 days, to ensure receiving payment from the end customer before Microsoft's invoices are due. Note that Microsoft has reserved the right to specify a shorter payment term on the invoice, or in the Guide or Product Specific Terms. The reseller should therefor also reserve the right to specify a shorter payment term on the invoice.</t>
+  </si>
+  <si>
+    <t>Microsoft may:
+- change the terms of Channel Authorization with 180 days' notice. 
+- modify or remove products included in the Online Services with 30 days' notice (i.ereseller may not sell such products to new end customers after the 30 days’ period, but you may continue to deliver them to existing end customers as long as Microsoft under MCA has an obligation to do so in relation to the end customer (normally, there is 12 months' notice in the event of significant changes in products or product composition in MCA). 
+- change the list price with 30 days' notice, including making changes no later than 10 days before an announced new price list is due to take effect. For Non-Microsoft products, the price change may be immediate. Furthermore, Microsoft may change prices for Microsoft Azure services without notification, and also adjust prices due to currency fluctuation without notice
+- change the Product specific terms or the Guide with 30 days' written notice
+- with 60 days' notice change which countries end customers you can resell to, must be domiciled in.
+This should also be mirrored in the end customer agreements.</t>
+  </si>
+  <si>
+    <t>"General Channel Authorization Terms and Conditions" section 3 "Customer Agreement Acceptance confirmation", (c)</t>
+  </si>
+  <si>
+    <t>In addition to the obligation in the Channel Authorization to ensure that end customers accept Microsoft' terms and conditions (MCA), there is an activity obligation to confirm in the Partner Portal that the terms have been accepted by the end customer. The reseller must register in the Partner Portal the date of acceptance and the name of the person authorized to sign on behalf of the end customer, and other relevant details). If this is not done for an end customer when registering the end customer's tenant for the first time, there is a risk that Microsoft may block the account, without prior notice.</t>
+  </si>
+  <si>
+    <t>"General Channel Authorization Terms and Conditions" section 5 "Support terms", (b) “Escalation Support”, (d) “Severity Table” and (f) “Azure Active Directory”</t>
+  </si>
+  <si>
+    <t>In the event of incidents connected to support (i.e. message about code errors, problems with availability, etc.), such incidents shall be categorized by the reseller according to the error categories provided in section (d), upon which Microsoft sets the final level. The level determines how quickly the inquiry will be followed up by Microsoft. All enquiries must be made in English. 
+Microsoft may require the use of AD to provide support for incidents related to identity issues.</t>
+  </si>
+  <si>
+    <t>"General Channel Authorization Terms and Conditions" section 7 "Other Terms", (b) “Price Lists”</t>
+  </si>
+  <si>
+    <t>"Product Specific Terms and Conditions" section 1 "Microsoft Azure Services Offer Terms", (d) "Microsoft CSP Sandbox Environment"</t>
+  </si>
+  <si>
+    <t>To the extent Microsoft provides the reseller with free access to a sandbox account, this sandbox account may only be used for API integration testing, and not for any other commercial purposes. It is specifically stated that the reseller is not allowed to 1) create any revenue-generating solutions (such as hosting of customer applications, etc.), 2) establish free access for end customer (carry out proof of concept etc.), 3) use it for training end customers (except for "learning partners"), 4) distribute, transfer or otherwise give third parties access. 
+The reseller will be responsible for all unauthorized access or usages of the sandbox tenant. Furthermore, the reseller must inform Microsoft of any unauthorized access. You may be held financially liable for usage stemming from any abuse or fraudulent activity within the sandbox tenant. 
+Note also that Microsoft does not promise availability, and may change, suspend or remove the sandbox application without notice, nor does Microsoft guarantee that configurations, data, etc. can be obtained.</t>
+  </si>
+  <si>
+    <t>Azure Partner Shared Services can be resold only to end customers, if the reseller meets the eligibility requirements set by Microsoft. 
+The reseller has the right to provision end customer tenants to its «Azure Partner Shared Services» tenant, so the reseller may provision shared resources and host SaaS solutions which are used by several of its end customers. 
+The reseller must keep tenant for Azure Partner Shared Services separate from its customers' own Azure accounts.
+NOTE that the reseller will be subject to the terms of the Microsoft Customer Agreement when using this service. This means that the MCA should be reviewed, so the reseller have control over rights and obligations. The most important is probably that the reseller 1) comply with export control regulations, 2) comply with license restrictions (it is prohibited to decompile code, etc.) and 3) comply with the acceptable use policy; as well as check for restrictions for the use of the service in the Product Terms.
+Note also that the reseller will be liable for any tax charges associated with the use of the service and this should be analyzed.</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. Procedures must be established to comply with eligibility requirements 
+Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
+Before the service is put into use, you should consider possible tax costs.</t>
+  </si>
+  <si>
+    <t>The Guide provides some additional terms that apply when the reseller resell Microsoft Azure Stack Hub services hosted on servers belonging to the reseller or its end customers. 
+Azure Partner Shared Services can only be resold to end customers if the reseller meets the eligibility requirements set by Microsoft. 
+Reseller cannot provision, use or run "Tennant Workloads" from its administrator subscription, reseller must keep customer accounts separate from its own account to manage Azure Stack, and reseller can only perform administrator functions from the administrator subscription. 
+The reseller will be subject to the terms of the Microsoft Customer Agreement when using this service. See corresponding comment to “Microsoft Partner Shared Services Offer Terms”. 
+Reseller may use Azure Stack Hub only on the equipment on which it is pre-installed and the following statements must be met: https://www.microsoft.com/en-us/privacystatement/EnterpriseDev
+If you use Azure Stack Hub Infrastructure Resources for purposes other than those that are permitted, Microsoft may require the reseller to pay the list price for such use.
+Administrator subscription orders for Microsoft Azure Infrastructure Resources do not count for the incentive model. 
+Reseller is also liable for assessing any tax liabilities arising from the use.</t>
+  </si>
+  <si>
+    <t>These terms should be reviewed in detail upon resale..
+Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
+Microsoft Customer Agreement should be reviewed, especially to see if there are any restrictions for the use in the Product Terms. 
+Establish procedure to comply with the obligations.</t>
+  </si>
+  <si>
+    <t>Skype may only be resold to end customers if the reseller meets the eligibility requirements set by Microsoft. 
+Note that tax may be added to the amounts the reseller must pay to Microsoft.</t>
+  </si>
+  <si>
+    <t>Check if such eligibility requirements exist. Procedures must be established to comply with the eligibility requirements.
+Check this in advance as the price can go up compared with the price lists.</t>
+  </si>
+  <si>
+    <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
+Reseller must have at least 2 employees who passed the Microsoft technical exam, as further specified in the Microsoft Partner Network agreement, before starting the resale.</t>
+  </si>
+  <si>
+    <t>Reseller may resell Government Customer Reserved Online Services only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for government customers are identified in the Microsoft Price Lists. 
+Before selling such products to public customers, reseller must check that the Customer is considered public, according to Microsoft requirements, see www.aka.ms/governmenteligibility.
+The reseller is obliged to use reasonable efforts to promote Government Products only to Government Customers. If Company markets Government Products, Company shall do so only with advertisement or marketing materials that clearly indicate that the Government Product is only available for purchase by Government Customers.</t>
+  </si>
+  <si>
+    <t>Reseller may resell Education Offer only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for Education Customers are identified in the Microsoft Price List. 
+Before selling products considered "Education Products" to end customers, the reseller is responsible for validating that the end customer meets the eligibility requirements for being an Educational Customer. However, if Microsoft determines that the end customer does not meet the eligibility requirements, Microsoft may reject the individual end customer.</t>
+  </si>
+  <si>
+    <t>The reseller may resell ISV Cloud Embed Offers only if the reseller meets the eligibility requirements set by Microsoft.[JR1] 
+ISV Cloud Embed Offers is the right to integrate self-developed software solutions with Microsoft products.
+The right to sublicense applies only to bundled products and not to Microsoft products alone (in which case one must do it in the ordinary way). 
+Reseller is responsible for making any necessary updates to ensure continued interaction with Microsoft Products. Microsoft will inform about changes in its products via regular channels.
+If the reseller promotes the solution and use its own logo at the same time, this must be done in accordance with Microsoft guidelines, see comments under the Core Terms.
+The reseller must prior to offering subscriptions to Embedded Unified Solution receive validation from Microsoft that the solution satisfies the guidelines available at https://appsource.microsoft.com/en-us/partners.</t>
+  </si>
+  <si>
+    <t>Check that you meet the eligibility requirements stated here: http://createopportunity.azurewebsites.net/ISVCloudEmbedTerms
+Remember to apply to MS to become eligible, according to the guidelines here: https://appsource.microsoft.com/en-us/partners
+These eligibility requirements must be complied with throughout the contract period, so it is important to create procedures to ensure this, as well as checking for any updates.</t>
+  </si>
+  <si>
+    <t>If the reseller wants to resell Third Party Offers, the reseller must request access to such third-party products by completing the "Third Party Offers Interest Form". Microsoft is free to limit the number and geography of resellers of Third Party Offer.
+The reseller can order, manage, and cancel such subscriptions through the Partner Portal, and the reseller shall use the applicable Third Party Provider Solution when required. 
+Reseller shall also provide Microsoft or relevant third parties with information they may reasonably require in relation to tax documentation. 
+The applicable third-party supplier will be liable for the support specified in Developer Customer Agreement. Anything beyond this will be the reseller’s responsibility. 
+Upon termination of the right to resell a third-party product, reseller is obliged to discuss loyally and help ensure that end customers are presented with alternatives for further use, for example to purchase directly from third parties, through Microsoft, or other resellers.</t>
+  </si>
+  <si>
+    <t>Please note that the reseller has the right to cancel or change quantity of licenses or the like for software products for a period of 30 days after ordering. However, this is due to Microsoft’s approval and Microsoft may request documentation. Microsoft may choose to approve the cancellation even after 30 days for a 5% handling fee. Any cancelled payment will be given as a credit on future invoices. 
+For online OLS Subscription of a Non-Microsoft Product billed monthly, the reseller will receive a full credit on next invoice if the reseller cancels the order within 24 hours from placing the order. The corresponding cancellation period is 14 days for online OLS Subscriptions of Non-Microsoft Products billed annually. Other online services have no such cancellation period. .</t>
+  </si>
+  <si>
+    <t>“General Channel Authorization Terms and Conditions”, section 6 “Additional Policies for Products”, (a) “Partner Earned Credit”</t>
+  </si>
+  <si>
+    <t>The distributor can earn bonuses by accumulating discounts on future invoices. The details can be found in the price list and "Partner Earned Credit Offer Details." Such "Partner Earned Credit" is not a "discount" that must be shared with end customers. 
+The calculation of these earned discounts can be based on activities and information from the distributor itself, possibly from indirect resellers they it is licensed to sell through (such as you), or from end customers. The distributor must ensure that such information is shared with Microsoft according to the requirements in the partner portal. 
+Microsoft always reserves the right to retroactively invoice any miscalculated and thus over-calculated/settled bonuses.
+How such distributor earned bonused should be shared by the distributor with you as a reseller, and other roules, can be agreed in the agreement reseller enters into with the distributor.</t>
+  </si>
+  <si>
+    <t>“General Channel Authorization Terms and Conditions, section 7 “Other Terms”, b) “Invoices”</t>
+  </si>
+  <si>
+    <t>Microsoft makes invoices available through the Partner Portal, typically on a monthly basis, for reseller roles set up as "Billing Admin" or "Global Admin." It should be verified with the distributor how this will work for the reseller.</t>
+  </si>
+  <si>
+    <t>"General Channel Autorization Terms and Conditions", section 6 "Additional Policies for Products", (b) “Iinvoicing Currency”</t>
+  </si>
+  <si>
+    <t>Note that Azure plans are priced in USD, and are billed by Microsoft in the distributer’s local currency, and as further specified in section (ii) of the clause. Make sure the same is used in relation to end customers to avoid any currency risk.</t>
+  </si>
+  <si>
+    <t>Microsoft’s invoices are usually payable within 60 days (but this can vary in different countries), so check what applies to your country). A somewhat shorter deadline should be agreed with end customers to limit the liquidity risk.</t>
+  </si>
+  <si>
+    <t>Note that pre-view releases must be marked as such by reseller in relation to the end customer. The reseller should specifically state in the end-customer agreement that if a product is a Preview Release, the end-customer must be aware of the regulation in the end-customer’s Customer Agreement and the customer’s Online Services Terms. 
+Some Azure services have some restrictions on use, and the restrictions may be changed by Microsoft from time to time. See: http://azure.microsoft.com/en-us/documentation/articles/azure-subscription-service-limits/ for more information. These should be checked, and the resellers agreements with end customers should state that such updates will be binding for the end-customer. Possible increase in quantity must take place based on an order from an end customer.
+Note also that one is permitted to give customers administrative rights in own portal solution that communicates with Microsoft portals, so that end customers can order or reduce quantity directly with Microsoft. All such orders etc. are considered as coming from the reseller, so it should be mirrored in the end customer's terms and conditions that the end customer is bound by such orders/changes.</t>
+  </si>
+  <si>
+    <t>"Product Specific Terms and Conditions", section 3 "Microsoft Azure Stack Hub Offer Terms", (d) “Customer Disclosures”</t>
+  </si>
+  <si>
+    <t>The reseller shall disclose to end customers that Azure Stack Hub software is hosted by the reseller and that use of such software/service is subject to the resellers privacy statement and not Microsoft's.</t>
+  </si>
+  <si>
+    <t>"Product Specific Terms and Conditions", section 3 “Microsoft Azure stack Hub Offer Terms”, (g) “Tax” and section 4 "Skype for Business Online PSTN Services Offer Terms", (b) “Taxes”</t>
+  </si>
+  <si>
+    <t>Note that tax may be added to the amounts the reseller must pay to Microsoft. Reseller must take this into consideration when pricing the products in the resellers agreement with the end customer</t>
+  </si>
+  <si>
+    <t>Do not list Microsoft as a sub supplier to government customers. This corresponds with the new Norwegian IT standard agreements for instance (SSA), where the cloud provider is considered a "third party" and not a subcontractor. The reseller is also solely responsible for meeting any end customer requirements, such as that the service must fulfil various laws and regulations.
+If a court or similar instance rules the opposite, please, review the details of the provision and meet the requirements. If the reseller have a cost-based fee model with a public customer, the reseller should take into account that costs may decrease when the reseller receives bonuses or other incentives from Microsoft.</t>
+  </si>
+  <si>
+    <t>If the reseller licenses Microsoft Embedded Solutions to end customers, the reseller should specifically state in its agreement with the end customer that Microsoft provides no guarantee that the total solution will work. Note that Microsoft undertakes no financial liability whatsoever for the embedded solution. This also means that the end customers get no protection against defects in title from Microsoft for the embedded solution. This should be ensured in the agreement with the end customer (but this should be worded so that the reseller bears no liability whatsoever for any errors and defects in Microsoft Online services in general, and it should be mentioned that any rights given to the end customer will be governed by the MCA that the end customer will enter into with Microsoft). Since the end customers irrespectively must enter into MCA with Microsoft, end customer will be held harmless against third party claims that are caused by defects in title in Microsoft online services.</t>
+  </si>
+  <si>
+    <t>When reselling third-party products available for purchase through Microsoft, the reseller should submit the Developer Customer Agreement to the end customer and ensure that this is accepted by the relevant end customer and becomes a legally enforceable contract between the third party and the end customer.. Please, note also that Microsoft does not give any guarantee for protection against defect in title for such products. Check the Partner Portal for current terms and conditions and remember to choose the version of the Developer Customer Agreement that applies for the correct region. 
+Also create a procedure to check contract versions for updates, and make sure that the relevant end customer accept the updated contract versions when they renew subscription periods. 
+In principle, the reseller is free to cancel third party services at any time with Microsoft, but cancellation fees may apply. Check this before entering into an agreement with the end customer, and mirror applicable restrictions in relation to the end customer. 
+Please, note also that both Microsoft and the relevant third party may cancel the right to resell the third-party product with 30 days' notice. I.e., this must be mirrored in relation to the end customers.</t>
+  </si>
+  <si>
+    <t>"Product Specific Terms and Conditions", section 11 “Reservation Terms”</t>
+  </si>
+  <si>
+    <t>If a price for an end customer is based on a "reservation", then the reseller should mirror this towards the end customer for the relevant subscription period (and that there is no renewal), and that no prepayment for unused consumption will be refunded.</t>
+  </si>
+  <si>
+    <t>04.44</t>
+  </si>
+  <si>
+    <t>04.45</t>
+  </si>
+  <si>
+    <t>04.46</t>
+  </si>
+  <si>
+    <t>04.47</t>
+  </si>
+  <si>
+    <t>04.48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2338,6 +2832,21 @@
       <color rgb="FF92D050"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2459,10 +2968,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2567,8 +3077,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2881,12 +3410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2962,7 +3490,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3547,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -3076,7 +3604,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
@@ -3133,7 +3661,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3718,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="214.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3775,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3832,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>19</v>
       </c>
@@ -3361,7 +3889,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
@@ -3416,7 +3944,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +3999,7 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
@@ -3526,7 +4054,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +4109,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="146.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -3636,7 +4164,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
@@ -3691,7 +4219,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
@@ -3746,7 +4274,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
@@ -3801,7 +4329,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
@@ -3856,7 +4384,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
@@ -3911,7 +4439,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
@@ -3966,7 +4494,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>95</v>
       </c>
@@ -4021,7 +4549,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>97</v>
       </c>
@@ -4076,7 +4604,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>98</v>
       </c>
@@ -4131,7 +4659,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>99</v>
       </c>
@@ -4186,7 +4714,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
@@ -4243,7 +4771,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
@@ -4300,7 +4828,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
@@ -4357,7 +4885,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
@@ -4414,7 +4942,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
@@ -4469,7 +4997,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +5052,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
@@ -4579,7 +5107,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
@@ -4634,7 +5162,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
@@ -4689,7 +5217,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>39</v>
       </c>
@@ -4744,7 +5272,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
@@ -4799,7 +5327,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>41</v>
       </c>
@@ -4854,7 +5382,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
@@ -4909,7 +5437,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>43</v>
       </c>
@@ -4964,7 +5492,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
@@ -5021,7 +5549,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>45</v>
       </c>
@@ -5078,7 +5606,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>46</v>
       </c>
@@ -5135,7 +5663,7 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
@@ -5192,7 +5720,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -5249,7 +5777,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>49</v>
       </c>
@@ -5304,7 +5832,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
@@ -5359,7 +5887,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>51</v>
       </c>
@@ -5414,7 +5942,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
@@ -5469,7 +5997,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>53</v>
       </c>
@@ -5524,7 +6052,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>54</v>
       </c>
@@ -5579,7 +6107,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
@@ -5634,7 +6162,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>56</v>
       </c>
@@ -5689,7 +6217,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
@@ -5744,7 +6272,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>58</v>
       </c>
@@ -5799,7 +6327,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +6382,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
@@ -5909,7 +6437,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>61</v>
       </c>
@@ -5964,7 +6492,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
@@ -6019,7 +6547,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
@@ -6074,7 +6602,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
@@ -6129,7 +6657,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>65</v>
       </c>
@@ -6184,7 +6712,7 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
@@ -6241,7 +6769,7 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>67</v>
       </c>
@@ -6298,7 +6826,7 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>68</v>
       </c>
@@ -6353,7 +6881,7 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>69</v>
       </c>
@@ -6410,7 +6938,7 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
@@ -6467,7 +6995,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>71</v>
       </c>
@@ -6524,7 +7052,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>72</v>
       </c>
@@ -6581,7 +7109,7 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>73</v>
       </c>
@@ -6636,7 +7164,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
@@ -6691,7 +7219,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>75</v>
       </c>
@@ -6746,7 +7274,7 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>76</v>
       </c>
@@ -6801,7 +7329,7 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>77</v>
       </c>
@@ -6856,7 +7384,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>78</v>
       </c>
@@ -6911,7 +7439,7 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>79</v>
       </c>
@@ -6966,7 +7494,7 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
@@ -7021,7 +7549,7 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
@@ -7076,7 +7604,7 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>82</v>
       </c>
@@ -7131,7 +7659,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>83</v>
       </c>
@@ -7186,7 +7714,7 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>84</v>
       </c>
@@ -7241,7 +7769,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>85</v>
       </c>
@@ -7296,7 +7824,7 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>86</v>
       </c>
@@ -7351,7 +7879,7 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>87</v>
       </c>
@@ -7408,7 +7936,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="112.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>419</v>
       </c>
@@ -7465,7 +7993,7 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" ht="123.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>420</v>
       </c>
@@ -7522,7 +8050,7 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>421</v>
       </c>
@@ -7579,7 +8107,7 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>422</v>
       </c>
@@ -7636,7 +8164,7 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>423</v>
       </c>
@@ -7693,7 +8221,7 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>424</v>
       </c>
@@ -7750,7 +8278,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>425</v>
       </c>
@@ -7807,7 +8335,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>426</v>
       </c>
@@ -7864,7 +8392,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>427</v>
       </c>
@@ -7921,7 +8449,7 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" ht="168.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>428</v>
       </c>
@@ -7978,7 +8506,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>429</v>
       </c>
@@ -8035,7 +8563,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>430</v>
       </c>
@@ -8090,7 +8618,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>431</v>
       </c>
@@ -8145,7 +8673,7 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>432</v>
       </c>
@@ -8200,7 +8728,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>433</v>
       </c>
@@ -8255,7 +8783,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>434</v>
       </c>
@@ -8310,7 +8838,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>435</v>
       </c>
@@ -8365,7 +8893,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>436</v>
       </c>
@@ -8420,7 +8948,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>437</v>
       </c>
@@ -8475,7 +9003,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="67.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>438</v>
       </c>
@@ -8530,7 +9058,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>439</v>
       </c>
@@ -8585,7 +9113,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>102</v>
       </c>
@@ -8640,7 +9168,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>103</v>
       </c>
@@ -8695,7 +9223,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>104</v>
       </c>
@@ -8750,7 +9278,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>105</v>
       </c>
@@ -8805,7 +9333,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>106</v>
       </c>
@@ -8860,7 +9388,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>107</v>
       </c>
@@ -8915,7 +9443,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>108</v>
       </c>
@@ -8970,7 +9498,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>109</v>
       </c>
@@ -9025,7 +9553,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>110</v>
       </c>
@@ -9080,7 +9608,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>111</v>
       </c>
@@ -9135,7 +9663,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
@@ -9190,7 +9718,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>113</v>
       </c>
@@ -9245,7 +9773,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>114</v>
       </c>
@@ -9300,7 +9828,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>115</v>
       </c>
@@ -9355,7 +9883,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>118</v>
       </c>
@@ -9410,7 +9938,7 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
     </row>
-    <row r="118" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>120</v>
       </c>
@@ -9467,7 +9995,7 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
     </row>
-    <row r="119" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>121</v>
       </c>
@@ -9524,7 +10052,7 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
-    <row r="120" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>122</v>
       </c>
@@ -9581,7 +10109,7 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
     </row>
-    <row r="121" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>123</v>
       </c>
@@ -9638,7 +10166,7 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
     </row>
-    <row r="122" spans="1:35" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>124</v>
       </c>
@@ -9695,7 +10223,7 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
     </row>
-    <row r="123" spans="1:35" ht="135" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>125</v>
       </c>
@@ -9752,7 +10280,7 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
     </row>
-    <row r="124" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>126</v>
       </c>
@@ -9809,7 +10337,7 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
     </row>
-    <row r="125" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>127</v>
       </c>
@@ -9864,7 +10392,7 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
     </row>
-    <row r="126" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>128</v>
       </c>
@@ -9919,7 +10447,7 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" ht="191.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>129</v>
       </c>
@@ -9974,7 +10502,7 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
     </row>
-    <row r="128" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>130</v>
       </c>
@@ -10029,7 +10557,7 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>131</v>
       </c>
@@ -10084,7 +10612,7 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
     </row>
-    <row r="130" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>132</v>
       </c>
@@ -10139,7 +10667,7 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>133</v>
       </c>
@@ -10194,7 +10722,7 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
     </row>
-    <row r="132" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>440</v>
       </c>
@@ -10251,7 +10779,7 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
     </row>
-    <row r="133" spans="1:35" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>441</v>
       </c>
@@ -10308,7 +10836,7 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
     </row>
-    <row r="134" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>442</v>
       </c>
@@ -10365,7 +10893,7 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
     </row>
-    <row r="135" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>443</v>
       </c>
@@ -10422,7 +10950,7 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
-    <row r="136" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>444</v>
       </c>
@@ -10479,7 +11007,7 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
     </row>
-    <row r="137" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>445</v>
       </c>
@@ -10536,7 +11064,7 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
     </row>
-    <row r="138" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>446</v>
       </c>
@@ -10593,7 +11121,7 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
     </row>
-    <row r="139" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>447</v>
       </c>
@@ -10650,7 +11178,7 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
     </row>
-    <row r="140" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>448</v>
       </c>
@@ -10707,7 +11235,7 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
     </row>
-    <row r="141" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>449</v>
       </c>
@@ -10764,7 +11292,7 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
     </row>
-    <row r="142" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>450</v>
       </c>
@@ -10819,7 +11347,7 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
     </row>
-    <row r="143" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>451</v>
       </c>
@@ -10874,7 +11402,7 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="2"/>
     </row>
-    <row r="144" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>452</v>
       </c>
@@ -10929,7 +11457,7 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
     </row>
-    <row r="145" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>453</v>
       </c>
@@ -10984,7 +11512,7 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="2"/>
     </row>
-    <row r="146" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>454</v>
       </c>
@@ -11039,7 +11567,7 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="2"/>
     </row>
-    <row r="147" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>455</v>
       </c>
@@ -11094,7 +11622,7 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
     </row>
-    <row r="148" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>456</v>
       </c>
@@ -11149,7 +11677,7 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="2"/>
     </row>
-    <row r="149" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>457</v>
       </c>
@@ -11204,7 +11732,7 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
     </row>
-    <row r="150" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>458</v>
       </c>
@@ -11259,7 +11787,7 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
     </row>
-    <row r="151" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>459</v>
       </c>
@@ -11314,7 +11842,7 @@
       <c r="AH151" s="2"/>
       <c r="AI151" s="2"/>
     </row>
-    <row r="152" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>460</v>
       </c>
@@ -11369,7 +11897,7 @@
       <c r="AH152" s="2"/>
       <c r="AI152" s="2"/>
     </row>
-    <row r="153" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>461</v>
       </c>
@@ -11424,7 +11952,7 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="2"/>
     </row>
-    <row r="154" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>462</v>
       </c>
@@ -11479,7 +12007,7 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="2"/>
     </row>
-    <row r="155" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>463</v>
       </c>
@@ -11536,7 +12064,7 @@
       <c r="AH155" s="2"/>
       <c r="AI155" s="2"/>
     </row>
-    <row r="156" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>464</v>
       </c>
@@ -11593,7 +12121,7 @@
       <c r="AH156" s="2"/>
       <c r="AI156" s="2"/>
     </row>
-    <row r="157" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>465</v>
       </c>
@@ -11650,7 +12178,7 @@
       <c r="AH157" s="2"/>
       <c r="AI157" s="2"/>
     </row>
-    <row r="158" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>466</v>
       </c>
@@ -11707,7 +12235,7 @@
       <c r="AH158" s="2"/>
       <c r="AI158" s="2"/>
     </row>
-    <row r="159" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>467</v>
       </c>
@@ -11764,7 +12292,7 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="2"/>
     </row>
-    <row r="160" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>468</v>
       </c>
@@ -11821,7 +12349,7 @@
       <c r="AH160" s="2"/>
       <c r="AI160" s="2"/>
     </row>
-    <row r="161" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>469</v>
       </c>
@@ -11878,7 +12406,7 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
     </row>
-    <row r="162" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>470</v>
       </c>
@@ -11935,7 +12463,7 @@
       <c r="AH162" s="2"/>
       <c r="AI162" s="2"/>
     </row>
-    <row r="163" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>471</v>
       </c>
@@ -11992,7 +12520,7 @@
       <c r="AH163" s="2"/>
       <c r="AI163" s="2"/>
     </row>
-    <row r="164" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>472</v>
       </c>
@@ -12049,7 +12577,7 @@
       <c r="AH164" s="2"/>
       <c r="AI164" s="2"/>
     </row>
-    <row r="165" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>473</v>
       </c>
@@ -12106,7 +12634,7 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="2"/>
     </row>
-    <row r="166" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>474</v>
       </c>
@@ -12163,7 +12691,7 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="2"/>
     </row>
-    <row r="167" spans="1:35" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>475</v>
       </c>
@@ -12220,7 +12748,7 @@
       <c r="AH167" s="2"/>
       <c r="AI167" s="2"/>
     </row>
-    <row r="168" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>476</v>
       </c>
@@ -12275,7 +12803,7 @@
       <c r="AH168" s="2"/>
       <c r="AI168" s="2"/>
     </row>
-    <row r="169" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>477</v>
       </c>
@@ -12330,7 +12858,7 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
     </row>
-    <row r="170" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>478</v>
       </c>
@@ -12385,7 +12913,7 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>479</v>
       </c>
@@ -12440,7 +12968,7 @@
       <c r="AH171" s="2"/>
       <c r="AI171" s="2"/>
     </row>
-    <row r="172" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>480</v>
       </c>
@@ -12495,7 +13023,7 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
     </row>
-    <row r="173" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>481</v>
       </c>
@@ -12550,7 +13078,7 @@
       <c r="AH173" s="2"/>
       <c r="AI173" s="2"/>
     </row>
-    <row r="174" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>482</v>
       </c>
@@ -12605,7 +13133,7 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>483</v>
       </c>
@@ -12660,7 +13188,7 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
     </row>
-    <row r="176" spans="1:35" ht="236.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>484</v>
       </c>
@@ -12715,7 +13243,7 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
     </row>
-    <row r="177" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>485</v>
       </c>
@@ -12770,7 +13298,7 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
     </row>
-    <row r="178" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>486</v>
       </c>
@@ -12825,7 +13353,7 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
     </row>
-    <row r="179" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>487</v>
       </c>
@@ -12880,7 +13408,7 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
     </row>
-    <row r="180" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>488</v>
       </c>
@@ -12935,7 +13463,7 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="2"/>
     </row>
-    <row r="181" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>489</v>
       </c>
@@ -12990,7 +13518,7 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
     </row>
-    <row r="182" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>490</v>
       </c>
@@ -13045,7 +13573,7 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
     </row>
-    <row r="183" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>491</v>
       </c>
@@ -13100,7 +13628,7 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
     </row>
-    <row r="184" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>492</v>
       </c>
@@ -13155,7 +13683,7 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="2"/>
     </row>
-    <row r="185" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>493</v>
       </c>
@@ -13210,7 +13738,7 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="2"/>
     </row>
-    <row r="186" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>656</v>
       </c>
@@ -14560,7 +15088,7 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
     </row>
-    <row r="210" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>516</v>
       </c>
@@ -14615,7 +15143,7 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
     </row>
-    <row r="211" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>517</v>
       </c>
@@ -14670,7 +15198,7 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="2"/>
     </row>
-    <row r="212" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
         <v>518</v>
       </c>
@@ -14725,7 +15253,7 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="2"/>
     </row>
-    <row r="213" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27" t="s">
         <v>519</v>
       </c>
@@ -14780,7 +15308,7 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
     </row>
-    <row r="214" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27" t="s">
         <v>520</v>
       </c>
@@ -14835,7 +15363,7 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
     </row>
-    <row r="215" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
         <v>521</v>
       </c>
@@ -14890,7 +15418,7 @@
       <c r="AH215" s="2"/>
       <c r="AI215" s="2"/>
     </row>
-    <row r="216" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
         <v>522</v>
       </c>
@@ -14945,7 +15473,7 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="2"/>
     </row>
-    <row r="217" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
         <v>523</v>
       </c>
@@ -15000,7 +15528,7 @@
       <c r="AH217" s="2"/>
       <c r="AI217" s="2"/>
     </row>
-    <row r="218" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
         <v>524</v>
       </c>
@@ -15055,7 +15583,7 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="2"/>
     </row>
-    <row r="219" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>525</v>
       </c>
@@ -15110,7 +15638,7 @@
       <c r="AH219" s="2"/>
       <c r="AI219" s="2"/>
     </row>
-    <row r="220" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
         <v>526</v>
       </c>
@@ -15165,7 +15693,7 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="2"/>
     </row>
-    <row r="221" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
         <v>527</v>
       </c>
@@ -15220,7 +15748,7 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="2"/>
     </row>
-    <row r="222" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
         <v>528</v>
       </c>
@@ -15275,7 +15803,7 @@
       <c r="AH222" s="2"/>
       <c r="AI222" s="2"/>
     </row>
-    <row r="223" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
         <v>529</v>
       </c>
@@ -15330,7 +15858,7 @@
       <c r="AH223" s="2"/>
       <c r="AI223" s="2"/>
     </row>
-    <row r="224" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
         <v>530</v>
       </c>
@@ -15385,17 +15913,39 @@
       <c r="AH224" s="2"/>
       <c r="AI224" s="2"/>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A225" s="9"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
-      <c r="K225" s="10"/>
+    <row r="225" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="8"/>
+      <c r="C225" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H225" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I225" s="36"/>
+      <c r="J225" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K225" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="L225" s="25" t="s">
+        <v>672</v>
+      </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -15420,17 +15970,39 @@
       <c r="AH225" s="2"/>
       <c r="AI225" s="2"/>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-      <c r="K226" s="10"/>
+    <row r="226" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" s="8"/>
+      <c r="C226" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H226" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I226" s="36"/>
+      <c r="J226" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="K226" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="L226" s="37" t="s">
+        <v>675</v>
+      </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -15455,17 +16027,39 @@
       <c r="AH226" s="2"/>
       <c r="AI226" s="2"/>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
-      <c r="I227" s="10"/>
-      <c r="J227" s="10"/>
-      <c r="K227" s="10"/>
+    <row r="227" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="8"/>
+      <c r="C227" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H227" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I227" s="36"/>
+      <c r="J227" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K227" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L227" s="25" t="s">
+        <v>532</v>
+      </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -15490,17 +16084,39 @@
       <c r="AH227" s="2"/>
       <c r="AI227" s="2"/>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
-      <c r="K228" s="10"/>
+    <row r="228" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="8"/>
+      <c r="C228" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H228" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I228" s="36"/>
+      <c r="J228" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K228" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L228" s="25" t="s">
+        <v>533</v>
+      </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -15525,17 +16141,39 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="2"/>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
+    <row r="229" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" s="8"/>
+      <c r="C229" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H229" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I229" s="36"/>
+      <c r="J229" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K229" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L229" s="25" t="s">
+        <v>534</v>
+      </c>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -15560,17 +16198,39 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="2"/>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A230" s="9"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
+    <row r="230" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="8"/>
+      <c r="C230" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H230" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I230" s="36"/>
+      <c r="J230" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="K230" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="L230" s="25" t="s">
+        <v>658</v>
+      </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -15595,17 +16255,39 @@
       <c r="AH230" s="2"/>
       <c r="AI230" s="2"/>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A231" s="9"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-      <c r="K231" s="10"/>
+    <row r="231" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="8"/>
+      <c r="C231" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H231" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I231" s="36"/>
+      <c r="J231" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K231" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="L231" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -15630,17 +16312,39 @@
       <c r="AH231" s="2"/>
       <c r="AI231" s="2"/>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-      <c r="K232" s="10"/>
+    <row r="232" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="8"/>
+      <c r="C232" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H232" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I232" s="36"/>
+      <c r="J232" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="K232" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="L232" s="25" t="s">
+        <v>154</v>
+      </c>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -15665,17 +16369,37 @@
       <c r="AH232" s="2"/>
       <c r="AI232" s="2"/>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-      <c r="K233" s="10"/>
+    <row r="233" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="8"/>
+      <c r="C233" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H233" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I233" s="36"/>
+      <c r="J233" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="K233" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L233" s="8"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -15700,17 +16424,37 @@
       <c r="AH233" s="2"/>
       <c r="AI233" s="2"/>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A234" s="9"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-      <c r="K234" s="10"/>
+    <row r="234" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="8"/>
+      <c r="C234" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H234" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I234" s="36"/>
+      <c r="J234" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="K234" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="L234" s="8"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -15735,17 +16479,37 @@
       <c r="AH234" s="2"/>
       <c r="AI234" s="2"/>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A235" s="9"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
-      <c r="H235" s="10"/>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="10"/>
+    <row r="235" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="8"/>
+      <c r="C235" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H235" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I235" s="36"/>
+      <c r="J235" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="K235" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L235" s="8"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -15770,17 +16534,37 @@
       <c r="AH235" s="2"/>
       <c r="AI235" s="2"/>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A236" s="9"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="10"/>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
-      <c r="K236" s="10"/>
+    <row r="236" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="8"/>
+      <c r="C236" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H236" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I236" s="36"/>
+      <c r="J236" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="K236" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L236" s="8"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -15805,17 +16589,37 @@
       <c r="AH236" s="2"/>
       <c r="AI236" s="2"/>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A237" s="9"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
+    <row r="237" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="8"/>
+      <c r="C237" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H237" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I237" s="36"/>
+      <c r="J237" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="K237" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L237" s="8"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -15840,17 +16644,37 @@
       <c r="AH237" s="2"/>
       <c r="AI237" s="2"/>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-      <c r="K238" s="10"/>
+    <row r="238" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="8"/>
+      <c r="C238" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H238" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I238" s="36"/>
+      <c r="J238" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="K238" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="L238" s="8"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -15875,17 +16699,37 @@
       <c r="AH238" s="2"/>
       <c r="AI238" s="2"/>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A239" s="9"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="10"/>
+    <row r="239" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="8"/>
+      <c r="C239" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H239" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I239" s="36"/>
+      <c r="J239" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="K239" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L239" s="8"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -15910,17 +16754,37 @@
       <c r="AH239" s="2"/>
       <c r="AI239" s="2"/>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A240" s="9"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="10"/>
+    <row r="240" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="8"/>
+      <c r="C240" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H240" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I240" s="36"/>
+      <c r="J240" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="K240" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L240" s="8"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -15945,17 +16809,37 @@
       <c r="AH240" s="2"/>
       <c r="AI240" s="2"/>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A241" s="9"/>
-      <c r="B241" s="10"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
+    <row r="241" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="8"/>
+      <c r="C241" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H241" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I241" s="36"/>
+      <c r="J241" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="K241" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L241" s="8"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -15980,17 +16864,37 @@
       <c r="AH241" s="2"/>
       <c r="AI241" s="2"/>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A242" s="9"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
-      <c r="K242" s="10"/>
+    <row r="242" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B242" s="8"/>
+      <c r="C242" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H242" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I242" s="36"/>
+      <c r="J242" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="K242" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L242" s="8"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -16015,17 +16919,37 @@
       <c r="AH242" s="2"/>
       <c r="AI242" s="2"/>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A243" s="9"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
+    <row r="243" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B243" s="8"/>
+      <c r="C243" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H243" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I243" s="36"/>
+      <c r="J243" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="K243" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L243" s="8"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -16050,17 +16974,37 @@
       <c r="AH243" s="2"/>
       <c r="AI243" s="2"/>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A244" s="9"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
+    <row r="244" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B244" s="8"/>
+      <c r="C244" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H244" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I244" s="36"/>
+      <c r="J244" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="K244" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="L244" s="8"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -16085,17 +17029,37 @@
       <c r="AH244" s="2"/>
       <c r="AI244" s="2"/>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A245" s="9"/>
-      <c r="B245" s="10"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
+    <row r="245" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B245" s="8"/>
+      <c r="C245" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H245" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I245" s="36"/>
+      <c r="J245" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K245" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L245" s="8"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -16120,17 +17084,39 @@
       <c r="AH245" s="2"/>
       <c r="AI245" s="2"/>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A246" s="9"/>
-      <c r="B246" s="10"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-      <c r="K246" s="10"/>
+    <row r="246" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="8"/>
+      <c r="C246" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H246" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I246" s="36"/>
+      <c r="J246" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="K246" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L246" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -16155,17 +17141,39 @@
       <c r="AH246" s="2"/>
       <c r="AI246" s="2"/>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A247" s="9"/>
-      <c r="B247" s="10"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
+    <row r="247" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B247" s="8"/>
+      <c r="C247" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H247" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I247" s="36"/>
+      <c r="J247" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="K247" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L247" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -16190,17 +17198,39 @@
       <c r="AH247" s="2"/>
       <c r="AI247" s="2"/>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-      <c r="K248" s="10"/>
+    <row r="248" spans="1:35" ht="203.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" s="8"/>
+      <c r="C248" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H248" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I248" s="36"/>
+      <c r="J248" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="K248" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="L248" s="25" t="s">
+        <v>698</v>
+      </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -16225,17 +17255,39 @@
       <c r="AH248" s="2"/>
       <c r="AI248" s="2"/>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
-      <c r="K249" s="10"/>
+    <row r="249" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" s="8"/>
+      <c r="C249" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H249" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I249" s="36"/>
+      <c r="J249" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="K249" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="L249" s="25" t="s">
+        <v>193</v>
+      </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -16260,17 +17312,39 @@
       <c r="AH249" s="2"/>
       <c r="AI249" s="2"/>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="10"/>
+    <row r="250" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B250" s="8"/>
+      <c r="C250" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H250" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I250" s="36"/>
+      <c r="J250" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="K250" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L250" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -16295,17 +17369,37 @@
       <c r="AH250" s="2"/>
       <c r="AI250" s="2"/>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A251" s="9"/>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
-      <c r="K251" s="10"/>
+    <row r="251" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B251" s="8"/>
+      <c r="C251" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H251" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I251" s="36"/>
+      <c r="J251" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="K251" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="L251" s="8"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -16330,17 +17424,37 @@
       <c r="AH251" s="2"/>
       <c r="AI251" s="2"/>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A252" s="9"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
-      <c r="K252" s="10"/>
+    <row r="252" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" s="8"/>
+      <c r="C252" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H252" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I252" s="36"/>
+      <c r="J252" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K252" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L252" s="8"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -16365,17 +17479,37 @@
       <c r="AH252" s="2"/>
       <c r="AI252" s="2"/>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A253" s="9"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="10"/>
+    <row r="253" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B253" s="8"/>
+      <c r="C253" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H253" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I253" s="36"/>
+      <c r="J253" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="K253" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="L253" s="8"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -16400,17 +17534,37 @@
       <c r="AH253" s="2"/>
       <c r="AI253" s="2"/>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10"/>
-      <c r="J254" s="10"/>
-      <c r="K254" s="10"/>
+    <row r="254" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B254" s="8"/>
+      <c r="C254" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H254" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I254" s="36"/>
+      <c r="J254" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K254" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="L254" s="8"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -16435,17 +17589,37 @@
       <c r="AH254" s="2"/>
       <c r="AI254" s="2"/>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A255" s="9"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
+    <row r="255" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" s="8"/>
+      <c r="C255" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H255" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I255" s="36"/>
+      <c r="J255" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="K255" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="L255" s="8"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -16470,17 +17644,37 @@
       <c r="AH255" s="2"/>
       <c r="AI255" s="2"/>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A256" s="9"/>
-      <c r="B256" s="10"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
-      <c r="K256" s="10"/>
+    <row r="256" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B256" s="8"/>
+      <c r="C256" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H256" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I256" s="36"/>
+      <c r="J256" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="K256" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L256" s="8"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -16505,17 +17699,37 @@
       <c r="AH256" s="2"/>
       <c r="AI256" s="2"/>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A257" s="9"/>
-      <c r="B257" s="10"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="10"/>
+    <row r="257" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" s="8"/>
+      <c r="C257" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H257" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I257" s="36"/>
+      <c r="J257" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="K257" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L257" s="8"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -16540,17 +17754,37 @@
       <c r="AH257" s="2"/>
       <c r="AI257" s="2"/>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A258" s="9"/>
-      <c r="B258" s="10"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-      <c r="K258" s="10"/>
+    <row r="258" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B258" s="8"/>
+      <c r="C258" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H258" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I258" s="36"/>
+      <c r="J258" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="K258" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="L258" s="8"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -16575,17 +17809,37 @@
       <c r="AH258" s="2"/>
       <c r="AI258" s="2"/>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A259" s="9"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
+    <row r="259" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B259" s="8"/>
+      <c r="C259" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H259" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I259" s="36"/>
+      <c r="J259" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="K259" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L259" s="21"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -16610,17 +17864,39 @@
       <c r="AH259" s="2"/>
       <c r="AI259" s="2"/>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A260" s="9"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
+    <row r="260" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B260" s="8"/>
+      <c r="C260" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H260" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I260" s="36"/>
+      <c r="J260" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="K260" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="L260" s="25" t="s">
+        <v>219</v>
+      </c>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -16645,17 +17921,39 @@
       <c r="AH260" s="2"/>
       <c r="AI260" s="2"/>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A261" s="9"/>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
+    <row r="261" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" s="8"/>
+      <c r="C261" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H261" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I261" s="36"/>
+      <c r="J261" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K261" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="L261" s="25" t="s">
+        <v>222</v>
+      </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -16680,17 +17978,39 @@
       <c r="AH261" s="2"/>
       <c r="AI261" s="2"/>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
-      <c r="B262" s="10"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
+    <row r="262" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B262" s="8"/>
+      <c r="C262" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H262" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I262" s="36"/>
+      <c r="J262" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="K262" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="L262" s="25" t="s">
+        <v>225</v>
+      </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -16715,17 +18035,39 @@
       <c r="AH262" s="2"/>
       <c r="AI262" s="2"/>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
-      <c r="B263" s="10"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-      <c r="K263" s="10"/>
+    <row r="263" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B263" s="8"/>
+      <c r="C263" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H263" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I263" s="36"/>
+      <c r="J263" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="K263" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L263" s="25" t="s">
+        <v>228</v>
+      </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -16750,17 +18092,39 @@
       <c r="AH263" s="2"/>
       <c r="AI263" s="2"/>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
+    <row r="264" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B264" s="8"/>
+      <c r="C264" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G264" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H264" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I264" s="36"/>
+      <c r="J264" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="K264" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="L264" s="37" t="s">
+        <v>231</v>
+      </c>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -16785,17 +18149,37 @@
       <c r="AH264" s="2"/>
       <c r="AI264" s="2"/>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A265" s="9"/>
-      <c r="B265" s="10"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="J265" s="10"/>
-      <c r="K265" s="10"/>
+    <row r="265" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B265" s="8"/>
+      <c r="C265" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I265" s="36"/>
+      <c r="J265" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K265" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="L265" s="8"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -16820,17 +18204,37 @@
       <c r="AH265" s="2"/>
       <c r="AI265" s="2"/>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A266" s="9"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
+    <row r="266" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" s="8"/>
+      <c r="C266" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H266" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I266" s="36"/>
+      <c r="J266" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K266" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="L266" s="8"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
@@ -16855,17 +18259,37 @@
       <c r="AH266" s="2"/>
       <c r="AI266" s="2"/>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A267" s="9"/>
-      <c r="B267" s="10"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10"/>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
+    <row r="267" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B267" s="8"/>
+      <c r="C267" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H267" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I267" s="36"/>
+      <c r="J267" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="K267" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L267" s="8"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -16890,17 +18314,37 @@
       <c r="AH267" s="2"/>
       <c r="AI267" s="2"/>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A268" s="9"/>
-      <c r="B268" s="10"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
+    <row r="268" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B268" s="8"/>
+      <c r="C268" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H268" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I268" s="36"/>
+      <c r="J268" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="K268" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L268" s="8"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -16925,17 +18369,37 @@
       <c r="AH268" s="2"/>
       <c r="AI268" s="2"/>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
+    <row r="269" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B269" s="8"/>
+      <c r="C269" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G269" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H269" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I269" s="36"/>
+      <c r="J269" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="K269" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="L269" s="8"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -16960,17 +18424,37 @@
       <c r="AH269" s="2"/>
       <c r="AI269" s="2"/>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A270" s="9"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
+    <row r="270" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B270" s="8"/>
+      <c r="C270" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H270" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I270" s="36"/>
+      <c r="J270" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K270" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="L270" s="8"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -16995,17 +18479,37 @@
       <c r="AH270" s="2"/>
       <c r="AI270" s="2"/>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A271" s="9"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-      <c r="K271" s="10"/>
+    <row r="271" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H271" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I271" s="36"/>
+      <c r="J271" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K271" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="L271" s="8"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -17030,17 +18534,37 @@
       <c r="AH271" s="2"/>
       <c r="AI271" s="2"/>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A272" s="9"/>
-      <c r="B272" s="10"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-      <c r="K272" s="10"/>
+    <row r="272" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="8"/>
+      <c r="C272" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H272" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I272" s="36"/>
+      <c r="J272" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="K272" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="L272" s="8"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -17065,17 +18589,37 @@
       <c r="AH272" s="2"/>
       <c r="AI272" s="2"/>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A273" s="9"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
+    <row r="273" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G273" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H273" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I273" s="36"/>
+      <c r="J273" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="K273" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L273" s="8"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -17100,17 +18644,37 @@
       <c r="AH273" s="2"/>
       <c r="AI273" s="2"/>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
-      <c r="J274" s="10"/>
-      <c r="K274" s="10"/>
+    <row r="274" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B274" s="8"/>
+      <c r="C274" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H274" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I274" s="36"/>
+      <c r="J274" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="K274" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="L274" s="8"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -17135,17 +18699,37 @@
       <c r="AH274" s="2"/>
       <c r="AI274" s="2"/>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A275" s="9"/>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
-      <c r="H275" s="10"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
+    <row r="275" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B275" s="8"/>
+      <c r="C275" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H275" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I275" s="36"/>
+      <c r="J275" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="K275" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="L275" s="8"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -17170,17 +18754,37 @@
       <c r="AH275" s="2"/>
       <c r="AI275" s="2"/>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A276" s="9"/>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
-      <c r="I276" s="10"/>
-      <c r="J276" s="10"/>
-      <c r="K276" s="10"/>
+    <row r="276" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B276" s="8"/>
+      <c r="C276" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H276" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I276" s="36"/>
+      <c r="J276" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K276" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="L276" s="8"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
@@ -17205,17 +18809,37 @@
       <c r="AH276" s="2"/>
       <c r="AI276" s="2"/>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A277" s="9"/>
-      <c r="B277" s="10"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-      <c r="K277" s="10"/>
+    <row r="277" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B277" s="8"/>
+      <c r="C277" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H277" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I277" s="36"/>
+      <c r="J277" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="K277" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="L277" s="8"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -17240,17 +18864,37 @@
       <c r="AH277" s="2"/>
       <c r="AI277" s="2"/>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A278" s="9"/>
-      <c r="B278" s="10"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="F278" s="10"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
-      <c r="I278" s="10"/>
-      <c r="J278" s="10"/>
-      <c r="K278" s="10"/>
+    <row r="278" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B278" s="8"/>
+      <c r="C278" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H278" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I278" s="36"/>
+      <c r="J278" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="K278" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="L278" s="8"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -17275,17 +18919,37 @@
       <c r="AH278" s="2"/>
       <c r="AI278" s="2"/>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A279" s="9"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="10"/>
-      <c r="J279" s="10"/>
-      <c r="K279" s="10"/>
+    <row r="279" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B279" s="8"/>
+      <c r="C279" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H279" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I279" s="36"/>
+      <c r="J279" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="K279" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="L279" s="8"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -17310,17 +18974,37 @@
       <c r="AH279" s="2"/>
       <c r="AI279" s="2"/>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A280" s="9"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
-      <c r="J280" s="10"/>
-      <c r="K280" s="10"/>
+    <row r="280" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B280" s="8"/>
+      <c r="C280" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H280" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I280" s="36"/>
+      <c r="J280" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="K280" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="L280" s="8"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -17345,17 +19029,37 @@
       <c r="AH280" s="2"/>
       <c r="AI280" s="2"/>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A281" s="9"/>
-      <c r="B281" s="10"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
-      <c r="F281" s="10"/>
-      <c r="G281" s="10"/>
-      <c r="H281" s="10"/>
-      <c r="I281" s="10"/>
-      <c r="J281" s="10"/>
-      <c r="K281" s="10"/>
+    <row r="281" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B281" s="8"/>
+      <c r="C281" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H281" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I281" s="36"/>
+      <c r="J281" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="K281" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="L281" s="21"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
@@ -17380,17 +19084,39 @@
       <c r="AH281" s="2"/>
       <c r="AI281" s="2"/>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A282" s="9"/>
-      <c r="B282" s="10"/>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
-      <c r="J282" s="10"/>
-      <c r="K282" s="10"/>
+    <row r="282" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" s="8"/>
+      <c r="C282" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G282" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H282" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I282" s="36"/>
+      <c r="J282" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="K282" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="L282" s="25" t="s">
+        <v>545</v>
+      </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -17415,17 +19141,39 @@
       <c r="AH282" s="2"/>
       <c r="AI282" s="2"/>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A283" s="9"/>
-      <c r="B283" s="10"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
-      <c r="H283" s="10"/>
-      <c r="I283" s="10"/>
-      <c r="J283" s="10"/>
-      <c r="K283" s="10"/>
+    <row r="283" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B283" s="8"/>
+      <c r="C283" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H283" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I283" s="36"/>
+      <c r="J283" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K283" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="L283" s="25" t="s">
+        <v>739</v>
+      </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -17450,17 +19198,39 @@
       <c r="AH283" s="2"/>
       <c r="AI283" s="2"/>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A284" s="9"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
-      <c r="I284" s="10"/>
-      <c r="J284" s="10"/>
-      <c r="K284" s="10"/>
+    <row r="284" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B284" s="8"/>
+      <c r="C284" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H284" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I284" s="36"/>
+      <c r="J284" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="K284" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="L284" s="25" t="s">
+        <v>740</v>
+      </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -17485,17 +19255,37 @@
       <c r="AH284" s="2"/>
       <c r="AI284" s="2"/>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A285" s="9"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
-      <c r="H285" s="10"/>
-      <c r="I285" s="10"/>
-      <c r="J285" s="10"/>
-      <c r="K285" s="10"/>
+    <row r="285" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B285" s="8"/>
+      <c r="C285" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H285" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I285" s="36"/>
+      <c r="J285" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K285" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="L285" s="21"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -17520,17 +19310,39 @@
       <c r="AH285" s="2"/>
       <c r="AI285" s="2"/>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A286" s="9"/>
-      <c r="B286" s="10"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
-      <c r="H286" s="10"/>
-      <c r="I286" s="10"/>
-      <c r="J286" s="10"/>
-      <c r="K286" s="10"/>
+    <row r="286" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B286" s="8"/>
+      <c r="C286" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H286" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I286" s="36"/>
+      <c r="J286" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="K286" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="L286" s="25" t="s">
+        <v>276</v>
+      </c>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
@@ -17555,17 +19367,39 @@
       <c r="AH286" s="2"/>
       <c r="AI286" s="2"/>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A287" s="9"/>
-      <c r="B287" s="10"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
-      <c r="J287" s="10"/>
-      <c r="K287" s="10"/>
+    <row r="287" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B287" s="8"/>
+      <c r="C287" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H287" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I287" s="36"/>
+      <c r="J287" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="K287" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="L287" s="25" t="s">
+        <v>745</v>
+      </c>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -17590,17 +19424,39 @@
       <c r="AH287" s="2"/>
       <c r="AI287" s="2"/>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A288" s="9"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
+    <row r="288" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B288" s="8"/>
+      <c r="C288" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H288" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I288" s="36"/>
+      <c r="J288" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="K288" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="L288" s="25" t="s">
+        <v>282</v>
+      </c>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
@@ -17625,17 +19481,39 @@
       <c r="AH288" s="2"/>
       <c r="AI288" s="2"/>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
-      <c r="B289" s="10"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-      <c r="H289" s="10"/>
-      <c r="I289" s="10"/>
-      <c r="J289" s="10"/>
-      <c r="K289" s="10"/>
+    <row r="289" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B289" s="8"/>
+      <c r="C289" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H289" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I289" s="36"/>
+      <c r="J289" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K289" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="L289" s="25" t="s">
+        <v>285</v>
+      </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -17660,17 +19538,37 @@
       <c r="AH289" s="2"/>
       <c r="AI289" s="2"/>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
-      <c r="J290" s="10"/>
-      <c r="K290" s="10"/>
+    <row r="290" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B290" s="8"/>
+      <c r="C290" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H290" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I290" s="36"/>
+      <c r="J290" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="K290" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="L290" s="8"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -17695,17 +19593,37 @@
       <c r="AH290" s="2"/>
       <c r="AI290" s="2"/>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A291" s="9"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
+    <row r="291" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B291" s="8"/>
+      <c r="C291" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H291" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I291" s="36"/>
+      <c r="J291" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K291" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="L291" s="8"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -17730,17 +19648,37 @@
       <c r="AH291" s="2"/>
       <c r="AI291" s="2"/>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A292" s="9"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-      <c r="K292" s="10"/>
+    <row r="292" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B292" s="8"/>
+      <c r="C292" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H292" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I292" s="36"/>
+      <c r="J292" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="K292" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="L292" s="8"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
@@ -17765,17 +19703,37 @@
       <c r="AH292" s="2"/>
       <c r="AI292" s="2"/>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A293" s="9"/>
-      <c r="B293" s="10"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
-      <c r="H293" s="10"/>
-      <c r="I293" s="10"/>
-      <c r="J293" s="10"/>
-      <c r="K293" s="10"/>
+    <row r="293" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B293" s="8"/>
+      <c r="C293" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H293" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I293" s="36"/>
+      <c r="J293" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="K293" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="L293" s="8"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
@@ -17800,17 +19758,37 @@
       <c r="AH293" s="2"/>
       <c r="AI293" s="2"/>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A294" s="9"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
-      <c r="H294" s="10"/>
-      <c r="I294" s="10"/>
-      <c r="J294" s="10"/>
-      <c r="K294" s="10"/>
+    <row r="294" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B294" s="8"/>
+      <c r="C294" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H294" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I294" s="36"/>
+      <c r="J294" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="K294" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="L294" s="8"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -17835,17 +19813,37 @@
       <c r="AH294" s="2"/>
       <c r="AI294" s="2"/>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A295" s="9"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-      <c r="H295" s="10"/>
-      <c r="I295" s="10"/>
-      <c r="J295" s="10"/>
-      <c r="K295" s="10"/>
+    <row r="295" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B295" s="8"/>
+      <c r="C295" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H295" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I295" s="36"/>
+      <c r="J295" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="K295" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="L295" s="8"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -17870,17 +19868,37 @@
       <c r="AH295" s="2"/>
       <c r="AI295" s="2"/>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="10"/>
-      <c r="I296" s="10"/>
-      <c r="J296" s="10"/>
-      <c r="K296" s="10"/>
+    <row r="296" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B296" s="8"/>
+      <c r="C296" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H296" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I296" s="36"/>
+      <c r="J296" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="K296" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="L296" s="8"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -17905,17 +19923,37 @@
       <c r="AH296" s="2"/>
       <c r="AI296" s="2"/>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A297" s="9"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="10"/>
-      <c r="H297" s="10"/>
-      <c r="I297" s="10"/>
-      <c r="J297" s="10"/>
-      <c r="K297" s="10"/>
+    <row r="297" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B297" s="8"/>
+      <c r="C297" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H297" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I297" s="36"/>
+      <c r="J297" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="K297" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="L297" s="8"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -17940,17 +19978,37 @@
       <c r="AH297" s="2"/>
       <c r="AI297" s="2"/>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A298" s="9"/>
-      <c r="B298" s="10"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="10"/>
-      <c r="H298" s="10"/>
-      <c r="I298" s="10"/>
-      <c r="J298" s="10"/>
-      <c r="K298" s="10"/>
+    <row r="298" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B298" s="8"/>
+      <c r="C298" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H298" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I298" s="36"/>
+      <c r="J298" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="K298" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="L298" s="8"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
@@ -17975,17 +20033,37 @@
       <c r="AH298" s="2"/>
       <c r="AI298" s="2"/>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A299" s="9"/>
-      <c r="B299" s="10"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
-      <c r="H299" s="10"/>
-      <c r="I299" s="10"/>
-      <c r="J299" s="10"/>
-      <c r="K299" s="10"/>
+    <row r="299" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B299" s="8"/>
+      <c r="C299" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G299" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H299" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I299" s="36"/>
+      <c r="J299" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="K299" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="L299" s="8"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -18010,17 +20088,37 @@
       <c r="AH299" s="2"/>
       <c r="AI299" s="2"/>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A300" s="9"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="10"/>
-      <c r="I300" s="10"/>
-      <c r="J300" s="10"/>
-      <c r="K300" s="10"/>
+    <row r="300" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B300" s="8"/>
+      <c r="C300" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H300" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I300" s="36"/>
+      <c r="J300" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="K300" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="L300" s="8"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
@@ -18045,17 +20143,37 @@
       <c r="AH300" s="2"/>
       <c r="AI300" s="2"/>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A301" s="9"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10"/>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="10"/>
+    <row r="301" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B301" s="8"/>
+      <c r="C301" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G301" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H301" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I301" s="36"/>
+      <c r="J301" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K301" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="L301" s="8"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -18080,17 +20198,37 @@
       <c r="AH301" s="2"/>
       <c r="AI301" s="2"/>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A302" s="9"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-      <c r="K302" s="10"/>
+    <row r="302" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B302" s="8"/>
+      <c r="C302" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H302" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I302" s="36"/>
+      <c r="J302" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K302" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="L302" s="8"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
@@ -18115,17 +20253,37 @@
       <c r="AH302" s="2"/>
       <c r="AI302" s="2"/>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A303" s="9"/>
-      <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10"/>
-      <c r="H303" s="10"/>
-      <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-      <c r="K303" s="10"/>
+    <row r="303" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B303" s="8"/>
+      <c r="C303" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H303" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I303" s="36"/>
+      <c r="J303" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="K303" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="L303" s="8"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
@@ -18150,17 +20308,37 @@
       <c r="AH303" s="2"/>
       <c r="AI303" s="2"/>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A304" s="9"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
-      <c r="J304" s="10"/>
-      <c r="K304" s="10"/>
+    <row r="304" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B304" s="8"/>
+      <c r="C304" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G304" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H304" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I304" s="36"/>
+      <c r="J304" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K304" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="L304" s="8"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
@@ -18185,17 +20363,39 @@
       <c r="AH304" s="2"/>
       <c r="AI304" s="2"/>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A305" s="9"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="10"/>
-      <c r="H305" s="10"/>
-      <c r="I305" s="10"/>
-      <c r="J305" s="10"/>
-      <c r="K305" s="10"/>
+    <row r="305" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B305" s="8"/>
+      <c r="C305" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H305" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I305" s="36"/>
+      <c r="J305" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="K305" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="L305" s="37" t="s">
+        <v>618</v>
+      </c>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -18220,17 +20420,39 @@
       <c r="AH305" s="2"/>
       <c r="AI305" s="2"/>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A306" s="9"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="10"/>
-      <c r="I306" s="10"/>
-      <c r="J306" s="10"/>
-      <c r="K306" s="10"/>
+    <row r="306" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B306" s="8"/>
+      <c r="C306" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H306" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I306" s="36"/>
+      <c r="J306" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="K306" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="L306" s="25" t="s">
+        <v>317</v>
+      </c>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
@@ -18255,17 +20477,39 @@
       <c r="AH306" s="2"/>
       <c r="AI306" s="2"/>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A307" s="9"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
-      <c r="H307" s="10"/>
-      <c r="I307" s="10"/>
-      <c r="J307" s="10"/>
-      <c r="K307" s="10"/>
+    <row r="307" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B307" s="8"/>
+      <c r="C307" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H307" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I307" s="36"/>
+      <c r="J307" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="K307" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="L307" s="25" t="s">
+        <v>320</v>
+      </c>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -18290,17 +20534,39 @@
       <c r="AH307" s="2"/>
       <c r="AI307" s="2"/>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A308" s="9"/>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
-      <c r="H308" s="10"/>
-      <c r="I308" s="10"/>
-      <c r="J308" s="10"/>
-      <c r="K308" s="10"/>
+    <row r="308" spans="1:35" ht="248.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B308" s="8"/>
+      <c r="C308" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H308" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I308" s="36"/>
+      <c r="J308" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="K308" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="L308" s="39" t="s">
+        <v>660</v>
+      </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
@@ -18325,17 +20591,39 @@
       <c r="AH308" s="2"/>
       <c r="AI308" s="2"/>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A309" s="9"/>
-      <c r="B309" s="10"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10"/>
-      <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="10"/>
-      <c r="I309" s="10"/>
-      <c r="J309" s="10"/>
-      <c r="K309" s="10"/>
+    <row r="309" spans="1:35" ht="315.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B309" s="8"/>
+      <c r="C309" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H309" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I309" s="36"/>
+      <c r="J309" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="K309" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="L309" s="25" t="s">
+        <v>775</v>
+      </c>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
@@ -18360,17 +20648,39 @@
       <c r="AH309" s="2"/>
       <c r="AI309" s="2"/>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A310" s="9"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="F310" s="10"/>
-      <c r="G310" s="10"/>
-      <c r="H310" s="10"/>
-      <c r="I310" s="10"/>
-      <c r="J310" s="10"/>
-      <c r="K310" s="10"/>
+    <row r="310" spans="1:35" ht="394.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B310" s="8"/>
+      <c r="C310" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H310" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I310" s="36"/>
+      <c r="J310" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="K310" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="L310" s="25" t="s">
+        <v>777</v>
+      </c>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
@@ -18395,17 +20705,39 @@
       <c r="AH310" s="2"/>
       <c r="AI310" s="2"/>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A311" s="9"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
-      <c r="F311" s="10"/>
-      <c r="G311" s="10"/>
-      <c r="H311" s="10"/>
-      <c r="I311" s="10"/>
-      <c r="J311" s="10"/>
-      <c r="K311" s="10"/>
+    <row r="311" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B311" s="8"/>
+      <c r="C311" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G311" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H311" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I311" s="36"/>
+      <c r="J311" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K311" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="L311" s="25" t="s">
+        <v>779</v>
+      </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
@@ -18430,17 +20762,39 @@
       <c r="AH311" s="2"/>
       <c r="AI311" s="2"/>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A312" s="9"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="10"/>
-      <c r="I312" s="10"/>
-      <c r="J312" s="10"/>
-      <c r="K312" s="10"/>
+    <row r="312" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B312" s="8"/>
+      <c r="C312" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H312" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I312" s="36"/>
+      <c r="J312" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="K312" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="L312" s="25" t="s">
+        <v>335</v>
+      </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
@@ -18465,17 +20819,39 @@
       <c r="AH312" s="2"/>
       <c r="AI312" s="2"/>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A313" s="9"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="10"/>
-      <c r="F313" s="10"/>
-      <c r="G313" s="10"/>
-      <c r="H313" s="10"/>
-      <c r="I313" s="10"/>
-      <c r="J313" s="10"/>
-      <c r="K313" s="10"/>
+    <row r="313" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B313" s="8"/>
+      <c r="C313" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H313" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I313" s="36"/>
+      <c r="J313" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K313" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="L313" s="25" t="s">
+        <v>664</v>
+      </c>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -18500,17 +20876,39 @@
       <c r="AH313" s="2"/>
       <c r="AI313" s="2"/>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A314" s="9"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="F314" s="10"/>
-      <c r="G314" s="10"/>
-      <c r="H314" s="10"/>
-      <c r="I314" s="10"/>
-      <c r="J314" s="10"/>
-      <c r="K314" s="10"/>
+    <row r="314" spans="1:35" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B314" s="8"/>
+      <c r="C314" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H314" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I314" s="36"/>
+      <c r="J314" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="K314" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="L314" s="39" t="s">
+        <v>665</v>
+      </c>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -18535,17 +20933,39 @@
       <c r="AH314" s="2"/>
       <c r="AI314" s="2"/>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A315" s="9"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10"/>
-      <c r="H315" s="10"/>
-      <c r="I315" s="10"/>
-      <c r="J315" s="10"/>
-      <c r="K315" s="10"/>
+    <row r="315" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B315" s="8"/>
+      <c r="C315" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H315" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I315" s="36"/>
+      <c r="J315" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="K315" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="L315" s="25" t="s">
+        <v>784</v>
+      </c>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
@@ -18570,17 +20990,39 @@
       <c r="AH315" s="2"/>
       <c r="AI315" s="2"/>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A316" s="9"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="10"/>
-      <c r="I316" s="10"/>
-      <c r="J316" s="10"/>
-      <c r="K316" s="10"/>
+    <row r="316" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B316" s="8"/>
+      <c r="C316" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G316" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H316" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I316" s="36"/>
+      <c r="J316" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K316" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="L316" s="25" t="s">
+        <v>666</v>
+      </c>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
@@ -18605,17 +21047,39 @@
       <c r="AH316" s="2"/>
       <c r="AI316" s="2"/>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A317" s="9"/>
-      <c r="B317" s="10"/>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10"/>
-      <c r="H317" s="10"/>
-      <c r="I317" s="10"/>
-      <c r="J317" s="10"/>
-      <c r="K317" s="10"/>
+    <row r="317" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B317" s="8"/>
+      <c r="C317" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H317" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I317" s="36"/>
+      <c r="J317" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="K317" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="L317" s="37" t="s">
+        <v>639</v>
+      </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
@@ -18640,17 +21104,37 @@
       <c r="AH317" s="2"/>
       <c r="AI317" s="2"/>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A318" s="9"/>
-      <c r="B318" s="10"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="F318" s="10"/>
-      <c r="G318" s="10"/>
-      <c r="H318" s="10"/>
-      <c r="I318" s="10"/>
-      <c r="J318" s="10"/>
-      <c r="K318" s="10"/>
+    <row r="318" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B318" s="8"/>
+      <c r="C318" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H318" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I318" s="36"/>
+      <c r="J318" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="K318" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="L318" s="8"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
@@ -18675,17 +21159,37 @@
       <c r="AH318" s="2"/>
       <c r="AI318" s="2"/>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A319" s="9"/>
-      <c r="B319" s="10"/>
-      <c r="C319" s="10"/>
-      <c r="D319" s="10"/>
-      <c r="F319" s="10"/>
-      <c r="G319" s="10"/>
-      <c r="H319" s="10"/>
-      <c r="I319" s="10"/>
-      <c r="J319" s="10"/>
-      <c r="K319" s="10"/>
+    <row r="319" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B319" s="8"/>
+      <c r="C319" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H319" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I319" s="36"/>
+      <c r="J319" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="K319" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="L319" s="8"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -18710,17 +21214,37 @@
       <c r="AH319" s="2"/>
       <c r="AI319" s="2"/>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A320" s="9"/>
-      <c r="B320" s="10"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="F320" s="10"/>
-      <c r="G320" s="10"/>
-      <c r="H320" s="10"/>
-      <c r="I320" s="10"/>
-      <c r="J320" s="10"/>
-      <c r="K320" s="10"/>
+    <row r="320" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B320" s="8"/>
+      <c r="C320" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H320" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I320" s="36"/>
+      <c r="J320" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="K320" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="L320" s="8"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -18745,17 +21269,37 @@
       <c r="AH320" s="2"/>
       <c r="AI320" s="2"/>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A321" s="9"/>
-      <c r="B321" s="10"/>
-      <c r="C321" s="10"/>
-      <c r="D321" s="10"/>
-      <c r="F321" s="10"/>
-      <c r="G321" s="10"/>
-      <c r="H321" s="10"/>
-      <c r="I321" s="10"/>
-      <c r="J321" s="10"/>
-      <c r="K321" s="10"/>
+    <row r="321" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B321" s="8"/>
+      <c r="C321" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H321" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I321" s="36"/>
+      <c r="J321" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="K321" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="L321" s="8"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -18780,17 +21324,37 @@
       <c r="AH321" s="2"/>
       <c r="AI321" s="2"/>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A322" s="9"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="10"/>
-      <c r="D322" s="10"/>
-      <c r="F322" s="10"/>
-      <c r="G322" s="10"/>
-      <c r="H322" s="10"/>
-      <c r="I322" s="10"/>
-      <c r="J322" s="10"/>
-      <c r="K322" s="10"/>
+    <row r="322" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B322" s="8"/>
+      <c r="C322" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E322" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H322" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I322" s="36"/>
+      <c r="J322" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="K322" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="L322" s="8"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
@@ -18815,17 +21379,37 @@
       <c r="AH322" s="2"/>
       <c r="AI322" s="2"/>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A323" s="9"/>
-      <c r="B323" s="10"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="10"/>
-      <c r="F323" s="10"/>
-      <c r="G323" s="10"/>
-      <c r="H323" s="10"/>
-      <c r="I323" s="10"/>
-      <c r="J323" s="10"/>
-      <c r="K323" s="10"/>
+    <row r="323" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B323" s="8"/>
+      <c r="C323" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H323" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I323" s="36"/>
+      <c r="J323" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="K323" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="L323" s="8"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
@@ -18850,17 +21434,37 @@
       <c r="AH323" s="2"/>
       <c r="AI323" s="2"/>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A324" s="9"/>
-      <c r="B324" s="10"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
-      <c r="H324" s="10"/>
-      <c r="I324" s="10"/>
-      <c r="J324" s="10"/>
-      <c r="K324" s="10"/>
+    <row r="324" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B324" s="8"/>
+      <c r="C324" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H324" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I324" s="36"/>
+      <c r="J324" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="K324" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="L324" s="8"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
@@ -18885,17 +21489,37 @@
       <c r="AH324" s="2"/>
       <c r="AI324" s="2"/>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A325" s="9"/>
-      <c r="B325" s="10"/>
-      <c r="C325" s="10"/>
-      <c r="D325" s="10"/>
-      <c r="F325" s="10"/>
-      <c r="G325" s="10"/>
-      <c r="H325" s="10"/>
-      <c r="I325" s="10"/>
-      <c r="J325" s="10"/>
-      <c r="K325" s="10"/>
+    <row r="325" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="B325" s="8"/>
+      <c r="C325" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E325" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H325" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I325" s="36"/>
+      <c r="J325" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="K325" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="L325" s="8"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
@@ -18920,17 +21544,37 @@
       <c r="AH325" s="2"/>
       <c r="AI325" s="2"/>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A326" s="9"/>
-      <c r="B326" s="10"/>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10"/>
-      <c r="H326" s="10"/>
-      <c r="I326" s="10"/>
-      <c r="J326" s="10"/>
-      <c r="K326" s="10"/>
+    <row r="326" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="B326" s="8"/>
+      <c r="C326" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E326" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G326" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H326" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I326" s="36"/>
+      <c r="J326" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="K326" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="L326" s="8"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
@@ -18955,17 +21599,37 @@
       <c r="AH326" s="2"/>
       <c r="AI326" s="2"/>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A327" s="9"/>
-      <c r="B327" s="10"/>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10"/>
-      <c r="H327" s="10"/>
-      <c r="I327" s="10"/>
-      <c r="J327" s="10"/>
-      <c r="K327" s="10"/>
+    <row r="327" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="B327" s="8"/>
+      <c r="C327" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H327" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I327" s="36"/>
+      <c r="J327" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="K327" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="L327" s="8"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -18990,17 +21654,37 @@
       <c r="AH327" s="2"/>
       <c r="AI327" s="2"/>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A328" s="9"/>
-      <c r="B328" s="10"/>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
-      <c r="H328" s="10"/>
-      <c r="I328" s="10"/>
-      <c r="J328" s="10"/>
-      <c r="K328" s="10"/>
+    <row r="328" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="B328" s="8"/>
+      <c r="C328" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H328" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I328" s="36"/>
+      <c r="J328" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K328" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="L328" s="8"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
@@ -19025,17 +21709,37 @@
       <c r="AH328" s="2"/>
       <c r="AI328" s="2"/>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A329" s="9"/>
-      <c r="B329" s="10"/>
-      <c r="C329" s="10"/>
-      <c r="D329" s="10"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
-      <c r="H329" s="10"/>
-      <c r="I329" s="10"/>
-      <c r="J329" s="10"/>
-      <c r="K329" s="10"/>
+    <row r="329" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="B329" s="8"/>
+      <c r="C329" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G329" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H329" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I329" s="36"/>
+      <c r="J329" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="K329" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="L329" s="8"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
@@ -19060,17 +21764,37 @@
       <c r="AH329" s="2"/>
       <c r="AI329" s="2"/>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A330" s="9"/>
-      <c r="B330" s="10"/>
-      <c r="C330" s="10"/>
-      <c r="D330" s="10"/>
-      <c r="F330" s="10"/>
-      <c r="G330" s="10"/>
-      <c r="H330" s="10"/>
-      <c r="I330" s="10"/>
-      <c r="J330" s="10"/>
-      <c r="K330" s="10"/>
+    <row r="330" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B330" s="8"/>
+      <c r="C330" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E330" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H330" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I330" s="36"/>
+      <c r="J330" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="K330" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="L330" s="8"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
@@ -19095,17 +21819,37 @@
       <c r="AH330" s="2"/>
       <c r="AI330" s="2"/>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A331" s="9"/>
-      <c r="B331" s="10"/>
-      <c r="C331" s="10"/>
-      <c r="D331" s="10"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
-      <c r="H331" s="10"/>
-      <c r="I331" s="10"/>
-      <c r="J331" s="10"/>
-      <c r="K331" s="10"/>
+    <row r="331" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B331" s="8"/>
+      <c r="C331" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F331" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H331" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I331" s="36"/>
+      <c r="J331" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="K331" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="L331" s="8"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
@@ -19130,17 +21874,37 @@
       <c r="AH331" s="2"/>
       <c r="AI331" s="2"/>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A332" s="9"/>
-      <c r="B332" s="10"/>
-      <c r="C332" s="10"/>
-      <c r="D332" s="10"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
-      <c r="H332" s="10"/>
-      <c r="I332" s="10"/>
-      <c r="J332" s="10"/>
-      <c r="K332" s="10"/>
+    <row r="332" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B332" s="8"/>
+      <c r="C332" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G332" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H332" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I332" s="36"/>
+      <c r="J332" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K332" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="L332" s="8"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
@@ -19165,17 +21929,37 @@
       <c r="AH332" s="2"/>
       <c r="AI332" s="2"/>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A333" s="9"/>
-      <c r="B333" s="10"/>
-      <c r="C333" s="10"/>
-      <c r="D333" s="10"/>
-      <c r="F333" s="10"/>
-      <c r="G333" s="10"/>
-      <c r="H333" s="10"/>
-      <c r="I333" s="10"/>
-      <c r="J333" s="10"/>
-      <c r="K333" s="10"/>
+    <row r="333" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B333" s="8"/>
+      <c r="C333" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G333" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H333" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I333" s="36"/>
+      <c r="J333" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K333" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="L333" s="8"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
@@ -19200,17 +21984,37 @@
       <c r="AH333" s="2"/>
       <c r="AI333" s="2"/>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A334" s="9"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10"/>
-      <c r="F334" s="10"/>
-      <c r="G334" s="10"/>
-      <c r="H334" s="10"/>
-      <c r="I334" s="10"/>
-      <c r="J334" s="10"/>
-      <c r="K334" s="10"/>
+    <row r="334" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B334" s="8"/>
+      <c r="C334" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E334" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G334" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H334" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I334" s="36"/>
+      <c r="J334" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="K334" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="L334" s="8"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -19235,17 +22039,37 @@
       <c r="AH334" s="2"/>
       <c r="AI334" s="2"/>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A335" s="9"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="10"/>
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
-      <c r="H335" s="10"/>
-      <c r="I335" s="10"/>
-      <c r="J335" s="10"/>
-      <c r="K335" s="10"/>
+    <row r="335" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B335" s="8"/>
+      <c r="C335" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E335" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G335" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H335" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I335" s="36"/>
+      <c r="J335" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="K335" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="L335" s="8"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
@@ -19270,17 +22094,37 @@
       <c r="AH335" s="2"/>
       <c r="AI335" s="2"/>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A336" s="9"/>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="10"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
-      <c r="H336" s="10"/>
-      <c r="I336" s="10"/>
-      <c r="J336" s="10"/>
-      <c r="K336" s="10"/>
+    <row r="336" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B336" s="8"/>
+      <c r="C336" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H336" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I336" s="36"/>
+      <c r="J336" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="K336" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="L336" s="8"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
@@ -19305,17 +22149,37 @@
       <c r="AH336" s="2"/>
       <c r="AI336" s="2"/>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A337" s="9"/>
-      <c r="B337" s="10"/>
-      <c r="C337" s="10"/>
-      <c r="D337" s="10"/>
-      <c r="F337" s="10"/>
-      <c r="G337" s="10"/>
-      <c r="H337" s="10"/>
-      <c r="I337" s="10"/>
-      <c r="J337" s="10"/>
-      <c r="K337" s="10"/>
+    <row r="337" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B337" s="8"/>
+      <c r="C337" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E337" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H337" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I337" s="36"/>
+      <c r="J337" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="K337" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="L337" s="8"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -19340,17 +22204,37 @@
       <c r="AH337" s="2"/>
       <c r="AI337" s="2"/>
     </row>
-    <row r="338" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A338" s="9"/>
-      <c r="B338" s="10"/>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10"/>
-      <c r="H338" s="10"/>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10"/>
-      <c r="K338" s="10"/>
+    <row r="338" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B338" s="8"/>
+      <c r="C338" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D338" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E338" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H338" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I338" s="36"/>
+      <c r="J338" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="K338" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L338" s="8"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
@@ -19375,17 +22259,37 @@
       <c r="AH338" s="2"/>
       <c r="AI338" s="2"/>
     </row>
-    <row r="339" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A339" s="9"/>
-      <c r="B339" s="10"/>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10"/>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
+    <row r="339" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B339" s="8"/>
+      <c r="C339" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E339" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G339" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H339" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I339" s="36"/>
+      <c r="J339" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="K339" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="L339" s="8"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -19410,17 +22314,37 @@
       <c r="AH339" s="2"/>
       <c r="AI339" s="2"/>
     </row>
-    <row r="340" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A340" s="9"/>
-      <c r="B340" s="10"/>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-      <c r="J340" s="10"/>
-      <c r="K340" s="10"/>
+    <row r="340" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B340" s="8"/>
+      <c r="C340" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E340" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G340" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H340" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I340" s="36"/>
+      <c r="J340" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="K340" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="L340" s="8"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
@@ -19445,17 +22369,37 @@
       <c r="AH340" s="2"/>
       <c r="AI340" s="2"/>
     </row>
-    <row r="341" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A341" s="9"/>
-      <c r="B341" s="10"/>
-      <c r="C341" s="10"/>
-      <c r="D341" s="10"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10"/>
-      <c r="H341" s="10"/>
-      <c r="I341" s="10"/>
-      <c r="J341" s="10"/>
-      <c r="K341" s="10"/>
+    <row r="341" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B341" s="8"/>
+      <c r="C341" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D341" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G341" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H341" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I341" s="36"/>
+      <c r="J341" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="K341" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="L341" s="8"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
@@ -19480,17 +22424,37 @@
       <c r="AH341" s="2"/>
       <c r="AI341" s="2"/>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A342" s="9"/>
-      <c r="B342" s="10"/>
-      <c r="C342" s="10"/>
-      <c r="D342" s="10"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-      <c r="H342" s="10"/>
-      <c r="I342" s="10"/>
-      <c r="J342" s="10"/>
-      <c r="K342" s="10"/>
+    <row r="342" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B342" s="8"/>
+      <c r="C342" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D342" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E342" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G342" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H342" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I342" s="36"/>
+      <c r="J342" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="K342" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="L342" s="8"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
@@ -19515,17 +22479,37 @@
       <c r="AH342" s="2"/>
       <c r="AI342" s="2"/>
     </row>
-    <row r="343" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A343" s="9"/>
-      <c r="B343" s="10"/>
-      <c r="C343" s="10"/>
-      <c r="D343" s="10"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
-      <c r="H343" s="10"/>
-      <c r="I343" s="10"/>
-      <c r="J343" s="10"/>
-      <c r="K343" s="10"/>
+    <row r="343" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B343" s="8"/>
+      <c r="C343" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E343" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H343" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I343" s="36"/>
+      <c r="J343" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="K343" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="L343" s="8"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -19550,17 +22534,37 @@
       <c r="AH343" s="2"/>
       <c r="AI343" s="2"/>
     </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A344" s="9"/>
-      <c r="B344" s="10"/>
-      <c r="C344" s="10"/>
-      <c r="D344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-      <c r="H344" s="10"/>
-      <c r="I344" s="10"/>
-      <c r="J344" s="10"/>
-      <c r="K344" s="10"/>
+    <row r="344" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B344" s="8"/>
+      <c r="C344" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D344" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E344" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G344" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H344" s="41">
+        <v>45281</v>
+      </c>
+      <c r="I344" s="36"/>
+      <c r="J344" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K344" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="L344" s="8"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
@@ -41741,37 +44745,13 @@
       <c r="AI977" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="09.01"/>
-        <filter val="09.02"/>
-        <filter val="09.03"/>
-        <filter val="09.04"/>
-        <filter val="09.05"/>
-        <filter val="09.06"/>
-        <filter val="09.07"/>
-        <filter val="09.08"/>
-        <filter val="09.09"/>
-        <filter val="09.10"/>
-        <filter val="09.11"/>
-        <filter val="09.12"/>
-        <filter val="09.13"/>
-        <filter val="09.14"/>
-        <filter val="09.15"/>
-        <filter val="09.16"/>
-        <filter val="09.17"/>
-        <filter val="09.18"/>
-        <filter val="09.19"/>
-        <filter val="09.20"/>
-        <filter val="09.21"/>
-        <filter val="09.22"/>
-        <filter val="09.23"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K224" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L308" r:id="rId1" display="https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center" xr:uid="{20FECAF4-892A-409F-9D33-D8925383DE18}"/>
+    <hyperlink ref="L314" r:id="rId2" display="http://www.aka.ms/academiceligibility" xr:uid="{DF9F6662-0EC3-4AE0-8224-12B1FE04C967}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51289594-E6EC-4321-812A-B850F5315471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2B841-C234-4594-B29D-EB1E170A8659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18495" yWindow="0" windowWidth="26235" windowHeight="17385" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="11370" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$110</definedName>
     <definedName name="_Hlk79743764" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744291" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744411" localSheetId="0">Risks!#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="677">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -868,9 +868,6 @@
   </si>
   <si>
     <t>"Product Fees and Ordering, General", section 3 "Purchase Commitment Obligations"</t>
-  </si>
-  <si>
-    <t>Includes an obligation to obtain a binding order from each end customer. This is ensured by entering into an agreement with end customer specifying the initial volume. However, it is important that subsequent additional orders are also documented in writing for the end customer, so it is possible to trace all additional purchases. In addition, it should be agreed in advance with the end customer who will be the authorized purchasers, so that this does not create discussions afterwards. Please, note that term must also be specified in the orders/agreements with the end customers.</t>
   </si>
   <si>
     <t>Make sure to establish written agreements with end customers to meet this requirement.</t>
@@ -1490,9 +1487,6 @@
   </si>
   <si>
     <t>"Warranty and Defense Obligations", section 2 "Defense of Third-Party Claims", (b) "Limitations on Microsoft’s Defense Obligations"</t>
-  </si>
-  <si>
-    <t>Note that Microsoft's obligation to indemnify you for any third-party claim for patent, trademark, copyright, or trade secret infringement does apply to distribution or use after Microsoft have given notice that the resale of the applicable service must cease.</t>
   </si>
   <si>
     <t>"Warranty and Defense Obligations", section 2 "Defense of Third-Party Claims», (d) "Company Defense obligation"</t>
@@ -1635,21 +1629,8 @@
 Reseller is also liable for assessing any tax liabilities arising from the use.</t>
   </si>
   <si>
-    <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
-Note that the amounts reseller must pay to Microsoft will include taxes and fees.</t>
-  </si>
-  <si>
     <t>Check if such eligibility requirements exist. Procedures must be established to comply with such eligibility requirements.
 Make sure that at least two employees meet the technical exam requirement.</t>
-  </si>
-  <si>
-    <t>Reseller may resell Government Customer Reserved Online Services only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for government customers are identified in the Microsoft price lists. 
-Before selling such products to public customers, the reseller must check that the Customer is considered public, according to Microsoft requirements, see www.aka.ms/governmenteligibility.
-The reseller is obliged to use reasonable efforts to market Government Products to government customers. If Company markets Government Products, Company shall do so only with advertisement or marketing materials that clearly indicate that the Government Product is only available for purchase by Government Customers</t>
-  </si>
-  <si>
-    <t>Reseller may resell Education Offer only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for government customers are identified in the Microsoft price lists. 
-Before selling products considered "Education Products" to end customers, the reseller is responsible for validating that the end customer meets the eligibility requirements for being an Educational Customer. However, if Microsoft determines that the end customer does not meet the eligibility requirements, Microsoft may reject the individual end customer.</t>
   </si>
   <si>
     <t>The reseller may resell ISV Cloud Embed Offers only if the reseller meets the eligibility requirements set by Microsoft.
@@ -1660,14 +1641,6 @@
 The reseller must prior to offering subscriptions to Embedded Unified Solution receive validation from Microsoft that the solution satisfies the guidelines available at https://appsource.microsoft.com/en-us/partners.</t>
   </si>
   <si>
-    <t>If the reseller wants to resell Third Party Offers, the reseller must request access to such third-party products by completing the "Third Party Offers Interest Form". Microsoft is free to limit the number and geography of resellers of Third-Party Offer. 
-The reseller can order, manage, and cancel such subscriptions through the Partner Portal, and the reseller shall use the applicable Third-Party Provider Solution when required. 
-Reseller shall also provide Microsoft or relevant third parties with information they may reasonably require in relation to tax documentation. 
-The applicable third-party supplier will be liable for the support specified in Developer Customer Agreement. Anything beyond this will be the reseller’s responsibility. 
-Upon termination of the right to resell a third-party product, reseller is obliged to discuss loyally and help ensure that end customers are presented with alternatives for further use, for example to purchase directly from third parties, through Microsoft, or other resellers. 
-Reseller must also check that the relevant end customer is eligible according to Microsoft requirements.</t>
-  </si>
-  <si>
     <t>"Product Specific Terms and Conditions", section 10 “Non-profit Offer Terms”.</t>
   </si>
   <si>
@@ -1693,14 +1666,6 @@
     <t>Note that Azure plans are priced in USD, and are billed by Microsoft in local currency, and as further specified in section (ii) of the clause. Make sure the same is used in relation to end customers to avoid any currency risk.</t>
   </si>
   <si>
-    <t>"General Channel Authorization Terms and Conditions, section 7 "Other Terms", (b) "Invoices"</t>
-  </si>
-  <si>
-    <t>Note that pre-view releases must be marked as such by reseller in relation to the end customer, and the end customer must be informed about the terms that apply to the end customer in the Microsoft Customer Agreement. 
-Some Azure services have some restrictions on use, and the restrictions may be changed by Microsoft from time to time. See: http://azure.microsoft.com/en-us/documentation/articles/azure-subscription-service-limits/ for more information. These should be checked, and the end customers should be informed about this. Possible increase in quantity must take place based on an order from an end customer.
-Note also that one is permitted to give customers administrative rights in own portal solution that communicates with Microsoft portals, so that end customers can order or reduce quantity directly with Microsoft. All such orders etc. are considered as coming from the reseller, so it should be mirrored in the end customer's terms and conditions that the end customer is bound by such orders/changes.</t>
-  </si>
-  <si>
     <t>"Product Specific Terms and Conditions", section 3 "Microsoft Azure Stack Hub Offer Terms", (d) Customer disclosures.</t>
   </si>
   <si>
@@ -1714,17 +1679,7 @@
 If a court or similar instance rules the opposite, please, review the details of the provision and meet the requirements. If the reseller has a cost-based fee model with a public customer, it should take into account that costs may decrease when it receive bonuses or other incentives from Microsoft.</t>
   </si>
   <si>
-    <t>If the reseller licenses Microsoft Embedded Solutions to end customers, the reseller should specifically state in its agreement with the end customer that Microsoft provides no guarantee that the total solution will work. Note that Microsoft undertakes no liability whatsoever for the embedded solution. This also means that the end customers gets no protection against defects in title from Microsoft for the embedded solutions. This should be ensured in the agreement with the customer (but this should be worded so that the reseller bears no liability whatsoever for any errors and defects in Microsoft Online services in general, and it should be mentioned that any rights given to the end customer will appear in the MCA that the customer will enter into with Microsoft. Since the end customers irrespectively must enter into MCA with Microsoft, end customer will be held harmless against third party claims that are caused by defects in title in Microsoft online services.</t>
-  </si>
-  <si>
     <t>"Product Specific Terms and Conditions", section 9 "Third Party Offer Terms", (d) Developer Customer Agreement Acceptance</t>
-  </si>
-  <si>
-    <t>When reselling third-party products available for purchase through Microsoft, the reseller must submit the Developer Customer Agreement to the end customer and ensure that this is accepted by the relevant end customer and becomes a legally enforceable contract between the third party and the end customer. Please, note also that Microsoft does not give any guarantee for protection against defect in title for such products. Check the Partner Portal for current terms and conditions and remember to choose the version of the Developer Customer Agreement that applies for the correct region. 
-Also create a procedure to check contract versions for updates, and make sure that the relevant end customer accepts the updated contract versions when they renew subscription periods. 
-In principle, reseller is free to cancel third party services at any time with Microsoft, but cancellation fees may apply. Check this before entering into an agreement with the end customer, and mirror applicable restrictions in relation to the end customer. 
-Please, note also that both Microsoft and the relevant third party may cancel the right to resell the third-party product with 30 days' notice. i.e., this must be mirrored in relation to the end customers. 
-If a price for an end customer is based on a "reservation", then the reseller should mirror this towards the end customer for the relevant subscription period (and that there is no renewal), and that no prepayment for unused consumption will be refunded.</t>
   </si>
   <si>
     <t>Imposes a duty of confidentiality for 5 years for information that is marked as confidential or information that the recipient must understand is confidential. The latter is a somewhat unclear indication of what is considered confidential or not, and since a breach of confidentiality duty may result in immediate termination for cause (and also terminate the Microsoft Partner Agreement), you should if in doubt, treat everything as Microsoft confidential information.</t>
@@ -2290,12 +2245,61 @@
   <si>
     <t>04.48</t>
   </si>
+  <si>
+    <t>Includes an obligation to obtain a binding order from each end customer. This is ensured by entering into an agreement with end customer specifying the initial volume. However, it is important that subsequent additional orders are also documented in writing for the end customer, so it is possible to trace all additional purchases. In addition, it should be agreed in advance with the end customer who will be the authorized purchasers, so that this does not create discussions afterwards. Please, note that the agreement term must also be specified in the orders/agreements with the end customers.</t>
+  </si>
+  <si>
+    <t>Note that Microsoft's obligation to indemnify you for any third-party claim for patent, trademark, copyright, or trade secret infringement does not apply to distribution or use after Microsoft have given notice that the resale of the applicable service must cease.</t>
+  </si>
+  <si>
+    <t>Skype may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
+Note that tax may be added to the amounts reseller must pay to Microsoft.</t>
+  </si>
+  <si>
+    <t>Reseller may resell Government Customer Reserved Online Services only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for government customers are identified in the Microsoft price lists. 
+Before selling such products to public customers, the reseller must check that the Customer is considered public, according to Microsoft requirements, see www.aka.ms/governmenteligibility.
+The reseller is obliged to use reasonable efforts to promote Government Products only to government customers. If Company markets Government Products, Company shall do so only with advertisement or marketing materials that clearly indicate that the Government Product is only available for purchase by Government Customers</t>
+  </si>
+  <si>
+    <t>Reseller may resell Education Offer only if the reseller meets the eligibility requirements set by Microsoft. The products reserved for education customers are identified in the Microsoft price lists. 
+Before selling products considered "Education Products" to end customers, the reseller is responsible for validating that the end customer meets the eligibility requirements for being an Educational Customer. However, if Microsoft determines that the end customer does not meet the eligibility requirements, Microsoft may reject the individual end customer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the reseller wants to resell Third Party Offers, the reseller must request access to such third-party products by completing the "Third Party Offers Interest Form". Microsoft is free to limit the number and geography of resellers of Third-Party Offer. 
+The reseller can order, manage, and cancel such subscriptions through the Partner Portal, and the reseller shall use the applicable Third-Party Provider Solution when required. 
+Reseller shall also provide Microsoft or relevant third parties with information they may reasonably require in relation to tax documentation. 
+The applicable third-party supplier will be liable for the support specified in Developer Customer Agreement. Anything beyond this will be the reseller’s responsibility. 
+Upon termination of the right to resell a third-party product, reseller is obliged to discuss loyally and help ensure that end customers are presented with alternatives for further use, for example to purchase directly from third parties, through Microsoft, or other resellers. </t>
+  </si>
+  <si>
+    <t>Note that pre-view releases must be marked as such by reseller in relation to the end customer. The reseller should specifically state in the end-customer agreement that if a product is a Preview Release, the end-customer must be aware of the regulation in the end-customer’s Customer Agreement and the customer’s Online Services Terms. 
+Some Azure services have some restrictions on use, and the restrictions may be changed by Microsoft from time to time. See: http://azure.microsoft.com/en-us/documentation/articles/azure-subscription-service-limits/ for more information. These should be checked, and the reseller's agreements with end-customers should state that such updates will be binding for the end-customer. Possible increase in quantity must take place based on an order from an end customer.
+Note also that one is permitted to give customers administrative rights in own portal solution that communicates with Microsoft portals, so that end customers can order or reduce quantity directly with Microsoft. All such orders etc. are considered as coming from the reseller, so it should be mirrored in the end customer's terms and conditions that the end customer is bound by such orders/changes.</t>
+  </si>
+  <si>
+    <t>9.20b</t>
+  </si>
+  <si>
+    <t>Note that tax may be added to the amounts the reseller must pay to Microsoft. Reseller must take this into consideration when pricing the products in the resellers agreement with the end customer.</t>
+  </si>
+  <si>
+    <t>If the reseller licenses Microsoft Embedded Solutions to end customers, the reseller should specifically state in its agreement with the end customer that Microsoft provides no guarantee that the total solution will work. Note that Microsoft undertakes no liability whatsoever for the embedded solution. This also means that the end customers gets no protection against defects in title from Microsoft for the embedded solutions. This should be ensured in the agreement with the end-customer (but this should be worded so that the reseller bears no liability whatsoever for any errors and defects in Microsoft Online services in general, and it should be mentioned that any rights given to the end customer will be governed by the MCA that the customer will enter into with Microsoft. Since the end customers irrespectively must enter into MCA with Microsoft, end customer will be held harmless against third party claims that are caused by defects in title in Microsoft online services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When reselling third-party products available for purchase through Microsoft, the reseller should submit the Developer Customer Agreement to the end customer and ensure that this is accepted by the relevant end customer and becomes a legally enforceable contract between the third party and the end customer. Please, note also that Microsoft does not give any guarantee for protection against defect in title for such products. Check the Partner Portal for current terms and conditions and remember to choose the version of the Developer Customer Agreement that applies for the correct region. 
+Also create a procedure to check contract versions for updates, and make sure that the relevant end customer accepts the updated contract versions when they renew subscription periods. 
+In principle, reseller is free to cancel third party services at any time with Microsoft, but cancellation fees may apply. Check this before entering into an agreement with the end customer, and mirror applicable restrictions in relation to the end customer. 
+Please, note also that both Microsoft and the relevant third party may cancel the right to resell the third-party product with 30 days' notice. i.e., this must be mirrored in relation to the end customers. </t>
+  </si>
+  <si>
+    <t>09.24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2355,6 +2359,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2474,7 +2484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2590,6 +2600,12 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2906,11 +2922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-  <dimension ref="A1:AI861"/>
+  <dimension ref="A1:AI863"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3001,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -3014,10 +3030,10 @@
         <v>133</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>398</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3058,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -3074,7 +3090,7 @@
         <v>136</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -3115,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
@@ -3131,7 +3147,7 @@
         <v>138</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3172,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>2</v>
@@ -3185,10 +3201,10 @@
         <v>139</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3229,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -3239,10 +3255,10 @@
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>402</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>403</v>
       </c>
       <c r="L6" s="31" t="s">
         <v>262</v>
@@ -3286,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -3299,7 +3315,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L7" s="30" t="s">
         <v>141</v>
@@ -3343,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -3356,7 +3372,7 @@
         <v>142</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>143</v>
@@ -3685,7 +3701,7 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>159</v>
@@ -3772,7 +3788,7 @@
     </row>
     <row r="16" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>88</v>
@@ -3785,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>2</v>
@@ -3798,7 +3814,7 @@
         <v>162</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L16" s="30" t="s">
         <v>164</v>
@@ -3829,7 +3845,7 @@
     </row>
     <row r="17" spans="1:35" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>88</v>
@@ -3842,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>2</v>
@@ -3855,7 +3871,7 @@
         <v>165</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>167</v>
@@ -3886,7 +3902,7 @@
     </row>
     <row r="18" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
@@ -3899,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>2</v>
@@ -3909,13 +3925,13 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>410</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3943,7 +3959,7 @@
     </row>
     <row r="19" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>88</v>
@@ -3956,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>2</v>
@@ -3969,10 +3985,10 @@
         <v>263</v>
       </c>
       <c r="K19" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4000,7 +4016,7 @@
     </row>
     <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>88</v>
@@ -4013,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>2</v>
@@ -4026,7 +4042,7 @@
         <v>168</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>169</v>
@@ -4057,7 +4073,7 @@
     </row>
     <row r="21" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>88</v>
@@ -4070,7 +4086,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>2</v>
@@ -4080,13 +4096,13 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>414</v>
-      </c>
       <c r="L21" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4114,7 +4130,7 @@
     </row>
     <row r="22" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>88</v>
@@ -4127,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>2</v>
@@ -4137,13 +4153,13 @@
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>416</v>
-      </c>
       <c r="L22" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4171,7 +4187,7 @@
     </row>
     <row r="23" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>88</v>
@@ -4184,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>2</v>
@@ -4194,13 +4210,13 @@
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="L23" s="30" t="s">
         <v>418</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>419</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4228,7 +4244,7 @@
     </row>
     <row r="24" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>88</v>
@@ -4241,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>2</v>
@@ -4251,10 +4267,10 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>420</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>421</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>201</v>
@@ -4285,7 +4301,7 @@
     </row>
     <row r="25" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>88</v>
@@ -4298,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>2</v>
@@ -4342,7 +4358,7 @@
     </row>
     <row r="26" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>88</v>
@@ -4365,10 +4381,10 @@
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="L26" s="28"/>
       <c r="M26" s="2"/>
@@ -4397,7 +4413,7 @@
     </row>
     <row r="27" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>88</v>
@@ -4410,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>116</v>
+        <v>524</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>3</v>
@@ -4420,10 +4436,10 @@
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>424</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>425</v>
       </c>
       <c r="L27" s="28"/>
       <c r="M27" s="2"/>
@@ -4452,7 +4468,7 @@
     </row>
     <row r="28" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
@@ -4475,10 +4491,10 @@
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>427</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="2"/>
@@ -4507,7 +4523,7 @@
     </row>
     <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>88</v>
@@ -4530,10 +4546,10 @@
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>429</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="2"/>
@@ -4562,7 +4578,7 @@
     </row>
     <row r="30" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>88</v>
@@ -4585,10 +4601,10 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="K30" s="18" t="s">
         <v>430</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>431</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="2"/>
@@ -4617,7 +4633,7 @@
     </row>
     <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>88</v>
@@ -4643,7 +4659,7 @@
         <v>175</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="2"/>
@@ -4672,7 +4688,7 @@
     </row>
     <row r="32" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>88</v>
@@ -4695,7 +4711,7 @@
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>145</v>
@@ -4727,7 +4743,7 @@
     </row>
     <row r="33" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
@@ -4750,10 +4766,10 @@
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>433</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="2"/>
@@ -4782,7 +4798,7 @@
     </row>
     <row r="34" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>88</v>
@@ -4805,10 +4821,10 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="K34" s="18" t="s">
         <v>434</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>435</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="2"/>
@@ -4837,7 +4853,7 @@
     </row>
     <row r="35" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>88</v>
@@ -4892,7 +4908,7 @@
     </row>
     <row r="36" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>88</v>
@@ -4918,7 +4934,7 @@
         <v>202</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="2"/>
@@ -4947,7 +4963,7 @@
     </row>
     <row r="37" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>88</v>
@@ -4970,10 +4986,10 @@
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="2"/>
@@ -5002,7 +5018,7 @@
     </row>
     <row r="38" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>88</v>
@@ -5025,10 +5041,10 @@
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="2"/>
@@ -5057,7 +5073,7 @@
     </row>
     <row r="39" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>88</v>
@@ -5070,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>2</v>
@@ -5083,7 +5099,7 @@
         <v>181</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>182</v>
@@ -5114,7 +5130,7 @@
     </row>
     <row r="40" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -5127,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>2</v>
@@ -5140,7 +5156,7 @@
         <v>190</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>184</v>
@@ -5171,7 +5187,7 @@
     </row>
     <row r="41" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>88</v>
@@ -5184,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>2</v>
@@ -5197,7 +5213,7 @@
         <v>203</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>204</v>
@@ -5228,7 +5244,7 @@
     </row>
     <row r="42" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>88</v>
@@ -5241,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>2</v>
@@ -5285,7 +5301,7 @@
     </row>
     <row r="43" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>88</v>
@@ -5298,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>2</v>
@@ -5308,13 +5324,13 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>272</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5342,7 +5358,7 @@
     </row>
     <row r="44" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>88</v>
@@ -5355,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
@@ -5365,13 +5381,13 @@
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K44" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="L44" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>444</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5399,7 +5415,7 @@
     </row>
     <row r="45" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>88</v>
@@ -5412,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>2</v>
@@ -5422,13 +5438,13 @@
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="K45" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K45" s="16" t="s">
-        <v>446</v>
-      </c>
       <c r="L45" s="30" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5456,7 +5472,7 @@
     </row>
     <row r="46" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>88</v>
@@ -5469,7 +5485,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>2</v>
@@ -5479,13 +5495,13 @@
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="L46" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>275</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5513,7 +5529,7 @@
     </row>
     <row r="47" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>88</v>
@@ -5526,7 +5542,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>2</v>
@@ -5539,7 +5555,7 @@
         <v>208</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>209</v>
@@ -5570,7 +5586,7 @@
     </row>
     <row r="48" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>88</v>
@@ -5583,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>2</v>
@@ -5593,7 +5609,7 @@
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>186</v>
@@ -5627,7 +5643,7 @@
     </row>
     <row r="49" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>88</v>
@@ -5640,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>2</v>
@@ -5650,10 +5666,10 @@
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="K49" s="16" t="s">
         <v>450</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>451</v>
       </c>
       <c r="L49" s="20" t="s">
         <v>188</v>
@@ -5684,7 +5700,7 @@
     </row>
     <row r="50" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>88</v>
@@ -5697,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>2</v>
@@ -5707,13 +5723,13 @@
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="L50" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>277</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5741,7 +5757,7 @@
     </row>
     <row r="51" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>88</v>
@@ -5754,7 +5770,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>2</v>
@@ -5767,10 +5783,10 @@
         <v>218</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5798,7 +5814,7 @@
     </row>
     <row r="52" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>88</v>
@@ -5821,10 +5837,10 @@
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="K52" s="18" t="s">
         <v>454</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="2"/>
@@ -5853,7 +5869,7 @@
     </row>
     <row r="53" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>88</v>
@@ -5876,10 +5892,10 @@
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="2"/>
@@ -5908,7 +5924,7 @@
     </row>
     <row r="54" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>88</v>
@@ -5931,10 +5947,10 @@
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="2"/>
@@ -5963,7 +5979,7 @@
     </row>
     <row r="55" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>88</v>
@@ -5986,10 +6002,10 @@
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>459</v>
+        <v>666</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="2"/>
@@ -6018,7 +6034,7 @@
     </row>
     <row r="56" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>88</v>
@@ -6041,10 +6057,10 @@
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="2"/>
@@ -6073,7 +6089,7 @@
     </row>
     <row r="57" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>88</v>
@@ -6099,7 +6115,7 @@
         <v>212</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="2"/>
@@ -6128,7 +6144,7 @@
     </row>
     <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>88</v>
@@ -6151,10 +6167,10 @@
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L58" s="28"/>
       <c r="M58" s="2"/>
@@ -6183,7 +6199,7 @@
     </row>
     <row r="59" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>88</v>
@@ -6206,10 +6222,10 @@
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="2"/>
@@ -6238,7 +6254,7 @@
     </row>
     <row r="60" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>88</v>
@@ -6261,10 +6277,10 @@
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="2"/>
@@ -6293,7 +6309,7 @@
     </row>
     <row r="61" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>88</v>
@@ -6316,10 +6332,10 @@
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L61" s="28"/>
       <c r="M61" s="2"/>
@@ -6348,7 +6364,7 @@
     </row>
     <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>88</v>
@@ -6371,10 +6387,10 @@
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="2"/>
@@ -6403,7 +6419,7 @@
     </row>
     <row r="63" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>88</v>
@@ -6426,10 +6442,10 @@
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L63" s="24"/>
       <c r="M63" s="2"/>
@@ -6458,7 +6474,7 @@
     </row>
     <row r="64" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>88</v>
@@ -6481,10 +6497,10 @@
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="2"/>
@@ -6513,7 +6529,7 @@
     </row>
     <row r="65" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>88</v>
@@ -6539,7 +6555,7 @@
         <v>211</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="2"/>
@@ -6568,7 +6584,7 @@
     </row>
     <row r="66" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>88</v>
@@ -6594,7 +6610,7 @@
         <v>216</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="2"/>
@@ -6623,7 +6639,7 @@
     </row>
     <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>88</v>
@@ -6649,7 +6665,7 @@
         <v>217</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="2"/>
@@ -6678,7 +6694,7 @@
     </row>
     <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>88</v>
@@ -6701,7 +6717,7 @@
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K68" s="18" t="s">
         <v>198</v>
@@ -6733,7 +6749,7 @@
     </row>
     <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>88</v>
@@ -6756,7 +6772,7 @@
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K69" s="18" t="s">
         <v>199</v>
@@ -6788,7 +6804,7 @@
     </row>
     <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>88</v>
@@ -6811,10 +6827,10 @@
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L70" s="21"/>
       <c r="M70" s="2"/>
@@ -6843,7 +6859,7 @@
     </row>
     <row r="71" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>88</v>
@@ -6856,7 +6872,7 @@
         <v>100</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>2</v>
@@ -6866,13 +6882,13 @@
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="L71" s="31" t="s">
         <v>482</v>
-      </c>
-      <c r="K71" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="L71" s="31" t="s">
-        <v>484</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -6900,7 +6916,7 @@
     </row>
     <row r="72" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>88</v>
@@ -6913,7 +6929,7 @@
         <v>100</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>2</v>
@@ -6923,10 +6939,10 @@
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L72" s="16" t="s">
         <v>219</v>
@@ -6957,7 +6973,7 @@
     </row>
     <row r="73" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>88</v>
@@ -6970,7 +6986,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>2</v>
@@ -6980,13 +6996,13 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" s="30" t="s">
         <v>487</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="L73" s="30" t="s">
-        <v>489</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -7014,7 +7030,7 @@
     </row>
     <row r="74" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>88</v>
@@ -7027,7 +7043,7 @@
         <v>100</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>2</v>
@@ -7037,10 +7053,10 @@
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L74" s="16" t="s">
         <v>220</v>
@@ -7071,7 +7087,7 @@
     </row>
     <row r="75" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>88</v>
@@ -7084,7 +7100,7 @@
         <v>100</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>2</v>
@@ -7094,13 +7110,13 @@
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K75" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="L75" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="L75" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -7128,7 +7144,7 @@
     </row>
     <row r="76" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>88</v>
@@ -7141,7 +7157,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>2</v>
@@ -7151,13 +7167,13 @@
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L76" s="31" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -7185,7 +7201,7 @@
     </row>
     <row r="77" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>88</v>
@@ -7198,7 +7214,7 @@
         <v>100</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>2</v>
@@ -7211,10 +7227,10 @@
         <v>221</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L77" s="30" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -7242,7 +7258,7 @@
     </row>
     <row r="78" spans="1:35" ht="360.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>88</v>
@@ -7255,7 +7271,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>2</v>
@@ -7268,10 +7284,10 @@
         <v>222</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L78" s="30" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -7299,7 +7315,7 @@
     </row>
     <row r="79" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
@@ -7312,7 +7328,7 @@
         <v>100</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>2</v>
@@ -7325,10 +7341,10 @@
         <v>223</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>497</v>
+        <v>667</v>
       </c>
       <c r="L79" s="30" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -7356,7 +7372,7 @@
     </row>
     <row r="80" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>88</v>
@@ -7369,7 +7385,7 @@
         <v>100</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>2</v>
@@ -7382,10 +7398,10 @@
         <v>224</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L80" s="30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7413,7 +7429,7 @@
     </row>
     <row r="81" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>88</v>
@@ -7426,7 +7442,7 @@
         <v>100</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>2</v>
@@ -7438,11 +7454,11 @@
       <c r="J81" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="K81" s="20" t="s">
-        <v>499</v>
+      <c r="K81" s="40" t="s">
+        <v>668</v>
       </c>
       <c r="L81" s="30" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -7470,7 +7486,7 @@
     </row>
     <row r="82" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>88</v>
@@ -7483,7 +7499,7 @@
         <v>100</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>2</v>
@@ -7496,10 +7512,10 @@
         <v>227</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>500</v>
+        <v>669</v>
       </c>
       <c r="L82" s="31" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -7527,7 +7543,7 @@
     </row>
     <row r="83" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>88</v>
@@ -7540,7 +7556,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>2</v>
@@ -7552,11 +7568,11 @@
       <c r="J83" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K83" s="20" t="s">
-        <v>501</v>
+      <c r="K83" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="L83" s="31" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -7582,9 +7598,9 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="396" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="237" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>88</v>
@@ -7597,7 +7613,7 @@
         <v>100</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>2</v>
@@ -7609,11 +7625,11 @@
       <c r="J84" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="K84" s="24" t="s">
-        <v>502</v>
+      <c r="K84" s="16" t="s">
+        <v>670</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -7641,7 +7657,7 @@
     </row>
     <row r="85" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>88</v>
@@ -7654,7 +7670,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>2</v>
@@ -7664,13 +7680,13 @@
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="16" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L85" s="31" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -7698,7 +7714,7 @@
     </row>
     <row r="86" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>88</v>
@@ -7721,10 +7737,10 @@
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="16" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L86" s="28"/>
       <c r="M86" s="2"/>
@@ -7753,7 +7769,7 @@
     </row>
     <row r="87" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>88</v>
@@ -7776,10 +7792,10 @@
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="16" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L87" s="24"/>
       <c r="M87" s="2"/>
@@ -7808,7 +7824,7 @@
     </row>
     <row r="88" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>88</v>
@@ -7831,7 +7847,7 @@
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="16" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K88" s="18" t="s">
         <v>230</v>
@@ -7861,9 +7877,9 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>88</v>
@@ -7888,8 +7904,8 @@
       <c r="J89" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="K89" s="22" t="s">
-        <v>511</v>
+      <c r="K89" s="41" t="s">
+        <v>671</v>
       </c>
       <c r="L89" s="28"/>
       <c r="M89" s="2"/>
@@ -7918,7 +7934,7 @@
     </row>
     <row r="90" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>88</v>
@@ -7941,10 +7957,10 @@
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="16" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="2"/>
@@ -7973,7 +7989,7 @@
     </row>
     <row r="91" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>380</v>
+        <v>672</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
@@ -7992,14 +8008,14 @@
         <v>2</v>
       </c>
       <c r="H91" s="26">
-        <v>45250</v>
+        <v>45295</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16" t="s">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="2"/>
@@ -8028,7 +8044,7 @@
     </row>
     <row r="92" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
@@ -8051,10 +8067,10 @@
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="16" t="s">
-        <v>228</v>
+        <v>506</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="2"/>
@@ -8083,7 +8099,7 @@
     </row>
     <row r="93" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>523</v>
+        <v>380</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>88</v>
@@ -8106,10 +8122,10 @@
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="16" t="s">
-        <v>517</v>
+        <v>228</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>518</v>
+        <v>674</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="2"/>
@@ -8136,35 +8152,35 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="293.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="6"/>
-      <c r="D94" s="7" t="s">
-        <v>118</v>
+      <c r="D94" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H94" s="26">
         <v>45250</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="K94" s="18" t="s">
-        <v>234</v>
+        <v>508</v>
+      </c>
+      <c r="K94" s="30" t="s">
+        <v>675</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="2"/>
@@ -8191,35 +8207,35 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>383</v>
+        <v>676</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="6"/>
-      <c r="D95" s="7" t="s">
-        <v>118</v>
+      <c r="D95" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H95" s="26">
-        <v>45250</v>
+        <v>45295</v>
       </c>
       <c r="I95" s="17"/>
-      <c r="J95" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="K95" s="18" t="s">
-        <v>236</v>
+      <c r="J95" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="K95" s="30" t="s">
+        <v>659</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="2"/>
@@ -8248,7 +8264,7 @@
     </row>
     <row r="96" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>88</v>
@@ -8271,10 +8287,10 @@
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L96" s="8"/>
       <c r="M96" s="2"/>
@@ -8303,7 +8319,7 @@
     </row>
     <row r="97" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>88</v>
@@ -8325,11 +8341,11 @@
         <v>45250</v>
       </c>
       <c r="I97" s="17"/>
-      <c r="J97" s="16" t="s">
-        <v>239</v>
+      <c r="J97" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L97" s="8"/>
       <c r="M97" s="2"/>
@@ -8358,7 +8374,7 @@
     </row>
     <row r="98" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>88</v>
@@ -8381,10 +8397,10 @@
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L98" s="8"/>
       <c r="M98" s="2"/>
@@ -8413,7 +8429,7 @@
     </row>
     <row r="99" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>88</v>
@@ -8436,10 +8452,10 @@
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="2"/>
@@ -8468,7 +8484,7 @@
     </row>
     <row r="100" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>88</v>
@@ -8491,10 +8507,10 @@
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="2"/>
@@ -8521,9 +8537,9 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>88</v>
@@ -8546,10 +8562,10 @@
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="2"/>
@@ -8578,7 +8594,7 @@
     </row>
     <row r="102" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>88</v>
@@ -8600,11 +8616,11 @@
         <v>45250</v>
       </c>
       <c r="I102" s="17"/>
-      <c r="J102" s="24" t="s">
-        <v>248</v>
+      <c r="J102" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>520</v>
+        <v>245</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="2"/>
@@ -8631,9 +8647,9 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>88</v>
@@ -8656,10 +8672,10 @@
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="K103" s="18" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="2"/>
@@ -8688,7 +8704,7 @@
     </row>
     <row r="104" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>88</v>
@@ -8710,11 +8726,11 @@
         <v>45250</v>
       </c>
       <c r="I104" s="17"/>
-      <c r="J104" s="16" t="s">
-        <v>252</v>
+      <c r="J104" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="2"/>
@@ -8741,16 +8757,16 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>118</v>
@@ -8766,10 +8782,10 @@
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="2"/>
@@ -8796,16 +8812,16 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>118</v>
@@ -8821,10 +8837,10 @@
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="K106" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>511</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="2"/>
@@ -8853,7 +8869,7 @@
     </row>
     <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>88</v>
@@ -8876,10 +8892,10 @@
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="2"/>
@@ -8908,7 +8924,7 @@
     </row>
     <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>88</v>
@@ -8931,10 +8947,10 @@
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="K108" s="18" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="K108" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="2"/>
@@ -8961,39 +8977,37 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7" t="s">
+    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="39">
-        <v>45281</v>
-      </c>
-      <c r="I109" s="34"/>
-      <c r="J109" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="L109" s="23" t="s">
-        <v>538</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="26">
+        <v>45250</v>
+      </c>
+      <c r="I109" s="17"/>
+      <c r="J109" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="L109" s="8"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -9018,39 +9032,37 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7" t="s">
+    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="39">
-        <v>45281</v>
-      </c>
-      <c r="I110" s="34"/>
-      <c r="J110" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="L110" s="35" t="s">
-        <v>541</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="26">
+        <v>45250</v>
+      </c>
+      <c r="I110" s="17"/>
+      <c r="J110" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="L110" s="8"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -9075,9 +9087,9 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="7" t="s">
@@ -9090,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>2</v>
@@ -9100,13 +9112,13 @@
       </c>
       <c r="I111" s="34"/>
       <c r="J111" s="15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>134</v>
+        <v>527</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>398</v>
+        <v>528</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -9132,9 +9144,9 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7" t="s">
@@ -9147,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>2</v>
@@ -9157,13 +9169,13 @@
       </c>
       <c r="I112" s="34"/>
       <c r="J112" s="15" t="s">
-        <v>135</v>
+        <v>529</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L112" s="23" t="s">
-        <v>399</v>
+        <v>530</v>
+      </c>
+      <c r="L112" s="35" t="s">
+        <v>531</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -9189,9 +9201,9 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="7" t="s">
@@ -9204,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>2</v>
@@ -9214,13 +9226,13 @@
       </c>
       <c r="I113" s="34"/>
       <c r="J113" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -9246,9 +9258,9 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="7" t="s">
@@ -9261,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
@@ -9271,13 +9283,13 @@
       </c>
       <c r="I114" s="34"/>
       <c r="J114" s="15" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>401</v>
+        <v>136</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -9303,9 +9315,9 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="7" t="s">
@@ -9318,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>2</v>
@@ -9328,13 +9340,13 @@
       </c>
       <c r="I115" s="34"/>
       <c r="J115" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>141</v>
+        <v>399</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -9360,9 +9372,9 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="7" t="s">
@@ -9375,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>2</v>
@@ -9385,13 +9397,13 @@
       </c>
       <c r="I116" s="34"/>
       <c r="J116" s="15" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="L116" s="23" t="s">
-        <v>143</v>
+        <v>514</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -9417,9 +9429,9 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="7" t="s">
@@ -9432,22 +9444,24 @@
         <v>1</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>3</v>
+        <v>526</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H117" s="39">
         <v>45281</v>
       </c>
       <c r="I117" s="34"/>
       <c r="J117" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="K117" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="L117" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="L117" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -9472,9 +9486,9 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
     </row>
-    <row r="118" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="7" t="s">
@@ -9487,22 +9501,24 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>3</v>
+        <v>526</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="H118" s="39">
         <v>45281</v>
       </c>
       <c r="I118" s="34"/>
       <c r="J118" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="K118" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="L118" s="8"/>
+        <v>533</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="L118" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -9527,9 +9543,9 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
     </row>
-    <row r="119" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="7" t="s">
@@ -9552,10 +9568,10 @@
       </c>
       <c r="I119" s="34"/>
       <c r="J119" s="15" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="K119" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L119" s="8"/>
       <c r="M119" s="2"/>
@@ -9582,9 +9598,9 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
-    <row r="120" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="7" t="s">
@@ -9607,10 +9623,10 @@
       </c>
       <c r="I120" s="34"/>
       <c r="J120" s="15" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="K120" s="23" t="s">
-        <v>151</v>
+        <v>537</v>
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="2"/>
@@ -9639,7 +9655,7 @@
     </row>
     <row r="121" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="7" t="s">
@@ -9662,10 +9678,10 @@
       </c>
       <c r="I121" s="34"/>
       <c r="J121" s="15" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="K121" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L121" s="8"/>
       <c r="M121" s="2"/>
@@ -9692,9 +9708,9 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
     </row>
-    <row r="122" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="7" t="s">
@@ -9707,20 +9723,20 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" s="39">
         <v>45281</v>
       </c>
       <c r="I122" s="34"/>
       <c r="J122" s="15" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="K122" s="23" t="s">
-        <v>552</v>
+        <v>151</v>
       </c>
       <c r="L122" s="8"/>
       <c r="M122" s="2"/>
@@ -9749,7 +9765,7 @@
     </row>
     <row r="123" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="7" t="s">
@@ -9762,20 +9778,20 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" s="39">
         <v>45281</v>
       </c>
       <c r="I123" s="34"/>
       <c r="J123" s="15" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="K123" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L123" s="8"/>
       <c r="M123" s="2"/>
@@ -9804,7 +9820,7 @@
     </row>
     <row r="124" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="7" t="s">
@@ -9827,10 +9843,10 @@
       </c>
       <c r="I124" s="34"/>
       <c r="J124" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="K124" s="23" t="s">
-        <v>155</v>
+        <v>542</v>
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="2"/>
@@ -9859,7 +9875,7 @@
     </row>
     <row r="125" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="7" t="s">
@@ -9872,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>2</v>
@@ -9882,10 +9898,10 @@
       </c>
       <c r="I125" s="34"/>
       <c r="J125" s="15" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L125" s="8"/>
       <c r="M125" s="2"/>
@@ -9914,7 +9930,7 @@
     </row>
     <row r="126" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="7" t="s">
@@ -9927,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>2</v>
@@ -9937,10 +9953,10 @@
       </c>
       <c r="I126" s="34"/>
       <c r="J126" s="15" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L126" s="8"/>
       <c r="M126" s="2"/>
@@ -9967,9 +9983,9 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="7" t="s">
@@ -9992,10 +10008,10 @@
       </c>
       <c r="I127" s="34"/>
       <c r="J127" s="15" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K127" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L127" s="8"/>
       <c r="M127" s="2"/>
@@ -10024,7 +10040,7 @@
     </row>
     <row r="128" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="7" t="s">
@@ -10047,10 +10063,10 @@
       </c>
       <c r="I128" s="34"/>
       <c r="J128" s="15" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="K128" s="23" t="s">
-        <v>559</v>
+        <v>158</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="2"/>
@@ -10077,9 +10093,9 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="7" t="s">
@@ -10102,10 +10118,10 @@
       </c>
       <c r="I129" s="34"/>
       <c r="J129" s="15" t="s">
-        <v>160</v>
+        <v>547</v>
       </c>
       <c r="K129" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L129" s="8"/>
       <c r="M129" s="2"/>
@@ -10132,9 +10148,9 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
     </row>
-    <row r="130" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="7" t="s">
@@ -10144,10 +10160,10 @@
         <v>91</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>2</v>
@@ -10157,14 +10173,12 @@
       </c>
       <c r="I130" s="34"/>
       <c r="J130" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="K130" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L130" s="23" t="s">
-        <v>164</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="L130" s="8"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -10189,9 +10203,9 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="7" t="s">
@@ -10201,10 +10215,10 @@
         <v>91</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>2</v>
@@ -10214,14 +10228,12 @@
       </c>
       <c r="I131" s="34"/>
       <c r="J131" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="K131" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L131" s="23" t="s">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K131" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="L131" s="8"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -10246,9 +10258,9 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
     </row>
-    <row r="132" spans="1:35" ht="203.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="7" t="s">
@@ -10261,7 +10273,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>2</v>
@@ -10271,13 +10283,13 @@
       </c>
       <c r="I132" s="34"/>
       <c r="J132" s="15" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="K132" s="15" t="s">
-        <v>563</v>
+        <v>163</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>564</v>
+        <v>164</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -10303,9 +10315,9 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
     </row>
-    <row r="133" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="7" t="s">
@@ -10318,7 +10330,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>2</v>
@@ -10328,13 +10340,13 @@
       </c>
       <c r="I133" s="34"/>
       <c r="J133" s="15" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="K133" s="15" t="s">
-        <v>412</v>
+        <v>166</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -10360,9 +10372,9 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
     </row>
-    <row r="134" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="203.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="7" t="s">
@@ -10375,7 +10387,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>2</v>
@@ -10385,13 +10397,13 @@
       </c>
       <c r="I134" s="34"/>
       <c r="J134" s="15" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>171</v>
+        <v>553</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>172</v>
+        <v>554</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10417,9 +10429,9 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
     </row>
-    <row r="135" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="7" t="s">
@@ -10432,22 +10444,24 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135" s="39">
         <v>45281</v>
       </c>
       <c r="I135" s="34"/>
       <c r="J135" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="K135" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="L135" s="8"/>
+        <v>555</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="L135" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -10472,9 +10486,9 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
-    <row r="136" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="7" t="s">
@@ -10487,22 +10501,24 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" s="39">
         <v>45281</v>
       </c>
       <c r="I136" s="34"/>
       <c r="J136" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="K136" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L136" s="8"/>
+        <v>556</v>
+      </c>
+      <c r="K136" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L136" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -10527,9 +10543,9 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
     </row>
-    <row r="137" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="7" t="s">
@@ -10552,10 +10568,10 @@
       </c>
       <c r="I137" s="34"/>
       <c r="J137" s="15" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
       <c r="K137" s="23" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="2"/>
@@ -10584,7 +10600,7 @@
     </row>
     <row r="138" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="7" t="s">
@@ -10607,10 +10623,10 @@
       </c>
       <c r="I138" s="34"/>
       <c r="J138" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K138" s="23" t="s">
-        <v>569</v>
+        <v>174</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="2"/>
@@ -10637,9 +10653,9 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
     </row>
-    <row r="139" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="7" t="s">
@@ -10652,20 +10668,20 @@
         <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" s="39">
         <v>45281</v>
       </c>
       <c r="I139" s="34"/>
-      <c r="J139" s="36" t="s">
-        <v>570</v>
+      <c r="J139" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="K139" s="23" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="2"/>
@@ -10692,9 +10708,9 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
     </row>
-    <row r="140" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="7" t="s">
@@ -10707,20 +10723,20 @@
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H140" s="39">
         <v>45281</v>
       </c>
       <c r="I140" s="34"/>
       <c r="J140" s="15" t="s">
-        <v>572</v>
+        <v>176</v>
       </c>
       <c r="K140" s="23" t="s">
-        <v>177</v>
+        <v>559</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="2"/>
@@ -10747,9 +10763,9 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
     </row>
-    <row r="141" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="7" t="s">
@@ -10771,11 +10787,11 @@
         <v>45281</v>
       </c>
       <c r="I141" s="34"/>
-      <c r="J141" s="15" t="s">
-        <v>573</v>
+      <c r="J141" s="36" t="s">
+        <v>560</v>
       </c>
       <c r="K141" s="23" t="s">
-        <v>178</v>
+        <v>561</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="2"/>
@@ -10802,9 +10818,9 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
     </row>
-    <row r="142" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="7" t="s">
@@ -10817,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>2</v>
@@ -10827,10 +10843,10 @@
       </c>
       <c r="I142" s="34"/>
       <c r="J142" s="15" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="K142" s="23" t="s">
-        <v>435</v>
+        <v>177</v>
       </c>
       <c r="L142" s="8"/>
       <c r="M142" s="2"/>
@@ -10857,9 +10873,9 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
     </row>
-    <row r="143" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="7" t="s">
@@ -10872,7 +10888,7 @@
         <v>4</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>2</v>
@@ -10882,12 +10898,12 @@
       </c>
       <c r="I143" s="34"/>
       <c r="J143" s="15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K143" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="L143" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="L143" s="8"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -10912,9 +10928,9 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="2"/>
     </row>
-    <row r="144" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="7" t="s">
@@ -10924,10 +10940,10 @@
         <v>91</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>2</v>
@@ -10937,14 +10953,12 @@
       </c>
       <c r="I144" s="34"/>
       <c r="J144" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="K144" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="L144" s="23" t="s">
-        <v>182</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="K144" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="L144" s="8"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -10969,9 +10983,9 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
     </row>
-    <row r="145" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="7" t="s">
@@ -10981,10 +10995,10 @@
         <v>91</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>2</v>
@@ -10994,14 +11008,12 @@
       </c>
       <c r="I145" s="34"/>
       <c r="J145" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K145" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="L145" s="23" t="s">
-        <v>184</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="K145" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L145" s="21"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -11026,9 +11038,9 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="2"/>
     </row>
-    <row r="146" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="7" t="s">
@@ -11041,7 +11053,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>2</v>
@@ -11051,13 +11063,13 @@
       </c>
       <c r="I146" s="34"/>
       <c r="J146" s="15" t="s">
-        <v>577</v>
+        <v>181</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="L146" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -11083,9 +11095,9 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="2"/>
     </row>
-    <row r="147" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="7" t="s">
@@ -11098,7 +11110,7 @@
         <v>5</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>2</v>
@@ -11108,13 +11120,13 @@
       </c>
       <c r="I147" s="34"/>
       <c r="J147" s="15" t="s">
-        <v>579</v>
+        <v>183</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="L147" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -11140,9 +11152,9 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
     </row>
-    <row r="148" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="7" t="s">
@@ -11155,7 +11167,7 @@
         <v>5</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>2</v>
@@ -11165,13 +11177,13 @@
       </c>
       <c r="I148" s="34"/>
       <c r="J148" s="15" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="K148" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="L148" s="35" t="s">
-        <v>188</v>
+        <v>568</v>
+      </c>
+      <c r="L148" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -11197,9 +11209,9 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="2"/>
     </row>
-    <row r="149" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="7" t="s">
@@ -11212,22 +11224,24 @@
         <v>5</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149" s="39">
         <v>45281</v>
       </c>
       <c r="I149" s="34"/>
       <c r="J149" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K149" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="L149" s="8"/>
+        <v>569</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L149" s="23" t="s">
+        <v>187</v>
+      </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -11252,9 +11266,9 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
     </row>
-    <row r="150" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="7" t="s">
@@ -11267,22 +11281,24 @@
         <v>5</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H150" s="39">
         <v>45281</v>
       </c>
       <c r="I150" s="34"/>
       <c r="J150" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K150" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="L150" s="8"/>
+        <v>570</v>
+      </c>
+      <c r="K150" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="L150" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -11307,9 +11323,9 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
     </row>
-    <row r="151" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="7" t="s">
@@ -11332,10 +11348,10 @@
       </c>
       <c r="I151" s="34"/>
       <c r="J151" s="15" t="s">
-        <v>584</v>
+        <v>189</v>
       </c>
       <c r="K151" s="23" t="s">
-        <v>191</v>
+        <v>572</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="2"/>
@@ -11364,7 +11380,7 @@
     </row>
     <row r="152" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="7" t="s">
@@ -11387,10 +11403,10 @@
       </c>
       <c r="I152" s="34"/>
       <c r="J152" s="15" t="s">
-        <v>585</v>
+        <v>183</v>
       </c>
       <c r="K152" s="23" t="s">
-        <v>192</v>
+        <v>573</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11419,7 +11435,7 @@
     </row>
     <row r="153" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="7" t="s">
@@ -11442,10 +11458,10 @@
       </c>
       <c r="I153" s="34"/>
       <c r="J153" s="15" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K153" s="23" t="s">
-        <v>587</v>
+        <v>191</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="2"/>
@@ -11474,7 +11490,7 @@
     </row>
     <row r="154" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="7" t="s">
@@ -11497,10 +11513,10 @@
       </c>
       <c r="I154" s="34"/>
       <c r="J154" s="15" t="s">
-        <v>193</v>
+        <v>575</v>
       </c>
       <c r="K154" s="23" t="s">
-        <v>588</v>
+        <v>192</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="2"/>
@@ -11527,9 +11543,9 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="2"/>
     </row>
-    <row r="155" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="7" t="s">
@@ -11542,20 +11558,20 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" s="39">
         <v>45281</v>
       </c>
       <c r="I155" s="34"/>
       <c r="J155" s="15" t="s">
-        <v>194</v>
+        <v>576</v>
       </c>
       <c r="K155" s="23" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="2"/>
@@ -11584,7 +11600,7 @@
     </row>
     <row r="156" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="7" t="s">
@@ -11597,20 +11613,20 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H156" s="39">
         <v>45281</v>
       </c>
       <c r="I156" s="34"/>
       <c r="J156" s="15" t="s">
-        <v>590</v>
+        <v>193</v>
       </c>
       <c r="K156" s="23" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="2"/>
@@ -11639,7 +11655,7 @@
     </row>
     <row r="157" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="7" t="s">
@@ -11662,10 +11678,10 @@
       </c>
       <c r="I157" s="34"/>
       <c r="J157" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K157" s="23" t="s">
-        <v>196</v>
+        <v>579</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="2"/>
@@ -11694,7 +11710,7 @@
     </row>
     <row r="158" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="7" t="s">
@@ -11717,10 +11733,10 @@
       </c>
       <c r="I158" s="34"/>
       <c r="J158" s="15" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K158" s="23" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="2"/>
@@ -11749,7 +11765,7 @@
     </row>
     <row r="159" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="7" t="s">
@@ -11772,10 +11788,10 @@
       </c>
       <c r="I159" s="34"/>
       <c r="J159" s="15" t="s">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="K159" s="23" t="s">
-        <v>595</v>
+        <v>196</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="2"/>
@@ -11802,9 +11818,9 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="2"/>
     </row>
-    <row r="160" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="7" t="s">
@@ -11817,7 +11833,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>2</v>
@@ -11827,10 +11843,10 @@
       </c>
       <c r="I160" s="34"/>
       <c r="J160" s="15" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K160" s="23" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="2"/>
@@ -11859,7 +11875,7 @@
     </row>
     <row r="161" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="7" t="s">
@@ -11872,7 +11888,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>2</v>
@@ -11882,10 +11898,10 @@
       </c>
       <c r="I161" s="34"/>
       <c r="J161" s="15" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="K161" s="23" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="2"/>
@@ -11912,9 +11928,9 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
     </row>
-    <row r="162" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="7" t="s">
@@ -11937,10 +11953,10 @@
       </c>
       <c r="I162" s="34"/>
       <c r="J162" s="15" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="K162" s="23" t="s">
-        <v>197</v>
+        <v>587</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="2"/>
@@ -11969,7 +11985,7 @@
     </row>
     <row r="163" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="7" t="s">
@@ -11992,10 +12008,10 @@
       </c>
       <c r="I163" s="34"/>
       <c r="J163" s="15" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="K163" s="23" t="s">
-        <v>198</v>
+        <v>589</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="2"/>
@@ -12024,7 +12040,7 @@
     </row>
     <row r="164" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="7" t="s">
@@ -12047,10 +12063,10 @@
       </c>
       <c r="I164" s="34"/>
       <c r="J164" s="15" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K164" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="2"/>
@@ -12079,7 +12095,7 @@
     </row>
     <row r="165" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="7" t="s">
@@ -12102,12 +12118,12 @@
       </c>
       <c r="I165" s="34"/>
       <c r="J165" s="15" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K165" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="L165" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="L165" s="8"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -12132,22 +12148,22 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="2"/>
     </row>
-    <row r="166" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>2</v>
@@ -12157,14 +12173,12 @@
       </c>
       <c r="I166" s="34"/>
       <c r="J166" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K166" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="L166" s="23" t="s">
-        <v>411</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="K166" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L166" s="8"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -12189,22 +12203,22 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="2"/>
     </row>
-    <row r="167" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>2</v>
@@ -12214,14 +12228,12 @@
       </c>
       <c r="I167" s="34"/>
       <c r="J167" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K167" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="L167" s="23" t="s">
-        <v>605</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="K167" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="L167" s="21"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -12246,9 +12258,9 @@
       <c r="AH167" s="2"/>
       <c r="AI167" s="2"/>
     </row>
-    <row r="168" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="7" t="s">
@@ -12261,7 +12273,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>2</v>
@@ -12271,13 +12283,13 @@
       </c>
       <c r="I168" s="34"/>
       <c r="J168" s="15" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K168" s="15" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="L168" s="23" t="s">
-        <v>606</v>
+        <v>410</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -12303,9 +12315,9 @@
       <c r="AH168" s="2"/>
       <c r="AI168" s="2"/>
     </row>
-    <row r="169" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="7" t="s">
@@ -12318,7 +12330,7 @@
         <v>4</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>2</v>
@@ -12328,12 +12340,14 @@
       </c>
       <c r="I169" s="34"/>
       <c r="J169" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K169" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="L169" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="K169" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="L169" s="23" t="s">
+        <v>595</v>
+      </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -12358,9 +12372,9 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
     </row>
-    <row r="170" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="7" t="s">
@@ -12370,10 +12384,10 @@
         <v>99</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>2</v>
@@ -12383,13 +12397,13 @@
       </c>
       <c r="I170" s="34"/>
       <c r="J170" s="15" t="s">
-        <v>608</v>
+        <v>419</v>
       </c>
       <c r="K170" s="15" t="s">
-        <v>609</v>
+        <v>420</v>
       </c>
       <c r="L170" s="23" t="s">
-        <v>204</v>
+        <v>596</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -12415,9 +12429,9 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="7" t="s">
@@ -12427,10 +12441,10 @@
         <v>99</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>2</v>
@@ -12440,14 +12454,12 @@
       </c>
       <c r="I171" s="34"/>
       <c r="J171" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="K171" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="L171" s="23" t="s">
-        <v>611</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K171" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="L171" s="21"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -12472,9 +12484,9 @@
       <c r="AH171" s="2"/>
       <c r="AI171" s="2"/>
     </row>
-    <row r="172" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="7" t="s">
@@ -12487,7 +12499,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>2</v>
@@ -12497,13 +12509,13 @@
       </c>
       <c r="I172" s="34"/>
       <c r="J172" s="15" t="s">
-        <v>205</v>
+        <v>598</v>
       </c>
       <c r="K172" s="15" t="s">
-        <v>206</v>
+        <v>599</v>
       </c>
       <c r="L172" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -12529,9 +12541,9 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
     </row>
-    <row r="173" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="7" t="s">
@@ -12544,23 +12556,23 @@
         <v>5</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" s="39">
         <v>45281</v>
       </c>
       <c r="I173" s="34"/>
       <c r="J173" s="15" t="s">
-        <v>208</v>
+        <v>600</v>
       </c>
       <c r="K173" s="15" t="s">
-        <v>612</v>
+        <v>445</v>
       </c>
       <c r="L173" s="23" t="s">
-        <v>209</v>
+        <v>601</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -12586,9 +12598,9 @@
       <c r="AH173" s="2"/>
       <c r="AI173" s="2"/>
     </row>
-    <row r="174" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="7" t="s">
@@ -12601,22 +12613,24 @@
         <v>5</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" s="39">
         <v>45281</v>
       </c>
       <c r="I174" s="34"/>
       <c r="J174" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="K174" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="L174" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="K174" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" s="23" t="s">
+        <v>207</v>
+      </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -12641,9 +12655,9 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="7" t="s">
@@ -12666,12 +12680,14 @@
       </c>
       <c r="I175" s="34"/>
       <c r="J175" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K175" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="L175" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="K175" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="L175" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -12698,7 +12714,7 @@
     </row>
     <row r="176" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="7" t="s">
@@ -12721,10 +12737,10 @@
       </c>
       <c r="I176" s="34"/>
       <c r="J176" s="15" t="s">
-        <v>212</v>
+        <v>603</v>
       </c>
       <c r="K176" s="23" t="s">
-        <v>615</v>
+        <v>210</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="2"/>
@@ -12753,7 +12769,7 @@
     </row>
     <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="7" t="s">
@@ -12766,20 +12782,20 @@
         <v>5</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" s="39">
         <v>45281</v>
       </c>
       <c r="I177" s="34"/>
       <c r="J177" s="15" t="s">
-        <v>616</v>
+        <v>211</v>
       </c>
       <c r="K177" s="23" t="s">
-        <v>213</v>
+        <v>604</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="2"/>
@@ -12808,7 +12824,7 @@
     </row>
     <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="7" t="s">
@@ -12821,20 +12837,20 @@
         <v>5</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" s="39">
         <v>45281</v>
       </c>
       <c r="I178" s="34"/>
       <c r="J178" s="15" t="s">
-        <v>592</v>
+        <v>212</v>
       </c>
       <c r="K178" s="23" t="s">
-        <v>214</v>
+        <v>605</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="2"/>
@@ -12863,7 +12879,7 @@
     </row>
     <row r="179" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="7" t="s">
@@ -12886,10 +12902,10 @@
       </c>
       <c r="I179" s="34"/>
       <c r="J179" s="15" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="K179" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="2"/>
@@ -12916,9 +12932,9 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
     </row>
-    <row r="180" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="7" t="s">
@@ -12931,7 +12947,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>2</v>
@@ -12941,10 +12957,10 @@
       </c>
       <c r="I180" s="34"/>
       <c r="J180" s="15" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="K180" s="23" t="s">
-        <v>619</v>
+        <v>214</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="2"/>
@@ -12973,7 +12989,7 @@
     </row>
     <row r="181" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="7" t="s">
@@ -12986,7 +13002,7 @@
         <v>5</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>2</v>
@@ -12996,10 +13012,10 @@
       </c>
       <c r="I181" s="34"/>
       <c r="J181" s="15" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="K181" s="23" t="s">
-        <v>621</v>
+        <v>215</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="2"/>
@@ -13026,9 +13042,9 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
     </row>
-    <row r="182" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="7" t="s">
@@ -13051,10 +13067,10 @@
       </c>
       <c r="I182" s="34"/>
       <c r="J182" s="15" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="K182" s="23" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13083,7 +13099,7 @@
     </row>
     <row r="183" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="7" t="s">
@@ -13106,10 +13122,10 @@
       </c>
       <c r="I183" s="34"/>
       <c r="J183" s="15" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="K183" s="23" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13138,7 +13154,7 @@
     </row>
     <row r="184" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="7" t="s">
@@ -13161,10 +13177,10 @@
       </c>
       <c r="I184" s="34"/>
       <c r="J184" s="15" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="K184" s="23" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="2"/>
@@ -13193,7 +13209,7 @@
     </row>
     <row r="185" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="7" t="s">
@@ -13216,10 +13232,10 @@
       </c>
       <c r="I185" s="34"/>
       <c r="J185" s="15" t="s">
-        <v>211</v>
+        <v>614</v>
       </c>
       <c r="K185" s="23" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="2"/>
@@ -13248,7 +13264,7 @@
     </row>
     <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="7" t="s">
@@ -13271,10 +13287,10 @@
       </c>
       <c r="I186" s="34"/>
       <c r="J186" s="15" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="K186" s="23" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="L186" s="8"/>
       <c r="M186" s="2"/>
@@ -13303,7 +13319,7 @@
     </row>
     <row r="187" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="7" t="s">
@@ -13326,10 +13342,10 @@
       </c>
       <c r="I187" s="34"/>
       <c r="J187" s="15" t="s">
-        <v>630</v>
+        <v>211</v>
       </c>
       <c r="K187" s="23" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="2"/>
@@ -13358,7 +13374,7 @@
     </row>
     <row r="188" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="7" t="s">
@@ -13381,10 +13397,10 @@
       </c>
       <c r="I188" s="34"/>
       <c r="J188" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K188" s="23" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="2"/>
@@ -13411,9 +13427,9 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="2"/>
     </row>
-    <row r="189" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="7" t="s">
@@ -13423,10 +13439,10 @@
         <v>99</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G189" s="7" t="s">
         <v>2</v>
@@ -13436,14 +13452,12 @@
       </c>
       <c r="I189" s="34"/>
       <c r="J189" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="K189" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="L189" s="35" t="s">
-        <v>484</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="K189" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="L189" s="8"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -13468,9 +13482,9 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="2"/>
     </row>
-    <row r="190" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="7" t="s">
@@ -13480,10 +13494,10 @@
         <v>99</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G190" s="7" t="s">
         <v>2</v>
@@ -13493,14 +13507,12 @@
       </c>
       <c r="I190" s="34"/>
       <c r="J190" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="K190" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="L190" s="23" t="s">
-        <v>219</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="K190" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="L190" s="8"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -13525,9 +13537,9 @@
       <c r="AH190" s="2"/>
       <c r="AI190" s="2"/>
     </row>
-    <row r="191" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="7" t="s">
@@ -13540,7 +13552,7 @@
         <v>100</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>2</v>
@@ -13550,13 +13562,13 @@
       </c>
       <c r="I191" s="34"/>
       <c r="J191" s="15" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="L191" s="23" t="s">
-        <v>220</v>
+        <v>624</v>
+      </c>
+      <c r="L191" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -13582,9 +13594,9 @@
       <c r="AH191" s="2"/>
       <c r="AI191" s="2"/>
     </row>
-    <row r="192" spans="1:35" ht="248.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="7" t="s">
@@ -13597,7 +13609,7 @@
         <v>100</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>2</v>
@@ -13607,13 +13619,13 @@
       </c>
       <c r="I192" s="34"/>
       <c r="J192" s="15" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="L192" s="37" t="s">
-        <v>526</v>
+        <v>626</v>
+      </c>
+      <c r="L192" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -13639,9 +13651,9 @@
       <c r="AH192" s="2"/>
       <c r="AI192" s="2"/>
     </row>
-    <row r="193" spans="1:35" ht="315.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="7" t="s">
@@ -13654,7 +13666,7 @@
         <v>100</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>2</v>
@@ -13664,13 +13676,13 @@
       </c>
       <c r="I193" s="34"/>
       <c r="J193" s="15" t="s">
-        <v>221</v>
+        <v>627</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>640</v>
+        <v>489</v>
       </c>
       <c r="L193" s="23" t="s">
-        <v>641</v>
+        <v>220</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -13696,9 +13708,9 @@
       <c r="AH193" s="2"/>
       <c r="AI193" s="2"/>
     </row>
-    <row r="194" spans="1:35" ht="394.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" ht="248.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="38" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="7" t="s">
@@ -13711,7 +13723,7 @@
         <v>100</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>2</v>
@@ -13721,13 +13733,13 @@
       </c>
       <c r="I194" s="34"/>
       <c r="J194" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K194" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="L194" s="23" t="s">
-        <v>643</v>
+        <v>628</v>
+      </c>
+      <c r="K194" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="L194" s="37" t="s">
+        <v>516</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -13753,9 +13765,9 @@
       <c r="AH194" s="2"/>
       <c r="AI194" s="2"/>
     </row>
-    <row r="195" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" ht="315.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="7" t="s">
@@ -13768,7 +13780,7 @@
         <v>100</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>2</v>
@@ -13778,13 +13790,13 @@
       </c>
       <c r="I195" s="34"/>
       <c r="J195" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="L195" s="23" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13810,9 +13822,9 @@
       <c r="AH195" s="2"/>
       <c r="AI195" s="2"/>
     </row>
-    <row r="196" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" ht="394.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="7" t="s">
@@ -13825,7 +13837,7 @@
         <v>100</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>2</v>
@@ -13835,13 +13847,13 @@
       </c>
       <c r="I196" s="34"/>
       <c r="J196" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K196" s="15" t="s">
-        <v>646</v>
+        <v>222</v>
+      </c>
+      <c r="K196" s="36" t="s">
+        <v>632</v>
       </c>
       <c r="L196" s="23" t="s">
-        <v>225</v>
+        <v>633</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13867,9 +13879,9 @@
       <c r="AH196" s="2"/>
       <c r="AI196" s="2"/>
     </row>
-    <row r="197" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="7" t="s">
@@ -13882,7 +13894,7 @@
         <v>100</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>2</v>
@@ -13892,13 +13904,13 @@
       </c>
       <c r="I197" s="34"/>
       <c r="J197" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K197" s="36" t="s">
-        <v>647</v>
+        <v>223</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>634</v>
       </c>
       <c r="L197" s="23" t="s">
-        <v>530</v>
+        <v>635</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13924,9 +13936,9 @@
       <c r="AH197" s="2"/>
       <c r="AI197" s="2"/>
     </row>
-    <row r="198" spans="1:35" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="7" t="s">
@@ -13939,7 +13951,7 @@
         <v>100</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>2</v>
@@ -13949,13 +13961,13 @@
       </c>
       <c r="I198" s="34"/>
       <c r="J198" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="L198" s="37" t="s">
-        <v>531</v>
+        <v>636</v>
+      </c>
+      <c r="L198" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -13981,9 +13993,9 @@
       <c r="AH198" s="2"/>
       <c r="AI198" s="2"/>
     </row>
-    <row r="199" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="7" t="s">
@@ -13996,7 +14008,7 @@
         <v>100</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>2</v>
@@ -14006,13 +14018,13 @@
       </c>
       <c r="I199" s="34"/>
       <c r="J199" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="K199" s="15" t="s">
-        <v>649</v>
+        <v>226</v>
+      </c>
+      <c r="K199" s="36" t="s">
+        <v>637</v>
       </c>
       <c r="L199" s="23" t="s">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -14038,9 +14050,9 @@
       <c r="AH199" s="2"/>
       <c r="AI199" s="2"/>
     </row>
-    <row r="200" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="7" t="s">
@@ -14053,7 +14065,7 @@
         <v>100</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G200" s="7" t="s">
         <v>2</v>
@@ -14063,13 +14075,13 @@
       </c>
       <c r="I200" s="34"/>
       <c r="J200" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="L200" s="23" t="s">
-        <v>532</v>
+        <v>638</v>
+      </c>
+      <c r="L200" s="37" t="s">
+        <v>521</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -14095,9 +14107,9 @@
       <c r="AH200" s="2"/>
       <c r="AI200" s="2"/>
     </row>
-    <row r="201" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="7" t="s">
@@ -14110,7 +14122,7 @@
         <v>100</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>2</v>
@@ -14120,13 +14132,13 @@
       </c>
       <c r="I201" s="34"/>
       <c r="J201" s="15" t="s">
-        <v>503</v>
+        <v>228</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="L201" s="35" t="s">
-        <v>505</v>
+        <v>639</v>
+      </c>
+      <c r="L201" s="23" t="s">
+        <v>640</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14152,9 +14164,9 @@
       <c r="AH201" s="2"/>
       <c r="AI201" s="2"/>
     </row>
-    <row r="202" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="7" t="s">
@@ -14167,22 +14179,24 @@
         <v>100</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H202" s="39">
         <v>45281</v>
       </c>
       <c r="I202" s="34"/>
       <c r="J202" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="K202" s="23" t="s">
-        <v>652</v>
-      </c>
-      <c r="L202" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="K202" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="L202" s="23" t="s">
+        <v>522</v>
+      </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -14207,9 +14221,9 @@
       <c r="AH202" s="2"/>
       <c r="AI202" s="2"/>
     </row>
-    <row r="203" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="7" t="s">
@@ -14222,7 +14236,7 @@
         <v>100</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>96</v>
+        <v>526</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>2</v>
@@ -14232,12 +14246,14 @@
       </c>
       <c r="I203" s="34"/>
       <c r="J203" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="K203" s="23" t="s">
-        <v>654</v>
-      </c>
-      <c r="L203" s="8"/>
+        <v>497</v>
+      </c>
+      <c r="K203" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L203" s="35" t="s">
+        <v>499</v>
+      </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -14264,7 +14280,7 @@
     </row>
     <row r="204" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="7" t="s">
@@ -14277,20 +14293,20 @@
         <v>100</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H204" s="39">
         <v>45281</v>
       </c>
       <c r="I204" s="34"/>
       <c r="J204" s="15" t="s">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="K204" s="23" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="2"/>
@@ -14319,7 +14335,7 @@
     </row>
     <row r="205" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="7" t="s">
@@ -14332,7 +14348,7 @@
         <v>100</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G205" s="7" t="s">
         <v>2</v>
@@ -14342,10 +14358,10 @@
       </c>
       <c r="I205" s="34"/>
       <c r="J205" s="15" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="K205" s="23" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="2"/>
@@ -14374,7 +14390,7 @@
     </row>
     <row r="206" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="7" t="s">
@@ -14387,7 +14403,7 @@
         <v>100</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>2</v>
@@ -14397,10 +14413,10 @@
       </c>
       <c r="I206" s="34"/>
       <c r="J206" s="15" t="s">
-        <v>492</v>
+        <v>645</v>
       </c>
       <c r="K206" s="23" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14429,7 +14445,7 @@
     </row>
     <row r="207" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="7" t="s">
@@ -14452,10 +14468,10 @@
       </c>
       <c r="I207" s="34"/>
       <c r="J207" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K207" s="35" t="s">
-        <v>660</v>
+        <v>647</v>
+      </c>
+      <c r="K207" s="23" t="s">
+        <v>648</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14484,7 +14500,7 @@
     </row>
     <row r="208" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="7" t="s">
@@ -14507,10 +14523,10 @@
       </c>
       <c r="I208" s="34"/>
       <c r="J208" s="15" t="s">
-        <v>661</v>
+        <v>490</v>
       </c>
       <c r="K208" s="23" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14539,7 +14555,7 @@
     </row>
     <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="38" t="s">
-        <v>670</v>
+        <v>303</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="7" t="s">
@@ -14562,10 +14578,10 @@
       </c>
       <c r="I209" s="34"/>
       <c r="J209" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="K209" s="23" t="s">
-        <v>664</v>
+        <v>231</v>
+      </c>
+      <c r="K209" s="35" t="s">
+        <v>650</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14594,7 +14610,7 @@
     </row>
     <row r="210" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="38" t="s">
-        <v>671</v>
+        <v>304</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="7" t="s">
@@ -14617,10 +14633,10 @@
       </c>
       <c r="I210" s="34"/>
       <c r="J210" s="15" t="s">
-        <v>232</v>
+        <v>651</v>
       </c>
       <c r="K210" s="23" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="2"/>
@@ -14649,7 +14665,7 @@
     </row>
     <row r="211" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="7" t="s">
@@ -14672,10 +14688,10 @@
       </c>
       <c r="I211" s="34"/>
       <c r="J211" s="15" t="s">
-        <v>228</v>
+        <v>653</v>
       </c>
       <c r="K211" s="23" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="2"/>
@@ -14704,7 +14720,7 @@
     </row>
     <row r="212" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="38" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="7" t="s">
@@ -14727,10 +14743,10 @@
       </c>
       <c r="I212" s="34"/>
       <c r="J212" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K212" s="23" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="2"/>
@@ -14759,7 +14775,7 @@
     </row>
     <row r="213" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="38" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="7" t="s">
@@ -14782,10 +14798,10 @@
       </c>
       <c r="I213" s="34"/>
       <c r="J213" s="15" t="s">
-        <v>668</v>
+        <v>228</v>
       </c>
       <c r="K213" s="23" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="2"/>
@@ -14812,22 +14828,22 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
     </row>
-    <row r="214" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38" t="s">
-        <v>101</v>
+        <v>663</v>
       </c>
       <c r="B214" s="8"/>
       <c r="C214" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G214" s="7" t="s">
         <v>2</v>
@@ -14837,10 +14853,10 @@
       </c>
       <c r="I214" s="34"/>
       <c r="J214" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K214" s="23" t="s">
-        <v>234</v>
+        <v>657</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="2"/>
@@ -14867,22 +14883,22 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
     </row>
-    <row r="215" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="38" t="s">
-        <v>102</v>
+        <v>664</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>536</v>
+        <v>93</v>
       </c>
       <c r="G215" s="7" t="s">
         <v>2</v>
@@ -14892,10 +14908,10 @@
       </c>
       <c r="I215" s="34"/>
       <c r="J215" s="15" t="s">
-        <v>235</v>
+        <v>658</v>
       </c>
       <c r="K215" s="23" t="s">
-        <v>236</v>
+        <v>659</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -14924,7 +14940,7 @@
     </row>
     <row r="216" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="7" t="s">
@@ -14937,7 +14953,7 @@
         <v>118</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>2</v>
@@ -14947,10 +14963,10 @@
       </c>
       <c r="I216" s="34"/>
       <c r="J216" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K216" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="2"/>
@@ -14979,7 +14995,7 @@
     </row>
     <row r="217" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="7" t="s">
@@ -14992,7 +15008,7 @@
         <v>118</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>2</v>
@@ -15002,10 +15018,10 @@
       </c>
       <c r="I217" s="34"/>
       <c r="J217" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K217" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L217" s="8"/>
       <c r="M217" s="2"/>
@@ -15034,7 +15050,7 @@
     </row>
     <row r="218" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="7" t="s">
@@ -15047,7 +15063,7 @@
         <v>118</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>2</v>
@@ -15057,10 +15073,10 @@
       </c>
       <c r="I218" s="34"/>
       <c r="J218" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K218" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="2"/>
@@ -15089,7 +15105,7 @@
     </row>
     <row r="219" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="7" t="s">
@@ -15102,7 +15118,7 @@
         <v>118</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>2</v>
@@ -15112,10 +15128,10 @@
       </c>
       <c r="I219" s="34"/>
       <c r="J219" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K219" s="23" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="L219" s="8"/>
       <c r="M219" s="2"/>
@@ -15144,7 +15160,7 @@
     </row>
     <row r="220" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="7" t="s">
@@ -15157,7 +15173,7 @@
         <v>118</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>2</v>
@@ -15167,10 +15183,10 @@
       </c>
       <c r="I220" s="34"/>
       <c r="J220" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K220" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="2"/>
@@ -15199,7 +15215,7 @@
     </row>
     <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B221" s="8"/>
       <c r="C221" s="7" t="s">
@@ -15212,7 +15228,7 @@
         <v>118</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>2</v>
@@ -15222,10 +15238,10 @@
       </c>
       <c r="I221" s="34"/>
       <c r="J221" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K221" s="23" t="s">
-        <v>247</v>
+        <v>509</v>
       </c>
       <c r="L221" s="8"/>
       <c r="M221" s="2"/>
@@ -15254,7 +15270,7 @@
     </row>
     <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="7" t="s">
@@ -15267,7 +15283,7 @@
         <v>118</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>2</v>
@@ -15277,10 +15293,10 @@
       </c>
       <c r="I222" s="34"/>
       <c r="J222" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K222" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L222" s="8"/>
       <c r="M222" s="2"/>
@@ -15309,7 +15325,7 @@
     </row>
     <row r="223" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="7" t="s">
@@ -15322,7 +15338,7 @@
         <v>118</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G223" s="7" t="s">
         <v>2</v>
@@ -15332,10 +15348,10 @@
       </c>
       <c r="I223" s="34"/>
       <c r="J223" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K223" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L223" s="8"/>
       <c r="M223" s="2"/>
@@ -15364,7 +15380,7 @@
     </row>
     <row r="224" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="7" t="s">
@@ -15377,7 +15393,7 @@
         <v>118</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>2</v>
@@ -15387,10 +15403,10 @@
       </c>
       <c r="I224" s="34"/>
       <c r="J224" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K224" s="23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L224" s="8"/>
       <c r="M224" s="2"/>
@@ -15419,33 +15435,33 @@
     </row>
     <row r="225" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H225" s="39">
         <v>45281</v>
       </c>
       <c r="I225" s="34"/>
       <c r="J225" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K225" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L225" s="8"/>
       <c r="M225" s="2"/>
@@ -15474,33 +15490,33 @@
     </row>
     <row r="226" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H226" s="39">
         <v>45281</v>
       </c>
       <c r="I226" s="34"/>
       <c r="J226" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="K226" s="35" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="K226" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="L226" s="8"/>
       <c r="M226" s="2"/>
@@ -15529,7 +15545,7 @@
     </row>
     <row r="227" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="7" t="s">
@@ -15552,10 +15568,10 @@
       </c>
       <c r="I227" s="34"/>
       <c r="J227" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K227" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L227" s="8"/>
       <c r="M227" s="2"/>
@@ -15584,7 +15600,7 @@
     </row>
     <row r="228" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="7" t="s">
@@ -15607,10 +15623,10 @@
       </c>
       <c r="I228" s="34"/>
       <c r="J228" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="K228" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="K228" s="35" t="s">
+        <v>257</v>
       </c>
       <c r="L228" s="8"/>
       <c r="M228" s="2"/>
@@ -15637,17 +15653,37 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="2"/>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
+    <row r="229" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B229" s="8"/>
+      <c r="C229" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H229" s="39">
+        <v>45281</v>
+      </c>
+      <c r="I229" s="34"/>
+      <c r="J229" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K229" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="L229" s="8"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -15672,17 +15708,37 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="2"/>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A230" s="9"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
+    <row r="230" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B230" s="8"/>
+      <c r="C230" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H230" s="39">
+        <v>45281</v>
+      </c>
+      <c r="I230" s="34"/>
+      <c r="J230" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K230" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="L230" s="8"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -37792,12 +37848,82 @@
       <c r="AH861" s="2"/>
       <c r="AI861" s="2"/>
     </row>
+    <row r="862" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A862" s="9"/>
+      <c r="B862" s="10"/>
+      <c r="C862" s="10"/>
+      <c r="D862" s="10"/>
+      <c r="F862" s="10"/>
+      <c r="G862" s="10"/>
+      <c r="H862" s="10"/>
+      <c r="I862" s="10"/>
+      <c r="J862" s="10"/>
+      <c r="K862" s="10"/>
+      <c r="M862" s="2"/>
+      <c r="N862" s="2"/>
+      <c r="O862" s="2"/>
+      <c r="P862" s="2"/>
+      <c r="Q862" s="2"/>
+      <c r="R862" s="2"/>
+      <c r="S862" s="2"/>
+      <c r="T862" s="2"/>
+      <c r="U862" s="2"/>
+      <c r="V862" s="2"/>
+      <c r="W862" s="2"/>
+      <c r="X862" s="2"/>
+      <c r="Y862" s="2"/>
+      <c r="Z862" s="2"/>
+      <c r="AA862" s="2"/>
+      <c r="AB862" s="2"/>
+      <c r="AC862" s="2"/>
+      <c r="AD862" s="2"/>
+      <c r="AE862" s="2"/>
+      <c r="AF862" s="2"/>
+      <c r="AG862" s="2"/>
+      <c r="AH862" s="2"/>
+      <c r="AI862" s="2"/>
+    </row>
+    <row r="863" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A863" s="9"/>
+      <c r="B863" s="10"/>
+      <c r="C863" s="10"/>
+      <c r="D863" s="10"/>
+      <c r="F863" s="10"/>
+      <c r="G863" s="10"/>
+      <c r="H863" s="10"/>
+      <c r="I863" s="10"/>
+      <c r="J863" s="10"/>
+      <c r="K863" s="10"/>
+      <c r="M863" s="2"/>
+      <c r="N863" s="2"/>
+      <c r="O863" s="2"/>
+      <c r="P863" s="2"/>
+      <c r="Q863" s="2"/>
+      <c r="R863" s="2"/>
+      <c r="S863" s="2"/>
+      <c r="T863" s="2"/>
+      <c r="U863" s="2"/>
+      <c r="V863" s="2"/>
+      <c r="W863" s="2"/>
+      <c r="X863" s="2"/>
+      <c r="Y863" s="2"/>
+      <c r="Z863" s="2"/>
+      <c r="AA863" s="2"/>
+      <c r="AB863" s="2"/>
+      <c r="AC863" s="2"/>
+      <c r="AD863" s="2"/>
+      <c r="AE863" s="2"/>
+      <c r="AF863" s="2"/>
+      <c r="AG863" s="2"/>
+      <c r="AH863" s="2"/>
+      <c r="AI863" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K108" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
+  <autoFilter ref="A1:K110" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L192" r:id="rId1" display="https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center" xr:uid="{20FECAF4-892A-409F-9D33-D8925383DE18}"/>
-    <hyperlink ref="L198" r:id="rId2" display="http://www.aka.ms/academiceligibility" xr:uid="{DF9F6662-0EC3-4AE0-8224-12B1FE04C967}"/>
+    <hyperlink ref="L194" r:id="rId1" display="https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center" xr:uid="{20FECAF4-892A-409F-9D33-D8925383DE18}"/>
+    <hyperlink ref="L200" r:id="rId2" display="http://www.aka.ms/academiceligibility" xr:uid="{DF9F6662-0EC3-4AE0-8224-12B1FE04C967}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId3"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2B841-C234-4594-B29D-EB1E170A8659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A48BA-2DCB-404C-B126-032DFEC9AA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="11370" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="12585" yWindow="1755" windowWidth="43200" windowHeight="12645" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risks!$A$1:$K$230</definedName>
     <definedName name="_Hlk79743764" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744291" localSheetId="0">Risks!#REF!</definedName>
     <definedName name="_Hlk79744411" localSheetId="0">Risks!#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="676">
   <si>
     <t>Sub-Area</t>
   </si>
@@ -1750,9 +1750,6 @@
   <si>
     <t>Dynamics 365 may only be resold to end customers if reseller meet the eligibility requirements set by Microsoft. 
 Reseller must have at least 2 employees who passed the Microsoft technical exam, as further specified in the Microsoft Partner Network agreement, before starting the resale.</t>
-  </si>
-  <si>
-    <t>Establish Routine</t>
   </si>
   <si>
     <t>This implies that Microsoft may unilaterally change the Core Terms with 180 days' notice. This may be notified by Microsoft in its portal to which the reseller should have access. These changes will have effect going forward only.</t>
@@ -2626,9 +2623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2666,7 +2663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2772,7 +2769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2914,7 +2911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2922,11 +2919,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI863"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111:F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3002,7 +3000,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +3057,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>120</v>
       </c>
@@ -3116,7 +3114,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>121</v>
       </c>
@@ -3173,7 +3171,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>122</v>
       </c>
@@ -3230,7 +3228,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>123</v>
       </c>
@@ -3287,7 +3285,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="135" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>124</v>
       </c>
@@ -3344,7 +3342,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="51.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>125</v>
       </c>
@@ -3401,7 +3399,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="78.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>126</v>
       </c>
@@ -3456,7 +3454,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="90" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>127</v>
       </c>
@@ -3511,7 +3509,7 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="191.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>128</v>
       </c>
@@ -3566,7 +3564,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>129</v>
       </c>
@@ -3621,7 +3619,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>130</v>
       </c>
@@ -3676,7 +3674,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>131</v>
       </c>
@@ -3731,7 +3729,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>132</v>
       </c>
@@ -3786,7 +3784,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>305</v>
       </c>
@@ -3843,7 +3841,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>306</v>
       </c>
@@ -3900,7 +3898,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>307</v>
       </c>
@@ -3957,7 +3955,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>308</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>263</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>264</v>
@@ -4014,7 +4012,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>309</v>
       </c>
@@ -4071,7 +4069,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>310</v>
       </c>
@@ -4128,7 +4126,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>311</v>
       </c>
@@ -4185,7 +4183,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>312</v>
       </c>
@@ -4242,7 +4240,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>313</v>
       </c>
@@ -4299,7 +4297,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>314</v>
       </c>
@@ -4356,7 +4354,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>315</v>
       </c>
@@ -4411,7 +4409,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>316</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>317</v>
       </c>
@@ -4521,7 +4519,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>318</v>
       </c>
@@ -4576,7 +4574,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>319</v>
       </c>
@@ -4631,7 +4629,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>320</v>
       </c>
@@ -4686,7 +4684,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>321</v>
       </c>
@@ -4741,7 +4739,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>322</v>
       </c>
@@ -4796,7 +4794,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>323</v>
       </c>
@@ -4851,7 +4849,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>324</v>
       </c>
@@ -4906,7 +4904,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>325</v>
       </c>
@@ -4961,7 +4959,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>326</v>
       </c>
@@ -5016,7 +5014,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>327</v>
       </c>
@@ -5071,7 +5069,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>328</v>
       </c>
@@ -5128,7 +5126,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>329</v>
       </c>
@@ -5185,7 +5183,7 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>330</v>
       </c>
@@ -5242,7 +5240,7 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>331</v>
       </c>
@@ -5299,7 +5297,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>332</v>
       </c>
@@ -5356,7 +5354,7 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>333</v>
       </c>
@@ -5413,7 +5411,7 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>334</v>
       </c>
@@ -5470,7 +5468,7 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>335</v>
       </c>
@@ -5527,7 +5525,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>336</v>
       </c>
@@ -5584,7 +5582,7 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>337</v>
       </c>
@@ -5641,7 +5639,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>338</v>
       </c>
@@ -5698,7 +5696,7 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>339</v>
       </c>
@@ -5755,7 +5753,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>340</v>
       </c>
@@ -5812,7 +5810,7 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>341</v>
       </c>
@@ -5867,7 +5865,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>342</v>
       </c>
@@ -5922,7 +5920,7 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>343</v>
       </c>
@@ -5977,7 +5975,7 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>344</v>
       </c>
@@ -6005,7 +6003,7 @@
         <v>457</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="2"/>
@@ -6032,7 +6030,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>345</v>
       </c>
@@ -6087,7 +6085,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>346</v>
       </c>
@@ -6142,7 +6140,7 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>347</v>
       </c>
@@ -6197,7 +6195,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>348</v>
       </c>
@@ -6252,7 +6250,7 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="236.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>349</v>
       </c>
@@ -6307,7 +6305,7 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>350</v>
       </c>
@@ -6362,7 +6360,7 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>351</v>
       </c>
@@ -6417,7 +6415,7 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>352</v>
       </c>
@@ -6472,7 +6470,7 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>353</v>
       </c>
@@ -6527,7 +6525,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>354</v>
       </c>
@@ -6582,7 +6580,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>355</v>
       </c>
@@ -6637,7 +6635,7 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>356</v>
       </c>
@@ -6692,7 +6690,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>357</v>
       </c>
@@ -6747,7 +6745,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>358</v>
       </c>
@@ -6802,7 +6800,7 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>512</v>
       </c>
@@ -6857,7 +6855,7 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>359</v>
       </c>
@@ -6914,7 +6912,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>360</v>
       </c>
@@ -6971,7 +6969,7 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="192" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>361</v>
       </c>
@@ -7028,7 +7026,7 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>362</v>
       </c>
@@ -7085,7 +7083,7 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>363</v>
       </c>
@@ -7142,7 +7140,7 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>364</v>
       </c>
@@ -7199,7 +7197,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>365</v>
       </c>
@@ -7256,7 +7254,7 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" ht="360.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="360.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>366</v>
       </c>
@@ -7313,7 +7311,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>367</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>223</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L79" s="30" t="s">
         <v>519</v>
@@ -7370,7 +7368,7 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>368</v>
       </c>
@@ -7427,7 +7425,7 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" ht="169.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="169.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>369</v>
       </c>
@@ -7455,7 +7453,7 @@
         <v>226</v>
       </c>
       <c r="K81" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L81" s="30" t="s">
         <v>520</v>
@@ -7484,7 +7482,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="124.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>370</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>227</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L82" s="31" t="s">
         <v>521</v>
@@ -7541,7 +7539,7 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" ht="259.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="259.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>371</v>
       </c>
@@ -7598,7 +7596,7 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" ht="237" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="237" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>372</v>
       </c>
@@ -7626,7 +7624,7 @@
         <v>229</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>522</v>
@@ -7655,7 +7653,7 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>373</v>
       </c>
@@ -7712,7 +7710,7 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>374</v>
       </c>
@@ -7767,7 +7765,7 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>375</v>
       </c>
@@ -7822,7 +7820,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>376</v>
       </c>
@@ -7877,7 +7875,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>377</v>
       </c>
@@ -7905,7 +7903,7 @@
         <v>231</v>
       </c>
       <c r="K89" s="41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L89" s="28"/>
       <c r="M89" s="2"/>
@@ -7932,7 +7930,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>378</v>
       </c>
@@ -7987,9 +7985,9 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
@@ -8012,10 +8010,10 @@
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="2"/>
@@ -8042,7 +8040,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>379</v>
       </c>
@@ -8097,7 +8095,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>380</v>
       </c>
@@ -8125,7 +8123,7 @@
         <v>228</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="2"/>
@@ -8152,7 +8150,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="293.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="293.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>513</v>
       </c>
@@ -8180,7 +8178,7 @@
         <v>508</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="2"/>
@@ -8207,9 +8205,9 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>88</v>
@@ -8232,10 +8230,10 @@
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="K95" s="30" t="s">
         <v>658</v>
-      </c>
-      <c r="K95" s="30" t="s">
-        <v>659</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="2"/>
@@ -8262,7 +8260,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>381</v>
       </c>
@@ -8317,7 +8315,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>382</v>
       </c>
@@ -8372,7 +8370,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>383</v>
       </c>
@@ -8427,7 +8425,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>384</v>
       </c>
@@ -8482,7 +8480,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>385</v>
       </c>
@@ -8537,7 +8535,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>386</v>
       </c>
@@ -8592,7 +8590,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>387</v>
       </c>
@@ -8647,7 +8645,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>388</v>
       </c>
@@ -8702,7 +8700,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>389</v>
       </c>
@@ -8757,7 +8755,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>390</v>
       </c>
@@ -8812,7 +8810,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>391</v>
       </c>
@@ -8867,7 +8865,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>392</v>
       </c>
@@ -8922,7 +8920,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>393</v>
       </c>
@@ -8977,7 +8975,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>394</v>
       </c>
@@ -9032,7 +9030,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>395</v>
       </c>
@@ -9102,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>2</v>
@@ -9115,10 +9113,10 @@
         <v>144</v>
       </c>
       <c r="K111" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="L111" s="23" t="s">
         <v>527</v>
-      </c>
-      <c r="L111" s="23" t="s">
-        <v>528</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -9159,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>2</v>
@@ -9169,13 +9167,13 @@
       </c>
       <c r="I112" s="34"/>
       <c r="J112" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="K112" s="15" t="s">
+      <c r="L112" s="35" t="s">
         <v>530</v>
-      </c>
-      <c r="L112" s="35" t="s">
-        <v>531</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -9216,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>2</v>
@@ -9273,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
@@ -9330,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>2</v>
@@ -9387,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>2</v>
@@ -9397,7 +9395,7 @@
       </c>
       <c r="I116" s="34"/>
       <c r="J116" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K116" s="15" t="s">
         <v>400</v>
@@ -9444,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>2</v>
@@ -9501,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -9511,10 +9509,10 @@
       </c>
       <c r="I118" s="34"/>
       <c r="J118" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>533</v>
-      </c>
-      <c r="K118" s="15" t="s">
-        <v>534</v>
       </c>
       <c r="L118" s="23" t="s">
         <v>143</v>
@@ -9543,7 +9541,7 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
     </row>
-    <row r="119" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38" t="s">
         <v>21</v>
       </c>
@@ -9568,7 +9566,7 @@
       </c>
       <c r="I119" s="34"/>
       <c r="J119" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K119" s="23" t="s">
         <v>147</v>
@@ -9598,7 +9596,7 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
-    <row r="120" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
         <v>22</v>
       </c>
@@ -9623,10 +9621,10 @@
       </c>
       <c r="I120" s="34"/>
       <c r="J120" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="K120" s="23" t="s">
         <v>536</v>
-      </c>
-      <c r="K120" s="23" t="s">
-        <v>537</v>
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="2"/>
@@ -9653,7 +9651,7 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
     </row>
-    <row r="121" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
         <v>23</v>
       </c>
@@ -9678,7 +9676,7 @@
       </c>
       <c r="I121" s="34"/>
       <c r="J121" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K121" s="23" t="s">
         <v>149</v>
@@ -9708,7 +9706,7 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
     </row>
-    <row r="122" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
         <v>24</v>
       </c>
@@ -9733,7 +9731,7 @@
       </c>
       <c r="I122" s="34"/>
       <c r="J122" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K122" s="23" t="s">
         <v>151</v>
@@ -9763,7 +9761,7 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
     </row>
-    <row r="123" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
         <v>25</v>
       </c>
@@ -9788,7 +9786,7 @@
       </c>
       <c r="I123" s="34"/>
       <c r="J123" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K123" s="23" t="s">
         <v>153</v>
@@ -9818,7 +9816,7 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
     </row>
-    <row r="124" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
         <v>26</v>
       </c>
@@ -9843,10 +9841,10 @@
       </c>
       <c r="I124" s="34"/>
       <c r="J124" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="K124" s="23" t="s">
         <v>541</v>
-      </c>
-      <c r="K124" s="23" t="s">
-        <v>542</v>
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="2"/>
@@ -9873,7 +9871,7 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
     </row>
-    <row r="125" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
         <v>27</v>
       </c>
@@ -9898,7 +9896,7 @@
       </c>
       <c r="I125" s="34"/>
       <c r="J125" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K125" s="23" t="s">
         <v>154</v>
@@ -9928,7 +9926,7 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
     </row>
-    <row r="126" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
         <v>28</v>
       </c>
@@ -9953,7 +9951,7 @@
       </c>
       <c r="I126" s="34"/>
       <c r="J126" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K126" s="23" t="s">
         <v>155</v>
@@ -9983,7 +9981,7 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
         <v>29</v>
       </c>
@@ -10008,7 +10006,7 @@
       </c>
       <c r="I127" s="34"/>
       <c r="J127" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K127" s="23" t="s">
         <v>156</v>
@@ -10038,7 +10036,7 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
     </row>
-    <row r="128" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="38" t="s">
         <v>94</v>
       </c>
@@ -10063,7 +10061,7 @@
       </c>
       <c r="I128" s="34"/>
       <c r="J128" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K128" s="23" t="s">
         <v>158</v>
@@ -10093,7 +10091,7 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
         <v>95</v>
       </c>
@@ -10118,7 +10116,7 @@
       </c>
       <c r="I129" s="34"/>
       <c r="J129" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K129" s="23" t="s">
         <v>159</v>
@@ -10148,7 +10146,7 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
     </row>
-    <row r="130" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
         <v>97</v>
       </c>
@@ -10173,10 +10171,10 @@
       </c>
       <c r="I130" s="34"/>
       <c r="J130" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="K130" s="23" t="s">
         <v>548</v>
-      </c>
-      <c r="K130" s="23" t="s">
-        <v>549</v>
       </c>
       <c r="L130" s="8"/>
       <c r="M130" s="2"/>
@@ -10203,7 +10201,7 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
         <v>98</v>
       </c>
@@ -10273,7 +10271,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>2</v>
@@ -10283,7 +10281,7 @@
       </c>
       <c r="I132" s="34"/>
       <c r="J132" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K132" s="15" t="s">
         <v>163</v>
@@ -10330,7 +10328,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>2</v>
@@ -10340,7 +10338,7 @@
       </c>
       <c r="I133" s="34"/>
       <c r="J133" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>166</v>
@@ -10387,7 +10385,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>2</v>
@@ -10397,13 +10395,13 @@
       </c>
       <c r="I134" s="34"/>
       <c r="J134" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="K134" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="K134" s="15" t="s">
+      <c r="L134" s="23" t="s">
         <v>553</v>
-      </c>
-      <c r="L134" s="23" t="s">
-        <v>554</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -10444,7 +10442,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>2</v>
@@ -10454,7 +10452,7 @@
       </c>
       <c r="I135" s="34"/>
       <c r="J135" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>411</v>
@@ -10501,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>2</v>
@@ -10511,7 +10509,7 @@
       </c>
       <c r="I136" s="34"/>
       <c r="J136" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K136" s="15" t="s">
         <v>171</v>
@@ -10543,7 +10541,7 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
     </row>
-    <row r="137" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>35</v>
       </c>
@@ -10571,7 +10569,7 @@
         <v>429</v>
       </c>
       <c r="K137" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="2"/>
@@ -10598,7 +10596,7 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
     </row>
-    <row r="138" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
         <v>36</v>
       </c>
@@ -10653,7 +10651,7 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
     </row>
-    <row r="139" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>37</v>
       </c>
@@ -10681,7 +10679,7 @@
         <v>175</v>
       </c>
       <c r="K139" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="2"/>
@@ -10708,7 +10706,7 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
     </row>
-    <row r="140" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
         <v>38</v>
       </c>
@@ -10736,7 +10734,7 @@
         <v>176</v>
       </c>
       <c r="K140" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="2"/>
@@ -10763,7 +10761,7 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
     </row>
-    <row r="141" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
         <v>39</v>
       </c>
@@ -10788,10 +10786,10 @@
       </c>
       <c r="I141" s="34"/>
       <c r="J141" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="K141" s="23" t="s">
         <v>560</v>
-      </c>
-      <c r="K141" s="23" t="s">
-        <v>561</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="2"/>
@@ -10818,7 +10816,7 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
     </row>
-    <row r="142" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
         <v>40</v>
       </c>
@@ -10843,7 +10841,7 @@
       </c>
       <c r="I142" s="34"/>
       <c r="J142" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K142" s="23" t="s">
         <v>177</v>
@@ -10873,7 +10871,7 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
     </row>
-    <row r="143" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
         <v>41</v>
       </c>
@@ -10898,7 +10896,7 @@
       </c>
       <c r="I143" s="34"/>
       <c r="J143" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K143" s="23" t="s">
         <v>178</v>
@@ -10928,7 +10926,7 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="2"/>
     </row>
-    <row r="144" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
         <v>42</v>
       </c>
@@ -10953,7 +10951,7 @@
       </c>
       <c r="I144" s="34"/>
       <c r="J144" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K144" s="23" t="s">
         <v>434</v>
@@ -10983,7 +10981,7 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
     </row>
-    <row r="145" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>43</v>
       </c>
@@ -11008,7 +11006,7 @@
       </c>
       <c r="I145" s="34"/>
       <c r="J145" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K145" s="23" t="s">
         <v>180</v>
@@ -11053,7 +11051,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>2</v>
@@ -11066,7 +11064,7 @@
         <v>181</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L146" s="23" t="s">
         <v>182</v>
@@ -11110,7 +11108,7 @@
         <v>5</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>2</v>
@@ -11167,7 +11165,7 @@
         <v>5</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>2</v>
@@ -11177,10 +11175,10 @@
       </c>
       <c r="I148" s="34"/>
       <c r="J148" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="K148" s="15" t="s">
-        <v>568</v>
       </c>
       <c r="L148" s="23" t="s">
         <v>185</v>
@@ -11224,7 +11222,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>2</v>
@@ -11234,7 +11232,7 @@
       </c>
       <c r="I149" s="34"/>
       <c r="J149" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K149" s="15" t="s">
         <v>186</v>
@@ -11281,7 +11279,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>2</v>
@@ -11291,10 +11289,10 @@
       </c>
       <c r="I150" s="34"/>
       <c r="J150" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>570</v>
-      </c>
-      <c r="K150" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="L150" s="35" t="s">
         <v>188</v>
@@ -11323,7 +11321,7 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
     </row>
-    <row r="151" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="38" t="s">
         <v>49</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>189</v>
       </c>
       <c r="K151" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="2"/>
@@ -11378,7 +11376,7 @@
       <c r="AH151" s="2"/>
       <c r="AI151" s="2"/>
     </row>
-    <row r="152" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="38" t="s">
         <v>50</v>
       </c>
@@ -11406,7 +11404,7 @@
         <v>183</v>
       </c>
       <c r="K152" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="2"/>
@@ -11433,7 +11431,7 @@
       <c r="AH152" s="2"/>
       <c r="AI152" s="2"/>
     </row>
-    <row r="153" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
         <v>51</v>
       </c>
@@ -11458,7 +11456,7 @@
       </c>
       <c r="I153" s="34"/>
       <c r="J153" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K153" s="23" t="s">
         <v>191</v>
@@ -11488,7 +11486,7 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="2"/>
     </row>
-    <row r="154" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="38" t="s">
         <v>52</v>
       </c>
@@ -11513,7 +11511,7 @@
       </c>
       <c r="I154" s="34"/>
       <c r="J154" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K154" s="23" t="s">
         <v>192</v>
@@ -11543,7 +11541,7 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="2"/>
     </row>
-    <row r="155" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="38" t="s">
         <v>53</v>
       </c>
@@ -11568,10 +11566,10 @@
       </c>
       <c r="I155" s="34"/>
       <c r="J155" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="K155" s="23" t="s">
         <v>576</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>577</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="2"/>
@@ -11598,7 +11596,7 @@
       <c r="AH155" s="2"/>
       <c r="AI155" s="2"/>
     </row>
-    <row r="156" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="38" t="s">
         <v>54</v>
       </c>
@@ -11626,7 +11624,7 @@
         <v>193</v>
       </c>
       <c r="K156" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="2"/>
@@ -11653,7 +11651,7 @@
       <c r="AH156" s="2"/>
       <c r="AI156" s="2"/>
     </row>
-    <row r="157" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="38" t="s">
         <v>55</v>
       </c>
@@ -11681,7 +11679,7 @@
         <v>194</v>
       </c>
       <c r="K157" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="2"/>
@@ -11708,7 +11706,7 @@
       <c r="AH157" s="2"/>
       <c r="AI157" s="2"/>
     </row>
-    <row r="158" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="38" t="s">
         <v>56</v>
       </c>
@@ -11733,10 +11731,10 @@
       </c>
       <c r="I158" s="34"/>
       <c r="J158" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="K158" s="23" t="s">
         <v>580</v>
-      </c>
-      <c r="K158" s="23" t="s">
-        <v>581</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="2"/>
@@ -11763,7 +11761,7 @@
       <c r="AH158" s="2"/>
       <c r="AI158" s="2"/>
     </row>
-    <row r="159" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="38" t="s">
         <v>57</v>
       </c>
@@ -11818,7 +11816,7 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="2"/>
     </row>
-    <row r="160" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="38" t="s">
         <v>58</v>
       </c>
@@ -11843,10 +11841,10 @@
       </c>
       <c r="I160" s="34"/>
       <c r="J160" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="K160" s="23" t="s">
         <v>582</v>
-      </c>
-      <c r="K160" s="23" t="s">
-        <v>583</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="2"/>
@@ -11873,7 +11871,7 @@
       <c r="AH160" s="2"/>
       <c r="AI160" s="2"/>
     </row>
-    <row r="161" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
         <v>59</v>
       </c>
@@ -11898,10 +11896,10 @@
       </c>
       <c r="I161" s="34"/>
       <c r="J161" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="K161" s="23" t="s">
         <v>584</v>
-      </c>
-      <c r="K161" s="23" t="s">
-        <v>585</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="2"/>
@@ -11928,7 +11926,7 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
     </row>
-    <row r="162" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
         <v>60</v>
       </c>
@@ -11953,10 +11951,10 @@
       </c>
       <c r="I162" s="34"/>
       <c r="J162" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="K162" s="23" t="s">
         <v>586</v>
-      </c>
-      <c r="K162" s="23" t="s">
-        <v>587</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="2"/>
@@ -11983,7 +11981,7 @@
       <c r="AH162" s="2"/>
       <c r="AI162" s="2"/>
     </row>
-    <row r="163" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
         <v>61</v>
       </c>
@@ -12008,10 +12006,10 @@
       </c>
       <c r="I163" s="34"/>
       <c r="J163" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="K163" s="23" t="s">
         <v>588</v>
-      </c>
-      <c r="K163" s="23" t="s">
-        <v>589</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="2"/>
@@ -12038,7 +12036,7 @@
       <c r="AH163" s="2"/>
       <c r="AI163" s="2"/>
     </row>
-    <row r="164" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
         <v>62</v>
       </c>
@@ -12063,7 +12061,7 @@
       </c>
       <c r="I164" s="34"/>
       <c r="J164" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K164" s="23" t="s">
         <v>197</v>
@@ -12093,7 +12091,7 @@
       <c r="AH164" s="2"/>
       <c r="AI164" s="2"/>
     </row>
-    <row r="165" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="38" t="s">
         <v>63</v>
       </c>
@@ -12118,7 +12116,7 @@
       </c>
       <c r="I165" s="34"/>
       <c r="J165" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K165" s="23" t="s">
         <v>198</v>
@@ -12148,7 +12146,7 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="2"/>
     </row>
-    <row r="166" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="38" t="s">
         <v>64</v>
       </c>
@@ -12173,7 +12171,7 @@
       </c>
       <c r="I166" s="34"/>
       <c r="J166" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K166" s="23" t="s">
         <v>199</v>
@@ -12203,7 +12201,7 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="2"/>
     </row>
-    <row r="167" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="38" t="s">
         <v>65</v>
       </c>
@@ -12228,10 +12226,10 @@
       </c>
       <c r="I167" s="34"/>
       <c r="J167" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="K167" s="23" t="s">
         <v>593</v>
-      </c>
-      <c r="K167" s="23" t="s">
-        <v>594</v>
       </c>
       <c r="L167" s="21"/>
       <c r="M167" s="2"/>
@@ -12273,7 +12271,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>2</v>
@@ -12330,7 +12328,7 @@
         <v>4</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>2</v>
@@ -12346,7 +12344,7 @@
         <v>417</v>
       </c>
       <c r="L169" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -12372,7 +12370,7 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
     </row>
-    <row r="170" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
         <v>68</v>
       </c>
@@ -12403,7 +12401,7 @@
         <v>420</v>
       </c>
       <c r="L170" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -12429,7 +12427,7 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
         <v>69</v>
       </c>
@@ -12457,7 +12455,7 @@
         <v>202</v>
       </c>
       <c r="K171" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L171" s="21"/>
       <c r="M171" s="2"/>
@@ -12499,7 +12497,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>2</v>
@@ -12509,10 +12507,10 @@
       </c>
       <c r="I172" s="34"/>
       <c r="J172" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>598</v>
-      </c>
-      <c r="K172" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="L172" s="23" t="s">
         <v>204</v>
@@ -12556,7 +12554,7 @@
         <v>5</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G173" s="7" t="s">
         <v>2</v>
@@ -12566,13 +12564,13 @@
       </c>
       <c r="I173" s="34"/>
       <c r="J173" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>445</v>
       </c>
       <c r="L173" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -12613,7 +12611,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>2</v>
@@ -12655,7 +12653,7 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="38" t="s">
         <v>73</v>
       </c>
@@ -12683,7 +12681,7 @@
         <v>208</v>
       </c>
       <c r="K175" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L175" s="23" t="s">
         <v>209</v>
@@ -12712,7 +12710,7 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
     </row>
-    <row r="176" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38" t="s">
         <v>74</v>
       </c>
@@ -12737,7 +12735,7 @@
       </c>
       <c r="I176" s="34"/>
       <c r="J176" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K176" s="23" t="s">
         <v>210</v>
@@ -12767,7 +12765,7 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
     </row>
-    <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="38" t="s">
         <v>75</v>
       </c>
@@ -12795,7 +12793,7 @@
         <v>211</v>
       </c>
       <c r="K177" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="2"/>
@@ -12822,7 +12820,7 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
     </row>
-    <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
         <v>76</v>
       </c>
@@ -12850,7 +12848,7 @@
         <v>212</v>
       </c>
       <c r="K178" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="2"/>
@@ -12877,7 +12875,7 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
     </row>
-    <row r="179" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="38" t="s">
         <v>77</v>
       </c>
@@ -12902,7 +12900,7 @@
       </c>
       <c r="I179" s="34"/>
       <c r="J179" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K179" s="23" t="s">
         <v>213</v>
@@ -12932,7 +12930,7 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
     </row>
-    <row r="180" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
         <v>78</v>
       </c>
@@ -12957,7 +12955,7 @@
       </c>
       <c r="I180" s="34"/>
       <c r="J180" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K180" s="23" t="s">
         <v>214</v>
@@ -12987,7 +12985,7 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="2"/>
     </row>
-    <row r="181" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="38" t="s">
         <v>79</v>
       </c>
@@ -13012,7 +13010,7 @@
       </c>
       <c r="I181" s="34"/>
       <c r="J181" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K181" s="23" t="s">
         <v>215</v>
@@ -13042,7 +13040,7 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
     </row>
-    <row r="182" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="38" t="s">
         <v>80</v>
       </c>
@@ -13067,10 +13065,10 @@
       </c>
       <c r="I182" s="34"/>
       <c r="J182" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="K182" s="23" t="s">
         <v>608</v>
-      </c>
-      <c r="K182" s="23" t="s">
-        <v>609</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="2"/>
@@ -13097,7 +13095,7 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
     </row>
-    <row r="183" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38" t="s">
         <v>81</v>
       </c>
@@ -13122,10 +13120,10 @@
       </c>
       <c r="I183" s="34"/>
       <c r="J183" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="K183" s="23" t="s">
         <v>610</v>
-      </c>
-      <c r="K183" s="23" t="s">
-        <v>611</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="2"/>
@@ -13152,7 +13150,7 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
     </row>
-    <row r="184" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="38" t="s">
         <v>82</v>
       </c>
@@ -13177,10 +13175,10 @@
       </c>
       <c r="I184" s="34"/>
       <c r="J184" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="K184" s="23" t="s">
         <v>612</v>
-      </c>
-      <c r="K184" s="23" t="s">
-        <v>613</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="2"/>
@@ -13207,7 +13205,7 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="2"/>
     </row>
-    <row r="185" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
         <v>83</v>
       </c>
@@ -13232,10 +13230,10 @@
       </c>
       <c r="I185" s="34"/>
       <c r="J185" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="K185" s="23" t="s">
         <v>614</v>
-      </c>
-      <c r="K185" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="2"/>
@@ -13262,7 +13260,7 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="2"/>
     </row>
-    <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
         <v>84</v>
       </c>
@@ -13287,10 +13285,10 @@
       </c>
       <c r="I186" s="34"/>
       <c r="J186" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="K186" s="23" t="s">
         <v>616</v>
-      </c>
-      <c r="K186" s="23" t="s">
-        <v>617</v>
       </c>
       <c r="L186" s="8"/>
       <c r="M186" s="2"/>
@@ -13317,7 +13315,7 @@
       <c r="AH186" s="2"/>
       <c r="AI186" s="2"/>
     </row>
-    <row r="187" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="38" t="s">
         <v>85</v>
       </c>
@@ -13345,7 +13343,7 @@
         <v>211</v>
       </c>
       <c r="K187" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="2"/>
@@ -13372,7 +13370,7 @@
       <c r="AH187" s="2"/>
       <c r="AI187" s="2"/>
     </row>
-    <row r="188" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>86</v>
       </c>
@@ -13400,7 +13398,7 @@
         <v>216</v>
       </c>
       <c r="K188" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="2"/>
@@ -13427,7 +13425,7 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="2"/>
     </row>
-    <row r="189" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
         <v>87</v>
       </c>
@@ -13452,10 +13450,10 @@
       </c>
       <c r="I189" s="34"/>
       <c r="J189" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="K189" s="23" t="s">
         <v>620</v>
-      </c>
-      <c r="K189" s="23" t="s">
-        <v>621</v>
       </c>
       <c r="L189" s="8"/>
       <c r="M189" s="2"/>
@@ -13482,7 +13480,7 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="2"/>
     </row>
-    <row r="190" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="38" t="s">
         <v>284</v>
       </c>
@@ -13510,7 +13508,7 @@
         <v>218</v>
       </c>
       <c r="K190" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L190" s="8"/>
       <c r="M190" s="2"/>
@@ -13552,7 +13550,7 @@
         <v>100</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>2</v>
@@ -13562,10 +13560,10 @@
       </c>
       <c r="I191" s="34"/>
       <c r="J191" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>623</v>
-      </c>
-      <c r="K191" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="L191" s="35" t="s">
         <v>482</v>
@@ -13609,7 +13607,7 @@
         <v>100</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>2</v>
@@ -13619,10 +13617,10 @@
       </c>
       <c r="I192" s="34"/>
       <c r="J192" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="K192" s="15" t="s">
         <v>625</v>
-      </c>
-      <c r="K192" s="15" t="s">
-        <v>626</v>
       </c>
       <c r="L192" s="23" t="s">
         <v>219</v>
@@ -13666,7 +13664,7 @@
         <v>100</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>2</v>
@@ -13676,7 +13674,7 @@
       </c>
       <c r="I193" s="34"/>
       <c r="J193" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>489</v>
@@ -13723,7 +13721,7 @@
         <v>100</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>2</v>
@@ -13733,10 +13731,10 @@
       </c>
       <c r="I194" s="34"/>
       <c r="J194" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="K194" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="L194" s="37" t="s">
         <v>516</v>
@@ -13780,7 +13778,7 @@
         <v>100</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>2</v>
@@ -13793,10 +13791,10 @@
         <v>221</v>
       </c>
       <c r="K195" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="L195" s="23" t="s">
         <v>630</v>
-      </c>
-      <c r="L195" s="23" t="s">
-        <v>631</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -13837,7 +13835,7 @@
         <v>100</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>2</v>
@@ -13850,10 +13848,10 @@
         <v>222</v>
       </c>
       <c r="K196" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="L196" s="23" t="s">
         <v>632</v>
-      </c>
-      <c r="L196" s="23" t="s">
-        <v>633</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -13894,7 +13892,7 @@
         <v>100</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>2</v>
@@ -13907,10 +13905,10 @@
         <v>223</v>
       </c>
       <c r="K197" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="L197" s="23" t="s">
         <v>634</v>
-      </c>
-      <c r="L197" s="23" t="s">
-        <v>635</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -13951,7 +13949,7 @@
         <v>100</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>2</v>
@@ -13964,7 +13962,7 @@
         <v>224</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L198" s="23" t="s">
         <v>225</v>
@@ -14008,7 +14006,7 @@
         <v>100</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>2</v>
@@ -14021,7 +14019,7 @@
         <v>226</v>
       </c>
       <c r="K199" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L199" s="23" t="s">
         <v>520</v>
@@ -14065,7 +14063,7 @@
         <v>100</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G200" s="7" t="s">
         <v>2</v>
@@ -14078,7 +14076,7 @@
         <v>227</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L200" s="37" t="s">
         <v>521</v>
@@ -14122,7 +14120,7 @@
         <v>100</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>2</v>
@@ -14135,10 +14133,10 @@
         <v>228</v>
       </c>
       <c r="K201" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="L201" s="23" t="s">
         <v>639</v>
-      </c>
-      <c r="L201" s="23" t="s">
-        <v>640</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -14179,7 +14177,7 @@
         <v>100</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G202" s="7" t="s">
         <v>2</v>
@@ -14192,7 +14190,7 @@
         <v>229</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L202" s="23" t="s">
         <v>522</v>
@@ -14236,7 +14234,7 @@
         <v>100</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>2</v>
@@ -14278,7 +14276,7 @@
       <c r="AH203" s="2"/>
       <c r="AI203" s="2"/>
     </row>
-    <row r="204" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="38" t="s">
         <v>298</v>
       </c>
@@ -14306,7 +14304,7 @@
         <v>500</v>
       </c>
       <c r="K204" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="2"/>
@@ -14333,7 +14331,7 @@
       <c r="AH204" s="2"/>
       <c r="AI204" s="2"/>
     </row>
-    <row r="205" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>299</v>
       </c>
@@ -14358,10 +14356,10 @@
       </c>
       <c r="I205" s="34"/>
       <c r="J205" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="K205" s="23" t="s">
         <v>643</v>
-      </c>
-      <c r="K205" s="23" t="s">
-        <v>644</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="2"/>
@@ -14388,7 +14386,7 @@
       <c r="AH205" s="2"/>
       <c r="AI205" s="2"/>
     </row>
-    <row r="206" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="38" t="s">
         <v>300</v>
       </c>
@@ -14413,10 +14411,10 @@
       </c>
       <c r="I206" s="34"/>
       <c r="J206" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="K206" s="23" t="s">
         <v>645</v>
-      </c>
-      <c r="K206" s="23" t="s">
-        <v>646</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="2"/>
@@ -14443,7 +14441,7 @@
       <c r="AH206" s="2"/>
       <c r="AI206" s="2"/>
     </row>
-    <row r="207" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="38" t="s">
         <v>301</v>
       </c>
@@ -14468,10 +14466,10 @@
       </c>
       <c r="I207" s="34"/>
       <c r="J207" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="K207" s="23" t="s">
         <v>647</v>
-      </c>
-      <c r="K207" s="23" t="s">
-        <v>648</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="2"/>
@@ -14498,7 +14496,7 @@
       <c r="AH207" s="2"/>
       <c r="AI207" s="2"/>
     </row>
-    <row r="208" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38" t="s">
         <v>302</v>
       </c>
@@ -14526,7 +14524,7 @@
         <v>490</v>
       </c>
       <c r="K208" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="2"/>
@@ -14553,7 +14551,7 @@
       <c r="AH208" s="2"/>
       <c r="AI208" s="2"/>
     </row>
-    <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="38" t="s">
         <v>303</v>
       </c>
@@ -14581,7 +14579,7 @@
         <v>231</v>
       </c>
       <c r="K209" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="2"/>
@@ -14608,7 +14606,7 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
     </row>
-    <row r="210" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="38" t="s">
         <v>304</v>
       </c>
@@ -14633,10 +14631,10 @@
       </c>
       <c r="I210" s="34"/>
       <c r="J210" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="K210" s="23" t="s">
         <v>651</v>
-      </c>
-      <c r="K210" s="23" t="s">
-        <v>652</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="2"/>
@@ -14663,9 +14661,9 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
     </row>
-    <row r="211" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="7" t="s">
@@ -14688,10 +14686,10 @@
       </c>
       <c r="I211" s="34"/>
       <c r="J211" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="K211" s="23" t="s">
         <v>653</v>
-      </c>
-      <c r="K211" s="23" t="s">
-        <v>654</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="2"/>
@@ -14718,9 +14716,9 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="2"/>
     </row>
-    <row r="212" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="7" t="s">
@@ -14746,7 +14744,7 @@
         <v>232</v>
       </c>
       <c r="K212" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="2"/>
@@ -14773,9 +14771,9 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="2"/>
     </row>
-    <row r="213" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="7" t="s">
@@ -14801,7 +14799,7 @@
         <v>228</v>
       </c>
       <c r="K213" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="2"/>
@@ -14828,9 +14826,9 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
     </row>
-    <row r="214" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B214" s="8"/>
       <c r="C214" s="7" t="s">
@@ -14856,7 +14854,7 @@
         <v>229</v>
       </c>
       <c r="K214" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="2"/>
@@ -14883,9 +14881,9 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
     </row>
-    <row r="215" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="7" t="s">
@@ -14908,10 +14906,10 @@
       </c>
       <c r="I215" s="34"/>
       <c r="J215" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="K215" s="23" t="s">
         <v>658</v>
-      </c>
-      <c r="K215" s="23" t="s">
-        <v>659</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="2"/>
@@ -14953,7 +14951,7 @@
         <v>118</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>2</v>
@@ -15008,7 +15006,7 @@
         <v>118</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>2</v>
@@ -15063,7 +15061,7 @@
         <v>118</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>2</v>
@@ -15118,7 +15116,7 @@
         <v>118</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>2</v>
@@ -15173,7 +15171,7 @@
         <v>118</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>2</v>
@@ -15228,7 +15226,7 @@
         <v>118</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>2</v>
@@ -15283,7 +15281,7 @@
         <v>118</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>2</v>
@@ -15338,7 +15336,7 @@
         <v>118</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G223" s="7" t="s">
         <v>2</v>
@@ -15393,7 +15391,7 @@
         <v>118</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>2</v>
@@ -15448,7 +15446,7 @@
         <v>118</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G225" s="7" t="s">
         <v>2</v>
@@ -15503,7 +15501,7 @@
         <v>118</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G226" s="7" t="s">
         <v>2</v>
@@ -15543,7 +15541,7 @@
       <c r="AH226" s="2"/>
       <c r="AI226" s="2"/>
     </row>
-    <row r="227" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="38" t="s">
         <v>112</v>
       </c>
@@ -15598,7 +15596,7 @@
       <c r="AH227" s="2"/>
       <c r="AI227" s="2"/>
     </row>
-    <row r="228" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="s">
         <v>113</v>
       </c>
@@ -15653,7 +15651,7 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="2"/>
     </row>
-    <row r="229" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="38" t="s">
         <v>114</v>
       </c>
@@ -15708,7 +15706,7 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="2"/>
     </row>
-    <row r="230" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
         <v>117</v>
       </c>
@@ -37919,7 +37917,13 @@
       <c r="AI863" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K110" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}"/>
+  <autoFilter ref="A1:K230" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Establish Routine"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L194" r:id="rId1" display="https://docs.microsoft.com/partner-center/develop/set-up-api-access-in-partner-center" xr:uid="{20FECAF4-892A-409F-9D33-D8925383DE18}"/>

--- a/ms/ms-reseller/ms-mpa-risks.xlsx
+++ b/ms/ms-reseller/ms-mpa-risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A48BA-2DCB-404C-B126-032DFEC9AA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1430BA4D-2CF1-47CB-96EB-C102B10D3B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="1755" windowWidth="43200" windowHeight="12645" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
+    <workbookView xWindow="33150" yWindow="0" windowWidth="24450" windowHeight="17280" xr2:uid="{68617337-7C72-4B6E-96B3-7D6C65EE850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -2606,7 +2606,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2623,9 +2623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2663,7 +2663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2769,7 +2769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2923,11 +2923,11 @@
   <dimension ref="A1:AI863"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111:F226"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="11" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="12"/>
@@ -4126,7 +4126,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>311</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>360</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" ht="124.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>370</v>
       </c>
@@ -8150,7 +8150,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:35" ht="293.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="282" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>513</v>
       </c>
@@ -8865,7 +8865,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>392</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>393</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>394</v>
       </c>
@@ -9030,7 +9030,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>395</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
         <v>13</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" ht="124.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="124.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
         <v>14</v>
       </c>
@@ -9199,7 +9199,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
         <v>15</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
         <v>16</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
         <v>17</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="38" t="s">
         <v>18</v>
       </c>
@@ -9427,7 +9427,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
         <v>19</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
     </row>
-    <row r="118" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38" t="s">
         <v>20</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
     </row>
-    <row r="132" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="38" t="s">
         <v>30</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
     </row>
-    <row r="133" spans="1:35" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="214.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="38" t="s">
         <v>31</v>
       </c>
@@ -10370,7 +10370,7 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
     </row>
-    <row r="134" spans="1:35" ht="203.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="203.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
         <v>32</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
     </row>
-    <row r="135" spans="1:35" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>33</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
-    <row r="136" spans="1:35" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="68.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
         <v>34</v>
       </c>
@@ -11036,7 +11036,7 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="2"/>
     </row>
-    <row r="146" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>44</v>
       </c>
@@ -11093,7 +11093,7 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="2"/>
     </row>
-    <row r="147" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="34.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="38" t="s">
         <v>45</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
     </row>
-    <row r="148" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="38" t="s">
         <v>46</v>
       </c>
@@ -11207,7 +11207,7 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="2"/>
     </row>
-    <row r="149" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
         <v>47</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
     </row>
-    <row r="150" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
         <v>48</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
     </row>
-    <row r="170" spans="1:35" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
         <v>68</v>
       </c>
@@ -12427,7 +12427,7 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
     </row>
-    <row r="171" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
         <v>69</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
     </row>
-    <row r="175" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="38" t="s">
         <v>73</v>
       </c>
@@ -12710,7 +12710,7 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
     </row>
-    <row r="176" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38" t="s">
         <v>74</v>
       </c>
@@ -12765,7 +12765,7 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
     </row>
-    <row r="177" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="38" t="s">
         <v>75</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
     </row>
-    <row r="178" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
         <v>76</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
     </row>
-    <row r="179" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="38" t="s">
         <v>77</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
     </row>
-    <row r="180" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
         <v>78</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="2"/>
     </row>
-    <row r="181" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="38" t="s">
         <v>79</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
     </row>
-    <row r="182" spans="1:35" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="38" t="s">
         <v>80</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
     </row>
-    <row r="183" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38" t="s">
         <v>81</v>
       </c>
@@ -13150,7 +13150,7 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
     </row>
-    <row r="184" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="38" t="s">
         <v>82</v>
       </c>
@@ -13205,7 +13205,7 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="2"/>
     </row>
-    <row r="185" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
         <v>83</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="2"/>
     </row>
-    <row r="186" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
         <v>84</v>
       </c>
@@ -13315,7 +13315,7 @@
       <c r="AH186" s="2"/>
       <c r="AI186" s="2"/>
     </row>
-    <row r="187" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="38" t="s">
         <v>85</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="AH187" s="2"/>
       <c r="AI187" s="2"/>
     </row>
-    <row r="188" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>86</v>
       </c>
@@ -13425,7 +13425,7 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="2"/>
     </row>
-    <row r="189" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
         <v>87</v>
       </c>
@@ -13480,7 +13480,7 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="2"/>
     </row>
-    <row r="190" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="38" t="s">
         <v>284</v>
       </c>
@@ -13706,7 +13706,7 @@
       <c r="AH193" s="2"/>
       <c r="AI193" s="2"/>
     </row>
-    <row r="194" spans="1:35" ht="248.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" ht="237" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="38" t="s">
         <v>288</v>
       </c>
@@ -13763,7 +13763,7 @@
       <c r="AH194" s="2"/>
       <c r="AI194" s="2"/>
     </row>
-    <row r="195" spans="1:35" ht="315.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" ht="304.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="38" t="s">
         <v>289</v>
       </c>
@@ -14276,7 +14276,7 @@
       <c r="AH203" s="2"/>
       <c r="AI203" s="2"/>
     </row>
-    <row r="204" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="38" t="s">
         <v>298</v>
       </c>
@@ -14331,7 +14331,7 @@
       <c r="AH204" s="2"/>
       <c r="AI204" s="2"/>
     </row>
-    <row r="205" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>299</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="AH205" s="2"/>
       <c r="AI205" s="2"/>
     </row>
-    <row r="206" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="38" t="s">
         <v>300</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="AH206" s="2"/>
       <c r="AI206" s="2"/>
     </row>
-    <row r="207" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="38" t="s">
         <v>301</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="AH207" s="2"/>
       <c r="AI207" s="2"/>
     </row>
-    <row r="208" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38" t="s">
         <v>302</v>
       </c>
@@ -14551,7 +14551,7 @@
       <c r="AH208" s="2"/>
       <c r="AI208" s="2"/>
     </row>
-    <row r="209" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="38" t="s">
         <v>303</v>
       </c>
@@ -14606,7 +14606,7 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
     </row>
-    <row r="210" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="38" t="s">
         <v>304</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
     </row>
-    <row r="211" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38" t="s">
         <v>659</v>
       </c>
@@ -14716,7 +14716,7 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="2"/>
     </row>
-    <row r="212" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="38" t="s">
         <v>660</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="2"/>
     </row>
-    <row r="213" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="38" t="s">
         <v>661</v>
       </c>
@@ -14826,7 +14826,7 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
     </row>
-    <row r="214" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38" t="s">
         <v>662</v>
       </c>
@@ -14881,7 +14881,7 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
     </row>
-    <row r="215" spans="1:35" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="38" t="s">
         <v>663</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="AH215" s="2"/>
       <c r="AI215" s="2"/>
     </row>
-    <row r="216" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="38" t="s">
         <v>101</v>
       </c>
@@ -14991,7 +14991,7 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="2"/>
     </row>
-    <row r="217" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="38" t="s">
         <v>102</v>
       </c>
@@ -15046,7 +15046,7 @@
       <c r="AH217" s="2"/>
       <c r="AI217" s="2"/>
     </row>
-    <row r="218" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="38" t="s">
         <v>103</v>
       </c>
@@ -15101,7 +15101,7 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="2"/>
     </row>
-    <row r="219" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="38" t="s">
         <v>104</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="AH219" s="2"/>
       <c r="AI219" s="2"/>
     </row>
-    <row r="220" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="38" t="s">
         <v>105</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="2"/>
     </row>
-    <row r="221" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="38" t="s">
         <v>106</v>
       </c>
@@ -15266,7 +15266,7 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="2"/>
     </row>
-    <row r="222" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38" t="s">
         <v>107</v>
       </c>
@@ -15321,7 +15321,7 @@
       <c r="AH222" s="2"/>
       <c r="AI222" s="2"/>
     </row>
-    <row r="223" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="38" t="s">
         <v>108</v>
       </c>
@@ -15376,7 +15376,7 @@
       <c r="AH223" s="2"/>
       <c r="AI223" s="2"/>
     </row>
-    <row r="224" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="38" t="s">
         <v>109</v>
       </c>
@@ -15431,7 +15431,7 @@
       <c r="AH224" s="2"/>
       <c r="AI224" s="2"/>
     </row>
-    <row r="225" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38" t="s">
         <v>110</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AH225" s="2"/>
       <c r="AI225" s="2"/>
     </row>
-    <row r="226" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="38" t="s">
         <v>111</v>
       </c>
@@ -15541,7 +15541,7 @@
       <c r="AH226" s="2"/>
       <c r="AI226" s="2"/>
     </row>
-    <row r="227" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="38" t="s">
         <v>112</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="AH227" s="2"/>
       <c r="AI227" s="2"/>
     </row>
-    <row r="228" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="s">
         <v>113</v>
       </c>
@@ -15651,7 +15651,7 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="2"/>
     </row>
-    <row r="229" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="38" t="s">
         <v>114</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="2"/>
     </row>
-    <row r="230" spans="1:35" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
         <v>117</v>
       </c>
@@ -37918,9 +37918,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K230" xr:uid="{9B09EF96-6B35-4058-8000-06B240707A54}">
-    <filterColumn colId="5">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Establish Routine"/>
+        <filter val="Additional Terms"/>
       </filters>
     </filterColumn>
   </autoFilter>
